--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7796D-BF0C-4803-89FE-1E5A401CA68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7046AE1B-143B-405A-98D7-9C68734AF2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14385" yWindow="2715" windowWidth="6930" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="161">
   <si>
     <t>Database Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
     <t>Starts with the letter S</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>A name describing the location of settlement</t>
   </si>
   <si>
-    <t>A number describing how many people must be present</t>
-  </si>
-  <si>
     <t>tinyint()</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Starts with S</t>
   </si>
   <si>
-    <t>ID from inventory table</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>Check it starts with T and is integer</t>
   </si>
   <si>
-    <t>ItemID</t>
-  </si>
-  <si>
     <t>PeopleID</t>
   </si>
   <si>
@@ -324,15 +312,6 @@
     <t>PeopleJobs</t>
   </si>
   <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>The ID for item</t>
-  </si>
-  <si>
-    <t>Foreign Key to Items table</t>
-  </si>
-  <si>
     <t>WeaponPrice</t>
   </si>
   <si>
@@ -363,12 +342,6 @@
     <t>Check it starts with I</t>
   </si>
   <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>Type of item</t>
-  </si>
-  <si>
     <t>Missions</t>
   </si>
   <si>
@@ -454,6 +427,96 @@
   </si>
   <si>
     <t>Check that its in between 0 and 10</t>
+  </si>
+  <si>
+    <t>A number describing minimum number of people that must be present</t>
+  </si>
+  <si>
+    <t>InventoryDescription</t>
+  </si>
+  <si>
+    <t>InvID</t>
+  </si>
+  <si>
+    <t>The ID for the inventory item</t>
+  </si>
+  <si>
+    <t>InvDescription</t>
+  </si>
+  <si>
+    <t>Description of the item</t>
+  </si>
+  <si>
+    <t>InvPrice</t>
+  </si>
+  <si>
+    <t>Price of the item</t>
+  </si>
+  <si>
+    <t>ID from InventoryDescription table</t>
+  </si>
+  <si>
+    <t>WeaponID</t>
+  </si>
+  <si>
+    <t>Primary key got the weapon</t>
+  </si>
+  <si>
+    <t>Check it starts with W</t>
+  </si>
+  <si>
+    <t>FoodID</t>
+  </si>
+  <si>
+    <t>Primary key for the food</t>
+  </si>
+  <si>
+    <t>Check it starts with F</t>
+  </si>
+  <si>
+    <t>VehicleID</t>
+  </si>
+  <si>
+    <t>Primary key for the vehicles</t>
+  </si>
+  <si>
+    <t>Check it starts with V</t>
+  </si>
+  <si>
+    <t>MedicineID</t>
+  </si>
+  <si>
+    <t>Primary key for the medicine</t>
+  </si>
+  <si>
+    <t>Check it starts with M</t>
+  </si>
+  <si>
+    <t>HousingID</t>
+  </si>
+  <si>
+    <t>Primary key for the housing</t>
+  </si>
+  <si>
+    <t>Check it starts with H</t>
+  </si>
+  <si>
+    <t>Foreign key from weapons table</t>
+  </si>
+  <si>
+    <t>Can be</t>
+  </si>
+  <si>
+    <t>Foreign key from food table</t>
+  </si>
+  <si>
+    <t>Foreign key from vehicle table</t>
+  </si>
+  <si>
+    <t>Foreign key from medicine table</t>
+  </si>
+  <si>
+    <t>Foreign key from housing table</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1719,7 +1782,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44511.333000694445</v>
+        <v>44536.783334490741</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1731,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
@@ -1779,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>14</v>
@@ -1788,14 +1851,14 @@
         <v>15</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="63" t="s">
@@ -1805,10 +1868,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="63"/>
       <c r="B7" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>18</v>
@@ -1829,23 +1892,23 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="63" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1858,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -1906,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -1915,14 +1978,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71" t="s">
@@ -1932,10 +1995,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>17</v>
@@ -1956,10 +2019,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>17</v>
@@ -1980,13 +2043,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
@@ -2005,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2050,19 +2113,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D21" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
@@ -2076,19 +2139,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
@@ -2107,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -2155,23 +2218,23 @@
         <v>13</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="45" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45" t="s">
@@ -2181,10 +2244,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>17</v>
@@ -2205,13 +2268,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C29" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>137</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -2220,8 +2283,8 @@
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
-        <v>22</v>
+      <c r="J29" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2287,19 +2350,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
@@ -2307,25 +2370,25 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>22</v>
+      <c r="J34" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
@@ -2333,20 +2396,20 @@
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>22</v>
+      <c r="J35" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2355,8 +2418,8 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>22</v>
+      <c r="J36" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2365,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2413,889 +2476,899 @@
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>22</v>
+      <c r="J41" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11" t="s">
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="F48" s="13"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>22</v>
+      <c r="J48" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="B49" s="11" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F49" s="12"/>
       <c r="G49" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="J49" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="11" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="17"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="B60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="11" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="11" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="B67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J68" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="11" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="11"/>
+      <c r="H69" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="B74" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J75" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="11" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="11" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="11"/>
+      <c r="H76" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="21"/>
-    </row>
-    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="B81" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="11" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="11" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="60"/>
-    </row>
-    <row r="88" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="56" t="s">
+      <c r="B88" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+    </row>
+    <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B89" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C89" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D89" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="51" t="s">
+      <c r="E89" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="51" t="s">
+      <c r="F89" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="51" t="s">
+      <c r="G89" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="51" t="s">
+      <c r="H89" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="51" t="s">
+      <c r="I89" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J88" s="51" t="s">
+      <c r="J89" s="51" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="E90" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="54"/>
       <c r="G90" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="H90" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="I90" s="52"/>
       <c r="J90" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>130</v>
+      <c r="A91" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="52" t="s">
         <v>16</v>
       </c>
@@ -3303,13 +3376,13 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="57" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E92" s="57"/>
       <c r="F92" s="57"/>
@@ -3322,96 +3395,94 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="B96" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J97" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -3420,391 +3491,503 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>89</v>
+      <c r="A99" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="82"/>
+      <c r="J103" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B107" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38" t="s">
+      <c r="F109" s="36"/>
+      <c r="G109" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="31"/>
+    </row>
+    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B115" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C115" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D115" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E115" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="F115" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G115" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H115" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I103" s="33" t="s">
+      <c r="I115" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J103" s="33" t="s">
+      <c r="J115" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="82" t="s">
+      <c r="B116" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F104" s="36"/>
-      <c r="G104" s="34" t="s">
+      <c r="E116" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" s="26"/>
+      <c r="G116" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="34" t="s">
+      <c r="H116" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="34" t="s">
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="31"/>
-    </row>
-    <row r="110" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="24" t="s">
+      <c r="B119" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="88"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="88"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="88"/>
-      <c r="J117" s="89"/>
-    </row>
-    <row r="118" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" s="83" t="s">
-        <v>122</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="82" t="s">
+      <c r="E119" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" s="26"/>
+      <c r="G119" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="82"/>
-      <c r="I119" s="82"/>
-      <c r="J119" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B120" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="82" t="s">
+      <c r="H119" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="88"/>
+      <c r="J122" s="89"/>
+    </row>
+    <row r="123" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="83"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="82" t="s">
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82" t="s">
+      <c r="H124" s="82"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="83"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3814,31 +3997,16 @@
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65489:F65504 WVO982992:WVP983007 WLS982992:WLT983007 WBW982992:WBX983007 VSA982992:VSB983007 VIE982992:VIF983007 UYI982992:UYJ983007 UOM982992:UON983007 UEQ982992:UER983007 TUU982992:TUV983007 TKY982992:TKZ983007 TBC982992:TBD983007 SRG982992:SRH983007 SHK982992:SHL983007 RXO982992:RXP983007 RNS982992:RNT983007 RDW982992:RDX983007 QUA982992:QUB983007 QKE982992:QKF983007 QAI982992:QAJ983007 PQM982992:PQN983007 PGQ982992:PGR983007 OWU982992:OWV983007 OMY982992:OMZ983007 ODC982992:ODD983007 NTG982992:NTH983007 NJK982992:NJL983007 MZO982992:MZP983007 MPS982992:MPT983007 MFW982992:MFX983007 LWA982992:LWB983007 LME982992:LMF983007 LCI982992:LCJ983007 KSM982992:KSN983007 KIQ982992:KIR983007 JYU982992:JYV983007 JOY982992:JOZ983007 JFC982992:JFD983007 IVG982992:IVH983007 ILK982992:ILL983007 IBO982992:IBP983007 HRS982992:HRT983007 HHW982992:HHX983007 GYA982992:GYB983007 GOE982992:GOF983007 GEI982992:GEJ983007 FUM982992:FUN983007 FKQ982992:FKR983007 FAU982992:FAV983007 EQY982992:EQZ983007 EHC982992:EHD983007 DXG982992:DXH983007 DNK982992:DNL983007 DDO982992:DDP983007 CTS982992:CTT983007 CJW982992:CJX983007 CAA982992:CAB983007 BQE982992:BQF983007 BGI982992:BGJ983007 AWM982992:AWN983007 AMQ982992:AMR983007 ACU982992:ACV983007 SY982992:SZ983007 JC982992:JD983007 F982993:F983008 WVO917456:WVP917471 WLS917456:WLT917471 WBW917456:WBX917471 VSA917456:VSB917471 VIE917456:VIF917471 UYI917456:UYJ917471 UOM917456:UON917471 UEQ917456:UER917471 TUU917456:TUV917471 TKY917456:TKZ917471 TBC917456:TBD917471 SRG917456:SRH917471 SHK917456:SHL917471 RXO917456:RXP917471 RNS917456:RNT917471 RDW917456:RDX917471 QUA917456:QUB917471 QKE917456:QKF917471 QAI917456:QAJ917471 PQM917456:PQN917471 PGQ917456:PGR917471 OWU917456:OWV917471 OMY917456:OMZ917471 ODC917456:ODD917471 NTG917456:NTH917471 NJK917456:NJL917471 MZO917456:MZP917471 MPS917456:MPT917471 MFW917456:MFX917471 LWA917456:LWB917471 LME917456:LMF917471 LCI917456:LCJ917471 KSM917456:KSN917471 KIQ917456:KIR917471 JYU917456:JYV917471 JOY917456:JOZ917471 JFC917456:JFD917471 IVG917456:IVH917471 ILK917456:ILL917471 IBO917456:IBP917471 HRS917456:HRT917471 HHW917456:HHX917471 GYA917456:GYB917471 GOE917456:GOF917471 GEI917456:GEJ917471 FUM917456:FUN917471 FKQ917456:FKR917471 FAU917456:FAV917471 EQY917456:EQZ917471 EHC917456:EHD917471 DXG917456:DXH917471 DNK917456:DNL917471 DDO917456:DDP917471 CTS917456:CTT917471 CJW917456:CJX917471 CAA917456:CAB917471 BQE917456:BQF917471 BGI917456:BGJ917471 AWM917456:AWN917471 AMQ917456:AMR917471 ACU917456:ACV917471 SY917456:SZ917471 JC917456:JD917471 F917457:F917472 WVO851920:WVP851935 WLS851920:WLT851935 WBW851920:WBX851935 VSA851920:VSB851935 VIE851920:VIF851935 UYI851920:UYJ851935 UOM851920:UON851935 UEQ851920:UER851935 TUU851920:TUV851935 TKY851920:TKZ851935 TBC851920:TBD851935 SRG851920:SRH851935 SHK851920:SHL851935 RXO851920:RXP851935 RNS851920:RNT851935 RDW851920:RDX851935 QUA851920:QUB851935 QKE851920:QKF851935 QAI851920:QAJ851935 PQM851920:PQN851935 PGQ851920:PGR851935 OWU851920:OWV851935 OMY851920:OMZ851935 ODC851920:ODD851935 NTG851920:NTH851935 NJK851920:NJL851935 MZO851920:MZP851935 MPS851920:MPT851935 MFW851920:MFX851935 LWA851920:LWB851935 LME851920:LMF851935 LCI851920:LCJ851935 KSM851920:KSN851935 KIQ851920:KIR851935 JYU851920:JYV851935 JOY851920:JOZ851935 JFC851920:JFD851935 IVG851920:IVH851935 ILK851920:ILL851935 IBO851920:IBP851935 HRS851920:HRT851935 HHW851920:HHX851935 GYA851920:GYB851935 GOE851920:GOF851935 GEI851920:GEJ851935 FUM851920:FUN851935 FKQ851920:FKR851935 FAU851920:FAV851935 EQY851920:EQZ851935 EHC851920:EHD851935 DXG851920:DXH851935 DNK851920:DNL851935 DDO851920:DDP851935 CTS851920:CTT851935 CJW851920:CJX851935 CAA851920:CAB851935 BQE851920:BQF851935 BGI851920:BGJ851935 AWM851920:AWN851935 AMQ851920:AMR851935 ACU851920:ACV851935 SY851920:SZ851935 JC851920:JD851935 F851921:F851936 WVO786384:WVP786399 WLS786384:WLT786399 WBW786384:WBX786399 VSA786384:VSB786399 VIE786384:VIF786399 UYI786384:UYJ786399 UOM786384:UON786399 UEQ786384:UER786399 TUU786384:TUV786399 TKY786384:TKZ786399 TBC786384:TBD786399 SRG786384:SRH786399 SHK786384:SHL786399 RXO786384:RXP786399 RNS786384:RNT786399 RDW786384:RDX786399 QUA786384:QUB786399 QKE786384:QKF786399 QAI786384:QAJ786399 PQM786384:PQN786399 PGQ786384:PGR786399 OWU786384:OWV786399 OMY786384:OMZ786399 ODC786384:ODD786399 NTG786384:NTH786399 NJK786384:NJL786399 MZO786384:MZP786399 MPS786384:MPT786399 MFW786384:MFX786399 LWA786384:LWB786399 LME786384:LMF786399 LCI786384:LCJ786399 KSM786384:KSN786399 KIQ786384:KIR786399 JYU786384:JYV786399 JOY786384:JOZ786399 JFC786384:JFD786399 IVG786384:IVH786399 ILK786384:ILL786399 IBO786384:IBP786399 HRS786384:HRT786399 HHW786384:HHX786399 GYA786384:GYB786399 GOE786384:GOF786399 GEI786384:GEJ786399 FUM786384:FUN786399 FKQ786384:FKR786399 FAU786384:FAV786399 EQY786384:EQZ786399 EHC786384:EHD786399 DXG786384:DXH786399 DNK786384:DNL786399 DDO786384:DDP786399 CTS786384:CTT786399 CJW786384:CJX786399 CAA786384:CAB786399 BQE786384:BQF786399 BGI786384:BGJ786399 AWM786384:AWN786399 AMQ786384:AMR786399 ACU786384:ACV786399 SY786384:SZ786399 JC786384:JD786399 F786385:F786400 WVO720848:WVP720863 WLS720848:WLT720863 WBW720848:WBX720863 VSA720848:VSB720863 VIE720848:VIF720863 UYI720848:UYJ720863 UOM720848:UON720863 UEQ720848:UER720863 TUU720848:TUV720863 TKY720848:TKZ720863 TBC720848:TBD720863 SRG720848:SRH720863 SHK720848:SHL720863 RXO720848:RXP720863 RNS720848:RNT720863 RDW720848:RDX720863 QUA720848:QUB720863 QKE720848:QKF720863 QAI720848:QAJ720863 PQM720848:PQN720863 PGQ720848:PGR720863 OWU720848:OWV720863 OMY720848:OMZ720863 ODC720848:ODD720863 NTG720848:NTH720863 NJK720848:NJL720863 MZO720848:MZP720863 MPS720848:MPT720863 MFW720848:MFX720863 LWA720848:LWB720863 LME720848:LMF720863 LCI720848:LCJ720863 KSM720848:KSN720863 KIQ720848:KIR720863 JYU720848:JYV720863 JOY720848:JOZ720863 JFC720848:JFD720863 IVG720848:IVH720863 ILK720848:ILL720863 IBO720848:IBP720863 HRS720848:HRT720863 HHW720848:HHX720863 GYA720848:GYB720863 GOE720848:GOF720863 GEI720848:GEJ720863 FUM720848:FUN720863 FKQ720848:FKR720863 FAU720848:FAV720863 EQY720848:EQZ720863 EHC720848:EHD720863 DXG720848:DXH720863 DNK720848:DNL720863 DDO720848:DDP720863 CTS720848:CTT720863 CJW720848:CJX720863 CAA720848:CAB720863 BQE720848:BQF720863 BGI720848:BGJ720863 AWM720848:AWN720863 AMQ720848:AMR720863 ACU720848:ACV720863 SY720848:SZ720863 JC720848:JD720863 F720849:F720864 WVO655312:WVP655327 WLS655312:WLT655327 WBW655312:WBX655327 VSA655312:VSB655327 VIE655312:VIF655327 UYI655312:UYJ655327 UOM655312:UON655327 UEQ655312:UER655327 TUU655312:TUV655327 TKY655312:TKZ655327 TBC655312:TBD655327 SRG655312:SRH655327 SHK655312:SHL655327 RXO655312:RXP655327 RNS655312:RNT655327 RDW655312:RDX655327 QUA655312:QUB655327 QKE655312:QKF655327 QAI655312:QAJ655327 PQM655312:PQN655327 PGQ655312:PGR655327 OWU655312:OWV655327 OMY655312:OMZ655327 ODC655312:ODD655327 NTG655312:NTH655327 NJK655312:NJL655327 MZO655312:MZP655327 MPS655312:MPT655327 MFW655312:MFX655327 LWA655312:LWB655327 LME655312:LMF655327 LCI655312:LCJ655327 KSM655312:KSN655327 KIQ655312:KIR655327 JYU655312:JYV655327 JOY655312:JOZ655327 JFC655312:JFD655327 IVG655312:IVH655327 ILK655312:ILL655327 IBO655312:IBP655327 HRS655312:HRT655327 HHW655312:HHX655327 GYA655312:GYB655327 GOE655312:GOF655327 GEI655312:GEJ655327 FUM655312:FUN655327 FKQ655312:FKR655327 FAU655312:FAV655327 EQY655312:EQZ655327 EHC655312:EHD655327 DXG655312:DXH655327 DNK655312:DNL655327 DDO655312:DDP655327 CTS655312:CTT655327 CJW655312:CJX655327 CAA655312:CAB655327 BQE655312:BQF655327 BGI655312:BGJ655327 AWM655312:AWN655327 AMQ655312:AMR655327 ACU655312:ACV655327 SY655312:SZ655327 JC655312:JD655327 F655313:F655328 WVO589776:WVP589791 WLS589776:WLT589791 WBW589776:WBX589791 VSA589776:VSB589791 VIE589776:VIF589791 UYI589776:UYJ589791 UOM589776:UON589791 UEQ589776:UER589791 TUU589776:TUV589791 TKY589776:TKZ589791 TBC589776:TBD589791 SRG589776:SRH589791 SHK589776:SHL589791 RXO589776:RXP589791 RNS589776:RNT589791 RDW589776:RDX589791 QUA589776:QUB589791 QKE589776:QKF589791 QAI589776:QAJ589791 PQM589776:PQN589791 PGQ589776:PGR589791 OWU589776:OWV589791 OMY589776:OMZ589791 ODC589776:ODD589791 NTG589776:NTH589791 NJK589776:NJL589791 MZO589776:MZP589791 MPS589776:MPT589791 MFW589776:MFX589791 LWA589776:LWB589791 LME589776:LMF589791 LCI589776:LCJ589791 KSM589776:KSN589791 KIQ589776:KIR589791 JYU589776:JYV589791 JOY589776:JOZ589791 JFC589776:JFD589791 IVG589776:IVH589791 ILK589776:ILL589791 IBO589776:IBP589791 HRS589776:HRT589791 HHW589776:HHX589791 GYA589776:GYB589791 GOE589776:GOF589791 GEI589776:GEJ589791 FUM589776:FUN589791 FKQ589776:FKR589791 FAU589776:FAV589791 EQY589776:EQZ589791 EHC589776:EHD589791 DXG589776:DXH589791 DNK589776:DNL589791 DDO589776:DDP589791 CTS589776:CTT589791 CJW589776:CJX589791 CAA589776:CAB589791 BQE589776:BQF589791 BGI589776:BGJ589791 AWM589776:AWN589791 AMQ589776:AMR589791 ACU589776:ACV589791 SY589776:SZ589791 JC589776:JD589791 F589777:F589792 WVO524240:WVP524255 WLS524240:WLT524255 WBW524240:WBX524255 VSA524240:VSB524255 VIE524240:VIF524255 UYI524240:UYJ524255 UOM524240:UON524255 UEQ524240:UER524255 TUU524240:TUV524255 TKY524240:TKZ524255 TBC524240:TBD524255 SRG524240:SRH524255 SHK524240:SHL524255 RXO524240:RXP524255 RNS524240:RNT524255 RDW524240:RDX524255 QUA524240:QUB524255 QKE524240:QKF524255 QAI524240:QAJ524255 PQM524240:PQN524255 PGQ524240:PGR524255 OWU524240:OWV524255 OMY524240:OMZ524255 ODC524240:ODD524255 NTG524240:NTH524255 NJK524240:NJL524255 MZO524240:MZP524255 MPS524240:MPT524255 MFW524240:MFX524255 LWA524240:LWB524255 LME524240:LMF524255 LCI524240:LCJ524255 KSM524240:KSN524255 KIQ524240:KIR524255 JYU524240:JYV524255 JOY524240:JOZ524255 JFC524240:JFD524255 IVG524240:IVH524255 ILK524240:ILL524255 IBO524240:IBP524255 HRS524240:HRT524255 HHW524240:HHX524255 GYA524240:GYB524255 GOE524240:GOF524255 GEI524240:GEJ524255 FUM524240:FUN524255 FKQ524240:FKR524255 FAU524240:FAV524255 EQY524240:EQZ524255 EHC524240:EHD524255 DXG524240:DXH524255 DNK524240:DNL524255 DDO524240:DDP524255 CTS524240:CTT524255 CJW524240:CJX524255 CAA524240:CAB524255 BQE524240:BQF524255 BGI524240:BGJ524255 AWM524240:AWN524255 AMQ524240:AMR524255 ACU524240:ACV524255 SY524240:SZ524255 JC524240:JD524255 F524241:F524256 WVO458704:WVP458719 WLS458704:WLT458719 WBW458704:WBX458719 VSA458704:VSB458719 VIE458704:VIF458719 UYI458704:UYJ458719 UOM458704:UON458719 UEQ458704:UER458719 TUU458704:TUV458719 TKY458704:TKZ458719 TBC458704:TBD458719 SRG458704:SRH458719 SHK458704:SHL458719 RXO458704:RXP458719 RNS458704:RNT458719 RDW458704:RDX458719 QUA458704:QUB458719 QKE458704:QKF458719 QAI458704:QAJ458719 PQM458704:PQN458719 PGQ458704:PGR458719 OWU458704:OWV458719 OMY458704:OMZ458719 ODC458704:ODD458719 NTG458704:NTH458719 NJK458704:NJL458719 MZO458704:MZP458719 MPS458704:MPT458719 MFW458704:MFX458719 LWA458704:LWB458719 LME458704:LMF458719 LCI458704:LCJ458719 KSM458704:KSN458719 KIQ458704:KIR458719 JYU458704:JYV458719 JOY458704:JOZ458719 JFC458704:JFD458719 IVG458704:IVH458719 ILK458704:ILL458719 IBO458704:IBP458719 HRS458704:HRT458719 HHW458704:HHX458719 GYA458704:GYB458719 GOE458704:GOF458719 GEI458704:GEJ458719 FUM458704:FUN458719 FKQ458704:FKR458719 FAU458704:FAV458719 EQY458704:EQZ458719 EHC458704:EHD458719 DXG458704:DXH458719 DNK458704:DNL458719 DDO458704:DDP458719 CTS458704:CTT458719 CJW458704:CJX458719 CAA458704:CAB458719 BQE458704:BQF458719 BGI458704:BGJ458719 AWM458704:AWN458719 AMQ458704:AMR458719 ACU458704:ACV458719 SY458704:SZ458719 JC458704:JD458719 F458705:F458720 WVO393168:WVP393183 WLS393168:WLT393183 WBW393168:WBX393183 VSA393168:VSB393183 VIE393168:VIF393183 UYI393168:UYJ393183 UOM393168:UON393183 UEQ393168:UER393183 TUU393168:TUV393183 TKY393168:TKZ393183 TBC393168:TBD393183 SRG393168:SRH393183 SHK393168:SHL393183 RXO393168:RXP393183 RNS393168:RNT393183 RDW393168:RDX393183 QUA393168:QUB393183 QKE393168:QKF393183 QAI393168:QAJ393183 PQM393168:PQN393183 PGQ393168:PGR393183 OWU393168:OWV393183 OMY393168:OMZ393183 ODC393168:ODD393183 NTG393168:NTH393183 NJK393168:NJL393183 MZO393168:MZP393183 MPS393168:MPT393183 MFW393168:MFX393183 LWA393168:LWB393183 LME393168:LMF393183 LCI393168:LCJ393183 KSM393168:KSN393183 KIQ393168:KIR393183 JYU393168:JYV393183 JOY393168:JOZ393183 JFC393168:JFD393183 IVG393168:IVH393183 ILK393168:ILL393183 IBO393168:IBP393183 HRS393168:HRT393183 HHW393168:HHX393183 GYA393168:GYB393183 GOE393168:GOF393183 GEI393168:GEJ393183 FUM393168:FUN393183 FKQ393168:FKR393183 FAU393168:FAV393183 EQY393168:EQZ393183 EHC393168:EHD393183 DXG393168:DXH393183 DNK393168:DNL393183 DDO393168:DDP393183 CTS393168:CTT393183 CJW393168:CJX393183 CAA393168:CAB393183 BQE393168:BQF393183 BGI393168:BGJ393183 AWM393168:AWN393183 AMQ393168:AMR393183 ACU393168:ACV393183 SY393168:SZ393183 JC393168:JD393183 F393169:F393184 WVO327632:WVP327647 WLS327632:WLT327647 WBW327632:WBX327647 VSA327632:VSB327647 VIE327632:VIF327647 UYI327632:UYJ327647 UOM327632:UON327647 UEQ327632:UER327647 TUU327632:TUV327647 TKY327632:TKZ327647 TBC327632:TBD327647 SRG327632:SRH327647 SHK327632:SHL327647 RXO327632:RXP327647 RNS327632:RNT327647 RDW327632:RDX327647 QUA327632:QUB327647 QKE327632:QKF327647 QAI327632:QAJ327647 PQM327632:PQN327647 PGQ327632:PGR327647 OWU327632:OWV327647 OMY327632:OMZ327647 ODC327632:ODD327647 NTG327632:NTH327647 NJK327632:NJL327647 MZO327632:MZP327647 MPS327632:MPT327647 MFW327632:MFX327647 LWA327632:LWB327647 LME327632:LMF327647 LCI327632:LCJ327647 KSM327632:KSN327647 KIQ327632:KIR327647 JYU327632:JYV327647 JOY327632:JOZ327647 JFC327632:JFD327647 IVG327632:IVH327647 ILK327632:ILL327647 IBO327632:IBP327647 HRS327632:HRT327647 HHW327632:HHX327647 GYA327632:GYB327647 GOE327632:GOF327647 GEI327632:GEJ327647 FUM327632:FUN327647 FKQ327632:FKR327647 FAU327632:FAV327647 EQY327632:EQZ327647 EHC327632:EHD327647 DXG327632:DXH327647 DNK327632:DNL327647 DDO327632:DDP327647 CTS327632:CTT327647 CJW327632:CJX327647 CAA327632:CAB327647 BQE327632:BQF327647 BGI327632:BGJ327647 AWM327632:AWN327647 AMQ327632:AMR327647 ACU327632:ACV327647 SY327632:SZ327647 JC327632:JD327647 F327633:F327648 WVO262096:WVP262111 WLS262096:WLT262111 WBW262096:WBX262111 VSA262096:VSB262111 VIE262096:VIF262111 UYI262096:UYJ262111 UOM262096:UON262111 UEQ262096:UER262111 TUU262096:TUV262111 TKY262096:TKZ262111 TBC262096:TBD262111 SRG262096:SRH262111 SHK262096:SHL262111 RXO262096:RXP262111 RNS262096:RNT262111 RDW262096:RDX262111 QUA262096:QUB262111 QKE262096:QKF262111 QAI262096:QAJ262111 PQM262096:PQN262111 PGQ262096:PGR262111 OWU262096:OWV262111 OMY262096:OMZ262111 ODC262096:ODD262111 NTG262096:NTH262111 NJK262096:NJL262111 MZO262096:MZP262111 MPS262096:MPT262111 MFW262096:MFX262111 LWA262096:LWB262111 LME262096:LMF262111 LCI262096:LCJ262111 KSM262096:KSN262111 KIQ262096:KIR262111 JYU262096:JYV262111 JOY262096:JOZ262111 JFC262096:JFD262111 IVG262096:IVH262111 ILK262096:ILL262111 IBO262096:IBP262111 HRS262096:HRT262111 HHW262096:HHX262111 GYA262096:GYB262111 GOE262096:GOF262111 GEI262096:GEJ262111 FUM262096:FUN262111 FKQ262096:FKR262111 FAU262096:FAV262111 EQY262096:EQZ262111 EHC262096:EHD262111 DXG262096:DXH262111 DNK262096:DNL262111 DDO262096:DDP262111 CTS262096:CTT262111 CJW262096:CJX262111 CAA262096:CAB262111 BQE262096:BQF262111 BGI262096:BGJ262111 AWM262096:AWN262111 AMQ262096:AMR262111 ACU262096:ACV262111 SY262096:SZ262111 JC262096:JD262111 F262097:F262112 WVO196560:WVP196575 WLS196560:WLT196575 WBW196560:WBX196575 VSA196560:VSB196575 VIE196560:VIF196575 UYI196560:UYJ196575 UOM196560:UON196575 UEQ196560:UER196575 TUU196560:TUV196575 TKY196560:TKZ196575 TBC196560:TBD196575 SRG196560:SRH196575 SHK196560:SHL196575 RXO196560:RXP196575 RNS196560:RNT196575 RDW196560:RDX196575 QUA196560:QUB196575 QKE196560:QKF196575 QAI196560:QAJ196575 PQM196560:PQN196575 PGQ196560:PGR196575 OWU196560:OWV196575 OMY196560:OMZ196575 ODC196560:ODD196575 NTG196560:NTH196575 NJK196560:NJL196575 MZO196560:MZP196575 MPS196560:MPT196575 MFW196560:MFX196575 LWA196560:LWB196575 LME196560:LMF196575 LCI196560:LCJ196575 KSM196560:KSN196575 KIQ196560:KIR196575 JYU196560:JYV196575 JOY196560:JOZ196575 JFC196560:JFD196575 IVG196560:IVH196575 ILK196560:ILL196575 IBO196560:IBP196575 HRS196560:HRT196575 HHW196560:HHX196575 GYA196560:GYB196575 GOE196560:GOF196575 GEI196560:GEJ196575 FUM196560:FUN196575 FKQ196560:FKR196575 FAU196560:FAV196575 EQY196560:EQZ196575 EHC196560:EHD196575 DXG196560:DXH196575 DNK196560:DNL196575 DDO196560:DDP196575 CTS196560:CTT196575 CJW196560:CJX196575 CAA196560:CAB196575 BQE196560:BQF196575 BGI196560:BGJ196575 AWM196560:AWN196575 AMQ196560:AMR196575 ACU196560:ACV196575 SY196560:SZ196575 JC196560:JD196575 F196561:F196576 WVO131024:WVP131039 WLS131024:WLT131039 WBW131024:WBX131039 VSA131024:VSB131039 VIE131024:VIF131039 UYI131024:UYJ131039 UOM131024:UON131039 UEQ131024:UER131039 TUU131024:TUV131039 TKY131024:TKZ131039 TBC131024:TBD131039 SRG131024:SRH131039 SHK131024:SHL131039 RXO131024:RXP131039 RNS131024:RNT131039 RDW131024:RDX131039 QUA131024:QUB131039 QKE131024:QKF131039 QAI131024:QAJ131039 PQM131024:PQN131039 PGQ131024:PGR131039 OWU131024:OWV131039 OMY131024:OMZ131039 ODC131024:ODD131039 NTG131024:NTH131039 NJK131024:NJL131039 MZO131024:MZP131039 MPS131024:MPT131039 MFW131024:MFX131039 LWA131024:LWB131039 LME131024:LMF131039 LCI131024:LCJ131039 KSM131024:KSN131039 KIQ131024:KIR131039 JYU131024:JYV131039 JOY131024:JOZ131039 JFC131024:JFD131039 IVG131024:IVH131039 ILK131024:ILL131039 IBO131024:IBP131039 HRS131024:HRT131039 HHW131024:HHX131039 GYA131024:GYB131039 GOE131024:GOF131039 GEI131024:GEJ131039 FUM131024:FUN131039 FKQ131024:FKR131039 FAU131024:FAV131039 EQY131024:EQZ131039 EHC131024:EHD131039 DXG131024:DXH131039 DNK131024:DNL131039 DDO131024:DDP131039 CTS131024:CTT131039 CJW131024:CJX131039 CAA131024:CAB131039 BQE131024:BQF131039 BGI131024:BGJ131039 AWM131024:AWN131039 AMQ131024:AMR131039 ACU131024:ACV131039 SY131024:SZ131039 JC131024:JD131039 F131025:F131040 WVO65488:WVP65503 WLS65488:WLT65503 WBW65488:WBX65503 VSA65488:VSB65503 VIE65488:VIF65503 UYI65488:UYJ65503 UOM65488:UON65503 UEQ65488:UER65503 TUU65488:TUV65503 TKY65488:TKZ65503 TBC65488:TBD65503 SRG65488:SRH65503 SHK65488:SHL65503 RXO65488:RXP65503 RNS65488:RNT65503 RDW65488:RDX65503 QUA65488:QUB65503 QKE65488:QKF65503 QAI65488:QAJ65503 PQM65488:PQN65503 PGQ65488:PGR65503 OWU65488:OWV65503 OMY65488:OMZ65503 ODC65488:ODD65503 NTG65488:NTH65503 NJK65488:NJL65503 MZO65488:MZP65503 MPS65488:MPT65503 MFW65488:MFX65503 LWA65488:LWB65503 LME65488:LMF65503 LCI65488:LCJ65503 KSM65488:KSN65503 KIQ65488:KIR65503 JYU65488:JYV65503 JOY65488:JOZ65503 JFC65488:JFD65503 IVG65488:IVH65503 ILK65488:ILL65503 IBO65488:IBP65503 HRS65488:HRT65503 HHW65488:HHX65503 GYA65488:GYB65503 GOE65488:GOF65503 GEI65488:GEJ65503 FUM65488:FUN65503 FKQ65488:FKR65503 FAU65488:FAV65503 EQY65488:EQZ65503 EHC65488:EHD65503 DXG65488:DXH65503 DNK65488:DNL65503 DDO65488:DDP65503 CTS65488:CTT65503 CJW65488:CJX65503 CAA65488:CAB65503 BQE65488:BQF65503 BGI65488:BGJ65503 AWM65488:AWN65503 AMQ65488:AMR65503 ACU65488:ACV65503 SY65488:SZ65503 JC65488:JD65503 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65494:F65509 WVO982997:WVP983012 WLS982997:WLT983012 WBW982997:WBX983012 VSA982997:VSB983012 VIE982997:VIF983012 UYI982997:UYJ983012 UOM982997:UON983012 UEQ982997:UER983012 TUU982997:TUV983012 TKY982997:TKZ983012 TBC982997:TBD983012 SRG982997:SRH983012 SHK982997:SHL983012 RXO982997:RXP983012 RNS982997:RNT983012 RDW982997:RDX983012 QUA982997:QUB983012 QKE982997:QKF983012 QAI982997:QAJ983012 PQM982997:PQN983012 PGQ982997:PGR983012 OWU982997:OWV983012 OMY982997:OMZ983012 ODC982997:ODD983012 NTG982997:NTH983012 NJK982997:NJL983012 MZO982997:MZP983012 MPS982997:MPT983012 MFW982997:MFX983012 LWA982997:LWB983012 LME982997:LMF983012 LCI982997:LCJ983012 KSM982997:KSN983012 KIQ982997:KIR983012 JYU982997:JYV983012 JOY982997:JOZ983012 JFC982997:JFD983012 IVG982997:IVH983012 ILK982997:ILL983012 IBO982997:IBP983012 HRS982997:HRT983012 HHW982997:HHX983012 GYA982997:GYB983012 GOE982997:GOF983012 GEI982997:GEJ983012 FUM982997:FUN983012 FKQ982997:FKR983012 FAU982997:FAV983012 EQY982997:EQZ983012 EHC982997:EHD983012 DXG982997:DXH983012 DNK982997:DNL983012 DDO982997:DDP983012 CTS982997:CTT983012 CJW982997:CJX983012 CAA982997:CAB983012 BQE982997:BQF983012 BGI982997:BGJ983012 AWM982997:AWN983012 AMQ982997:AMR983012 ACU982997:ACV983012 SY982997:SZ983012 JC982997:JD983012 F982998:F983013 WVO917461:WVP917476 WLS917461:WLT917476 WBW917461:WBX917476 VSA917461:VSB917476 VIE917461:VIF917476 UYI917461:UYJ917476 UOM917461:UON917476 UEQ917461:UER917476 TUU917461:TUV917476 TKY917461:TKZ917476 TBC917461:TBD917476 SRG917461:SRH917476 SHK917461:SHL917476 RXO917461:RXP917476 RNS917461:RNT917476 RDW917461:RDX917476 QUA917461:QUB917476 QKE917461:QKF917476 QAI917461:QAJ917476 PQM917461:PQN917476 PGQ917461:PGR917476 OWU917461:OWV917476 OMY917461:OMZ917476 ODC917461:ODD917476 NTG917461:NTH917476 NJK917461:NJL917476 MZO917461:MZP917476 MPS917461:MPT917476 MFW917461:MFX917476 LWA917461:LWB917476 LME917461:LMF917476 LCI917461:LCJ917476 KSM917461:KSN917476 KIQ917461:KIR917476 JYU917461:JYV917476 JOY917461:JOZ917476 JFC917461:JFD917476 IVG917461:IVH917476 ILK917461:ILL917476 IBO917461:IBP917476 HRS917461:HRT917476 HHW917461:HHX917476 GYA917461:GYB917476 GOE917461:GOF917476 GEI917461:GEJ917476 FUM917461:FUN917476 FKQ917461:FKR917476 FAU917461:FAV917476 EQY917461:EQZ917476 EHC917461:EHD917476 DXG917461:DXH917476 DNK917461:DNL917476 DDO917461:DDP917476 CTS917461:CTT917476 CJW917461:CJX917476 CAA917461:CAB917476 BQE917461:BQF917476 BGI917461:BGJ917476 AWM917461:AWN917476 AMQ917461:AMR917476 ACU917461:ACV917476 SY917461:SZ917476 JC917461:JD917476 F917462:F917477 WVO851925:WVP851940 WLS851925:WLT851940 WBW851925:WBX851940 VSA851925:VSB851940 VIE851925:VIF851940 UYI851925:UYJ851940 UOM851925:UON851940 UEQ851925:UER851940 TUU851925:TUV851940 TKY851925:TKZ851940 TBC851925:TBD851940 SRG851925:SRH851940 SHK851925:SHL851940 RXO851925:RXP851940 RNS851925:RNT851940 RDW851925:RDX851940 QUA851925:QUB851940 QKE851925:QKF851940 QAI851925:QAJ851940 PQM851925:PQN851940 PGQ851925:PGR851940 OWU851925:OWV851940 OMY851925:OMZ851940 ODC851925:ODD851940 NTG851925:NTH851940 NJK851925:NJL851940 MZO851925:MZP851940 MPS851925:MPT851940 MFW851925:MFX851940 LWA851925:LWB851940 LME851925:LMF851940 LCI851925:LCJ851940 KSM851925:KSN851940 KIQ851925:KIR851940 JYU851925:JYV851940 JOY851925:JOZ851940 JFC851925:JFD851940 IVG851925:IVH851940 ILK851925:ILL851940 IBO851925:IBP851940 HRS851925:HRT851940 HHW851925:HHX851940 GYA851925:GYB851940 GOE851925:GOF851940 GEI851925:GEJ851940 FUM851925:FUN851940 FKQ851925:FKR851940 FAU851925:FAV851940 EQY851925:EQZ851940 EHC851925:EHD851940 DXG851925:DXH851940 DNK851925:DNL851940 DDO851925:DDP851940 CTS851925:CTT851940 CJW851925:CJX851940 CAA851925:CAB851940 BQE851925:BQF851940 BGI851925:BGJ851940 AWM851925:AWN851940 AMQ851925:AMR851940 ACU851925:ACV851940 SY851925:SZ851940 JC851925:JD851940 F851926:F851941 WVO786389:WVP786404 WLS786389:WLT786404 WBW786389:WBX786404 VSA786389:VSB786404 VIE786389:VIF786404 UYI786389:UYJ786404 UOM786389:UON786404 UEQ786389:UER786404 TUU786389:TUV786404 TKY786389:TKZ786404 TBC786389:TBD786404 SRG786389:SRH786404 SHK786389:SHL786404 RXO786389:RXP786404 RNS786389:RNT786404 RDW786389:RDX786404 QUA786389:QUB786404 QKE786389:QKF786404 QAI786389:QAJ786404 PQM786389:PQN786404 PGQ786389:PGR786404 OWU786389:OWV786404 OMY786389:OMZ786404 ODC786389:ODD786404 NTG786389:NTH786404 NJK786389:NJL786404 MZO786389:MZP786404 MPS786389:MPT786404 MFW786389:MFX786404 LWA786389:LWB786404 LME786389:LMF786404 LCI786389:LCJ786404 KSM786389:KSN786404 KIQ786389:KIR786404 JYU786389:JYV786404 JOY786389:JOZ786404 JFC786389:JFD786404 IVG786389:IVH786404 ILK786389:ILL786404 IBO786389:IBP786404 HRS786389:HRT786404 HHW786389:HHX786404 GYA786389:GYB786404 GOE786389:GOF786404 GEI786389:GEJ786404 FUM786389:FUN786404 FKQ786389:FKR786404 FAU786389:FAV786404 EQY786389:EQZ786404 EHC786389:EHD786404 DXG786389:DXH786404 DNK786389:DNL786404 DDO786389:DDP786404 CTS786389:CTT786404 CJW786389:CJX786404 CAA786389:CAB786404 BQE786389:BQF786404 BGI786389:BGJ786404 AWM786389:AWN786404 AMQ786389:AMR786404 ACU786389:ACV786404 SY786389:SZ786404 JC786389:JD786404 F786390:F786405 WVO720853:WVP720868 WLS720853:WLT720868 WBW720853:WBX720868 VSA720853:VSB720868 VIE720853:VIF720868 UYI720853:UYJ720868 UOM720853:UON720868 UEQ720853:UER720868 TUU720853:TUV720868 TKY720853:TKZ720868 TBC720853:TBD720868 SRG720853:SRH720868 SHK720853:SHL720868 RXO720853:RXP720868 RNS720853:RNT720868 RDW720853:RDX720868 QUA720853:QUB720868 QKE720853:QKF720868 QAI720853:QAJ720868 PQM720853:PQN720868 PGQ720853:PGR720868 OWU720853:OWV720868 OMY720853:OMZ720868 ODC720853:ODD720868 NTG720853:NTH720868 NJK720853:NJL720868 MZO720853:MZP720868 MPS720853:MPT720868 MFW720853:MFX720868 LWA720853:LWB720868 LME720853:LMF720868 LCI720853:LCJ720868 KSM720853:KSN720868 KIQ720853:KIR720868 JYU720853:JYV720868 JOY720853:JOZ720868 JFC720853:JFD720868 IVG720853:IVH720868 ILK720853:ILL720868 IBO720853:IBP720868 HRS720853:HRT720868 HHW720853:HHX720868 GYA720853:GYB720868 GOE720853:GOF720868 GEI720853:GEJ720868 FUM720853:FUN720868 FKQ720853:FKR720868 FAU720853:FAV720868 EQY720853:EQZ720868 EHC720853:EHD720868 DXG720853:DXH720868 DNK720853:DNL720868 DDO720853:DDP720868 CTS720853:CTT720868 CJW720853:CJX720868 CAA720853:CAB720868 BQE720853:BQF720868 BGI720853:BGJ720868 AWM720853:AWN720868 AMQ720853:AMR720868 ACU720853:ACV720868 SY720853:SZ720868 JC720853:JD720868 F720854:F720869 WVO655317:WVP655332 WLS655317:WLT655332 WBW655317:WBX655332 VSA655317:VSB655332 VIE655317:VIF655332 UYI655317:UYJ655332 UOM655317:UON655332 UEQ655317:UER655332 TUU655317:TUV655332 TKY655317:TKZ655332 TBC655317:TBD655332 SRG655317:SRH655332 SHK655317:SHL655332 RXO655317:RXP655332 RNS655317:RNT655332 RDW655317:RDX655332 QUA655317:QUB655332 QKE655317:QKF655332 QAI655317:QAJ655332 PQM655317:PQN655332 PGQ655317:PGR655332 OWU655317:OWV655332 OMY655317:OMZ655332 ODC655317:ODD655332 NTG655317:NTH655332 NJK655317:NJL655332 MZO655317:MZP655332 MPS655317:MPT655332 MFW655317:MFX655332 LWA655317:LWB655332 LME655317:LMF655332 LCI655317:LCJ655332 KSM655317:KSN655332 KIQ655317:KIR655332 JYU655317:JYV655332 JOY655317:JOZ655332 JFC655317:JFD655332 IVG655317:IVH655332 ILK655317:ILL655332 IBO655317:IBP655332 HRS655317:HRT655332 HHW655317:HHX655332 GYA655317:GYB655332 GOE655317:GOF655332 GEI655317:GEJ655332 FUM655317:FUN655332 FKQ655317:FKR655332 FAU655317:FAV655332 EQY655317:EQZ655332 EHC655317:EHD655332 DXG655317:DXH655332 DNK655317:DNL655332 DDO655317:DDP655332 CTS655317:CTT655332 CJW655317:CJX655332 CAA655317:CAB655332 BQE655317:BQF655332 BGI655317:BGJ655332 AWM655317:AWN655332 AMQ655317:AMR655332 ACU655317:ACV655332 SY655317:SZ655332 JC655317:JD655332 F655318:F655333 WVO589781:WVP589796 WLS589781:WLT589796 WBW589781:WBX589796 VSA589781:VSB589796 VIE589781:VIF589796 UYI589781:UYJ589796 UOM589781:UON589796 UEQ589781:UER589796 TUU589781:TUV589796 TKY589781:TKZ589796 TBC589781:TBD589796 SRG589781:SRH589796 SHK589781:SHL589796 RXO589781:RXP589796 RNS589781:RNT589796 RDW589781:RDX589796 QUA589781:QUB589796 QKE589781:QKF589796 QAI589781:QAJ589796 PQM589781:PQN589796 PGQ589781:PGR589796 OWU589781:OWV589796 OMY589781:OMZ589796 ODC589781:ODD589796 NTG589781:NTH589796 NJK589781:NJL589796 MZO589781:MZP589796 MPS589781:MPT589796 MFW589781:MFX589796 LWA589781:LWB589796 LME589781:LMF589796 LCI589781:LCJ589796 KSM589781:KSN589796 KIQ589781:KIR589796 JYU589781:JYV589796 JOY589781:JOZ589796 JFC589781:JFD589796 IVG589781:IVH589796 ILK589781:ILL589796 IBO589781:IBP589796 HRS589781:HRT589796 HHW589781:HHX589796 GYA589781:GYB589796 GOE589781:GOF589796 GEI589781:GEJ589796 FUM589781:FUN589796 FKQ589781:FKR589796 FAU589781:FAV589796 EQY589781:EQZ589796 EHC589781:EHD589796 DXG589781:DXH589796 DNK589781:DNL589796 DDO589781:DDP589796 CTS589781:CTT589796 CJW589781:CJX589796 CAA589781:CAB589796 BQE589781:BQF589796 BGI589781:BGJ589796 AWM589781:AWN589796 AMQ589781:AMR589796 ACU589781:ACV589796 SY589781:SZ589796 JC589781:JD589796 F589782:F589797 WVO524245:WVP524260 WLS524245:WLT524260 WBW524245:WBX524260 VSA524245:VSB524260 VIE524245:VIF524260 UYI524245:UYJ524260 UOM524245:UON524260 UEQ524245:UER524260 TUU524245:TUV524260 TKY524245:TKZ524260 TBC524245:TBD524260 SRG524245:SRH524260 SHK524245:SHL524260 RXO524245:RXP524260 RNS524245:RNT524260 RDW524245:RDX524260 QUA524245:QUB524260 QKE524245:QKF524260 QAI524245:QAJ524260 PQM524245:PQN524260 PGQ524245:PGR524260 OWU524245:OWV524260 OMY524245:OMZ524260 ODC524245:ODD524260 NTG524245:NTH524260 NJK524245:NJL524260 MZO524245:MZP524260 MPS524245:MPT524260 MFW524245:MFX524260 LWA524245:LWB524260 LME524245:LMF524260 LCI524245:LCJ524260 KSM524245:KSN524260 KIQ524245:KIR524260 JYU524245:JYV524260 JOY524245:JOZ524260 JFC524245:JFD524260 IVG524245:IVH524260 ILK524245:ILL524260 IBO524245:IBP524260 HRS524245:HRT524260 HHW524245:HHX524260 GYA524245:GYB524260 GOE524245:GOF524260 GEI524245:GEJ524260 FUM524245:FUN524260 FKQ524245:FKR524260 FAU524245:FAV524260 EQY524245:EQZ524260 EHC524245:EHD524260 DXG524245:DXH524260 DNK524245:DNL524260 DDO524245:DDP524260 CTS524245:CTT524260 CJW524245:CJX524260 CAA524245:CAB524260 BQE524245:BQF524260 BGI524245:BGJ524260 AWM524245:AWN524260 AMQ524245:AMR524260 ACU524245:ACV524260 SY524245:SZ524260 JC524245:JD524260 F524246:F524261 WVO458709:WVP458724 WLS458709:WLT458724 WBW458709:WBX458724 VSA458709:VSB458724 VIE458709:VIF458724 UYI458709:UYJ458724 UOM458709:UON458724 UEQ458709:UER458724 TUU458709:TUV458724 TKY458709:TKZ458724 TBC458709:TBD458724 SRG458709:SRH458724 SHK458709:SHL458724 RXO458709:RXP458724 RNS458709:RNT458724 RDW458709:RDX458724 QUA458709:QUB458724 QKE458709:QKF458724 QAI458709:QAJ458724 PQM458709:PQN458724 PGQ458709:PGR458724 OWU458709:OWV458724 OMY458709:OMZ458724 ODC458709:ODD458724 NTG458709:NTH458724 NJK458709:NJL458724 MZO458709:MZP458724 MPS458709:MPT458724 MFW458709:MFX458724 LWA458709:LWB458724 LME458709:LMF458724 LCI458709:LCJ458724 KSM458709:KSN458724 KIQ458709:KIR458724 JYU458709:JYV458724 JOY458709:JOZ458724 JFC458709:JFD458724 IVG458709:IVH458724 ILK458709:ILL458724 IBO458709:IBP458724 HRS458709:HRT458724 HHW458709:HHX458724 GYA458709:GYB458724 GOE458709:GOF458724 GEI458709:GEJ458724 FUM458709:FUN458724 FKQ458709:FKR458724 FAU458709:FAV458724 EQY458709:EQZ458724 EHC458709:EHD458724 DXG458709:DXH458724 DNK458709:DNL458724 DDO458709:DDP458724 CTS458709:CTT458724 CJW458709:CJX458724 CAA458709:CAB458724 BQE458709:BQF458724 BGI458709:BGJ458724 AWM458709:AWN458724 AMQ458709:AMR458724 ACU458709:ACV458724 SY458709:SZ458724 JC458709:JD458724 F458710:F458725 WVO393173:WVP393188 WLS393173:WLT393188 WBW393173:WBX393188 VSA393173:VSB393188 VIE393173:VIF393188 UYI393173:UYJ393188 UOM393173:UON393188 UEQ393173:UER393188 TUU393173:TUV393188 TKY393173:TKZ393188 TBC393173:TBD393188 SRG393173:SRH393188 SHK393173:SHL393188 RXO393173:RXP393188 RNS393173:RNT393188 RDW393173:RDX393188 QUA393173:QUB393188 QKE393173:QKF393188 QAI393173:QAJ393188 PQM393173:PQN393188 PGQ393173:PGR393188 OWU393173:OWV393188 OMY393173:OMZ393188 ODC393173:ODD393188 NTG393173:NTH393188 NJK393173:NJL393188 MZO393173:MZP393188 MPS393173:MPT393188 MFW393173:MFX393188 LWA393173:LWB393188 LME393173:LMF393188 LCI393173:LCJ393188 KSM393173:KSN393188 KIQ393173:KIR393188 JYU393173:JYV393188 JOY393173:JOZ393188 JFC393173:JFD393188 IVG393173:IVH393188 ILK393173:ILL393188 IBO393173:IBP393188 HRS393173:HRT393188 HHW393173:HHX393188 GYA393173:GYB393188 GOE393173:GOF393188 GEI393173:GEJ393188 FUM393173:FUN393188 FKQ393173:FKR393188 FAU393173:FAV393188 EQY393173:EQZ393188 EHC393173:EHD393188 DXG393173:DXH393188 DNK393173:DNL393188 DDO393173:DDP393188 CTS393173:CTT393188 CJW393173:CJX393188 CAA393173:CAB393188 BQE393173:BQF393188 BGI393173:BGJ393188 AWM393173:AWN393188 AMQ393173:AMR393188 ACU393173:ACV393188 SY393173:SZ393188 JC393173:JD393188 F393174:F393189 WVO327637:WVP327652 WLS327637:WLT327652 WBW327637:WBX327652 VSA327637:VSB327652 VIE327637:VIF327652 UYI327637:UYJ327652 UOM327637:UON327652 UEQ327637:UER327652 TUU327637:TUV327652 TKY327637:TKZ327652 TBC327637:TBD327652 SRG327637:SRH327652 SHK327637:SHL327652 RXO327637:RXP327652 RNS327637:RNT327652 RDW327637:RDX327652 QUA327637:QUB327652 QKE327637:QKF327652 QAI327637:QAJ327652 PQM327637:PQN327652 PGQ327637:PGR327652 OWU327637:OWV327652 OMY327637:OMZ327652 ODC327637:ODD327652 NTG327637:NTH327652 NJK327637:NJL327652 MZO327637:MZP327652 MPS327637:MPT327652 MFW327637:MFX327652 LWA327637:LWB327652 LME327637:LMF327652 LCI327637:LCJ327652 KSM327637:KSN327652 KIQ327637:KIR327652 JYU327637:JYV327652 JOY327637:JOZ327652 JFC327637:JFD327652 IVG327637:IVH327652 ILK327637:ILL327652 IBO327637:IBP327652 HRS327637:HRT327652 HHW327637:HHX327652 GYA327637:GYB327652 GOE327637:GOF327652 GEI327637:GEJ327652 FUM327637:FUN327652 FKQ327637:FKR327652 FAU327637:FAV327652 EQY327637:EQZ327652 EHC327637:EHD327652 DXG327637:DXH327652 DNK327637:DNL327652 DDO327637:DDP327652 CTS327637:CTT327652 CJW327637:CJX327652 CAA327637:CAB327652 BQE327637:BQF327652 BGI327637:BGJ327652 AWM327637:AWN327652 AMQ327637:AMR327652 ACU327637:ACV327652 SY327637:SZ327652 JC327637:JD327652 F327638:F327653 WVO262101:WVP262116 WLS262101:WLT262116 WBW262101:WBX262116 VSA262101:VSB262116 VIE262101:VIF262116 UYI262101:UYJ262116 UOM262101:UON262116 UEQ262101:UER262116 TUU262101:TUV262116 TKY262101:TKZ262116 TBC262101:TBD262116 SRG262101:SRH262116 SHK262101:SHL262116 RXO262101:RXP262116 RNS262101:RNT262116 RDW262101:RDX262116 QUA262101:QUB262116 QKE262101:QKF262116 QAI262101:QAJ262116 PQM262101:PQN262116 PGQ262101:PGR262116 OWU262101:OWV262116 OMY262101:OMZ262116 ODC262101:ODD262116 NTG262101:NTH262116 NJK262101:NJL262116 MZO262101:MZP262116 MPS262101:MPT262116 MFW262101:MFX262116 LWA262101:LWB262116 LME262101:LMF262116 LCI262101:LCJ262116 KSM262101:KSN262116 KIQ262101:KIR262116 JYU262101:JYV262116 JOY262101:JOZ262116 JFC262101:JFD262116 IVG262101:IVH262116 ILK262101:ILL262116 IBO262101:IBP262116 HRS262101:HRT262116 HHW262101:HHX262116 GYA262101:GYB262116 GOE262101:GOF262116 GEI262101:GEJ262116 FUM262101:FUN262116 FKQ262101:FKR262116 FAU262101:FAV262116 EQY262101:EQZ262116 EHC262101:EHD262116 DXG262101:DXH262116 DNK262101:DNL262116 DDO262101:DDP262116 CTS262101:CTT262116 CJW262101:CJX262116 CAA262101:CAB262116 BQE262101:BQF262116 BGI262101:BGJ262116 AWM262101:AWN262116 AMQ262101:AMR262116 ACU262101:ACV262116 SY262101:SZ262116 JC262101:JD262116 F262102:F262117 WVO196565:WVP196580 WLS196565:WLT196580 WBW196565:WBX196580 VSA196565:VSB196580 VIE196565:VIF196580 UYI196565:UYJ196580 UOM196565:UON196580 UEQ196565:UER196580 TUU196565:TUV196580 TKY196565:TKZ196580 TBC196565:TBD196580 SRG196565:SRH196580 SHK196565:SHL196580 RXO196565:RXP196580 RNS196565:RNT196580 RDW196565:RDX196580 QUA196565:QUB196580 QKE196565:QKF196580 QAI196565:QAJ196580 PQM196565:PQN196580 PGQ196565:PGR196580 OWU196565:OWV196580 OMY196565:OMZ196580 ODC196565:ODD196580 NTG196565:NTH196580 NJK196565:NJL196580 MZO196565:MZP196580 MPS196565:MPT196580 MFW196565:MFX196580 LWA196565:LWB196580 LME196565:LMF196580 LCI196565:LCJ196580 KSM196565:KSN196580 KIQ196565:KIR196580 JYU196565:JYV196580 JOY196565:JOZ196580 JFC196565:JFD196580 IVG196565:IVH196580 ILK196565:ILL196580 IBO196565:IBP196580 HRS196565:HRT196580 HHW196565:HHX196580 GYA196565:GYB196580 GOE196565:GOF196580 GEI196565:GEJ196580 FUM196565:FUN196580 FKQ196565:FKR196580 FAU196565:FAV196580 EQY196565:EQZ196580 EHC196565:EHD196580 DXG196565:DXH196580 DNK196565:DNL196580 DDO196565:DDP196580 CTS196565:CTT196580 CJW196565:CJX196580 CAA196565:CAB196580 BQE196565:BQF196580 BGI196565:BGJ196580 AWM196565:AWN196580 AMQ196565:AMR196580 ACU196565:ACV196580 SY196565:SZ196580 JC196565:JD196580 F196566:F196581 WVO131029:WVP131044 WLS131029:WLT131044 WBW131029:WBX131044 VSA131029:VSB131044 VIE131029:VIF131044 UYI131029:UYJ131044 UOM131029:UON131044 UEQ131029:UER131044 TUU131029:TUV131044 TKY131029:TKZ131044 TBC131029:TBD131044 SRG131029:SRH131044 SHK131029:SHL131044 RXO131029:RXP131044 RNS131029:RNT131044 RDW131029:RDX131044 QUA131029:QUB131044 QKE131029:QKF131044 QAI131029:QAJ131044 PQM131029:PQN131044 PGQ131029:PGR131044 OWU131029:OWV131044 OMY131029:OMZ131044 ODC131029:ODD131044 NTG131029:NTH131044 NJK131029:NJL131044 MZO131029:MZP131044 MPS131029:MPT131044 MFW131029:MFX131044 LWA131029:LWB131044 LME131029:LMF131044 LCI131029:LCJ131044 KSM131029:KSN131044 KIQ131029:KIR131044 JYU131029:JYV131044 JOY131029:JOZ131044 JFC131029:JFD131044 IVG131029:IVH131044 ILK131029:ILL131044 IBO131029:IBP131044 HRS131029:HRT131044 HHW131029:HHX131044 GYA131029:GYB131044 GOE131029:GOF131044 GEI131029:GEJ131044 FUM131029:FUN131044 FKQ131029:FKR131044 FAU131029:FAV131044 EQY131029:EQZ131044 EHC131029:EHD131044 DXG131029:DXH131044 DNK131029:DNL131044 DDO131029:DDP131044 CTS131029:CTT131044 CJW131029:CJX131044 CAA131029:CAB131044 BQE131029:BQF131044 BGI131029:BGJ131044 AWM131029:AWN131044 AMQ131029:AMR131044 ACU131029:ACV131044 SY131029:SZ131044 JC131029:JD131044 F131030:F131045 WVO65493:WVP65508 WLS65493:WLT65508 WBW65493:WBX65508 VSA65493:VSB65508 VIE65493:VIF65508 UYI65493:UYJ65508 UOM65493:UON65508 UEQ65493:UER65508 TUU65493:TUV65508 TKY65493:TKZ65508 TBC65493:TBD65508 SRG65493:SRH65508 SHK65493:SHL65508 RXO65493:RXP65508 RNS65493:RNT65508 RDW65493:RDX65508 QUA65493:QUB65508 QKE65493:QKF65508 QAI65493:QAJ65508 PQM65493:PQN65508 PGQ65493:PGR65508 OWU65493:OWV65508 OMY65493:OMZ65508 ODC65493:ODD65508 NTG65493:NTH65508 NJK65493:NJL65508 MZO65493:MZP65508 MPS65493:MPT65508 MFW65493:MFX65508 LWA65493:LWB65508 LME65493:LMF65508 LCI65493:LCJ65508 KSM65493:KSN65508 KIQ65493:KIR65508 JYU65493:JYV65508 JOY65493:JOZ65508 JFC65493:JFD65508 IVG65493:IVH65508 ILK65493:ILL65508 IBO65493:IBP65508 HRS65493:HRT65508 HHW65493:HHX65508 GYA65493:GYB65508 GOE65493:GOF65508 GEI65493:GEJ65508 FUM65493:FUN65508 FKQ65493:FKR65508 FAU65493:FAV65508 EQY65493:EQZ65508 EHC65493:EHD65508 DXG65493:DXH65508 DNK65493:DNL65508 DDO65493:DDP65508 CTS65493:CTT65508 CJW65493:CJX65508 CAA65493:CAB65508 BQE65493:BQF65508 BGI65493:BGJ65508 AWM65493:AWN65508 AMQ65493:AMR65508 ACU65493:ACV65508 SY65493:SZ65508 JC65493:JD65508 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D47:D49 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D119:D120 D89:D92 D41:D42 D54:D55 D61:D62 D68:D69 D75:D76 D111 D104:D105 D97:D99 D34:D35 D82:D83 D114 D6:D8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D43 D34:D35 D83:D84 D119 D98:D104" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -4023,24 +4191,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4057,4 +4223,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7796D-BF0C-4803-89FE-1E5A401CA68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F469BC-E785-4DF4-90AB-0FB25E79A1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14340" yWindow="585" windowWidth="6930" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="161">
   <si>
     <t>Database Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
     <t>Starts with the letter S</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>A name describing the location of settlement</t>
   </si>
   <si>
-    <t>A number describing how many people must be present</t>
-  </si>
-  <si>
     <t>tinyint()</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Starts with S</t>
   </si>
   <si>
-    <t>ID from inventory table</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>Check it starts with T and is integer</t>
   </si>
   <si>
-    <t>ItemID</t>
-  </si>
-  <si>
     <t>PeopleID</t>
   </si>
   <si>
@@ -324,15 +312,6 @@
     <t>PeopleJobs</t>
   </si>
   <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>The ID for item</t>
-  </si>
-  <si>
-    <t>Foreign Key to Items table</t>
-  </si>
-  <si>
     <t>WeaponPrice</t>
   </si>
   <si>
@@ -363,12 +342,6 @@
     <t>Check it starts with I</t>
   </si>
   <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>Type of item</t>
-  </si>
-  <si>
     <t>Missions</t>
   </si>
   <si>
@@ -454,6 +427,96 @@
   </si>
   <si>
     <t>Check that its in between 0 and 10</t>
+  </si>
+  <si>
+    <t>A number describing minimum number of people that must be present</t>
+  </si>
+  <si>
+    <t>InventoryDescription</t>
+  </si>
+  <si>
+    <t>InvID</t>
+  </si>
+  <si>
+    <t>The ID for the inventory item</t>
+  </si>
+  <si>
+    <t>InvDescription</t>
+  </si>
+  <si>
+    <t>Description of the item</t>
+  </si>
+  <si>
+    <t>InvPrice</t>
+  </si>
+  <si>
+    <t>Price of the item</t>
+  </si>
+  <si>
+    <t>ID from InventoryDescription table</t>
+  </si>
+  <si>
+    <t>WeaponID</t>
+  </si>
+  <si>
+    <t>Primary key got the weapon</t>
+  </si>
+  <si>
+    <t>Check it starts with W</t>
+  </si>
+  <si>
+    <t>FoodID</t>
+  </si>
+  <si>
+    <t>Primary key for the food</t>
+  </si>
+  <si>
+    <t>Check it starts with F</t>
+  </si>
+  <si>
+    <t>VehicleID</t>
+  </si>
+  <si>
+    <t>Primary key for the vehicles</t>
+  </si>
+  <si>
+    <t>Check it starts with V</t>
+  </si>
+  <si>
+    <t>MedicineID</t>
+  </si>
+  <si>
+    <t>Primary key for the medicine</t>
+  </si>
+  <si>
+    <t>Check it starts with M</t>
+  </si>
+  <si>
+    <t>HousingID</t>
+  </si>
+  <si>
+    <t>Primary key for the housing</t>
+  </si>
+  <si>
+    <t>Check it starts with H</t>
+  </si>
+  <si>
+    <t>Foreign key from weapons table</t>
+  </si>
+  <si>
+    <t>Can be</t>
+  </si>
+  <si>
+    <t>Foreign key from food table</t>
+  </si>
+  <si>
+    <t>Foreign key from vehicle table</t>
+  </si>
+  <si>
+    <t>Foreign key from medicine table</t>
+  </si>
+  <si>
+    <t>Foreign key from housing table</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99:A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1719,7 +1782,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44511.333000694445</v>
+        <v>44536.78530891204</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1731,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
@@ -1779,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>14</v>
@@ -1788,14 +1851,14 @@
         <v>15</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="63" t="s">
@@ -1805,10 +1868,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="63"/>
       <c r="B7" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>18</v>
@@ -1829,23 +1892,23 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="63" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1858,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -1906,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -1915,14 +1978,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71" t="s">
@@ -1932,10 +1995,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>17</v>
@@ -1956,10 +2019,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>17</v>
@@ -1980,13 +2043,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
@@ -2005,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2050,19 +2113,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D21" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
@@ -2076,19 +2139,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
@@ -2107,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -2155,23 +2218,23 @@
         <v>13</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="45" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45" t="s">
@@ -2181,10 +2244,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>17</v>
@@ -2205,13 +2268,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C29" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>137</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -2220,8 +2283,8 @@
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
-        <v>22</v>
+      <c r="J29" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2287,19 +2350,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
@@ -2307,25 +2370,25 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>22</v>
+      <c r="J34" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
@@ -2333,20 +2396,20 @@
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>22</v>
+      <c r="J35" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2355,8 +2418,8 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>22</v>
+      <c r="J36" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2365,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2413,889 +2476,899 @@
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>22</v>
+      <c r="J41" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11" t="s">
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="F48" s="13"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>22</v>
+      <c r="J48" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="B49" s="11" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F49" s="12"/>
       <c r="G49" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="J49" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="11" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="17"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="B60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="11" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="11" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="B67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J68" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="11" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="11"/>
+      <c r="H69" s="11" t="s">
+        <v>148</v>
+      </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="B74" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J75" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="11" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="11" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="11"/>
+      <c r="H76" s="11" t="s">
+        <v>151</v>
+      </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="21"/>
-    </row>
-    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="B81" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="11" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="11" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="60"/>
-    </row>
-    <row r="88" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="56" t="s">
+      <c r="B88" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+    </row>
+    <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B89" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C89" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D89" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="51" t="s">
+      <c r="E89" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="51" t="s">
+      <c r="F89" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="51" t="s">
+      <c r="G89" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="51" t="s">
+      <c r="H89" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="51" t="s">
+      <c r="I89" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J88" s="51" t="s">
+      <c r="J89" s="51" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="E90" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="54"/>
       <c r="G90" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="H90" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="I90" s="52"/>
       <c r="J90" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>130</v>
+      <c r="A91" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="52" t="s">
         <v>16</v>
       </c>
@@ -3303,13 +3376,13 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="57" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E92" s="57"/>
       <c r="F92" s="57"/>
@@ -3322,96 +3395,94 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="B96" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J97" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -3420,391 +3491,503 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>89</v>
+      <c r="A99" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C101" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="82"/>
+      <c r="J103" s="82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B107" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38" t="s">
+      <c r="F109" s="36"/>
+      <c r="G109" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="31"/>
+    </row>
+    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B115" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C115" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D115" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E115" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="F115" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G115" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H115" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I103" s="33" t="s">
+      <c r="I115" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J103" s="33" t="s">
+      <c r="J115" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="82" t="s">
+      <c r="B116" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F104" s="36"/>
-      <c r="G104" s="34" t="s">
+      <c r="E116" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" s="26"/>
+      <c r="G116" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="34" t="s">
+      <c r="H116" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="34" t="s">
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="31"/>
-    </row>
-    <row r="110" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="24" t="s">
+      <c r="B119" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="88"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="88"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="88"/>
-      <c r="J117" s="89"/>
-    </row>
-    <row r="118" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" s="83" t="s">
-        <v>122</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="82" t="s">
+      <c r="E119" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" s="26"/>
+      <c r="G119" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="82"/>
-      <c r="I119" s="82"/>
-      <c r="J119" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B120" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="82" t="s">
+      <c r="H119" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="88"/>
+      <c r="J122" s="89"/>
+    </row>
+    <row r="123" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="83"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="82" t="s">
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82" t="s">
+      <c r="H124" s="82"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="83"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3814,31 +3997,16 @@
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65489:F65504 WVO982992:WVP983007 WLS982992:WLT983007 WBW982992:WBX983007 VSA982992:VSB983007 VIE982992:VIF983007 UYI982992:UYJ983007 UOM982992:UON983007 UEQ982992:UER983007 TUU982992:TUV983007 TKY982992:TKZ983007 TBC982992:TBD983007 SRG982992:SRH983007 SHK982992:SHL983007 RXO982992:RXP983007 RNS982992:RNT983007 RDW982992:RDX983007 QUA982992:QUB983007 QKE982992:QKF983007 QAI982992:QAJ983007 PQM982992:PQN983007 PGQ982992:PGR983007 OWU982992:OWV983007 OMY982992:OMZ983007 ODC982992:ODD983007 NTG982992:NTH983007 NJK982992:NJL983007 MZO982992:MZP983007 MPS982992:MPT983007 MFW982992:MFX983007 LWA982992:LWB983007 LME982992:LMF983007 LCI982992:LCJ983007 KSM982992:KSN983007 KIQ982992:KIR983007 JYU982992:JYV983007 JOY982992:JOZ983007 JFC982992:JFD983007 IVG982992:IVH983007 ILK982992:ILL983007 IBO982992:IBP983007 HRS982992:HRT983007 HHW982992:HHX983007 GYA982992:GYB983007 GOE982992:GOF983007 GEI982992:GEJ983007 FUM982992:FUN983007 FKQ982992:FKR983007 FAU982992:FAV983007 EQY982992:EQZ983007 EHC982992:EHD983007 DXG982992:DXH983007 DNK982992:DNL983007 DDO982992:DDP983007 CTS982992:CTT983007 CJW982992:CJX983007 CAA982992:CAB983007 BQE982992:BQF983007 BGI982992:BGJ983007 AWM982992:AWN983007 AMQ982992:AMR983007 ACU982992:ACV983007 SY982992:SZ983007 JC982992:JD983007 F982993:F983008 WVO917456:WVP917471 WLS917456:WLT917471 WBW917456:WBX917471 VSA917456:VSB917471 VIE917456:VIF917471 UYI917456:UYJ917471 UOM917456:UON917471 UEQ917456:UER917471 TUU917456:TUV917471 TKY917456:TKZ917471 TBC917456:TBD917471 SRG917456:SRH917471 SHK917456:SHL917471 RXO917456:RXP917471 RNS917456:RNT917471 RDW917456:RDX917471 QUA917456:QUB917471 QKE917456:QKF917471 QAI917456:QAJ917471 PQM917456:PQN917471 PGQ917456:PGR917471 OWU917456:OWV917471 OMY917456:OMZ917471 ODC917456:ODD917471 NTG917456:NTH917471 NJK917456:NJL917471 MZO917456:MZP917471 MPS917456:MPT917471 MFW917456:MFX917471 LWA917456:LWB917471 LME917456:LMF917471 LCI917456:LCJ917471 KSM917456:KSN917471 KIQ917456:KIR917471 JYU917456:JYV917471 JOY917456:JOZ917471 JFC917456:JFD917471 IVG917456:IVH917471 ILK917456:ILL917471 IBO917456:IBP917471 HRS917456:HRT917471 HHW917456:HHX917471 GYA917456:GYB917471 GOE917456:GOF917471 GEI917456:GEJ917471 FUM917456:FUN917471 FKQ917456:FKR917471 FAU917456:FAV917471 EQY917456:EQZ917471 EHC917456:EHD917471 DXG917456:DXH917471 DNK917456:DNL917471 DDO917456:DDP917471 CTS917456:CTT917471 CJW917456:CJX917471 CAA917456:CAB917471 BQE917456:BQF917471 BGI917456:BGJ917471 AWM917456:AWN917471 AMQ917456:AMR917471 ACU917456:ACV917471 SY917456:SZ917471 JC917456:JD917471 F917457:F917472 WVO851920:WVP851935 WLS851920:WLT851935 WBW851920:WBX851935 VSA851920:VSB851935 VIE851920:VIF851935 UYI851920:UYJ851935 UOM851920:UON851935 UEQ851920:UER851935 TUU851920:TUV851935 TKY851920:TKZ851935 TBC851920:TBD851935 SRG851920:SRH851935 SHK851920:SHL851935 RXO851920:RXP851935 RNS851920:RNT851935 RDW851920:RDX851935 QUA851920:QUB851935 QKE851920:QKF851935 QAI851920:QAJ851935 PQM851920:PQN851935 PGQ851920:PGR851935 OWU851920:OWV851935 OMY851920:OMZ851935 ODC851920:ODD851935 NTG851920:NTH851935 NJK851920:NJL851935 MZO851920:MZP851935 MPS851920:MPT851935 MFW851920:MFX851935 LWA851920:LWB851935 LME851920:LMF851935 LCI851920:LCJ851935 KSM851920:KSN851935 KIQ851920:KIR851935 JYU851920:JYV851935 JOY851920:JOZ851935 JFC851920:JFD851935 IVG851920:IVH851935 ILK851920:ILL851935 IBO851920:IBP851935 HRS851920:HRT851935 HHW851920:HHX851935 GYA851920:GYB851935 GOE851920:GOF851935 GEI851920:GEJ851935 FUM851920:FUN851935 FKQ851920:FKR851935 FAU851920:FAV851935 EQY851920:EQZ851935 EHC851920:EHD851935 DXG851920:DXH851935 DNK851920:DNL851935 DDO851920:DDP851935 CTS851920:CTT851935 CJW851920:CJX851935 CAA851920:CAB851935 BQE851920:BQF851935 BGI851920:BGJ851935 AWM851920:AWN851935 AMQ851920:AMR851935 ACU851920:ACV851935 SY851920:SZ851935 JC851920:JD851935 F851921:F851936 WVO786384:WVP786399 WLS786384:WLT786399 WBW786384:WBX786399 VSA786384:VSB786399 VIE786384:VIF786399 UYI786384:UYJ786399 UOM786384:UON786399 UEQ786384:UER786399 TUU786384:TUV786399 TKY786384:TKZ786399 TBC786384:TBD786399 SRG786384:SRH786399 SHK786384:SHL786399 RXO786384:RXP786399 RNS786384:RNT786399 RDW786384:RDX786399 QUA786384:QUB786399 QKE786384:QKF786399 QAI786384:QAJ786399 PQM786384:PQN786399 PGQ786384:PGR786399 OWU786384:OWV786399 OMY786384:OMZ786399 ODC786384:ODD786399 NTG786384:NTH786399 NJK786384:NJL786399 MZO786384:MZP786399 MPS786384:MPT786399 MFW786384:MFX786399 LWA786384:LWB786399 LME786384:LMF786399 LCI786384:LCJ786399 KSM786384:KSN786399 KIQ786384:KIR786399 JYU786384:JYV786399 JOY786384:JOZ786399 JFC786384:JFD786399 IVG786384:IVH786399 ILK786384:ILL786399 IBO786384:IBP786399 HRS786384:HRT786399 HHW786384:HHX786399 GYA786384:GYB786399 GOE786384:GOF786399 GEI786384:GEJ786399 FUM786384:FUN786399 FKQ786384:FKR786399 FAU786384:FAV786399 EQY786384:EQZ786399 EHC786384:EHD786399 DXG786384:DXH786399 DNK786384:DNL786399 DDO786384:DDP786399 CTS786384:CTT786399 CJW786384:CJX786399 CAA786384:CAB786399 BQE786384:BQF786399 BGI786384:BGJ786399 AWM786384:AWN786399 AMQ786384:AMR786399 ACU786384:ACV786399 SY786384:SZ786399 JC786384:JD786399 F786385:F786400 WVO720848:WVP720863 WLS720848:WLT720863 WBW720848:WBX720863 VSA720848:VSB720863 VIE720848:VIF720863 UYI720848:UYJ720863 UOM720848:UON720863 UEQ720848:UER720863 TUU720848:TUV720863 TKY720848:TKZ720863 TBC720848:TBD720863 SRG720848:SRH720863 SHK720848:SHL720863 RXO720848:RXP720863 RNS720848:RNT720863 RDW720848:RDX720863 QUA720848:QUB720863 QKE720848:QKF720863 QAI720848:QAJ720863 PQM720848:PQN720863 PGQ720848:PGR720863 OWU720848:OWV720863 OMY720848:OMZ720863 ODC720848:ODD720863 NTG720848:NTH720863 NJK720848:NJL720863 MZO720848:MZP720863 MPS720848:MPT720863 MFW720848:MFX720863 LWA720848:LWB720863 LME720848:LMF720863 LCI720848:LCJ720863 KSM720848:KSN720863 KIQ720848:KIR720863 JYU720848:JYV720863 JOY720848:JOZ720863 JFC720848:JFD720863 IVG720848:IVH720863 ILK720848:ILL720863 IBO720848:IBP720863 HRS720848:HRT720863 HHW720848:HHX720863 GYA720848:GYB720863 GOE720848:GOF720863 GEI720848:GEJ720863 FUM720848:FUN720863 FKQ720848:FKR720863 FAU720848:FAV720863 EQY720848:EQZ720863 EHC720848:EHD720863 DXG720848:DXH720863 DNK720848:DNL720863 DDO720848:DDP720863 CTS720848:CTT720863 CJW720848:CJX720863 CAA720848:CAB720863 BQE720848:BQF720863 BGI720848:BGJ720863 AWM720848:AWN720863 AMQ720848:AMR720863 ACU720848:ACV720863 SY720848:SZ720863 JC720848:JD720863 F720849:F720864 WVO655312:WVP655327 WLS655312:WLT655327 WBW655312:WBX655327 VSA655312:VSB655327 VIE655312:VIF655327 UYI655312:UYJ655327 UOM655312:UON655327 UEQ655312:UER655327 TUU655312:TUV655327 TKY655312:TKZ655327 TBC655312:TBD655327 SRG655312:SRH655327 SHK655312:SHL655327 RXO655312:RXP655327 RNS655312:RNT655327 RDW655312:RDX655327 QUA655312:QUB655327 QKE655312:QKF655327 QAI655312:QAJ655327 PQM655312:PQN655327 PGQ655312:PGR655327 OWU655312:OWV655327 OMY655312:OMZ655327 ODC655312:ODD655327 NTG655312:NTH655327 NJK655312:NJL655327 MZO655312:MZP655327 MPS655312:MPT655327 MFW655312:MFX655327 LWA655312:LWB655327 LME655312:LMF655327 LCI655312:LCJ655327 KSM655312:KSN655327 KIQ655312:KIR655327 JYU655312:JYV655327 JOY655312:JOZ655327 JFC655312:JFD655327 IVG655312:IVH655327 ILK655312:ILL655327 IBO655312:IBP655327 HRS655312:HRT655327 HHW655312:HHX655327 GYA655312:GYB655327 GOE655312:GOF655327 GEI655312:GEJ655327 FUM655312:FUN655327 FKQ655312:FKR655327 FAU655312:FAV655327 EQY655312:EQZ655327 EHC655312:EHD655327 DXG655312:DXH655327 DNK655312:DNL655327 DDO655312:DDP655327 CTS655312:CTT655327 CJW655312:CJX655327 CAA655312:CAB655327 BQE655312:BQF655327 BGI655312:BGJ655327 AWM655312:AWN655327 AMQ655312:AMR655327 ACU655312:ACV655327 SY655312:SZ655327 JC655312:JD655327 F655313:F655328 WVO589776:WVP589791 WLS589776:WLT589791 WBW589776:WBX589791 VSA589776:VSB589791 VIE589776:VIF589791 UYI589776:UYJ589791 UOM589776:UON589791 UEQ589776:UER589791 TUU589776:TUV589791 TKY589776:TKZ589791 TBC589776:TBD589791 SRG589776:SRH589791 SHK589776:SHL589791 RXO589776:RXP589791 RNS589776:RNT589791 RDW589776:RDX589791 QUA589776:QUB589791 QKE589776:QKF589791 QAI589776:QAJ589791 PQM589776:PQN589791 PGQ589776:PGR589791 OWU589776:OWV589791 OMY589776:OMZ589791 ODC589776:ODD589791 NTG589776:NTH589791 NJK589776:NJL589791 MZO589776:MZP589791 MPS589776:MPT589791 MFW589776:MFX589791 LWA589776:LWB589791 LME589776:LMF589791 LCI589776:LCJ589791 KSM589776:KSN589791 KIQ589776:KIR589791 JYU589776:JYV589791 JOY589776:JOZ589791 JFC589776:JFD589791 IVG589776:IVH589791 ILK589776:ILL589791 IBO589776:IBP589791 HRS589776:HRT589791 HHW589776:HHX589791 GYA589776:GYB589791 GOE589776:GOF589791 GEI589776:GEJ589791 FUM589776:FUN589791 FKQ589776:FKR589791 FAU589776:FAV589791 EQY589776:EQZ589791 EHC589776:EHD589791 DXG589776:DXH589791 DNK589776:DNL589791 DDO589776:DDP589791 CTS589776:CTT589791 CJW589776:CJX589791 CAA589776:CAB589791 BQE589776:BQF589791 BGI589776:BGJ589791 AWM589776:AWN589791 AMQ589776:AMR589791 ACU589776:ACV589791 SY589776:SZ589791 JC589776:JD589791 F589777:F589792 WVO524240:WVP524255 WLS524240:WLT524255 WBW524240:WBX524255 VSA524240:VSB524255 VIE524240:VIF524255 UYI524240:UYJ524255 UOM524240:UON524255 UEQ524240:UER524255 TUU524240:TUV524255 TKY524240:TKZ524255 TBC524240:TBD524255 SRG524240:SRH524255 SHK524240:SHL524255 RXO524240:RXP524255 RNS524240:RNT524255 RDW524240:RDX524255 QUA524240:QUB524255 QKE524240:QKF524255 QAI524240:QAJ524255 PQM524240:PQN524255 PGQ524240:PGR524255 OWU524240:OWV524255 OMY524240:OMZ524255 ODC524240:ODD524255 NTG524240:NTH524255 NJK524240:NJL524255 MZO524240:MZP524255 MPS524240:MPT524255 MFW524240:MFX524255 LWA524240:LWB524255 LME524240:LMF524255 LCI524240:LCJ524255 KSM524240:KSN524255 KIQ524240:KIR524255 JYU524240:JYV524255 JOY524240:JOZ524255 JFC524240:JFD524255 IVG524240:IVH524255 ILK524240:ILL524255 IBO524240:IBP524255 HRS524240:HRT524255 HHW524240:HHX524255 GYA524240:GYB524255 GOE524240:GOF524255 GEI524240:GEJ524255 FUM524240:FUN524255 FKQ524240:FKR524255 FAU524240:FAV524255 EQY524240:EQZ524255 EHC524240:EHD524255 DXG524240:DXH524255 DNK524240:DNL524255 DDO524240:DDP524255 CTS524240:CTT524255 CJW524240:CJX524255 CAA524240:CAB524255 BQE524240:BQF524255 BGI524240:BGJ524255 AWM524240:AWN524255 AMQ524240:AMR524255 ACU524240:ACV524255 SY524240:SZ524255 JC524240:JD524255 F524241:F524256 WVO458704:WVP458719 WLS458704:WLT458719 WBW458704:WBX458719 VSA458704:VSB458719 VIE458704:VIF458719 UYI458704:UYJ458719 UOM458704:UON458719 UEQ458704:UER458719 TUU458704:TUV458719 TKY458704:TKZ458719 TBC458704:TBD458719 SRG458704:SRH458719 SHK458704:SHL458719 RXO458704:RXP458719 RNS458704:RNT458719 RDW458704:RDX458719 QUA458704:QUB458719 QKE458704:QKF458719 QAI458704:QAJ458719 PQM458704:PQN458719 PGQ458704:PGR458719 OWU458704:OWV458719 OMY458704:OMZ458719 ODC458704:ODD458719 NTG458704:NTH458719 NJK458704:NJL458719 MZO458704:MZP458719 MPS458704:MPT458719 MFW458704:MFX458719 LWA458704:LWB458719 LME458704:LMF458719 LCI458704:LCJ458719 KSM458704:KSN458719 KIQ458704:KIR458719 JYU458704:JYV458719 JOY458704:JOZ458719 JFC458704:JFD458719 IVG458704:IVH458719 ILK458704:ILL458719 IBO458704:IBP458719 HRS458704:HRT458719 HHW458704:HHX458719 GYA458704:GYB458719 GOE458704:GOF458719 GEI458704:GEJ458719 FUM458704:FUN458719 FKQ458704:FKR458719 FAU458704:FAV458719 EQY458704:EQZ458719 EHC458704:EHD458719 DXG458704:DXH458719 DNK458704:DNL458719 DDO458704:DDP458719 CTS458704:CTT458719 CJW458704:CJX458719 CAA458704:CAB458719 BQE458704:BQF458719 BGI458704:BGJ458719 AWM458704:AWN458719 AMQ458704:AMR458719 ACU458704:ACV458719 SY458704:SZ458719 JC458704:JD458719 F458705:F458720 WVO393168:WVP393183 WLS393168:WLT393183 WBW393168:WBX393183 VSA393168:VSB393183 VIE393168:VIF393183 UYI393168:UYJ393183 UOM393168:UON393183 UEQ393168:UER393183 TUU393168:TUV393183 TKY393168:TKZ393183 TBC393168:TBD393183 SRG393168:SRH393183 SHK393168:SHL393183 RXO393168:RXP393183 RNS393168:RNT393183 RDW393168:RDX393183 QUA393168:QUB393183 QKE393168:QKF393183 QAI393168:QAJ393183 PQM393168:PQN393183 PGQ393168:PGR393183 OWU393168:OWV393183 OMY393168:OMZ393183 ODC393168:ODD393183 NTG393168:NTH393183 NJK393168:NJL393183 MZO393168:MZP393183 MPS393168:MPT393183 MFW393168:MFX393183 LWA393168:LWB393183 LME393168:LMF393183 LCI393168:LCJ393183 KSM393168:KSN393183 KIQ393168:KIR393183 JYU393168:JYV393183 JOY393168:JOZ393183 JFC393168:JFD393183 IVG393168:IVH393183 ILK393168:ILL393183 IBO393168:IBP393183 HRS393168:HRT393183 HHW393168:HHX393183 GYA393168:GYB393183 GOE393168:GOF393183 GEI393168:GEJ393183 FUM393168:FUN393183 FKQ393168:FKR393183 FAU393168:FAV393183 EQY393168:EQZ393183 EHC393168:EHD393183 DXG393168:DXH393183 DNK393168:DNL393183 DDO393168:DDP393183 CTS393168:CTT393183 CJW393168:CJX393183 CAA393168:CAB393183 BQE393168:BQF393183 BGI393168:BGJ393183 AWM393168:AWN393183 AMQ393168:AMR393183 ACU393168:ACV393183 SY393168:SZ393183 JC393168:JD393183 F393169:F393184 WVO327632:WVP327647 WLS327632:WLT327647 WBW327632:WBX327647 VSA327632:VSB327647 VIE327632:VIF327647 UYI327632:UYJ327647 UOM327632:UON327647 UEQ327632:UER327647 TUU327632:TUV327647 TKY327632:TKZ327647 TBC327632:TBD327647 SRG327632:SRH327647 SHK327632:SHL327647 RXO327632:RXP327647 RNS327632:RNT327647 RDW327632:RDX327647 QUA327632:QUB327647 QKE327632:QKF327647 QAI327632:QAJ327647 PQM327632:PQN327647 PGQ327632:PGR327647 OWU327632:OWV327647 OMY327632:OMZ327647 ODC327632:ODD327647 NTG327632:NTH327647 NJK327632:NJL327647 MZO327632:MZP327647 MPS327632:MPT327647 MFW327632:MFX327647 LWA327632:LWB327647 LME327632:LMF327647 LCI327632:LCJ327647 KSM327632:KSN327647 KIQ327632:KIR327647 JYU327632:JYV327647 JOY327632:JOZ327647 JFC327632:JFD327647 IVG327632:IVH327647 ILK327632:ILL327647 IBO327632:IBP327647 HRS327632:HRT327647 HHW327632:HHX327647 GYA327632:GYB327647 GOE327632:GOF327647 GEI327632:GEJ327647 FUM327632:FUN327647 FKQ327632:FKR327647 FAU327632:FAV327647 EQY327632:EQZ327647 EHC327632:EHD327647 DXG327632:DXH327647 DNK327632:DNL327647 DDO327632:DDP327647 CTS327632:CTT327647 CJW327632:CJX327647 CAA327632:CAB327647 BQE327632:BQF327647 BGI327632:BGJ327647 AWM327632:AWN327647 AMQ327632:AMR327647 ACU327632:ACV327647 SY327632:SZ327647 JC327632:JD327647 F327633:F327648 WVO262096:WVP262111 WLS262096:WLT262111 WBW262096:WBX262111 VSA262096:VSB262111 VIE262096:VIF262111 UYI262096:UYJ262111 UOM262096:UON262111 UEQ262096:UER262111 TUU262096:TUV262111 TKY262096:TKZ262111 TBC262096:TBD262111 SRG262096:SRH262111 SHK262096:SHL262111 RXO262096:RXP262111 RNS262096:RNT262111 RDW262096:RDX262111 QUA262096:QUB262111 QKE262096:QKF262111 QAI262096:QAJ262111 PQM262096:PQN262111 PGQ262096:PGR262111 OWU262096:OWV262111 OMY262096:OMZ262111 ODC262096:ODD262111 NTG262096:NTH262111 NJK262096:NJL262111 MZO262096:MZP262111 MPS262096:MPT262111 MFW262096:MFX262111 LWA262096:LWB262111 LME262096:LMF262111 LCI262096:LCJ262111 KSM262096:KSN262111 KIQ262096:KIR262111 JYU262096:JYV262111 JOY262096:JOZ262111 JFC262096:JFD262111 IVG262096:IVH262111 ILK262096:ILL262111 IBO262096:IBP262111 HRS262096:HRT262111 HHW262096:HHX262111 GYA262096:GYB262111 GOE262096:GOF262111 GEI262096:GEJ262111 FUM262096:FUN262111 FKQ262096:FKR262111 FAU262096:FAV262111 EQY262096:EQZ262111 EHC262096:EHD262111 DXG262096:DXH262111 DNK262096:DNL262111 DDO262096:DDP262111 CTS262096:CTT262111 CJW262096:CJX262111 CAA262096:CAB262111 BQE262096:BQF262111 BGI262096:BGJ262111 AWM262096:AWN262111 AMQ262096:AMR262111 ACU262096:ACV262111 SY262096:SZ262111 JC262096:JD262111 F262097:F262112 WVO196560:WVP196575 WLS196560:WLT196575 WBW196560:WBX196575 VSA196560:VSB196575 VIE196560:VIF196575 UYI196560:UYJ196575 UOM196560:UON196575 UEQ196560:UER196575 TUU196560:TUV196575 TKY196560:TKZ196575 TBC196560:TBD196575 SRG196560:SRH196575 SHK196560:SHL196575 RXO196560:RXP196575 RNS196560:RNT196575 RDW196560:RDX196575 QUA196560:QUB196575 QKE196560:QKF196575 QAI196560:QAJ196575 PQM196560:PQN196575 PGQ196560:PGR196575 OWU196560:OWV196575 OMY196560:OMZ196575 ODC196560:ODD196575 NTG196560:NTH196575 NJK196560:NJL196575 MZO196560:MZP196575 MPS196560:MPT196575 MFW196560:MFX196575 LWA196560:LWB196575 LME196560:LMF196575 LCI196560:LCJ196575 KSM196560:KSN196575 KIQ196560:KIR196575 JYU196560:JYV196575 JOY196560:JOZ196575 JFC196560:JFD196575 IVG196560:IVH196575 ILK196560:ILL196575 IBO196560:IBP196575 HRS196560:HRT196575 HHW196560:HHX196575 GYA196560:GYB196575 GOE196560:GOF196575 GEI196560:GEJ196575 FUM196560:FUN196575 FKQ196560:FKR196575 FAU196560:FAV196575 EQY196560:EQZ196575 EHC196560:EHD196575 DXG196560:DXH196575 DNK196560:DNL196575 DDO196560:DDP196575 CTS196560:CTT196575 CJW196560:CJX196575 CAA196560:CAB196575 BQE196560:BQF196575 BGI196560:BGJ196575 AWM196560:AWN196575 AMQ196560:AMR196575 ACU196560:ACV196575 SY196560:SZ196575 JC196560:JD196575 F196561:F196576 WVO131024:WVP131039 WLS131024:WLT131039 WBW131024:WBX131039 VSA131024:VSB131039 VIE131024:VIF131039 UYI131024:UYJ131039 UOM131024:UON131039 UEQ131024:UER131039 TUU131024:TUV131039 TKY131024:TKZ131039 TBC131024:TBD131039 SRG131024:SRH131039 SHK131024:SHL131039 RXO131024:RXP131039 RNS131024:RNT131039 RDW131024:RDX131039 QUA131024:QUB131039 QKE131024:QKF131039 QAI131024:QAJ131039 PQM131024:PQN131039 PGQ131024:PGR131039 OWU131024:OWV131039 OMY131024:OMZ131039 ODC131024:ODD131039 NTG131024:NTH131039 NJK131024:NJL131039 MZO131024:MZP131039 MPS131024:MPT131039 MFW131024:MFX131039 LWA131024:LWB131039 LME131024:LMF131039 LCI131024:LCJ131039 KSM131024:KSN131039 KIQ131024:KIR131039 JYU131024:JYV131039 JOY131024:JOZ131039 JFC131024:JFD131039 IVG131024:IVH131039 ILK131024:ILL131039 IBO131024:IBP131039 HRS131024:HRT131039 HHW131024:HHX131039 GYA131024:GYB131039 GOE131024:GOF131039 GEI131024:GEJ131039 FUM131024:FUN131039 FKQ131024:FKR131039 FAU131024:FAV131039 EQY131024:EQZ131039 EHC131024:EHD131039 DXG131024:DXH131039 DNK131024:DNL131039 DDO131024:DDP131039 CTS131024:CTT131039 CJW131024:CJX131039 CAA131024:CAB131039 BQE131024:BQF131039 BGI131024:BGJ131039 AWM131024:AWN131039 AMQ131024:AMR131039 ACU131024:ACV131039 SY131024:SZ131039 JC131024:JD131039 F131025:F131040 WVO65488:WVP65503 WLS65488:WLT65503 WBW65488:WBX65503 VSA65488:VSB65503 VIE65488:VIF65503 UYI65488:UYJ65503 UOM65488:UON65503 UEQ65488:UER65503 TUU65488:TUV65503 TKY65488:TKZ65503 TBC65488:TBD65503 SRG65488:SRH65503 SHK65488:SHL65503 RXO65488:RXP65503 RNS65488:RNT65503 RDW65488:RDX65503 QUA65488:QUB65503 QKE65488:QKF65503 QAI65488:QAJ65503 PQM65488:PQN65503 PGQ65488:PGR65503 OWU65488:OWV65503 OMY65488:OMZ65503 ODC65488:ODD65503 NTG65488:NTH65503 NJK65488:NJL65503 MZO65488:MZP65503 MPS65488:MPT65503 MFW65488:MFX65503 LWA65488:LWB65503 LME65488:LMF65503 LCI65488:LCJ65503 KSM65488:KSN65503 KIQ65488:KIR65503 JYU65488:JYV65503 JOY65488:JOZ65503 JFC65488:JFD65503 IVG65488:IVH65503 ILK65488:ILL65503 IBO65488:IBP65503 HRS65488:HRT65503 HHW65488:HHX65503 GYA65488:GYB65503 GOE65488:GOF65503 GEI65488:GEJ65503 FUM65488:FUN65503 FKQ65488:FKR65503 FAU65488:FAV65503 EQY65488:EQZ65503 EHC65488:EHD65503 DXG65488:DXH65503 DNK65488:DNL65503 DDO65488:DDP65503 CTS65488:CTT65503 CJW65488:CJX65503 CAA65488:CAB65503 BQE65488:BQF65503 BGI65488:BGJ65503 AWM65488:AWN65503 AMQ65488:AMR65503 ACU65488:ACV65503 SY65488:SZ65503 JC65488:JD65503 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65494:F65509 WVO982997:WVP983012 WLS982997:WLT983012 WBW982997:WBX983012 VSA982997:VSB983012 VIE982997:VIF983012 UYI982997:UYJ983012 UOM982997:UON983012 UEQ982997:UER983012 TUU982997:TUV983012 TKY982997:TKZ983012 TBC982997:TBD983012 SRG982997:SRH983012 SHK982997:SHL983012 RXO982997:RXP983012 RNS982997:RNT983012 RDW982997:RDX983012 QUA982997:QUB983012 QKE982997:QKF983012 QAI982997:QAJ983012 PQM982997:PQN983012 PGQ982997:PGR983012 OWU982997:OWV983012 OMY982997:OMZ983012 ODC982997:ODD983012 NTG982997:NTH983012 NJK982997:NJL983012 MZO982997:MZP983012 MPS982997:MPT983012 MFW982997:MFX983012 LWA982997:LWB983012 LME982997:LMF983012 LCI982997:LCJ983012 KSM982997:KSN983012 KIQ982997:KIR983012 JYU982997:JYV983012 JOY982997:JOZ983012 JFC982997:JFD983012 IVG982997:IVH983012 ILK982997:ILL983012 IBO982997:IBP983012 HRS982997:HRT983012 HHW982997:HHX983012 GYA982997:GYB983012 GOE982997:GOF983012 GEI982997:GEJ983012 FUM982997:FUN983012 FKQ982997:FKR983012 FAU982997:FAV983012 EQY982997:EQZ983012 EHC982997:EHD983012 DXG982997:DXH983012 DNK982997:DNL983012 DDO982997:DDP983012 CTS982997:CTT983012 CJW982997:CJX983012 CAA982997:CAB983012 BQE982997:BQF983012 BGI982997:BGJ983012 AWM982997:AWN983012 AMQ982997:AMR983012 ACU982997:ACV983012 SY982997:SZ983012 JC982997:JD983012 F982998:F983013 WVO917461:WVP917476 WLS917461:WLT917476 WBW917461:WBX917476 VSA917461:VSB917476 VIE917461:VIF917476 UYI917461:UYJ917476 UOM917461:UON917476 UEQ917461:UER917476 TUU917461:TUV917476 TKY917461:TKZ917476 TBC917461:TBD917476 SRG917461:SRH917476 SHK917461:SHL917476 RXO917461:RXP917476 RNS917461:RNT917476 RDW917461:RDX917476 QUA917461:QUB917476 QKE917461:QKF917476 QAI917461:QAJ917476 PQM917461:PQN917476 PGQ917461:PGR917476 OWU917461:OWV917476 OMY917461:OMZ917476 ODC917461:ODD917476 NTG917461:NTH917476 NJK917461:NJL917476 MZO917461:MZP917476 MPS917461:MPT917476 MFW917461:MFX917476 LWA917461:LWB917476 LME917461:LMF917476 LCI917461:LCJ917476 KSM917461:KSN917476 KIQ917461:KIR917476 JYU917461:JYV917476 JOY917461:JOZ917476 JFC917461:JFD917476 IVG917461:IVH917476 ILK917461:ILL917476 IBO917461:IBP917476 HRS917461:HRT917476 HHW917461:HHX917476 GYA917461:GYB917476 GOE917461:GOF917476 GEI917461:GEJ917476 FUM917461:FUN917476 FKQ917461:FKR917476 FAU917461:FAV917476 EQY917461:EQZ917476 EHC917461:EHD917476 DXG917461:DXH917476 DNK917461:DNL917476 DDO917461:DDP917476 CTS917461:CTT917476 CJW917461:CJX917476 CAA917461:CAB917476 BQE917461:BQF917476 BGI917461:BGJ917476 AWM917461:AWN917476 AMQ917461:AMR917476 ACU917461:ACV917476 SY917461:SZ917476 JC917461:JD917476 F917462:F917477 WVO851925:WVP851940 WLS851925:WLT851940 WBW851925:WBX851940 VSA851925:VSB851940 VIE851925:VIF851940 UYI851925:UYJ851940 UOM851925:UON851940 UEQ851925:UER851940 TUU851925:TUV851940 TKY851925:TKZ851940 TBC851925:TBD851940 SRG851925:SRH851940 SHK851925:SHL851940 RXO851925:RXP851940 RNS851925:RNT851940 RDW851925:RDX851940 QUA851925:QUB851940 QKE851925:QKF851940 QAI851925:QAJ851940 PQM851925:PQN851940 PGQ851925:PGR851940 OWU851925:OWV851940 OMY851925:OMZ851940 ODC851925:ODD851940 NTG851925:NTH851940 NJK851925:NJL851940 MZO851925:MZP851940 MPS851925:MPT851940 MFW851925:MFX851940 LWA851925:LWB851940 LME851925:LMF851940 LCI851925:LCJ851940 KSM851925:KSN851940 KIQ851925:KIR851940 JYU851925:JYV851940 JOY851925:JOZ851940 JFC851925:JFD851940 IVG851925:IVH851940 ILK851925:ILL851940 IBO851925:IBP851940 HRS851925:HRT851940 HHW851925:HHX851940 GYA851925:GYB851940 GOE851925:GOF851940 GEI851925:GEJ851940 FUM851925:FUN851940 FKQ851925:FKR851940 FAU851925:FAV851940 EQY851925:EQZ851940 EHC851925:EHD851940 DXG851925:DXH851940 DNK851925:DNL851940 DDO851925:DDP851940 CTS851925:CTT851940 CJW851925:CJX851940 CAA851925:CAB851940 BQE851925:BQF851940 BGI851925:BGJ851940 AWM851925:AWN851940 AMQ851925:AMR851940 ACU851925:ACV851940 SY851925:SZ851940 JC851925:JD851940 F851926:F851941 WVO786389:WVP786404 WLS786389:WLT786404 WBW786389:WBX786404 VSA786389:VSB786404 VIE786389:VIF786404 UYI786389:UYJ786404 UOM786389:UON786404 UEQ786389:UER786404 TUU786389:TUV786404 TKY786389:TKZ786404 TBC786389:TBD786404 SRG786389:SRH786404 SHK786389:SHL786404 RXO786389:RXP786404 RNS786389:RNT786404 RDW786389:RDX786404 QUA786389:QUB786404 QKE786389:QKF786404 QAI786389:QAJ786404 PQM786389:PQN786404 PGQ786389:PGR786404 OWU786389:OWV786404 OMY786389:OMZ786404 ODC786389:ODD786404 NTG786389:NTH786404 NJK786389:NJL786404 MZO786389:MZP786404 MPS786389:MPT786404 MFW786389:MFX786404 LWA786389:LWB786404 LME786389:LMF786404 LCI786389:LCJ786404 KSM786389:KSN786404 KIQ786389:KIR786404 JYU786389:JYV786404 JOY786389:JOZ786404 JFC786389:JFD786404 IVG786389:IVH786404 ILK786389:ILL786404 IBO786389:IBP786404 HRS786389:HRT786404 HHW786389:HHX786404 GYA786389:GYB786404 GOE786389:GOF786404 GEI786389:GEJ786404 FUM786389:FUN786404 FKQ786389:FKR786404 FAU786389:FAV786404 EQY786389:EQZ786404 EHC786389:EHD786404 DXG786389:DXH786404 DNK786389:DNL786404 DDO786389:DDP786404 CTS786389:CTT786404 CJW786389:CJX786404 CAA786389:CAB786404 BQE786389:BQF786404 BGI786389:BGJ786404 AWM786389:AWN786404 AMQ786389:AMR786404 ACU786389:ACV786404 SY786389:SZ786404 JC786389:JD786404 F786390:F786405 WVO720853:WVP720868 WLS720853:WLT720868 WBW720853:WBX720868 VSA720853:VSB720868 VIE720853:VIF720868 UYI720853:UYJ720868 UOM720853:UON720868 UEQ720853:UER720868 TUU720853:TUV720868 TKY720853:TKZ720868 TBC720853:TBD720868 SRG720853:SRH720868 SHK720853:SHL720868 RXO720853:RXP720868 RNS720853:RNT720868 RDW720853:RDX720868 QUA720853:QUB720868 QKE720853:QKF720868 QAI720853:QAJ720868 PQM720853:PQN720868 PGQ720853:PGR720868 OWU720853:OWV720868 OMY720853:OMZ720868 ODC720853:ODD720868 NTG720853:NTH720868 NJK720853:NJL720868 MZO720853:MZP720868 MPS720853:MPT720868 MFW720853:MFX720868 LWA720853:LWB720868 LME720853:LMF720868 LCI720853:LCJ720868 KSM720853:KSN720868 KIQ720853:KIR720868 JYU720853:JYV720868 JOY720853:JOZ720868 JFC720853:JFD720868 IVG720853:IVH720868 ILK720853:ILL720868 IBO720853:IBP720868 HRS720853:HRT720868 HHW720853:HHX720868 GYA720853:GYB720868 GOE720853:GOF720868 GEI720853:GEJ720868 FUM720853:FUN720868 FKQ720853:FKR720868 FAU720853:FAV720868 EQY720853:EQZ720868 EHC720853:EHD720868 DXG720853:DXH720868 DNK720853:DNL720868 DDO720853:DDP720868 CTS720853:CTT720868 CJW720853:CJX720868 CAA720853:CAB720868 BQE720853:BQF720868 BGI720853:BGJ720868 AWM720853:AWN720868 AMQ720853:AMR720868 ACU720853:ACV720868 SY720853:SZ720868 JC720853:JD720868 F720854:F720869 WVO655317:WVP655332 WLS655317:WLT655332 WBW655317:WBX655332 VSA655317:VSB655332 VIE655317:VIF655332 UYI655317:UYJ655332 UOM655317:UON655332 UEQ655317:UER655332 TUU655317:TUV655332 TKY655317:TKZ655332 TBC655317:TBD655332 SRG655317:SRH655332 SHK655317:SHL655332 RXO655317:RXP655332 RNS655317:RNT655332 RDW655317:RDX655332 QUA655317:QUB655332 QKE655317:QKF655332 QAI655317:QAJ655332 PQM655317:PQN655332 PGQ655317:PGR655332 OWU655317:OWV655332 OMY655317:OMZ655332 ODC655317:ODD655332 NTG655317:NTH655332 NJK655317:NJL655332 MZO655317:MZP655332 MPS655317:MPT655332 MFW655317:MFX655332 LWA655317:LWB655332 LME655317:LMF655332 LCI655317:LCJ655332 KSM655317:KSN655332 KIQ655317:KIR655332 JYU655317:JYV655332 JOY655317:JOZ655332 JFC655317:JFD655332 IVG655317:IVH655332 ILK655317:ILL655332 IBO655317:IBP655332 HRS655317:HRT655332 HHW655317:HHX655332 GYA655317:GYB655332 GOE655317:GOF655332 GEI655317:GEJ655332 FUM655317:FUN655332 FKQ655317:FKR655332 FAU655317:FAV655332 EQY655317:EQZ655332 EHC655317:EHD655332 DXG655317:DXH655332 DNK655317:DNL655332 DDO655317:DDP655332 CTS655317:CTT655332 CJW655317:CJX655332 CAA655317:CAB655332 BQE655317:BQF655332 BGI655317:BGJ655332 AWM655317:AWN655332 AMQ655317:AMR655332 ACU655317:ACV655332 SY655317:SZ655332 JC655317:JD655332 F655318:F655333 WVO589781:WVP589796 WLS589781:WLT589796 WBW589781:WBX589796 VSA589781:VSB589796 VIE589781:VIF589796 UYI589781:UYJ589796 UOM589781:UON589796 UEQ589781:UER589796 TUU589781:TUV589796 TKY589781:TKZ589796 TBC589781:TBD589796 SRG589781:SRH589796 SHK589781:SHL589796 RXO589781:RXP589796 RNS589781:RNT589796 RDW589781:RDX589796 QUA589781:QUB589796 QKE589781:QKF589796 QAI589781:QAJ589796 PQM589781:PQN589796 PGQ589781:PGR589796 OWU589781:OWV589796 OMY589781:OMZ589796 ODC589781:ODD589796 NTG589781:NTH589796 NJK589781:NJL589796 MZO589781:MZP589796 MPS589781:MPT589796 MFW589781:MFX589796 LWA589781:LWB589796 LME589781:LMF589796 LCI589781:LCJ589796 KSM589781:KSN589796 KIQ589781:KIR589796 JYU589781:JYV589796 JOY589781:JOZ589796 JFC589781:JFD589796 IVG589781:IVH589796 ILK589781:ILL589796 IBO589781:IBP589796 HRS589781:HRT589796 HHW589781:HHX589796 GYA589781:GYB589796 GOE589781:GOF589796 GEI589781:GEJ589796 FUM589781:FUN589796 FKQ589781:FKR589796 FAU589781:FAV589796 EQY589781:EQZ589796 EHC589781:EHD589796 DXG589781:DXH589796 DNK589781:DNL589796 DDO589781:DDP589796 CTS589781:CTT589796 CJW589781:CJX589796 CAA589781:CAB589796 BQE589781:BQF589796 BGI589781:BGJ589796 AWM589781:AWN589796 AMQ589781:AMR589796 ACU589781:ACV589796 SY589781:SZ589796 JC589781:JD589796 F589782:F589797 WVO524245:WVP524260 WLS524245:WLT524260 WBW524245:WBX524260 VSA524245:VSB524260 VIE524245:VIF524260 UYI524245:UYJ524260 UOM524245:UON524260 UEQ524245:UER524260 TUU524245:TUV524260 TKY524245:TKZ524260 TBC524245:TBD524260 SRG524245:SRH524260 SHK524245:SHL524260 RXO524245:RXP524260 RNS524245:RNT524260 RDW524245:RDX524260 QUA524245:QUB524260 QKE524245:QKF524260 QAI524245:QAJ524260 PQM524245:PQN524260 PGQ524245:PGR524260 OWU524245:OWV524260 OMY524245:OMZ524260 ODC524245:ODD524260 NTG524245:NTH524260 NJK524245:NJL524260 MZO524245:MZP524260 MPS524245:MPT524260 MFW524245:MFX524260 LWA524245:LWB524260 LME524245:LMF524260 LCI524245:LCJ524260 KSM524245:KSN524260 KIQ524245:KIR524260 JYU524245:JYV524260 JOY524245:JOZ524260 JFC524245:JFD524260 IVG524245:IVH524260 ILK524245:ILL524260 IBO524245:IBP524260 HRS524245:HRT524260 HHW524245:HHX524260 GYA524245:GYB524260 GOE524245:GOF524260 GEI524245:GEJ524260 FUM524245:FUN524260 FKQ524245:FKR524260 FAU524245:FAV524260 EQY524245:EQZ524260 EHC524245:EHD524260 DXG524245:DXH524260 DNK524245:DNL524260 DDO524245:DDP524260 CTS524245:CTT524260 CJW524245:CJX524260 CAA524245:CAB524260 BQE524245:BQF524260 BGI524245:BGJ524260 AWM524245:AWN524260 AMQ524245:AMR524260 ACU524245:ACV524260 SY524245:SZ524260 JC524245:JD524260 F524246:F524261 WVO458709:WVP458724 WLS458709:WLT458724 WBW458709:WBX458724 VSA458709:VSB458724 VIE458709:VIF458724 UYI458709:UYJ458724 UOM458709:UON458724 UEQ458709:UER458724 TUU458709:TUV458724 TKY458709:TKZ458724 TBC458709:TBD458724 SRG458709:SRH458724 SHK458709:SHL458724 RXO458709:RXP458724 RNS458709:RNT458724 RDW458709:RDX458724 QUA458709:QUB458724 QKE458709:QKF458724 QAI458709:QAJ458724 PQM458709:PQN458724 PGQ458709:PGR458724 OWU458709:OWV458724 OMY458709:OMZ458724 ODC458709:ODD458724 NTG458709:NTH458724 NJK458709:NJL458724 MZO458709:MZP458724 MPS458709:MPT458724 MFW458709:MFX458724 LWA458709:LWB458724 LME458709:LMF458724 LCI458709:LCJ458724 KSM458709:KSN458724 KIQ458709:KIR458724 JYU458709:JYV458724 JOY458709:JOZ458724 JFC458709:JFD458724 IVG458709:IVH458724 ILK458709:ILL458724 IBO458709:IBP458724 HRS458709:HRT458724 HHW458709:HHX458724 GYA458709:GYB458724 GOE458709:GOF458724 GEI458709:GEJ458724 FUM458709:FUN458724 FKQ458709:FKR458724 FAU458709:FAV458724 EQY458709:EQZ458724 EHC458709:EHD458724 DXG458709:DXH458724 DNK458709:DNL458724 DDO458709:DDP458724 CTS458709:CTT458724 CJW458709:CJX458724 CAA458709:CAB458724 BQE458709:BQF458724 BGI458709:BGJ458724 AWM458709:AWN458724 AMQ458709:AMR458724 ACU458709:ACV458724 SY458709:SZ458724 JC458709:JD458724 F458710:F458725 WVO393173:WVP393188 WLS393173:WLT393188 WBW393173:WBX393188 VSA393173:VSB393188 VIE393173:VIF393188 UYI393173:UYJ393188 UOM393173:UON393188 UEQ393173:UER393188 TUU393173:TUV393188 TKY393173:TKZ393188 TBC393173:TBD393188 SRG393173:SRH393188 SHK393173:SHL393188 RXO393173:RXP393188 RNS393173:RNT393188 RDW393173:RDX393188 QUA393173:QUB393188 QKE393173:QKF393188 QAI393173:QAJ393188 PQM393173:PQN393188 PGQ393173:PGR393188 OWU393173:OWV393188 OMY393173:OMZ393188 ODC393173:ODD393188 NTG393173:NTH393188 NJK393173:NJL393188 MZO393173:MZP393188 MPS393173:MPT393188 MFW393173:MFX393188 LWA393173:LWB393188 LME393173:LMF393188 LCI393173:LCJ393188 KSM393173:KSN393188 KIQ393173:KIR393188 JYU393173:JYV393188 JOY393173:JOZ393188 JFC393173:JFD393188 IVG393173:IVH393188 ILK393173:ILL393188 IBO393173:IBP393188 HRS393173:HRT393188 HHW393173:HHX393188 GYA393173:GYB393188 GOE393173:GOF393188 GEI393173:GEJ393188 FUM393173:FUN393188 FKQ393173:FKR393188 FAU393173:FAV393188 EQY393173:EQZ393188 EHC393173:EHD393188 DXG393173:DXH393188 DNK393173:DNL393188 DDO393173:DDP393188 CTS393173:CTT393188 CJW393173:CJX393188 CAA393173:CAB393188 BQE393173:BQF393188 BGI393173:BGJ393188 AWM393173:AWN393188 AMQ393173:AMR393188 ACU393173:ACV393188 SY393173:SZ393188 JC393173:JD393188 F393174:F393189 WVO327637:WVP327652 WLS327637:WLT327652 WBW327637:WBX327652 VSA327637:VSB327652 VIE327637:VIF327652 UYI327637:UYJ327652 UOM327637:UON327652 UEQ327637:UER327652 TUU327637:TUV327652 TKY327637:TKZ327652 TBC327637:TBD327652 SRG327637:SRH327652 SHK327637:SHL327652 RXO327637:RXP327652 RNS327637:RNT327652 RDW327637:RDX327652 QUA327637:QUB327652 QKE327637:QKF327652 QAI327637:QAJ327652 PQM327637:PQN327652 PGQ327637:PGR327652 OWU327637:OWV327652 OMY327637:OMZ327652 ODC327637:ODD327652 NTG327637:NTH327652 NJK327637:NJL327652 MZO327637:MZP327652 MPS327637:MPT327652 MFW327637:MFX327652 LWA327637:LWB327652 LME327637:LMF327652 LCI327637:LCJ327652 KSM327637:KSN327652 KIQ327637:KIR327652 JYU327637:JYV327652 JOY327637:JOZ327652 JFC327637:JFD327652 IVG327637:IVH327652 ILK327637:ILL327652 IBO327637:IBP327652 HRS327637:HRT327652 HHW327637:HHX327652 GYA327637:GYB327652 GOE327637:GOF327652 GEI327637:GEJ327652 FUM327637:FUN327652 FKQ327637:FKR327652 FAU327637:FAV327652 EQY327637:EQZ327652 EHC327637:EHD327652 DXG327637:DXH327652 DNK327637:DNL327652 DDO327637:DDP327652 CTS327637:CTT327652 CJW327637:CJX327652 CAA327637:CAB327652 BQE327637:BQF327652 BGI327637:BGJ327652 AWM327637:AWN327652 AMQ327637:AMR327652 ACU327637:ACV327652 SY327637:SZ327652 JC327637:JD327652 F327638:F327653 WVO262101:WVP262116 WLS262101:WLT262116 WBW262101:WBX262116 VSA262101:VSB262116 VIE262101:VIF262116 UYI262101:UYJ262116 UOM262101:UON262116 UEQ262101:UER262116 TUU262101:TUV262116 TKY262101:TKZ262116 TBC262101:TBD262116 SRG262101:SRH262116 SHK262101:SHL262116 RXO262101:RXP262116 RNS262101:RNT262116 RDW262101:RDX262116 QUA262101:QUB262116 QKE262101:QKF262116 QAI262101:QAJ262116 PQM262101:PQN262116 PGQ262101:PGR262116 OWU262101:OWV262116 OMY262101:OMZ262116 ODC262101:ODD262116 NTG262101:NTH262116 NJK262101:NJL262116 MZO262101:MZP262116 MPS262101:MPT262116 MFW262101:MFX262116 LWA262101:LWB262116 LME262101:LMF262116 LCI262101:LCJ262116 KSM262101:KSN262116 KIQ262101:KIR262116 JYU262101:JYV262116 JOY262101:JOZ262116 JFC262101:JFD262116 IVG262101:IVH262116 ILK262101:ILL262116 IBO262101:IBP262116 HRS262101:HRT262116 HHW262101:HHX262116 GYA262101:GYB262116 GOE262101:GOF262116 GEI262101:GEJ262116 FUM262101:FUN262116 FKQ262101:FKR262116 FAU262101:FAV262116 EQY262101:EQZ262116 EHC262101:EHD262116 DXG262101:DXH262116 DNK262101:DNL262116 DDO262101:DDP262116 CTS262101:CTT262116 CJW262101:CJX262116 CAA262101:CAB262116 BQE262101:BQF262116 BGI262101:BGJ262116 AWM262101:AWN262116 AMQ262101:AMR262116 ACU262101:ACV262116 SY262101:SZ262116 JC262101:JD262116 F262102:F262117 WVO196565:WVP196580 WLS196565:WLT196580 WBW196565:WBX196580 VSA196565:VSB196580 VIE196565:VIF196580 UYI196565:UYJ196580 UOM196565:UON196580 UEQ196565:UER196580 TUU196565:TUV196580 TKY196565:TKZ196580 TBC196565:TBD196580 SRG196565:SRH196580 SHK196565:SHL196580 RXO196565:RXP196580 RNS196565:RNT196580 RDW196565:RDX196580 QUA196565:QUB196580 QKE196565:QKF196580 QAI196565:QAJ196580 PQM196565:PQN196580 PGQ196565:PGR196580 OWU196565:OWV196580 OMY196565:OMZ196580 ODC196565:ODD196580 NTG196565:NTH196580 NJK196565:NJL196580 MZO196565:MZP196580 MPS196565:MPT196580 MFW196565:MFX196580 LWA196565:LWB196580 LME196565:LMF196580 LCI196565:LCJ196580 KSM196565:KSN196580 KIQ196565:KIR196580 JYU196565:JYV196580 JOY196565:JOZ196580 JFC196565:JFD196580 IVG196565:IVH196580 ILK196565:ILL196580 IBO196565:IBP196580 HRS196565:HRT196580 HHW196565:HHX196580 GYA196565:GYB196580 GOE196565:GOF196580 GEI196565:GEJ196580 FUM196565:FUN196580 FKQ196565:FKR196580 FAU196565:FAV196580 EQY196565:EQZ196580 EHC196565:EHD196580 DXG196565:DXH196580 DNK196565:DNL196580 DDO196565:DDP196580 CTS196565:CTT196580 CJW196565:CJX196580 CAA196565:CAB196580 BQE196565:BQF196580 BGI196565:BGJ196580 AWM196565:AWN196580 AMQ196565:AMR196580 ACU196565:ACV196580 SY196565:SZ196580 JC196565:JD196580 F196566:F196581 WVO131029:WVP131044 WLS131029:WLT131044 WBW131029:WBX131044 VSA131029:VSB131044 VIE131029:VIF131044 UYI131029:UYJ131044 UOM131029:UON131044 UEQ131029:UER131044 TUU131029:TUV131044 TKY131029:TKZ131044 TBC131029:TBD131044 SRG131029:SRH131044 SHK131029:SHL131044 RXO131029:RXP131044 RNS131029:RNT131044 RDW131029:RDX131044 QUA131029:QUB131044 QKE131029:QKF131044 QAI131029:QAJ131044 PQM131029:PQN131044 PGQ131029:PGR131044 OWU131029:OWV131044 OMY131029:OMZ131044 ODC131029:ODD131044 NTG131029:NTH131044 NJK131029:NJL131044 MZO131029:MZP131044 MPS131029:MPT131044 MFW131029:MFX131044 LWA131029:LWB131044 LME131029:LMF131044 LCI131029:LCJ131044 KSM131029:KSN131044 KIQ131029:KIR131044 JYU131029:JYV131044 JOY131029:JOZ131044 JFC131029:JFD131044 IVG131029:IVH131044 ILK131029:ILL131044 IBO131029:IBP131044 HRS131029:HRT131044 HHW131029:HHX131044 GYA131029:GYB131044 GOE131029:GOF131044 GEI131029:GEJ131044 FUM131029:FUN131044 FKQ131029:FKR131044 FAU131029:FAV131044 EQY131029:EQZ131044 EHC131029:EHD131044 DXG131029:DXH131044 DNK131029:DNL131044 DDO131029:DDP131044 CTS131029:CTT131044 CJW131029:CJX131044 CAA131029:CAB131044 BQE131029:BQF131044 BGI131029:BGJ131044 AWM131029:AWN131044 AMQ131029:AMR131044 ACU131029:ACV131044 SY131029:SZ131044 JC131029:JD131044 F131030:F131045 WVO65493:WVP65508 WLS65493:WLT65508 WBW65493:WBX65508 VSA65493:VSB65508 VIE65493:VIF65508 UYI65493:UYJ65508 UOM65493:UON65508 UEQ65493:UER65508 TUU65493:TUV65508 TKY65493:TKZ65508 TBC65493:TBD65508 SRG65493:SRH65508 SHK65493:SHL65508 RXO65493:RXP65508 RNS65493:RNT65508 RDW65493:RDX65508 QUA65493:QUB65508 QKE65493:QKF65508 QAI65493:QAJ65508 PQM65493:PQN65508 PGQ65493:PGR65508 OWU65493:OWV65508 OMY65493:OMZ65508 ODC65493:ODD65508 NTG65493:NTH65508 NJK65493:NJL65508 MZO65493:MZP65508 MPS65493:MPT65508 MFW65493:MFX65508 LWA65493:LWB65508 LME65493:LMF65508 LCI65493:LCJ65508 KSM65493:KSN65508 KIQ65493:KIR65508 JYU65493:JYV65508 JOY65493:JOZ65508 JFC65493:JFD65508 IVG65493:IVH65508 ILK65493:ILL65508 IBO65493:IBP65508 HRS65493:HRT65508 HHW65493:HHX65508 GYA65493:GYB65508 GOE65493:GOF65508 GEI65493:GEJ65508 FUM65493:FUN65508 FKQ65493:FKR65508 FAU65493:FAV65508 EQY65493:EQZ65508 EHC65493:EHD65508 DXG65493:DXH65508 DNK65493:DNL65508 DDO65493:DDP65508 CTS65493:CTT65508 CJW65493:CJX65508 CAA65493:CAB65508 BQE65493:BQF65508 BGI65493:BGJ65508 AWM65493:AWN65508 AMQ65493:AMR65508 ACU65493:ACV65508 SY65493:SZ65508 JC65493:JD65508 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D47:D49 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D119:D120 D89:D92 D41:D42 D54:D55 D61:D62 D68:D69 D75:D76 D111 D104:D105 D97:D99 D34:D35 D82:D83 D114 D6:D8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D43 D34:D35 D83:D84 D119 D98:D104" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -4023,24 +4191,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4057,4 +4223,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7796D-BF0C-4803-89FE-1E5A401CA68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6BF0A-A817-4203-A77F-088606BFC20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="161">
   <si>
     <t>Database Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>FK</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
     <t>Starts with the letter S</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>A name describing the location of settlement</t>
   </si>
   <si>
-    <t>A number describing how many people must be present</t>
-  </si>
-  <si>
     <t>tinyint()</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>Starts with S</t>
   </si>
   <si>
-    <t>ID from inventory table</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>Check it starts with T and is integer</t>
   </si>
   <si>
-    <t>ItemID</t>
-  </si>
-  <si>
     <t>PeopleID</t>
   </si>
   <si>
@@ -324,15 +312,6 @@
     <t>PeopleJobs</t>
   </si>
   <si>
-    <t>Items</t>
-  </si>
-  <si>
-    <t>The ID for item</t>
-  </si>
-  <si>
-    <t>Foreign Key to Items table</t>
-  </si>
-  <si>
     <t>WeaponPrice</t>
   </si>
   <si>
@@ -363,12 +342,6 @@
     <t>Check it starts with I</t>
   </si>
   <si>
-    <t>ItemType</t>
-  </si>
-  <si>
-    <t>Type of item</t>
-  </si>
-  <si>
     <t>Missions</t>
   </si>
   <si>
@@ -454,6 +427,96 @@
   </si>
   <si>
     <t>Check that its in between 0 and 10</t>
+  </si>
+  <si>
+    <t>A number describing minimum number of people that must be present</t>
+  </si>
+  <si>
+    <t>InvID</t>
+  </si>
+  <si>
+    <t>The ID for the inventory item</t>
+  </si>
+  <si>
+    <t>InvDescription</t>
+  </si>
+  <si>
+    <t>Description of the item</t>
+  </si>
+  <si>
+    <t>InvPrice</t>
+  </si>
+  <si>
+    <t>Price of the item</t>
+  </si>
+  <si>
+    <t>ID from InventoryDescription table</t>
+  </si>
+  <si>
+    <t>WeaponID</t>
+  </si>
+  <si>
+    <t>Primary key got the weapon</t>
+  </si>
+  <si>
+    <t>Check it starts with W</t>
+  </si>
+  <si>
+    <t>FoodID</t>
+  </si>
+  <si>
+    <t>Primary key for the food</t>
+  </si>
+  <si>
+    <t>Check it starts with F</t>
+  </si>
+  <si>
+    <t>VehicleID</t>
+  </si>
+  <si>
+    <t>Primary key for the vehicles</t>
+  </si>
+  <si>
+    <t>Check it starts with V</t>
+  </si>
+  <si>
+    <t>MedicineID</t>
+  </si>
+  <si>
+    <t>Primary key for the medicine</t>
+  </si>
+  <si>
+    <t>Check it starts with M</t>
+  </si>
+  <si>
+    <t>HousingID</t>
+  </si>
+  <si>
+    <t>Primary key for the housing</t>
+  </si>
+  <si>
+    <t>Check it starts with H</t>
+  </si>
+  <si>
+    <t>Foreign key from weapons table</t>
+  </si>
+  <si>
+    <t>Can be</t>
+  </si>
+  <si>
+    <t>Foreign key from food table</t>
+  </si>
+  <si>
+    <t>Foreign key from vehicle table</t>
+  </si>
+  <si>
+    <t>Foreign key from medicine table</t>
+  </si>
+  <si>
+    <t>Foreign key from housing table</t>
+  </si>
+  <si>
+    <t>Inventory</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -1719,7 +1782,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44511.333000694445</v>
+        <v>44537.80504363426</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1731,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="91"/>
       <c r="D4" s="91"/>
@@ -1779,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="64" t="s">
         <v>14</v>
@@ -1788,14 +1851,14 @@
         <v>15</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="65"/>
       <c r="G6" s="63" t="s">
         <v>20</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="63" t="s">
@@ -1805,10 +1868,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="63"/>
       <c r="B7" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>18</v>
@@ -1829,23 +1892,23 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C8" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>33</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="63" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1858,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -1906,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -1915,14 +1978,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71" t="s">
@@ -1932,10 +1995,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>17</v>
@@ -1956,10 +2019,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>17</v>
@@ -1980,13 +2043,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C16" s="72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
@@ -2005,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2050,19 +2113,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D21" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
@@ -2076,19 +2139,19 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
@@ -2107,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -2155,23 +2218,23 @@
         <v>13</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="46" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F27" s="47"/>
       <c r="G27" s="45" t="s">
         <v>20</v>
       </c>
       <c r="H27" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I27" s="45"/>
       <c r="J27" s="45" t="s">
@@ -2181,10 +2244,10 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C28" s="46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" s="45" t="s">
         <v>17</v>
@@ -2205,13 +2268,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C29" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>128</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>137</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -2220,8 +2283,8 @@
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="45" t="s">
-        <v>22</v>
+      <c r="J29" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2287,19 +2350,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
@@ -2307,25 +2370,25 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>22</v>
+      <c r="J34" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D35" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
@@ -2333,20 +2396,20 @@
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>22</v>
+      <c r="J35" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2355,8 +2418,8 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>22</v>
+      <c r="J36" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2365,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2413,889 +2476,899 @@
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="11" t="s">
         <v>20</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="11" t="s">
-        <v>22</v>
+      <c r="J41" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="82"/>
+      <c r="B42" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="11" t="s">
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B46" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="F48" s="13"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="11"/>
       <c r="I48" s="11"/>
-      <c r="J48" s="11" t="s">
-        <v>22</v>
+      <c r="J48" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+      <c r="A49" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="B49" s="11" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="F49" s="12"/>
       <c r="G49" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
-      <c r="J49" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="J49" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="B53" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="11" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="11"/>
+      <c r="H55" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="17"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="17"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="B60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="E61" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I60" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J61" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="11" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="11" t="s">
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="11"/>
+      <c r="H62" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D63" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16" t="s">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="B67" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="E68" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="J68" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="11" t="s">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="11"/>
+      <c r="H69" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16" t="s">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
       <c r="J70" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="B74" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="E75" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J75" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="11" t="s">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C76" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="11" t="s">
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H76" s="11"/>
+      <c r="H76" s="11" t="s">
+        <v>150</v>
+      </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16" t="s">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
       <c r="J77" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="21"/>
-    </row>
-    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
+      <c r="B81" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="J82" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="11" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="11" t="s">
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="11"/>
+      <c r="H83" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16" t="s">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
       <c r="J84" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55" t="s">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" s="59"/>
-      <c r="D87" s="59"/>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="59"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="60"/>
-    </row>
-    <row r="88" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="56" t="s">
+      <c r="B88" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="59"/>
+      <c r="J88" s="60"/>
+    </row>
+    <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B89" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C89" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D89" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="51" t="s">
+      <c r="E89" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F88" s="51" t="s">
+      <c r="F89" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="51" t="s">
+      <c r="G89" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H88" s="51" t="s">
+      <c r="H89" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I88" s="51" t="s">
+      <c r="I89" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J88" s="51" t="s">
+      <c r="J89" s="51" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B89" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D89" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="I89" s="52"/>
-      <c r="J89" s="52" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D90" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="53"/>
-      <c r="F90" s="53"/>
+      <c r="E90" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" s="54"/>
       <c r="G90" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H90" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="H90" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="I90" s="52"/>
       <c r="J90" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
-      <c r="B91" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>130</v>
+      <c r="A91" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B91" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" s="53" t="s">
+        <v>76</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
+      <c r="H91" s="52"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="52" t="s">
         <v>16</v>
       </c>
@@ -3303,13 +3376,13 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="57" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="E92" s="57"/>
       <c r="F92" s="57"/>
@@ -3322,96 +3395,94 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="14" t="s">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="57"/>
+      <c r="B93" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D93" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B95" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
-    </row>
-    <row r="96" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="B96" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="20"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C97" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D97" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I96" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J97" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E97" s="12"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D98" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -3420,391 +3491,503 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>89</v>
+      <c r="A99" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
       <c r="J99" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="82"/>
+      <c r="H100" s="82"/>
+      <c r="I100" s="82"/>
+      <c r="J100" s="82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="82"/>
+      <c r="H101" s="82"/>
+      <c r="I101" s="82"/>
+      <c r="J101" s="82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
+      <c r="G102" s="82"/>
+      <c r="H102" s="82"/>
+      <c r="I102" s="82"/>
+      <c r="J102" s="82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103" s="82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
+      <c r="G103" s="82"/>
+      <c r="H103" s="82"/>
+      <c r="I103" s="82"/>
+      <c r="J103" s="82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B107" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="42"/>
+    </row>
+    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B108" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H108" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I108" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="42"/>
-    </row>
-    <row r="103" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="38" t="s">
+      <c r="F109" s="36"/>
+      <c r="G109" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="34"/>
+      <c r="B110" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C110" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+      <c r="G110" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="39"/>
+      <c r="B111" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="31"/>
+    </row>
+    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B103" s="32" t="s">
+      <c r="B115" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C103" s="33" t="s">
+      <c r="C115" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D115" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E115" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="33" t="s">
+      <c r="F115" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G115" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H103" s="33" t="s">
+      <c r="H115" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I103" s="33" t="s">
+      <c r="I115" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J103" s="33" t="s">
+      <c r="J115" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="34" t="s">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B104" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="82" t="s">
+      <c r="B116" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D116" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F104" s="36"/>
-      <c r="G104" s="34" t="s">
+      <c r="E116" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" s="26"/>
+      <c r="G116" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H104" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I104" s="34"/>
-      <c r="J104" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C105" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="D105" s="34" t="s">
+      <c r="H116" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H117" s="24"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D118" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="35"/>
-      <c r="F105" s="35"/>
-      <c r="G105" s="34" t="s">
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H105" s="34"/>
-      <c r="I105" s="34"/>
-      <c r="J105" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="30"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="30"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="30"/>
-      <c r="H109" s="30"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="31"/>
-    </row>
-    <row r="110" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J110" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="24" t="s">
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B111" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D111" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="F111" s="26"/>
-      <c r="G111" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" s="24" t="s">
+      <c r="B119" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>114</v>
-      </c>
-      <c r="I111" s="24"/>
-      <c r="J111" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="D112" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="24"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="24"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D114" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H114" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="I114" s="24"/>
-      <c r="J114" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B117" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="C117" s="88"/>
-      <c r="D117" s="88"/>
-      <c r="E117" s="88"/>
-      <c r="F117" s="88"/>
-      <c r="G117" s="88"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="88"/>
-      <c r="J117" s="89"/>
-    </row>
-    <row r="118" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B118" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I118" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J118" s="81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B119" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" s="83" t="s">
-        <v>122</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="82" t="s">
+      <c r="E119" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F119" s="26"/>
+      <c r="G119" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H119" s="82"/>
-      <c r="I119" s="82"/>
-      <c r="J119" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B120" s="82" t="s">
-        <v>120</v>
-      </c>
-      <c r="C120" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D120" s="82" t="s">
+      <c r="H119" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="88"/>
+      <c r="D122" s="88"/>
+      <c r="E122" s="88"/>
+      <c r="F122" s="88"/>
+      <c r="G122" s="88"/>
+      <c r="H122" s="88"/>
+      <c r="I122" s="88"/>
+      <c r="J122" s="89"/>
+    </row>
+    <row r="123" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H123" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I123" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E120" s="83"/>
-      <c r="F120" s="84"/>
-      <c r="G120" s="82" t="s">
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
+      <c r="G124" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H120" s="82"/>
-      <c r="I120" s="82"/>
-      <c r="J120" s="82" t="s">
+      <c r="H124" s="82"/>
+      <c r="I124" s="82"/>
+      <c r="J124" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B125" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="83" t="s">
+        <v>112</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="83"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H125" s="82"/>
+      <c r="I125" s="82"/>
+      <c r="J125" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3814,22 +3997,16 @@
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65489:F65504 WVO982992:WVP983007 WLS982992:WLT983007 WBW982992:WBX983007 VSA982992:VSB983007 VIE982992:VIF983007 UYI982992:UYJ983007 UOM982992:UON983007 UEQ982992:UER983007 TUU982992:TUV983007 TKY982992:TKZ983007 TBC982992:TBD983007 SRG982992:SRH983007 SHK982992:SHL983007 RXO982992:RXP983007 RNS982992:RNT983007 RDW982992:RDX983007 QUA982992:QUB983007 QKE982992:QKF983007 QAI982992:QAJ983007 PQM982992:PQN983007 PGQ982992:PGR983007 OWU982992:OWV983007 OMY982992:OMZ983007 ODC982992:ODD983007 NTG982992:NTH983007 NJK982992:NJL983007 MZO982992:MZP983007 MPS982992:MPT983007 MFW982992:MFX983007 LWA982992:LWB983007 LME982992:LMF983007 LCI982992:LCJ983007 KSM982992:KSN983007 KIQ982992:KIR983007 JYU982992:JYV983007 JOY982992:JOZ983007 JFC982992:JFD983007 IVG982992:IVH983007 ILK982992:ILL983007 IBO982992:IBP983007 HRS982992:HRT983007 HHW982992:HHX983007 GYA982992:GYB983007 GOE982992:GOF983007 GEI982992:GEJ983007 FUM982992:FUN983007 FKQ982992:FKR983007 FAU982992:FAV983007 EQY982992:EQZ983007 EHC982992:EHD983007 DXG982992:DXH983007 DNK982992:DNL983007 DDO982992:DDP983007 CTS982992:CTT983007 CJW982992:CJX983007 CAA982992:CAB983007 BQE982992:BQF983007 BGI982992:BGJ983007 AWM982992:AWN983007 AMQ982992:AMR983007 ACU982992:ACV983007 SY982992:SZ983007 JC982992:JD983007 F982993:F983008 WVO917456:WVP917471 WLS917456:WLT917471 WBW917456:WBX917471 VSA917456:VSB917471 VIE917456:VIF917471 UYI917456:UYJ917471 UOM917456:UON917471 UEQ917456:UER917471 TUU917456:TUV917471 TKY917456:TKZ917471 TBC917456:TBD917471 SRG917456:SRH917471 SHK917456:SHL917471 RXO917456:RXP917471 RNS917456:RNT917471 RDW917456:RDX917471 QUA917456:QUB917471 QKE917456:QKF917471 QAI917456:QAJ917471 PQM917456:PQN917471 PGQ917456:PGR917471 OWU917456:OWV917471 OMY917456:OMZ917471 ODC917456:ODD917471 NTG917456:NTH917471 NJK917456:NJL917471 MZO917456:MZP917471 MPS917456:MPT917471 MFW917456:MFX917471 LWA917456:LWB917471 LME917456:LMF917471 LCI917456:LCJ917471 KSM917456:KSN917471 KIQ917456:KIR917471 JYU917456:JYV917471 JOY917456:JOZ917471 JFC917456:JFD917471 IVG917456:IVH917471 ILK917456:ILL917471 IBO917456:IBP917471 HRS917456:HRT917471 HHW917456:HHX917471 GYA917456:GYB917471 GOE917456:GOF917471 GEI917456:GEJ917471 FUM917456:FUN917471 FKQ917456:FKR917471 FAU917456:FAV917471 EQY917456:EQZ917471 EHC917456:EHD917471 DXG917456:DXH917471 DNK917456:DNL917471 DDO917456:DDP917471 CTS917456:CTT917471 CJW917456:CJX917471 CAA917456:CAB917471 BQE917456:BQF917471 BGI917456:BGJ917471 AWM917456:AWN917471 AMQ917456:AMR917471 ACU917456:ACV917471 SY917456:SZ917471 JC917456:JD917471 F917457:F917472 WVO851920:WVP851935 WLS851920:WLT851935 WBW851920:WBX851935 VSA851920:VSB851935 VIE851920:VIF851935 UYI851920:UYJ851935 UOM851920:UON851935 UEQ851920:UER851935 TUU851920:TUV851935 TKY851920:TKZ851935 TBC851920:TBD851935 SRG851920:SRH851935 SHK851920:SHL851935 RXO851920:RXP851935 RNS851920:RNT851935 RDW851920:RDX851935 QUA851920:QUB851935 QKE851920:QKF851935 QAI851920:QAJ851935 PQM851920:PQN851935 PGQ851920:PGR851935 OWU851920:OWV851935 OMY851920:OMZ851935 ODC851920:ODD851935 NTG851920:NTH851935 NJK851920:NJL851935 MZO851920:MZP851935 MPS851920:MPT851935 MFW851920:MFX851935 LWA851920:LWB851935 LME851920:LMF851935 LCI851920:LCJ851935 KSM851920:KSN851935 KIQ851920:KIR851935 JYU851920:JYV851935 JOY851920:JOZ851935 JFC851920:JFD851935 IVG851920:IVH851935 ILK851920:ILL851935 IBO851920:IBP851935 HRS851920:HRT851935 HHW851920:HHX851935 GYA851920:GYB851935 GOE851920:GOF851935 GEI851920:GEJ851935 FUM851920:FUN851935 FKQ851920:FKR851935 FAU851920:FAV851935 EQY851920:EQZ851935 EHC851920:EHD851935 DXG851920:DXH851935 DNK851920:DNL851935 DDO851920:DDP851935 CTS851920:CTT851935 CJW851920:CJX851935 CAA851920:CAB851935 BQE851920:BQF851935 BGI851920:BGJ851935 AWM851920:AWN851935 AMQ851920:AMR851935 ACU851920:ACV851935 SY851920:SZ851935 JC851920:JD851935 F851921:F851936 WVO786384:WVP786399 WLS786384:WLT786399 WBW786384:WBX786399 VSA786384:VSB786399 VIE786384:VIF786399 UYI786384:UYJ786399 UOM786384:UON786399 UEQ786384:UER786399 TUU786384:TUV786399 TKY786384:TKZ786399 TBC786384:TBD786399 SRG786384:SRH786399 SHK786384:SHL786399 RXO786384:RXP786399 RNS786384:RNT786399 RDW786384:RDX786399 QUA786384:QUB786399 QKE786384:QKF786399 QAI786384:QAJ786399 PQM786384:PQN786399 PGQ786384:PGR786399 OWU786384:OWV786399 OMY786384:OMZ786399 ODC786384:ODD786399 NTG786384:NTH786399 NJK786384:NJL786399 MZO786384:MZP786399 MPS786384:MPT786399 MFW786384:MFX786399 LWA786384:LWB786399 LME786384:LMF786399 LCI786384:LCJ786399 KSM786384:KSN786399 KIQ786384:KIR786399 JYU786384:JYV786399 JOY786384:JOZ786399 JFC786384:JFD786399 IVG786384:IVH786399 ILK786384:ILL786399 IBO786384:IBP786399 HRS786384:HRT786399 HHW786384:HHX786399 GYA786384:GYB786399 GOE786384:GOF786399 GEI786384:GEJ786399 FUM786384:FUN786399 FKQ786384:FKR786399 FAU786384:FAV786399 EQY786384:EQZ786399 EHC786384:EHD786399 DXG786384:DXH786399 DNK786384:DNL786399 DDO786384:DDP786399 CTS786384:CTT786399 CJW786384:CJX786399 CAA786384:CAB786399 BQE786384:BQF786399 BGI786384:BGJ786399 AWM786384:AWN786399 AMQ786384:AMR786399 ACU786384:ACV786399 SY786384:SZ786399 JC786384:JD786399 F786385:F786400 WVO720848:WVP720863 WLS720848:WLT720863 WBW720848:WBX720863 VSA720848:VSB720863 VIE720848:VIF720863 UYI720848:UYJ720863 UOM720848:UON720863 UEQ720848:UER720863 TUU720848:TUV720863 TKY720848:TKZ720863 TBC720848:TBD720863 SRG720848:SRH720863 SHK720848:SHL720863 RXO720848:RXP720863 RNS720848:RNT720863 RDW720848:RDX720863 QUA720848:QUB720863 QKE720848:QKF720863 QAI720848:QAJ720863 PQM720848:PQN720863 PGQ720848:PGR720863 OWU720848:OWV720863 OMY720848:OMZ720863 ODC720848:ODD720863 NTG720848:NTH720863 NJK720848:NJL720863 MZO720848:MZP720863 MPS720848:MPT720863 MFW720848:MFX720863 LWA720848:LWB720863 LME720848:LMF720863 LCI720848:LCJ720863 KSM720848:KSN720863 KIQ720848:KIR720863 JYU720848:JYV720863 JOY720848:JOZ720863 JFC720848:JFD720863 IVG720848:IVH720863 ILK720848:ILL720863 IBO720848:IBP720863 HRS720848:HRT720863 HHW720848:HHX720863 GYA720848:GYB720863 GOE720848:GOF720863 GEI720848:GEJ720863 FUM720848:FUN720863 FKQ720848:FKR720863 FAU720848:FAV720863 EQY720848:EQZ720863 EHC720848:EHD720863 DXG720848:DXH720863 DNK720848:DNL720863 DDO720848:DDP720863 CTS720848:CTT720863 CJW720848:CJX720863 CAA720848:CAB720863 BQE720848:BQF720863 BGI720848:BGJ720863 AWM720848:AWN720863 AMQ720848:AMR720863 ACU720848:ACV720863 SY720848:SZ720863 JC720848:JD720863 F720849:F720864 WVO655312:WVP655327 WLS655312:WLT655327 WBW655312:WBX655327 VSA655312:VSB655327 VIE655312:VIF655327 UYI655312:UYJ655327 UOM655312:UON655327 UEQ655312:UER655327 TUU655312:TUV655327 TKY655312:TKZ655327 TBC655312:TBD655327 SRG655312:SRH655327 SHK655312:SHL655327 RXO655312:RXP655327 RNS655312:RNT655327 RDW655312:RDX655327 QUA655312:QUB655327 QKE655312:QKF655327 QAI655312:QAJ655327 PQM655312:PQN655327 PGQ655312:PGR655327 OWU655312:OWV655327 OMY655312:OMZ655327 ODC655312:ODD655327 NTG655312:NTH655327 NJK655312:NJL655327 MZO655312:MZP655327 MPS655312:MPT655327 MFW655312:MFX655327 LWA655312:LWB655327 LME655312:LMF655327 LCI655312:LCJ655327 KSM655312:KSN655327 KIQ655312:KIR655327 JYU655312:JYV655327 JOY655312:JOZ655327 JFC655312:JFD655327 IVG655312:IVH655327 ILK655312:ILL655327 IBO655312:IBP655327 HRS655312:HRT655327 HHW655312:HHX655327 GYA655312:GYB655327 GOE655312:GOF655327 GEI655312:GEJ655327 FUM655312:FUN655327 FKQ655312:FKR655327 FAU655312:FAV655327 EQY655312:EQZ655327 EHC655312:EHD655327 DXG655312:DXH655327 DNK655312:DNL655327 DDO655312:DDP655327 CTS655312:CTT655327 CJW655312:CJX655327 CAA655312:CAB655327 BQE655312:BQF655327 BGI655312:BGJ655327 AWM655312:AWN655327 AMQ655312:AMR655327 ACU655312:ACV655327 SY655312:SZ655327 JC655312:JD655327 F655313:F655328 WVO589776:WVP589791 WLS589776:WLT589791 WBW589776:WBX589791 VSA589776:VSB589791 VIE589776:VIF589791 UYI589776:UYJ589791 UOM589776:UON589791 UEQ589776:UER589791 TUU589776:TUV589791 TKY589776:TKZ589791 TBC589776:TBD589791 SRG589776:SRH589791 SHK589776:SHL589791 RXO589776:RXP589791 RNS589776:RNT589791 RDW589776:RDX589791 QUA589776:QUB589791 QKE589776:QKF589791 QAI589776:QAJ589791 PQM589776:PQN589791 PGQ589776:PGR589791 OWU589776:OWV589791 OMY589776:OMZ589791 ODC589776:ODD589791 NTG589776:NTH589791 NJK589776:NJL589791 MZO589776:MZP589791 MPS589776:MPT589791 MFW589776:MFX589791 LWA589776:LWB589791 LME589776:LMF589791 LCI589776:LCJ589791 KSM589776:KSN589791 KIQ589776:KIR589791 JYU589776:JYV589791 JOY589776:JOZ589791 JFC589776:JFD589791 IVG589776:IVH589791 ILK589776:ILL589791 IBO589776:IBP589791 HRS589776:HRT589791 HHW589776:HHX589791 GYA589776:GYB589791 GOE589776:GOF589791 GEI589776:GEJ589791 FUM589776:FUN589791 FKQ589776:FKR589791 FAU589776:FAV589791 EQY589776:EQZ589791 EHC589776:EHD589791 DXG589776:DXH589791 DNK589776:DNL589791 DDO589776:DDP589791 CTS589776:CTT589791 CJW589776:CJX589791 CAA589776:CAB589791 BQE589776:BQF589791 BGI589776:BGJ589791 AWM589776:AWN589791 AMQ589776:AMR589791 ACU589776:ACV589791 SY589776:SZ589791 JC589776:JD589791 F589777:F589792 WVO524240:WVP524255 WLS524240:WLT524255 WBW524240:WBX524255 VSA524240:VSB524255 VIE524240:VIF524255 UYI524240:UYJ524255 UOM524240:UON524255 UEQ524240:UER524255 TUU524240:TUV524255 TKY524240:TKZ524255 TBC524240:TBD524255 SRG524240:SRH524255 SHK524240:SHL524255 RXO524240:RXP524255 RNS524240:RNT524255 RDW524240:RDX524255 QUA524240:QUB524255 QKE524240:QKF524255 QAI524240:QAJ524255 PQM524240:PQN524255 PGQ524240:PGR524255 OWU524240:OWV524255 OMY524240:OMZ524255 ODC524240:ODD524255 NTG524240:NTH524255 NJK524240:NJL524255 MZO524240:MZP524255 MPS524240:MPT524255 MFW524240:MFX524255 LWA524240:LWB524255 LME524240:LMF524255 LCI524240:LCJ524255 KSM524240:KSN524255 KIQ524240:KIR524255 JYU524240:JYV524255 JOY524240:JOZ524255 JFC524240:JFD524255 IVG524240:IVH524255 ILK524240:ILL524255 IBO524240:IBP524255 HRS524240:HRT524255 HHW524240:HHX524255 GYA524240:GYB524255 GOE524240:GOF524255 GEI524240:GEJ524255 FUM524240:FUN524255 FKQ524240:FKR524255 FAU524240:FAV524255 EQY524240:EQZ524255 EHC524240:EHD524255 DXG524240:DXH524255 DNK524240:DNL524255 DDO524240:DDP524255 CTS524240:CTT524255 CJW524240:CJX524255 CAA524240:CAB524255 BQE524240:BQF524255 BGI524240:BGJ524255 AWM524240:AWN524255 AMQ524240:AMR524255 ACU524240:ACV524255 SY524240:SZ524255 JC524240:JD524255 F524241:F524256 WVO458704:WVP458719 WLS458704:WLT458719 WBW458704:WBX458719 VSA458704:VSB458719 VIE458704:VIF458719 UYI458704:UYJ458719 UOM458704:UON458719 UEQ458704:UER458719 TUU458704:TUV458719 TKY458704:TKZ458719 TBC458704:TBD458719 SRG458704:SRH458719 SHK458704:SHL458719 RXO458704:RXP458719 RNS458704:RNT458719 RDW458704:RDX458719 QUA458704:QUB458719 QKE458704:QKF458719 QAI458704:QAJ458719 PQM458704:PQN458719 PGQ458704:PGR458719 OWU458704:OWV458719 OMY458704:OMZ458719 ODC458704:ODD458719 NTG458704:NTH458719 NJK458704:NJL458719 MZO458704:MZP458719 MPS458704:MPT458719 MFW458704:MFX458719 LWA458704:LWB458719 LME458704:LMF458719 LCI458704:LCJ458719 KSM458704:KSN458719 KIQ458704:KIR458719 JYU458704:JYV458719 JOY458704:JOZ458719 JFC458704:JFD458719 IVG458704:IVH458719 ILK458704:ILL458719 IBO458704:IBP458719 HRS458704:HRT458719 HHW458704:HHX458719 GYA458704:GYB458719 GOE458704:GOF458719 GEI458704:GEJ458719 FUM458704:FUN458719 FKQ458704:FKR458719 FAU458704:FAV458719 EQY458704:EQZ458719 EHC458704:EHD458719 DXG458704:DXH458719 DNK458704:DNL458719 DDO458704:DDP458719 CTS458704:CTT458719 CJW458704:CJX458719 CAA458704:CAB458719 BQE458704:BQF458719 BGI458704:BGJ458719 AWM458704:AWN458719 AMQ458704:AMR458719 ACU458704:ACV458719 SY458704:SZ458719 JC458704:JD458719 F458705:F458720 WVO393168:WVP393183 WLS393168:WLT393183 WBW393168:WBX393183 VSA393168:VSB393183 VIE393168:VIF393183 UYI393168:UYJ393183 UOM393168:UON393183 UEQ393168:UER393183 TUU393168:TUV393183 TKY393168:TKZ393183 TBC393168:TBD393183 SRG393168:SRH393183 SHK393168:SHL393183 RXO393168:RXP393183 RNS393168:RNT393183 RDW393168:RDX393183 QUA393168:QUB393183 QKE393168:QKF393183 QAI393168:QAJ393183 PQM393168:PQN393183 PGQ393168:PGR393183 OWU393168:OWV393183 OMY393168:OMZ393183 ODC393168:ODD393183 NTG393168:NTH393183 NJK393168:NJL393183 MZO393168:MZP393183 MPS393168:MPT393183 MFW393168:MFX393183 LWA393168:LWB393183 LME393168:LMF393183 LCI393168:LCJ393183 KSM393168:KSN393183 KIQ393168:KIR393183 JYU393168:JYV393183 JOY393168:JOZ393183 JFC393168:JFD393183 IVG393168:IVH393183 ILK393168:ILL393183 IBO393168:IBP393183 HRS393168:HRT393183 HHW393168:HHX393183 GYA393168:GYB393183 GOE393168:GOF393183 GEI393168:GEJ393183 FUM393168:FUN393183 FKQ393168:FKR393183 FAU393168:FAV393183 EQY393168:EQZ393183 EHC393168:EHD393183 DXG393168:DXH393183 DNK393168:DNL393183 DDO393168:DDP393183 CTS393168:CTT393183 CJW393168:CJX393183 CAA393168:CAB393183 BQE393168:BQF393183 BGI393168:BGJ393183 AWM393168:AWN393183 AMQ393168:AMR393183 ACU393168:ACV393183 SY393168:SZ393183 JC393168:JD393183 F393169:F393184 WVO327632:WVP327647 WLS327632:WLT327647 WBW327632:WBX327647 VSA327632:VSB327647 VIE327632:VIF327647 UYI327632:UYJ327647 UOM327632:UON327647 UEQ327632:UER327647 TUU327632:TUV327647 TKY327632:TKZ327647 TBC327632:TBD327647 SRG327632:SRH327647 SHK327632:SHL327647 RXO327632:RXP327647 RNS327632:RNT327647 RDW327632:RDX327647 QUA327632:QUB327647 QKE327632:QKF327647 QAI327632:QAJ327647 PQM327632:PQN327647 PGQ327632:PGR327647 OWU327632:OWV327647 OMY327632:OMZ327647 ODC327632:ODD327647 NTG327632:NTH327647 NJK327632:NJL327647 MZO327632:MZP327647 MPS327632:MPT327647 MFW327632:MFX327647 LWA327632:LWB327647 LME327632:LMF327647 LCI327632:LCJ327647 KSM327632:KSN327647 KIQ327632:KIR327647 JYU327632:JYV327647 JOY327632:JOZ327647 JFC327632:JFD327647 IVG327632:IVH327647 ILK327632:ILL327647 IBO327632:IBP327647 HRS327632:HRT327647 HHW327632:HHX327647 GYA327632:GYB327647 GOE327632:GOF327647 GEI327632:GEJ327647 FUM327632:FUN327647 FKQ327632:FKR327647 FAU327632:FAV327647 EQY327632:EQZ327647 EHC327632:EHD327647 DXG327632:DXH327647 DNK327632:DNL327647 DDO327632:DDP327647 CTS327632:CTT327647 CJW327632:CJX327647 CAA327632:CAB327647 BQE327632:BQF327647 BGI327632:BGJ327647 AWM327632:AWN327647 AMQ327632:AMR327647 ACU327632:ACV327647 SY327632:SZ327647 JC327632:JD327647 F327633:F327648 WVO262096:WVP262111 WLS262096:WLT262111 WBW262096:WBX262111 VSA262096:VSB262111 VIE262096:VIF262111 UYI262096:UYJ262111 UOM262096:UON262111 UEQ262096:UER262111 TUU262096:TUV262111 TKY262096:TKZ262111 TBC262096:TBD262111 SRG262096:SRH262111 SHK262096:SHL262111 RXO262096:RXP262111 RNS262096:RNT262111 RDW262096:RDX262111 QUA262096:QUB262111 QKE262096:QKF262111 QAI262096:QAJ262111 PQM262096:PQN262111 PGQ262096:PGR262111 OWU262096:OWV262111 OMY262096:OMZ262111 ODC262096:ODD262111 NTG262096:NTH262111 NJK262096:NJL262111 MZO262096:MZP262111 MPS262096:MPT262111 MFW262096:MFX262111 LWA262096:LWB262111 LME262096:LMF262111 LCI262096:LCJ262111 KSM262096:KSN262111 KIQ262096:KIR262111 JYU262096:JYV262111 JOY262096:JOZ262111 JFC262096:JFD262111 IVG262096:IVH262111 ILK262096:ILL262111 IBO262096:IBP262111 HRS262096:HRT262111 HHW262096:HHX262111 GYA262096:GYB262111 GOE262096:GOF262111 GEI262096:GEJ262111 FUM262096:FUN262111 FKQ262096:FKR262111 FAU262096:FAV262111 EQY262096:EQZ262111 EHC262096:EHD262111 DXG262096:DXH262111 DNK262096:DNL262111 DDO262096:DDP262111 CTS262096:CTT262111 CJW262096:CJX262111 CAA262096:CAB262111 BQE262096:BQF262111 BGI262096:BGJ262111 AWM262096:AWN262111 AMQ262096:AMR262111 ACU262096:ACV262111 SY262096:SZ262111 JC262096:JD262111 F262097:F262112 WVO196560:WVP196575 WLS196560:WLT196575 WBW196560:WBX196575 VSA196560:VSB196575 VIE196560:VIF196575 UYI196560:UYJ196575 UOM196560:UON196575 UEQ196560:UER196575 TUU196560:TUV196575 TKY196560:TKZ196575 TBC196560:TBD196575 SRG196560:SRH196575 SHK196560:SHL196575 RXO196560:RXP196575 RNS196560:RNT196575 RDW196560:RDX196575 QUA196560:QUB196575 QKE196560:QKF196575 QAI196560:QAJ196575 PQM196560:PQN196575 PGQ196560:PGR196575 OWU196560:OWV196575 OMY196560:OMZ196575 ODC196560:ODD196575 NTG196560:NTH196575 NJK196560:NJL196575 MZO196560:MZP196575 MPS196560:MPT196575 MFW196560:MFX196575 LWA196560:LWB196575 LME196560:LMF196575 LCI196560:LCJ196575 KSM196560:KSN196575 KIQ196560:KIR196575 JYU196560:JYV196575 JOY196560:JOZ196575 JFC196560:JFD196575 IVG196560:IVH196575 ILK196560:ILL196575 IBO196560:IBP196575 HRS196560:HRT196575 HHW196560:HHX196575 GYA196560:GYB196575 GOE196560:GOF196575 GEI196560:GEJ196575 FUM196560:FUN196575 FKQ196560:FKR196575 FAU196560:FAV196575 EQY196560:EQZ196575 EHC196560:EHD196575 DXG196560:DXH196575 DNK196560:DNL196575 DDO196560:DDP196575 CTS196560:CTT196575 CJW196560:CJX196575 CAA196560:CAB196575 BQE196560:BQF196575 BGI196560:BGJ196575 AWM196560:AWN196575 AMQ196560:AMR196575 ACU196560:ACV196575 SY196560:SZ196575 JC196560:JD196575 F196561:F196576 WVO131024:WVP131039 WLS131024:WLT131039 WBW131024:WBX131039 VSA131024:VSB131039 VIE131024:VIF131039 UYI131024:UYJ131039 UOM131024:UON131039 UEQ131024:UER131039 TUU131024:TUV131039 TKY131024:TKZ131039 TBC131024:TBD131039 SRG131024:SRH131039 SHK131024:SHL131039 RXO131024:RXP131039 RNS131024:RNT131039 RDW131024:RDX131039 QUA131024:QUB131039 QKE131024:QKF131039 QAI131024:QAJ131039 PQM131024:PQN131039 PGQ131024:PGR131039 OWU131024:OWV131039 OMY131024:OMZ131039 ODC131024:ODD131039 NTG131024:NTH131039 NJK131024:NJL131039 MZO131024:MZP131039 MPS131024:MPT131039 MFW131024:MFX131039 LWA131024:LWB131039 LME131024:LMF131039 LCI131024:LCJ131039 KSM131024:KSN131039 KIQ131024:KIR131039 JYU131024:JYV131039 JOY131024:JOZ131039 JFC131024:JFD131039 IVG131024:IVH131039 ILK131024:ILL131039 IBO131024:IBP131039 HRS131024:HRT131039 HHW131024:HHX131039 GYA131024:GYB131039 GOE131024:GOF131039 GEI131024:GEJ131039 FUM131024:FUN131039 FKQ131024:FKR131039 FAU131024:FAV131039 EQY131024:EQZ131039 EHC131024:EHD131039 DXG131024:DXH131039 DNK131024:DNL131039 DDO131024:DDP131039 CTS131024:CTT131039 CJW131024:CJX131039 CAA131024:CAB131039 BQE131024:BQF131039 BGI131024:BGJ131039 AWM131024:AWN131039 AMQ131024:AMR131039 ACU131024:ACV131039 SY131024:SZ131039 JC131024:JD131039 F131025:F131040 WVO65488:WVP65503 WLS65488:WLT65503 WBW65488:WBX65503 VSA65488:VSB65503 VIE65488:VIF65503 UYI65488:UYJ65503 UOM65488:UON65503 UEQ65488:UER65503 TUU65488:TUV65503 TKY65488:TKZ65503 TBC65488:TBD65503 SRG65488:SRH65503 SHK65488:SHL65503 RXO65488:RXP65503 RNS65488:RNT65503 RDW65488:RDX65503 QUA65488:QUB65503 QKE65488:QKF65503 QAI65488:QAJ65503 PQM65488:PQN65503 PGQ65488:PGR65503 OWU65488:OWV65503 OMY65488:OMZ65503 ODC65488:ODD65503 NTG65488:NTH65503 NJK65488:NJL65503 MZO65488:MZP65503 MPS65488:MPT65503 MFW65488:MFX65503 LWA65488:LWB65503 LME65488:LMF65503 LCI65488:LCJ65503 KSM65488:KSN65503 KIQ65488:KIR65503 JYU65488:JYV65503 JOY65488:JOZ65503 JFC65488:JFD65503 IVG65488:IVH65503 ILK65488:ILL65503 IBO65488:IBP65503 HRS65488:HRT65503 HHW65488:HHX65503 GYA65488:GYB65503 GOE65488:GOF65503 GEI65488:GEJ65503 FUM65488:FUN65503 FKQ65488:FKR65503 FAU65488:FAV65503 EQY65488:EQZ65503 EHC65488:EHD65503 DXG65488:DXH65503 DNK65488:DNL65503 DDO65488:DDP65503 CTS65488:CTT65503 CJW65488:CJX65503 CAA65488:CAB65503 BQE65488:BQF65503 BGI65488:BGJ65503 AWM65488:AWN65503 AMQ65488:AMR65503 ACU65488:ACV65503 SY65488:SZ65503 JC65488:JD65503 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65494:F65509 WVO982997:WVP983012 WLS982997:WLT983012 WBW982997:WBX983012 VSA982997:VSB983012 VIE982997:VIF983012 UYI982997:UYJ983012 UOM982997:UON983012 UEQ982997:UER983012 TUU982997:TUV983012 TKY982997:TKZ983012 TBC982997:TBD983012 SRG982997:SRH983012 SHK982997:SHL983012 RXO982997:RXP983012 RNS982997:RNT983012 RDW982997:RDX983012 QUA982997:QUB983012 QKE982997:QKF983012 QAI982997:QAJ983012 PQM982997:PQN983012 PGQ982997:PGR983012 OWU982997:OWV983012 OMY982997:OMZ983012 ODC982997:ODD983012 NTG982997:NTH983012 NJK982997:NJL983012 MZO982997:MZP983012 MPS982997:MPT983012 MFW982997:MFX983012 LWA982997:LWB983012 LME982997:LMF983012 LCI982997:LCJ983012 KSM982997:KSN983012 KIQ982997:KIR983012 JYU982997:JYV983012 JOY982997:JOZ983012 JFC982997:JFD983012 IVG982997:IVH983012 ILK982997:ILL983012 IBO982997:IBP983012 HRS982997:HRT983012 HHW982997:HHX983012 GYA982997:GYB983012 GOE982997:GOF983012 GEI982997:GEJ983012 FUM982997:FUN983012 FKQ982997:FKR983012 FAU982997:FAV983012 EQY982997:EQZ983012 EHC982997:EHD983012 DXG982997:DXH983012 DNK982997:DNL983012 DDO982997:DDP983012 CTS982997:CTT983012 CJW982997:CJX983012 CAA982997:CAB983012 BQE982997:BQF983012 BGI982997:BGJ983012 AWM982997:AWN983012 AMQ982997:AMR983012 ACU982997:ACV983012 SY982997:SZ983012 JC982997:JD983012 F982998:F983013 WVO917461:WVP917476 WLS917461:WLT917476 WBW917461:WBX917476 VSA917461:VSB917476 VIE917461:VIF917476 UYI917461:UYJ917476 UOM917461:UON917476 UEQ917461:UER917476 TUU917461:TUV917476 TKY917461:TKZ917476 TBC917461:TBD917476 SRG917461:SRH917476 SHK917461:SHL917476 RXO917461:RXP917476 RNS917461:RNT917476 RDW917461:RDX917476 QUA917461:QUB917476 QKE917461:QKF917476 QAI917461:QAJ917476 PQM917461:PQN917476 PGQ917461:PGR917476 OWU917461:OWV917476 OMY917461:OMZ917476 ODC917461:ODD917476 NTG917461:NTH917476 NJK917461:NJL917476 MZO917461:MZP917476 MPS917461:MPT917476 MFW917461:MFX917476 LWA917461:LWB917476 LME917461:LMF917476 LCI917461:LCJ917476 KSM917461:KSN917476 KIQ917461:KIR917476 JYU917461:JYV917476 JOY917461:JOZ917476 JFC917461:JFD917476 IVG917461:IVH917476 ILK917461:ILL917476 IBO917461:IBP917476 HRS917461:HRT917476 HHW917461:HHX917476 GYA917461:GYB917476 GOE917461:GOF917476 GEI917461:GEJ917476 FUM917461:FUN917476 FKQ917461:FKR917476 FAU917461:FAV917476 EQY917461:EQZ917476 EHC917461:EHD917476 DXG917461:DXH917476 DNK917461:DNL917476 DDO917461:DDP917476 CTS917461:CTT917476 CJW917461:CJX917476 CAA917461:CAB917476 BQE917461:BQF917476 BGI917461:BGJ917476 AWM917461:AWN917476 AMQ917461:AMR917476 ACU917461:ACV917476 SY917461:SZ917476 JC917461:JD917476 F917462:F917477 WVO851925:WVP851940 WLS851925:WLT851940 WBW851925:WBX851940 VSA851925:VSB851940 VIE851925:VIF851940 UYI851925:UYJ851940 UOM851925:UON851940 UEQ851925:UER851940 TUU851925:TUV851940 TKY851925:TKZ851940 TBC851925:TBD851940 SRG851925:SRH851940 SHK851925:SHL851940 RXO851925:RXP851940 RNS851925:RNT851940 RDW851925:RDX851940 QUA851925:QUB851940 QKE851925:QKF851940 QAI851925:QAJ851940 PQM851925:PQN851940 PGQ851925:PGR851940 OWU851925:OWV851940 OMY851925:OMZ851940 ODC851925:ODD851940 NTG851925:NTH851940 NJK851925:NJL851940 MZO851925:MZP851940 MPS851925:MPT851940 MFW851925:MFX851940 LWA851925:LWB851940 LME851925:LMF851940 LCI851925:LCJ851940 KSM851925:KSN851940 KIQ851925:KIR851940 JYU851925:JYV851940 JOY851925:JOZ851940 JFC851925:JFD851940 IVG851925:IVH851940 ILK851925:ILL851940 IBO851925:IBP851940 HRS851925:HRT851940 HHW851925:HHX851940 GYA851925:GYB851940 GOE851925:GOF851940 GEI851925:GEJ851940 FUM851925:FUN851940 FKQ851925:FKR851940 FAU851925:FAV851940 EQY851925:EQZ851940 EHC851925:EHD851940 DXG851925:DXH851940 DNK851925:DNL851940 DDO851925:DDP851940 CTS851925:CTT851940 CJW851925:CJX851940 CAA851925:CAB851940 BQE851925:BQF851940 BGI851925:BGJ851940 AWM851925:AWN851940 AMQ851925:AMR851940 ACU851925:ACV851940 SY851925:SZ851940 JC851925:JD851940 F851926:F851941 WVO786389:WVP786404 WLS786389:WLT786404 WBW786389:WBX786404 VSA786389:VSB786404 VIE786389:VIF786404 UYI786389:UYJ786404 UOM786389:UON786404 UEQ786389:UER786404 TUU786389:TUV786404 TKY786389:TKZ786404 TBC786389:TBD786404 SRG786389:SRH786404 SHK786389:SHL786404 RXO786389:RXP786404 RNS786389:RNT786404 RDW786389:RDX786404 QUA786389:QUB786404 QKE786389:QKF786404 QAI786389:QAJ786404 PQM786389:PQN786404 PGQ786389:PGR786404 OWU786389:OWV786404 OMY786389:OMZ786404 ODC786389:ODD786404 NTG786389:NTH786404 NJK786389:NJL786404 MZO786389:MZP786404 MPS786389:MPT786404 MFW786389:MFX786404 LWA786389:LWB786404 LME786389:LMF786404 LCI786389:LCJ786404 KSM786389:KSN786404 KIQ786389:KIR786404 JYU786389:JYV786404 JOY786389:JOZ786404 JFC786389:JFD786404 IVG786389:IVH786404 ILK786389:ILL786404 IBO786389:IBP786404 HRS786389:HRT786404 HHW786389:HHX786404 GYA786389:GYB786404 GOE786389:GOF786404 GEI786389:GEJ786404 FUM786389:FUN786404 FKQ786389:FKR786404 FAU786389:FAV786404 EQY786389:EQZ786404 EHC786389:EHD786404 DXG786389:DXH786404 DNK786389:DNL786404 DDO786389:DDP786404 CTS786389:CTT786404 CJW786389:CJX786404 CAA786389:CAB786404 BQE786389:BQF786404 BGI786389:BGJ786404 AWM786389:AWN786404 AMQ786389:AMR786404 ACU786389:ACV786404 SY786389:SZ786404 JC786389:JD786404 F786390:F786405 WVO720853:WVP720868 WLS720853:WLT720868 WBW720853:WBX720868 VSA720853:VSB720868 VIE720853:VIF720868 UYI720853:UYJ720868 UOM720853:UON720868 UEQ720853:UER720868 TUU720853:TUV720868 TKY720853:TKZ720868 TBC720853:TBD720868 SRG720853:SRH720868 SHK720853:SHL720868 RXO720853:RXP720868 RNS720853:RNT720868 RDW720853:RDX720868 QUA720853:QUB720868 QKE720853:QKF720868 QAI720853:QAJ720868 PQM720853:PQN720868 PGQ720853:PGR720868 OWU720853:OWV720868 OMY720853:OMZ720868 ODC720853:ODD720868 NTG720853:NTH720868 NJK720853:NJL720868 MZO720853:MZP720868 MPS720853:MPT720868 MFW720853:MFX720868 LWA720853:LWB720868 LME720853:LMF720868 LCI720853:LCJ720868 KSM720853:KSN720868 KIQ720853:KIR720868 JYU720853:JYV720868 JOY720853:JOZ720868 JFC720853:JFD720868 IVG720853:IVH720868 ILK720853:ILL720868 IBO720853:IBP720868 HRS720853:HRT720868 HHW720853:HHX720868 GYA720853:GYB720868 GOE720853:GOF720868 GEI720853:GEJ720868 FUM720853:FUN720868 FKQ720853:FKR720868 FAU720853:FAV720868 EQY720853:EQZ720868 EHC720853:EHD720868 DXG720853:DXH720868 DNK720853:DNL720868 DDO720853:DDP720868 CTS720853:CTT720868 CJW720853:CJX720868 CAA720853:CAB720868 BQE720853:BQF720868 BGI720853:BGJ720868 AWM720853:AWN720868 AMQ720853:AMR720868 ACU720853:ACV720868 SY720853:SZ720868 JC720853:JD720868 F720854:F720869 WVO655317:WVP655332 WLS655317:WLT655332 WBW655317:WBX655332 VSA655317:VSB655332 VIE655317:VIF655332 UYI655317:UYJ655332 UOM655317:UON655332 UEQ655317:UER655332 TUU655317:TUV655332 TKY655317:TKZ655332 TBC655317:TBD655332 SRG655317:SRH655332 SHK655317:SHL655332 RXO655317:RXP655332 RNS655317:RNT655332 RDW655317:RDX655332 QUA655317:QUB655332 QKE655317:QKF655332 QAI655317:QAJ655332 PQM655317:PQN655332 PGQ655317:PGR655332 OWU655317:OWV655332 OMY655317:OMZ655332 ODC655317:ODD655332 NTG655317:NTH655332 NJK655317:NJL655332 MZO655317:MZP655332 MPS655317:MPT655332 MFW655317:MFX655332 LWA655317:LWB655332 LME655317:LMF655332 LCI655317:LCJ655332 KSM655317:KSN655332 KIQ655317:KIR655332 JYU655317:JYV655332 JOY655317:JOZ655332 JFC655317:JFD655332 IVG655317:IVH655332 ILK655317:ILL655332 IBO655317:IBP655332 HRS655317:HRT655332 HHW655317:HHX655332 GYA655317:GYB655332 GOE655317:GOF655332 GEI655317:GEJ655332 FUM655317:FUN655332 FKQ655317:FKR655332 FAU655317:FAV655332 EQY655317:EQZ655332 EHC655317:EHD655332 DXG655317:DXH655332 DNK655317:DNL655332 DDO655317:DDP655332 CTS655317:CTT655332 CJW655317:CJX655332 CAA655317:CAB655332 BQE655317:BQF655332 BGI655317:BGJ655332 AWM655317:AWN655332 AMQ655317:AMR655332 ACU655317:ACV655332 SY655317:SZ655332 JC655317:JD655332 F655318:F655333 WVO589781:WVP589796 WLS589781:WLT589796 WBW589781:WBX589796 VSA589781:VSB589796 VIE589781:VIF589796 UYI589781:UYJ589796 UOM589781:UON589796 UEQ589781:UER589796 TUU589781:TUV589796 TKY589781:TKZ589796 TBC589781:TBD589796 SRG589781:SRH589796 SHK589781:SHL589796 RXO589781:RXP589796 RNS589781:RNT589796 RDW589781:RDX589796 QUA589781:QUB589796 QKE589781:QKF589796 QAI589781:QAJ589796 PQM589781:PQN589796 PGQ589781:PGR589796 OWU589781:OWV589796 OMY589781:OMZ589796 ODC589781:ODD589796 NTG589781:NTH589796 NJK589781:NJL589796 MZO589781:MZP589796 MPS589781:MPT589796 MFW589781:MFX589796 LWA589781:LWB589796 LME589781:LMF589796 LCI589781:LCJ589796 KSM589781:KSN589796 KIQ589781:KIR589796 JYU589781:JYV589796 JOY589781:JOZ589796 JFC589781:JFD589796 IVG589781:IVH589796 ILK589781:ILL589796 IBO589781:IBP589796 HRS589781:HRT589796 HHW589781:HHX589796 GYA589781:GYB589796 GOE589781:GOF589796 GEI589781:GEJ589796 FUM589781:FUN589796 FKQ589781:FKR589796 FAU589781:FAV589796 EQY589781:EQZ589796 EHC589781:EHD589796 DXG589781:DXH589796 DNK589781:DNL589796 DDO589781:DDP589796 CTS589781:CTT589796 CJW589781:CJX589796 CAA589781:CAB589796 BQE589781:BQF589796 BGI589781:BGJ589796 AWM589781:AWN589796 AMQ589781:AMR589796 ACU589781:ACV589796 SY589781:SZ589796 JC589781:JD589796 F589782:F589797 WVO524245:WVP524260 WLS524245:WLT524260 WBW524245:WBX524260 VSA524245:VSB524260 VIE524245:VIF524260 UYI524245:UYJ524260 UOM524245:UON524260 UEQ524245:UER524260 TUU524245:TUV524260 TKY524245:TKZ524260 TBC524245:TBD524260 SRG524245:SRH524260 SHK524245:SHL524260 RXO524245:RXP524260 RNS524245:RNT524260 RDW524245:RDX524260 QUA524245:QUB524260 QKE524245:QKF524260 QAI524245:QAJ524260 PQM524245:PQN524260 PGQ524245:PGR524260 OWU524245:OWV524260 OMY524245:OMZ524260 ODC524245:ODD524260 NTG524245:NTH524260 NJK524245:NJL524260 MZO524245:MZP524260 MPS524245:MPT524260 MFW524245:MFX524260 LWA524245:LWB524260 LME524245:LMF524260 LCI524245:LCJ524260 KSM524245:KSN524260 KIQ524245:KIR524260 JYU524245:JYV524260 JOY524245:JOZ524260 JFC524245:JFD524260 IVG524245:IVH524260 ILK524245:ILL524260 IBO524245:IBP524260 HRS524245:HRT524260 HHW524245:HHX524260 GYA524245:GYB524260 GOE524245:GOF524260 GEI524245:GEJ524260 FUM524245:FUN524260 FKQ524245:FKR524260 FAU524245:FAV524260 EQY524245:EQZ524260 EHC524245:EHD524260 DXG524245:DXH524260 DNK524245:DNL524260 DDO524245:DDP524260 CTS524245:CTT524260 CJW524245:CJX524260 CAA524245:CAB524260 BQE524245:BQF524260 BGI524245:BGJ524260 AWM524245:AWN524260 AMQ524245:AMR524260 ACU524245:ACV524260 SY524245:SZ524260 JC524245:JD524260 F524246:F524261 WVO458709:WVP458724 WLS458709:WLT458724 WBW458709:WBX458724 VSA458709:VSB458724 VIE458709:VIF458724 UYI458709:UYJ458724 UOM458709:UON458724 UEQ458709:UER458724 TUU458709:TUV458724 TKY458709:TKZ458724 TBC458709:TBD458724 SRG458709:SRH458724 SHK458709:SHL458724 RXO458709:RXP458724 RNS458709:RNT458724 RDW458709:RDX458724 QUA458709:QUB458724 QKE458709:QKF458724 QAI458709:QAJ458724 PQM458709:PQN458724 PGQ458709:PGR458724 OWU458709:OWV458724 OMY458709:OMZ458724 ODC458709:ODD458724 NTG458709:NTH458724 NJK458709:NJL458724 MZO458709:MZP458724 MPS458709:MPT458724 MFW458709:MFX458724 LWA458709:LWB458724 LME458709:LMF458724 LCI458709:LCJ458724 KSM458709:KSN458724 KIQ458709:KIR458724 JYU458709:JYV458724 JOY458709:JOZ458724 JFC458709:JFD458724 IVG458709:IVH458724 ILK458709:ILL458724 IBO458709:IBP458724 HRS458709:HRT458724 HHW458709:HHX458724 GYA458709:GYB458724 GOE458709:GOF458724 GEI458709:GEJ458724 FUM458709:FUN458724 FKQ458709:FKR458724 FAU458709:FAV458724 EQY458709:EQZ458724 EHC458709:EHD458724 DXG458709:DXH458724 DNK458709:DNL458724 DDO458709:DDP458724 CTS458709:CTT458724 CJW458709:CJX458724 CAA458709:CAB458724 BQE458709:BQF458724 BGI458709:BGJ458724 AWM458709:AWN458724 AMQ458709:AMR458724 ACU458709:ACV458724 SY458709:SZ458724 JC458709:JD458724 F458710:F458725 WVO393173:WVP393188 WLS393173:WLT393188 WBW393173:WBX393188 VSA393173:VSB393188 VIE393173:VIF393188 UYI393173:UYJ393188 UOM393173:UON393188 UEQ393173:UER393188 TUU393173:TUV393188 TKY393173:TKZ393188 TBC393173:TBD393188 SRG393173:SRH393188 SHK393173:SHL393188 RXO393173:RXP393188 RNS393173:RNT393188 RDW393173:RDX393188 QUA393173:QUB393188 QKE393173:QKF393188 QAI393173:QAJ393188 PQM393173:PQN393188 PGQ393173:PGR393188 OWU393173:OWV393188 OMY393173:OMZ393188 ODC393173:ODD393188 NTG393173:NTH393188 NJK393173:NJL393188 MZO393173:MZP393188 MPS393173:MPT393188 MFW393173:MFX393188 LWA393173:LWB393188 LME393173:LMF393188 LCI393173:LCJ393188 KSM393173:KSN393188 KIQ393173:KIR393188 JYU393173:JYV393188 JOY393173:JOZ393188 JFC393173:JFD393188 IVG393173:IVH393188 ILK393173:ILL393188 IBO393173:IBP393188 HRS393173:HRT393188 HHW393173:HHX393188 GYA393173:GYB393188 GOE393173:GOF393188 GEI393173:GEJ393188 FUM393173:FUN393188 FKQ393173:FKR393188 FAU393173:FAV393188 EQY393173:EQZ393188 EHC393173:EHD393188 DXG393173:DXH393188 DNK393173:DNL393188 DDO393173:DDP393188 CTS393173:CTT393188 CJW393173:CJX393188 CAA393173:CAB393188 BQE393173:BQF393188 BGI393173:BGJ393188 AWM393173:AWN393188 AMQ393173:AMR393188 ACU393173:ACV393188 SY393173:SZ393188 JC393173:JD393188 F393174:F393189 WVO327637:WVP327652 WLS327637:WLT327652 WBW327637:WBX327652 VSA327637:VSB327652 VIE327637:VIF327652 UYI327637:UYJ327652 UOM327637:UON327652 UEQ327637:UER327652 TUU327637:TUV327652 TKY327637:TKZ327652 TBC327637:TBD327652 SRG327637:SRH327652 SHK327637:SHL327652 RXO327637:RXP327652 RNS327637:RNT327652 RDW327637:RDX327652 QUA327637:QUB327652 QKE327637:QKF327652 QAI327637:QAJ327652 PQM327637:PQN327652 PGQ327637:PGR327652 OWU327637:OWV327652 OMY327637:OMZ327652 ODC327637:ODD327652 NTG327637:NTH327652 NJK327637:NJL327652 MZO327637:MZP327652 MPS327637:MPT327652 MFW327637:MFX327652 LWA327637:LWB327652 LME327637:LMF327652 LCI327637:LCJ327652 KSM327637:KSN327652 KIQ327637:KIR327652 JYU327637:JYV327652 JOY327637:JOZ327652 JFC327637:JFD327652 IVG327637:IVH327652 ILK327637:ILL327652 IBO327637:IBP327652 HRS327637:HRT327652 HHW327637:HHX327652 GYA327637:GYB327652 GOE327637:GOF327652 GEI327637:GEJ327652 FUM327637:FUN327652 FKQ327637:FKR327652 FAU327637:FAV327652 EQY327637:EQZ327652 EHC327637:EHD327652 DXG327637:DXH327652 DNK327637:DNL327652 DDO327637:DDP327652 CTS327637:CTT327652 CJW327637:CJX327652 CAA327637:CAB327652 BQE327637:BQF327652 BGI327637:BGJ327652 AWM327637:AWN327652 AMQ327637:AMR327652 ACU327637:ACV327652 SY327637:SZ327652 JC327637:JD327652 F327638:F327653 WVO262101:WVP262116 WLS262101:WLT262116 WBW262101:WBX262116 VSA262101:VSB262116 VIE262101:VIF262116 UYI262101:UYJ262116 UOM262101:UON262116 UEQ262101:UER262116 TUU262101:TUV262116 TKY262101:TKZ262116 TBC262101:TBD262116 SRG262101:SRH262116 SHK262101:SHL262116 RXO262101:RXP262116 RNS262101:RNT262116 RDW262101:RDX262116 QUA262101:QUB262116 QKE262101:QKF262116 QAI262101:QAJ262116 PQM262101:PQN262116 PGQ262101:PGR262116 OWU262101:OWV262116 OMY262101:OMZ262116 ODC262101:ODD262116 NTG262101:NTH262116 NJK262101:NJL262116 MZO262101:MZP262116 MPS262101:MPT262116 MFW262101:MFX262116 LWA262101:LWB262116 LME262101:LMF262116 LCI262101:LCJ262116 KSM262101:KSN262116 KIQ262101:KIR262116 JYU262101:JYV262116 JOY262101:JOZ262116 JFC262101:JFD262116 IVG262101:IVH262116 ILK262101:ILL262116 IBO262101:IBP262116 HRS262101:HRT262116 HHW262101:HHX262116 GYA262101:GYB262116 GOE262101:GOF262116 GEI262101:GEJ262116 FUM262101:FUN262116 FKQ262101:FKR262116 FAU262101:FAV262116 EQY262101:EQZ262116 EHC262101:EHD262116 DXG262101:DXH262116 DNK262101:DNL262116 DDO262101:DDP262116 CTS262101:CTT262116 CJW262101:CJX262116 CAA262101:CAB262116 BQE262101:BQF262116 BGI262101:BGJ262116 AWM262101:AWN262116 AMQ262101:AMR262116 ACU262101:ACV262116 SY262101:SZ262116 JC262101:JD262116 F262102:F262117 WVO196565:WVP196580 WLS196565:WLT196580 WBW196565:WBX196580 VSA196565:VSB196580 VIE196565:VIF196580 UYI196565:UYJ196580 UOM196565:UON196580 UEQ196565:UER196580 TUU196565:TUV196580 TKY196565:TKZ196580 TBC196565:TBD196580 SRG196565:SRH196580 SHK196565:SHL196580 RXO196565:RXP196580 RNS196565:RNT196580 RDW196565:RDX196580 QUA196565:QUB196580 QKE196565:QKF196580 QAI196565:QAJ196580 PQM196565:PQN196580 PGQ196565:PGR196580 OWU196565:OWV196580 OMY196565:OMZ196580 ODC196565:ODD196580 NTG196565:NTH196580 NJK196565:NJL196580 MZO196565:MZP196580 MPS196565:MPT196580 MFW196565:MFX196580 LWA196565:LWB196580 LME196565:LMF196580 LCI196565:LCJ196580 KSM196565:KSN196580 KIQ196565:KIR196580 JYU196565:JYV196580 JOY196565:JOZ196580 JFC196565:JFD196580 IVG196565:IVH196580 ILK196565:ILL196580 IBO196565:IBP196580 HRS196565:HRT196580 HHW196565:HHX196580 GYA196565:GYB196580 GOE196565:GOF196580 GEI196565:GEJ196580 FUM196565:FUN196580 FKQ196565:FKR196580 FAU196565:FAV196580 EQY196565:EQZ196580 EHC196565:EHD196580 DXG196565:DXH196580 DNK196565:DNL196580 DDO196565:DDP196580 CTS196565:CTT196580 CJW196565:CJX196580 CAA196565:CAB196580 BQE196565:BQF196580 BGI196565:BGJ196580 AWM196565:AWN196580 AMQ196565:AMR196580 ACU196565:ACV196580 SY196565:SZ196580 JC196565:JD196580 F196566:F196581 WVO131029:WVP131044 WLS131029:WLT131044 WBW131029:WBX131044 VSA131029:VSB131044 VIE131029:VIF131044 UYI131029:UYJ131044 UOM131029:UON131044 UEQ131029:UER131044 TUU131029:TUV131044 TKY131029:TKZ131044 TBC131029:TBD131044 SRG131029:SRH131044 SHK131029:SHL131044 RXO131029:RXP131044 RNS131029:RNT131044 RDW131029:RDX131044 QUA131029:QUB131044 QKE131029:QKF131044 QAI131029:QAJ131044 PQM131029:PQN131044 PGQ131029:PGR131044 OWU131029:OWV131044 OMY131029:OMZ131044 ODC131029:ODD131044 NTG131029:NTH131044 NJK131029:NJL131044 MZO131029:MZP131044 MPS131029:MPT131044 MFW131029:MFX131044 LWA131029:LWB131044 LME131029:LMF131044 LCI131029:LCJ131044 KSM131029:KSN131044 KIQ131029:KIR131044 JYU131029:JYV131044 JOY131029:JOZ131044 JFC131029:JFD131044 IVG131029:IVH131044 ILK131029:ILL131044 IBO131029:IBP131044 HRS131029:HRT131044 HHW131029:HHX131044 GYA131029:GYB131044 GOE131029:GOF131044 GEI131029:GEJ131044 FUM131029:FUN131044 FKQ131029:FKR131044 FAU131029:FAV131044 EQY131029:EQZ131044 EHC131029:EHD131044 DXG131029:DXH131044 DNK131029:DNL131044 DDO131029:DDP131044 CTS131029:CTT131044 CJW131029:CJX131044 CAA131029:CAB131044 BQE131029:BQF131044 BGI131029:BGJ131044 AWM131029:AWN131044 AMQ131029:AMR131044 ACU131029:ACV131044 SY131029:SZ131044 JC131029:JD131044 F131030:F131045 WVO65493:WVP65508 WLS65493:WLT65508 WBW65493:WBX65508 VSA65493:VSB65508 VIE65493:VIF65508 UYI65493:UYJ65508 UOM65493:UON65508 UEQ65493:UER65508 TUU65493:TUV65508 TKY65493:TKZ65508 TBC65493:TBD65508 SRG65493:SRH65508 SHK65493:SHL65508 RXO65493:RXP65508 RNS65493:RNT65508 RDW65493:RDX65508 QUA65493:QUB65508 QKE65493:QKF65508 QAI65493:QAJ65508 PQM65493:PQN65508 PGQ65493:PGR65508 OWU65493:OWV65508 OMY65493:OMZ65508 ODC65493:ODD65508 NTG65493:NTH65508 NJK65493:NJL65508 MZO65493:MZP65508 MPS65493:MPT65508 MFW65493:MFX65508 LWA65493:LWB65508 LME65493:LMF65508 LCI65493:LCJ65508 KSM65493:KSN65508 KIQ65493:KIR65508 JYU65493:JYV65508 JOY65493:JOZ65508 JFC65493:JFD65508 IVG65493:IVH65508 ILK65493:ILL65508 IBO65493:IBP65508 HRS65493:HRT65508 HHW65493:HHX65508 GYA65493:GYB65508 GOE65493:GOF65508 GEI65493:GEJ65508 FUM65493:FUN65508 FKQ65493:FKR65508 FAU65493:FAV65508 EQY65493:EQZ65508 EHC65493:EHD65508 DXG65493:DXH65508 DNK65493:DNL65508 DDO65493:DDP65508 CTS65493:CTT65508 CJW65493:CJX65508 CAA65493:CAB65508 BQE65493:BQF65508 BGI65493:BGJ65508 AWM65493:AWN65508 AMQ65493:AMR65508 ACU65493:ACV65508 SY65493:SZ65508 JC65493:JD65508 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65481:C65504 IZ65480:IZ65503 SV65480:SV65503 ACR65480:ACR65503 AMN65480:AMN65503 AWJ65480:AWJ65503 BGF65480:BGF65503 BQB65480:BQB65503 BZX65480:BZX65503 CJT65480:CJT65503 CTP65480:CTP65503 DDL65480:DDL65503 DNH65480:DNH65503 DXD65480:DXD65503 EGZ65480:EGZ65503 EQV65480:EQV65503 FAR65480:FAR65503 FKN65480:FKN65503 FUJ65480:FUJ65503 GEF65480:GEF65503 GOB65480:GOB65503 GXX65480:GXX65503 HHT65480:HHT65503 HRP65480:HRP65503 IBL65480:IBL65503 ILH65480:ILH65503 IVD65480:IVD65503 JEZ65480:JEZ65503 JOV65480:JOV65503 JYR65480:JYR65503 KIN65480:KIN65503 KSJ65480:KSJ65503 LCF65480:LCF65503 LMB65480:LMB65503 LVX65480:LVX65503 MFT65480:MFT65503 MPP65480:MPP65503 MZL65480:MZL65503 NJH65480:NJH65503 NTD65480:NTD65503 OCZ65480:OCZ65503 OMV65480:OMV65503 OWR65480:OWR65503 PGN65480:PGN65503 PQJ65480:PQJ65503 QAF65480:QAF65503 QKB65480:QKB65503 QTX65480:QTX65503 RDT65480:RDT65503 RNP65480:RNP65503 RXL65480:RXL65503 SHH65480:SHH65503 SRD65480:SRD65503 TAZ65480:TAZ65503 TKV65480:TKV65503 TUR65480:TUR65503 UEN65480:UEN65503 UOJ65480:UOJ65503 UYF65480:UYF65503 VIB65480:VIB65503 VRX65480:VRX65503 WBT65480:WBT65503 WLP65480:WLP65503 WVL65480:WVL65503 C131017:C131040 IZ131016:IZ131039 SV131016:SV131039 ACR131016:ACR131039 AMN131016:AMN131039 AWJ131016:AWJ131039 BGF131016:BGF131039 BQB131016:BQB131039 BZX131016:BZX131039 CJT131016:CJT131039 CTP131016:CTP131039 DDL131016:DDL131039 DNH131016:DNH131039 DXD131016:DXD131039 EGZ131016:EGZ131039 EQV131016:EQV131039 FAR131016:FAR131039 FKN131016:FKN131039 FUJ131016:FUJ131039 GEF131016:GEF131039 GOB131016:GOB131039 GXX131016:GXX131039 HHT131016:HHT131039 HRP131016:HRP131039 IBL131016:IBL131039 ILH131016:ILH131039 IVD131016:IVD131039 JEZ131016:JEZ131039 JOV131016:JOV131039 JYR131016:JYR131039 KIN131016:KIN131039 KSJ131016:KSJ131039 LCF131016:LCF131039 LMB131016:LMB131039 LVX131016:LVX131039 MFT131016:MFT131039 MPP131016:MPP131039 MZL131016:MZL131039 NJH131016:NJH131039 NTD131016:NTD131039 OCZ131016:OCZ131039 OMV131016:OMV131039 OWR131016:OWR131039 PGN131016:PGN131039 PQJ131016:PQJ131039 QAF131016:QAF131039 QKB131016:QKB131039 QTX131016:QTX131039 RDT131016:RDT131039 RNP131016:RNP131039 RXL131016:RXL131039 SHH131016:SHH131039 SRD131016:SRD131039 TAZ131016:TAZ131039 TKV131016:TKV131039 TUR131016:TUR131039 UEN131016:UEN131039 UOJ131016:UOJ131039 UYF131016:UYF131039 VIB131016:VIB131039 VRX131016:VRX131039 WBT131016:WBT131039 WLP131016:WLP131039 WVL131016:WVL131039 C196553:C196576 IZ196552:IZ196575 SV196552:SV196575 ACR196552:ACR196575 AMN196552:AMN196575 AWJ196552:AWJ196575 BGF196552:BGF196575 BQB196552:BQB196575 BZX196552:BZX196575 CJT196552:CJT196575 CTP196552:CTP196575 DDL196552:DDL196575 DNH196552:DNH196575 DXD196552:DXD196575 EGZ196552:EGZ196575 EQV196552:EQV196575 FAR196552:FAR196575 FKN196552:FKN196575 FUJ196552:FUJ196575 GEF196552:GEF196575 GOB196552:GOB196575 GXX196552:GXX196575 HHT196552:HHT196575 HRP196552:HRP196575 IBL196552:IBL196575 ILH196552:ILH196575 IVD196552:IVD196575 JEZ196552:JEZ196575 JOV196552:JOV196575 JYR196552:JYR196575 KIN196552:KIN196575 KSJ196552:KSJ196575 LCF196552:LCF196575 LMB196552:LMB196575 LVX196552:LVX196575 MFT196552:MFT196575 MPP196552:MPP196575 MZL196552:MZL196575 NJH196552:NJH196575 NTD196552:NTD196575 OCZ196552:OCZ196575 OMV196552:OMV196575 OWR196552:OWR196575 PGN196552:PGN196575 PQJ196552:PQJ196575 QAF196552:QAF196575 QKB196552:QKB196575 QTX196552:QTX196575 RDT196552:RDT196575 RNP196552:RNP196575 RXL196552:RXL196575 SHH196552:SHH196575 SRD196552:SRD196575 TAZ196552:TAZ196575 TKV196552:TKV196575 TUR196552:TUR196575 UEN196552:UEN196575 UOJ196552:UOJ196575 UYF196552:UYF196575 VIB196552:VIB196575 VRX196552:VRX196575 WBT196552:WBT196575 WLP196552:WLP196575 WVL196552:WVL196575 C262089:C262112 IZ262088:IZ262111 SV262088:SV262111 ACR262088:ACR262111 AMN262088:AMN262111 AWJ262088:AWJ262111 BGF262088:BGF262111 BQB262088:BQB262111 BZX262088:BZX262111 CJT262088:CJT262111 CTP262088:CTP262111 DDL262088:DDL262111 DNH262088:DNH262111 DXD262088:DXD262111 EGZ262088:EGZ262111 EQV262088:EQV262111 FAR262088:FAR262111 FKN262088:FKN262111 FUJ262088:FUJ262111 GEF262088:GEF262111 GOB262088:GOB262111 GXX262088:GXX262111 HHT262088:HHT262111 HRP262088:HRP262111 IBL262088:IBL262111 ILH262088:ILH262111 IVD262088:IVD262111 JEZ262088:JEZ262111 JOV262088:JOV262111 JYR262088:JYR262111 KIN262088:KIN262111 KSJ262088:KSJ262111 LCF262088:LCF262111 LMB262088:LMB262111 LVX262088:LVX262111 MFT262088:MFT262111 MPP262088:MPP262111 MZL262088:MZL262111 NJH262088:NJH262111 NTD262088:NTD262111 OCZ262088:OCZ262111 OMV262088:OMV262111 OWR262088:OWR262111 PGN262088:PGN262111 PQJ262088:PQJ262111 QAF262088:QAF262111 QKB262088:QKB262111 QTX262088:QTX262111 RDT262088:RDT262111 RNP262088:RNP262111 RXL262088:RXL262111 SHH262088:SHH262111 SRD262088:SRD262111 TAZ262088:TAZ262111 TKV262088:TKV262111 TUR262088:TUR262111 UEN262088:UEN262111 UOJ262088:UOJ262111 UYF262088:UYF262111 VIB262088:VIB262111 VRX262088:VRX262111 WBT262088:WBT262111 WLP262088:WLP262111 WVL262088:WVL262111 C327625:C327648 IZ327624:IZ327647 SV327624:SV327647 ACR327624:ACR327647 AMN327624:AMN327647 AWJ327624:AWJ327647 BGF327624:BGF327647 BQB327624:BQB327647 BZX327624:BZX327647 CJT327624:CJT327647 CTP327624:CTP327647 DDL327624:DDL327647 DNH327624:DNH327647 DXD327624:DXD327647 EGZ327624:EGZ327647 EQV327624:EQV327647 FAR327624:FAR327647 FKN327624:FKN327647 FUJ327624:FUJ327647 GEF327624:GEF327647 GOB327624:GOB327647 GXX327624:GXX327647 HHT327624:HHT327647 HRP327624:HRP327647 IBL327624:IBL327647 ILH327624:ILH327647 IVD327624:IVD327647 JEZ327624:JEZ327647 JOV327624:JOV327647 JYR327624:JYR327647 KIN327624:KIN327647 KSJ327624:KSJ327647 LCF327624:LCF327647 LMB327624:LMB327647 LVX327624:LVX327647 MFT327624:MFT327647 MPP327624:MPP327647 MZL327624:MZL327647 NJH327624:NJH327647 NTD327624:NTD327647 OCZ327624:OCZ327647 OMV327624:OMV327647 OWR327624:OWR327647 PGN327624:PGN327647 PQJ327624:PQJ327647 QAF327624:QAF327647 QKB327624:QKB327647 QTX327624:QTX327647 RDT327624:RDT327647 RNP327624:RNP327647 RXL327624:RXL327647 SHH327624:SHH327647 SRD327624:SRD327647 TAZ327624:TAZ327647 TKV327624:TKV327647 TUR327624:TUR327647 UEN327624:UEN327647 UOJ327624:UOJ327647 UYF327624:UYF327647 VIB327624:VIB327647 VRX327624:VRX327647 WBT327624:WBT327647 WLP327624:WLP327647 WVL327624:WVL327647 C393161:C393184 IZ393160:IZ393183 SV393160:SV393183 ACR393160:ACR393183 AMN393160:AMN393183 AWJ393160:AWJ393183 BGF393160:BGF393183 BQB393160:BQB393183 BZX393160:BZX393183 CJT393160:CJT393183 CTP393160:CTP393183 DDL393160:DDL393183 DNH393160:DNH393183 DXD393160:DXD393183 EGZ393160:EGZ393183 EQV393160:EQV393183 FAR393160:FAR393183 FKN393160:FKN393183 FUJ393160:FUJ393183 GEF393160:GEF393183 GOB393160:GOB393183 GXX393160:GXX393183 HHT393160:HHT393183 HRP393160:HRP393183 IBL393160:IBL393183 ILH393160:ILH393183 IVD393160:IVD393183 JEZ393160:JEZ393183 JOV393160:JOV393183 JYR393160:JYR393183 KIN393160:KIN393183 KSJ393160:KSJ393183 LCF393160:LCF393183 LMB393160:LMB393183 LVX393160:LVX393183 MFT393160:MFT393183 MPP393160:MPP393183 MZL393160:MZL393183 NJH393160:NJH393183 NTD393160:NTD393183 OCZ393160:OCZ393183 OMV393160:OMV393183 OWR393160:OWR393183 PGN393160:PGN393183 PQJ393160:PQJ393183 QAF393160:QAF393183 QKB393160:QKB393183 QTX393160:QTX393183 RDT393160:RDT393183 RNP393160:RNP393183 RXL393160:RXL393183 SHH393160:SHH393183 SRD393160:SRD393183 TAZ393160:TAZ393183 TKV393160:TKV393183 TUR393160:TUR393183 UEN393160:UEN393183 UOJ393160:UOJ393183 UYF393160:UYF393183 VIB393160:VIB393183 VRX393160:VRX393183 WBT393160:WBT393183 WLP393160:WLP393183 WVL393160:WVL393183 C458697:C458720 IZ458696:IZ458719 SV458696:SV458719 ACR458696:ACR458719 AMN458696:AMN458719 AWJ458696:AWJ458719 BGF458696:BGF458719 BQB458696:BQB458719 BZX458696:BZX458719 CJT458696:CJT458719 CTP458696:CTP458719 DDL458696:DDL458719 DNH458696:DNH458719 DXD458696:DXD458719 EGZ458696:EGZ458719 EQV458696:EQV458719 FAR458696:FAR458719 FKN458696:FKN458719 FUJ458696:FUJ458719 GEF458696:GEF458719 GOB458696:GOB458719 GXX458696:GXX458719 HHT458696:HHT458719 HRP458696:HRP458719 IBL458696:IBL458719 ILH458696:ILH458719 IVD458696:IVD458719 JEZ458696:JEZ458719 JOV458696:JOV458719 JYR458696:JYR458719 KIN458696:KIN458719 KSJ458696:KSJ458719 LCF458696:LCF458719 LMB458696:LMB458719 LVX458696:LVX458719 MFT458696:MFT458719 MPP458696:MPP458719 MZL458696:MZL458719 NJH458696:NJH458719 NTD458696:NTD458719 OCZ458696:OCZ458719 OMV458696:OMV458719 OWR458696:OWR458719 PGN458696:PGN458719 PQJ458696:PQJ458719 QAF458696:QAF458719 QKB458696:QKB458719 QTX458696:QTX458719 RDT458696:RDT458719 RNP458696:RNP458719 RXL458696:RXL458719 SHH458696:SHH458719 SRD458696:SRD458719 TAZ458696:TAZ458719 TKV458696:TKV458719 TUR458696:TUR458719 UEN458696:UEN458719 UOJ458696:UOJ458719 UYF458696:UYF458719 VIB458696:VIB458719 VRX458696:VRX458719 WBT458696:WBT458719 WLP458696:WLP458719 WVL458696:WVL458719 C524233:C524256 IZ524232:IZ524255 SV524232:SV524255 ACR524232:ACR524255 AMN524232:AMN524255 AWJ524232:AWJ524255 BGF524232:BGF524255 BQB524232:BQB524255 BZX524232:BZX524255 CJT524232:CJT524255 CTP524232:CTP524255 DDL524232:DDL524255 DNH524232:DNH524255 DXD524232:DXD524255 EGZ524232:EGZ524255 EQV524232:EQV524255 FAR524232:FAR524255 FKN524232:FKN524255 FUJ524232:FUJ524255 GEF524232:GEF524255 GOB524232:GOB524255 GXX524232:GXX524255 HHT524232:HHT524255 HRP524232:HRP524255 IBL524232:IBL524255 ILH524232:ILH524255 IVD524232:IVD524255 JEZ524232:JEZ524255 JOV524232:JOV524255 JYR524232:JYR524255 KIN524232:KIN524255 KSJ524232:KSJ524255 LCF524232:LCF524255 LMB524232:LMB524255 LVX524232:LVX524255 MFT524232:MFT524255 MPP524232:MPP524255 MZL524232:MZL524255 NJH524232:NJH524255 NTD524232:NTD524255 OCZ524232:OCZ524255 OMV524232:OMV524255 OWR524232:OWR524255 PGN524232:PGN524255 PQJ524232:PQJ524255 QAF524232:QAF524255 QKB524232:QKB524255 QTX524232:QTX524255 RDT524232:RDT524255 RNP524232:RNP524255 RXL524232:RXL524255 SHH524232:SHH524255 SRD524232:SRD524255 TAZ524232:TAZ524255 TKV524232:TKV524255 TUR524232:TUR524255 UEN524232:UEN524255 UOJ524232:UOJ524255 UYF524232:UYF524255 VIB524232:VIB524255 VRX524232:VRX524255 WBT524232:WBT524255 WLP524232:WLP524255 WVL524232:WVL524255 C589769:C589792 IZ589768:IZ589791 SV589768:SV589791 ACR589768:ACR589791 AMN589768:AMN589791 AWJ589768:AWJ589791 BGF589768:BGF589791 BQB589768:BQB589791 BZX589768:BZX589791 CJT589768:CJT589791 CTP589768:CTP589791 DDL589768:DDL589791 DNH589768:DNH589791 DXD589768:DXD589791 EGZ589768:EGZ589791 EQV589768:EQV589791 FAR589768:FAR589791 FKN589768:FKN589791 FUJ589768:FUJ589791 GEF589768:GEF589791 GOB589768:GOB589791 GXX589768:GXX589791 HHT589768:HHT589791 HRP589768:HRP589791 IBL589768:IBL589791 ILH589768:ILH589791 IVD589768:IVD589791 JEZ589768:JEZ589791 JOV589768:JOV589791 JYR589768:JYR589791 KIN589768:KIN589791 KSJ589768:KSJ589791 LCF589768:LCF589791 LMB589768:LMB589791 LVX589768:LVX589791 MFT589768:MFT589791 MPP589768:MPP589791 MZL589768:MZL589791 NJH589768:NJH589791 NTD589768:NTD589791 OCZ589768:OCZ589791 OMV589768:OMV589791 OWR589768:OWR589791 PGN589768:PGN589791 PQJ589768:PQJ589791 QAF589768:QAF589791 QKB589768:QKB589791 QTX589768:QTX589791 RDT589768:RDT589791 RNP589768:RNP589791 RXL589768:RXL589791 SHH589768:SHH589791 SRD589768:SRD589791 TAZ589768:TAZ589791 TKV589768:TKV589791 TUR589768:TUR589791 UEN589768:UEN589791 UOJ589768:UOJ589791 UYF589768:UYF589791 VIB589768:VIB589791 VRX589768:VRX589791 WBT589768:WBT589791 WLP589768:WLP589791 WVL589768:WVL589791 C655305:C655328 IZ655304:IZ655327 SV655304:SV655327 ACR655304:ACR655327 AMN655304:AMN655327 AWJ655304:AWJ655327 BGF655304:BGF655327 BQB655304:BQB655327 BZX655304:BZX655327 CJT655304:CJT655327 CTP655304:CTP655327 DDL655304:DDL655327 DNH655304:DNH655327 DXD655304:DXD655327 EGZ655304:EGZ655327 EQV655304:EQV655327 FAR655304:FAR655327 FKN655304:FKN655327 FUJ655304:FUJ655327 GEF655304:GEF655327 GOB655304:GOB655327 GXX655304:GXX655327 HHT655304:HHT655327 HRP655304:HRP655327 IBL655304:IBL655327 ILH655304:ILH655327 IVD655304:IVD655327 JEZ655304:JEZ655327 JOV655304:JOV655327 JYR655304:JYR655327 KIN655304:KIN655327 KSJ655304:KSJ655327 LCF655304:LCF655327 LMB655304:LMB655327 LVX655304:LVX655327 MFT655304:MFT655327 MPP655304:MPP655327 MZL655304:MZL655327 NJH655304:NJH655327 NTD655304:NTD655327 OCZ655304:OCZ655327 OMV655304:OMV655327 OWR655304:OWR655327 PGN655304:PGN655327 PQJ655304:PQJ655327 QAF655304:QAF655327 QKB655304:QKB655327 QTX655304:QTX655327 RDT655304:RDT655327 RNP655304:RNP655327 RXL655304:RXL655327 SHH655304:SHH655327 SRD655304:SRD655327 TAZ655304:TAZ655327 TKV655304:TKV655327 TUR655304:TUR655327 UEN655304:UEN655327 UOJ655304:UOJ655327 UYF655304:UYF655327 VIB655304:VIB655327 VRX655304:VRX655327 WBT655304:WBT655327 WLP655304:WLP655327 WVL655304:WVL655327 C720841:C720864 IZ720840:IZ720863 SV720840:SV720863 ACR720840:ACR720863 AMN720840:AMN720863 AWJ720840:AWJ720863 BGF720840:BGF720863 BQB720840:BQB720863 BZX720840:BZX720863 CJT720840:CJT720863 CTP720840:CTP720863 DDL720840:DDL720863 DNH720840:DNH720863 DXD720840:DXD720863 EGZ720840:EGZ720863 EQV720840:EQV720863 FAR720840:FAR720863 FKN720840:FKN720863 FUJ720840:FUJ720863 GEF720840:GEF720863 GOB720840:GOB720863 GXX720840:GXX720863 HHT720840:HHT720863 HRP720840:HRP720863 IBL720840:IBL720863 ILH720840:ILH720863 IVD720840:IVD720863 JEZ720840:JEZ720863 JOV720840:JOV720863 JYR720840:JYR720863 KIN720840:KIN720863 KSJ720840:KSJ720863 LCF720840:LCF720863 LMB720840:LMB720863 LVX720840:LVX720863 MFT720840:MFT720863 MPP720840:MPP720863 MZL720840:MZL720863 NJH720840:NJH720863 NTD720840:NTD720863 OCZ720840:OCZ720863 OMV720840:OMV720863 OWR720840:OWR720863 PGN720840:PGN720863 PQJ720840:PQJ720863 QAF720840:QAF720863 QKB720840:QKB720863 QTX720840:QTX720863 RDT720840:RDT720863 RNP720840:RNP720863 RXL720840:RXL720863 SHH720840:SHH720863 SRD720840:SRD720863 TAZ720840:TAZ720863 TKV720840:TKV720863 TUR720840:TUR720863 UEN720840:UEN720863 UOJ720840:UOJ720863 UYF720840:UYF720863 VIB720840:VIB720863 VRX720840:VRX720863 WBT720840:WBT720863 WLP720840:WLP720863 WVL720840:WVL720863 C786377:C786400 IZ786376:IZ786399 SV786376:SV786399 ACR786376:ACR786399 AMN786376:AMN786399 AWJ786376:AWJ786399 BGF786376:BGF786399 BQB786376:BQB786399 BZX786376:BZX786399 CJT786376:CJT786399 CTP786376:CTP786399 DDL786376:DDL786399 DNH786376:DNH786399 DXD786376:DXD786399 EGZ786376:EGZ786399 EQV786376:EQV786399 FAR786376:FAR786399 FKN786376:FKN786399 FUJ786376:FUJ786399 GEF786376:GEF786399 GOB786376:GOB786399 GXX786376:GXX786399 HHT786376:HHT786399 HRP786376:HRP786399 IBL786376:IBL786399 ILH786376:ILH786399 IVD786376:IVD786399 JEZ786376:JEZ786399 JOV786376:JOV786399 JYR786376:JYR786399 KIN786376:KIN786399 KSJ786376:KSJ786399 LCF786376:LCF786399 LMB786376:LMB786399 LVX786376:LVX786399 MFT786376:MFT786399 MPP786376:MPP786399 MZL786376:MZL786399 NJH786376:NJH786399 NTD786376:NTD786399 OCZ786376:OCZ786399 OMV786376:OMV786399 OWR786376:OWR786399 PGN786376:PGN786399 PQJ786376:PQJ786399 QAF786376:QAF786399 QKB786376:QKB786399 QTX786376:QTX786399 RDT786376:RDT786399 RNP786376:RNP786399 RXL786376:RXL786399 SHH786376:SHH786399 SRD786376:SRD786399 TAZ786376:TAZ786399 TKV786376:TKV786399 TUR786376:TUR786399 UEN786376:UEN786399 UOJ786376:UOJ786399 UYF786376:UYF786399 VIB786376:VIB786399 VRX786376:VRX786399 WBT786376:WBT786399 WLP786376:WLP786399 WVL786376:WVL786399 C851913:C851936 IZ851912:IZ851935 SV851912:SV851935 ACR851912:ACR851935 AMN851912:AMN851935 AWJ851912:AWJ851935 BGF851912:BGF851935 BQB851912:BQB851935 BZX851912:BZX851935 CJT851912:CJT851935 CTP851912:CTP851935 DDL851912:DDL851935 DNH851912:DNH851935 DXD851912:DXD851935 EGZ851912:EGZ851935 EQV851912:EQV851935 FAR851912:FAR851935 FKN851912:FKN851935 FUJ851912:FUJ851935 GEF851912:GEF851935 GOB851912:GOB851935 GXX851912:GXX851935 HHT851912:HHT851935 HRP851912:HRP851935 IBL851912:IBL851935 ILH851912:ILH851935 IVD851912:IVD851935 JEZ851912:JEZ851935 JOV851912:JOV851935 JYR851912:JYR851935 KIN851912:KIN851935 KSJ851912:KSJ851935 LCF851912:LCF851935 LMB851912:LMB851935 LVX851912:LVX851935 MFT851912:MFT851935 MPP851912:MPP851935 MZL851912:MZL851935 NJH851912:NJH851935 NTD851912:NTD851935 OCZ851912:OCZ851935 OMV851912:OMV851935 OWR851912:OWR851935 PGN851912:PGN851935 PQJ851912:PQJ851935 QAF851912:QAF851935 QKB851912:QKB851935 QTX851912:QTX851935 RDT851912:RDT851935 RNP851912:RNP851935 RXL851912:RXL851935 SHH851912:SHH851935 SRD851912:SRD851935 TAZ851912:TAZ851935 TKV851912:TKV851935 TUR851912:TUR851935 UEN851912:UEN851935 UOJ851912:UOJ851935 UYF851912:UYF851935 VIB851912:VIB851935 VRX851912:VRX851935 WBT851912:WBT851935 WLP851912:WLP851935 WVL851912:WVL851935 C917449:C917472 IZ917448:IZ917471 SV917448:SV917471 ACR917448:ACR917471 AMN917448:AMN917471 AWJ917448:AWJ917471 BGF917448:BGF917471 BQB917448:BQB917471 BZX917448:BZX917471 CJT917448:CJT917471 CTP917448:CTP917471 DDL917448:DDL917471 DNH917448:DNH917471 DXD917448:DXD917471 EGZ917448:EGZ917471 EQV917448:EQV917471 FAR917448:FAR917471 FKN917448:FKN917471 FUJ917448:FUJ917471 GEF917448:GEF917471 GOB917448:GOB917471 GXX917448:GXX917471 HHT917448:HHT917471 HRP917448:HRP917471 IBL917448:IBL917471 ILH917448:ILH917471 IVD917448:IVD917471 JEZ917448:JEZ917471 JOV917448:JOV917471 JYR917448:JYR917471 KIN917448:KIN917471 KSJ917448:KSJ917471 LCF917448:LCF917471 LMB917448:LMB917471 LVX917448:LVX917471 MFT917448:MFT917471 MPP917448:MPP917471 MZL917448:MZL917471 NJH917448:NJH917471 NTD917448:NTD917471 OCZ917448:OCZ917471 OMV917448:OMV917471 OWR917448:OWR917471 PGN917448:PGN917471 PQJ917448:PQJ917471 QAF917448:QAF917471 QKB917448:QKB917471 QTX917448:QTX917471 RDT917448:RDT917471 RNP917448:RNP917471 RXL917448:RXL917471 SHH917448:SHH917471 SRD917448:SRD917471 TAZ917448:TAZ917471 TKV917448:TKV917471 TUR917448:TUR917471 UEN917448:UEN917471 UOJ917448:UOJ917471 UYF917448:UYF917471 VIB917448:VIB917471 VRX917448:VRX917471 WBT917448:WBT917471 WLP917448:WLP917471 WVL917448:WVL917471 C982985:C983008 IZ982984:IZ983007 SV982984:SV983007 ACR982984:ACR983007 AMN982984:AMN983007 AWJ982984:AWJ983007 BGF982984:BGF983007 BQB982984:BQB983007 BZX982984:BZX983007 CJT982984:CJT983007 CTP982984:CTP983007 DDL982984:DDL983007 DNH982984:DNH983007 DXD982984:DXD983007 EGZ982984:EGZ983007 EQV982984:EQV983007 FAR982984:FAR983007 FKN982984:FKN983007 FUJ982984:FUJ983007 GEF982984:GEF983007 GOB982984:GOB983007 GXX982984:GXX983007 HHT982984:HHT983007 HRP982984:HRP983007 IBL982984:IBL983007 ILH982984:ILH983007 IVD982984:IVD983007 JEZ982984:JEZ983007 JOV982984:JOV983007 JYR982984:JYR983007 KIN982984:KIN983007 KSJ982984:KSJ983007 LCF982984:LCF983007 LMB982984:LMB983007 LVX982984:LVX983007 MFT982984:MFT983007 MPP982984:MPP983007 MZL982984:MZL983007 NJH982984:NJH983007 NTD982984:NTD983007 OCZ982984:OCZ983007 OMV982984:OMV983007 OWR982984:OWR983007 PGN982984:PGN983007 PQJ982984:PQJ983007 QAF982984:QAF983007 QKB982984:QKB983007 QTX982984:QTX983007 RDT982984:RDT983007 RNP982984:RNP983007 RXL982984:RXL983007 SHH982984:SHH983007 SRD982984:SRD983007 TAZ982984:TAZ983007 TKV982984:TKV983007 TUR982984:TUR983007 UEN982984:UEN983007 UOJ982984:UOJ983007 UYF982984:UYF983007 VIB982984:VIB983007 VRX982984:VRX983007 WBT982984:WBT983007 WLP982984:WLP983007 WVL982984:WVL983007 D13:D16 SL24:SL28 D47:D49 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D119:D120 D89:D92 D41:D42 D54:D55 D61:D62 D68:D69 D75:D76 D111 D104:D105 D97:D99 D34:D35 D82:D83 D114 D6:D8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D43 D34:D35 D83:D84 D119 D98:D104" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3838,7 +4015,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -4023,16 +4200,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4040,7 +4214,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4057,4 +4231,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF6BF0A-A817-4203-A77F-088606BFC20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887512F7-1FE0-4E6E-A5A4-7B91A5F509E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="161">
   <si>
     <t>Database Name</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Description of the zombie</t>
   </si>
   <si>
-    <t>TransactionsDetails</t>
-  </si>
-  <si>
     <t>Quantity of item bought</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>TransactionDetails</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44537.80504363426</v>
+        <v>44539.758293171297</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1892,10 +1892,10 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>30</v>
@@ -1908,7 +1908,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1969,7 +1969,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -1995,7 +1995,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>35</v>
@@ -2019,7 +2019,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>36</v>
@@ -2043,7 +2043,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>37</v>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2116,18 +2116,18 @@
         <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>33</v>
+      </c>
+      <c r="F21" s="13"/>
       <c r="G21" s="11" t="s">
         <v>19</v>
       </c>
@@ -2142,18 +2142,18 @@
         <v>42</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="11" t="s">
         <v>19</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -2244,7 +2244,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>41</v>
@@ -2268,13 +2268,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>119</v>
-      </c>
       <c r="D29" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -2305,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2353,10 +2353,10 @@
         <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
@@ -2409,7 +2409,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2476,10 +2476,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>133</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>15</v>
@@ -2492,7 +2492,7 @@
         <v>20</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="82" t="s">
@@ -2502,10 +2502,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
       <c r="B42" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="83" t="s">
         <v>134</v>
-      </c>
-      <c r="C42" s="83" t="s">
-        <v>135</v>
       </c>
       <c r="D42" s="82" t="s">
         <v>18</v>
@@ -2524,13 +2524,13 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -2623,10 +2623,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>15</v>
@@ -2720,10 +2720,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>15</v>
@@ -2734,7 +2734,7 @@
         <v>20</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
@@ -2766,13 +2766,13 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2850,10 +2850,10 @@
         <v>13</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>15</v>
@@ -2864,7 +2864,7 @@
         <v>20</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
@@ -2896,13 +2896,13 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -2969,10 +2969,10 @@
         <v>13</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="83" t="s">
         <v>145</v>
-      </c>
-      <c r="C69" s="83" t="s">
-        <v>146</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>15</v>
@@ -2983,7 +2983,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
@@ -3015,13 +3015,13 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -3088,10 +3088,10 @@
         <v>13</v>
       </c>
       <c r="B76" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="83" t="s">
         <v>148</v>
-      </c>
-      <c r="C76" s="83" t="s">
-        <v>149</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>15</v>
@@ -3102,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
@@ -3134,13 +3134,13 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
@@ -3207,10 +3207,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C83" s="83" t="s">
         <v>151</v>
-      </c>
-      <c r="C83" s="83" t="s">
-        <v>152</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>15</v>
@@ -3221,7 +3221,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
@@ -3253,13 +3253,13 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
@@ -3342,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="H90" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I90" s="52"/>
       <c r="J90" s="52" t="s">
@@ -3354,7 +3354,7 @@
         <v>21</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="53" t="s">
         <v>76</v>
@@ -3376,10 +3376,10 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="57" t="s">
         <v>120</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>121</v>
       </c>
       <c r="D92" s="52" t="s">
         <v>38</v>
@@ -3398,13 +3398,13 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C93" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="52" t="s">
         <v>122</v>
-      </c>
-      <c r="D93" s="52" t="s">
-        <v>123</v>
       </c>
       <c r="E93" s="57"/>
       <c r="F93" s="57"/>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -3495,10 +3495,10 @@
         <v>21</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>15</v>
@@ -3511,7 +3511,7 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3519,21 +3519,23 @@
         <v>21</v>
       </c>
       <c r="B100" s="82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C100" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D100" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="83"/>
       <c r="F100" s="83"/>
-      <c r="G100" s="82"/>
+      <c r="G100" s="82" t="s">
+        <v>19</v>
+      </c>
       <c r="H100" s="82"/>
       <c r="I100" s="82"/>
       <c r="J100" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3541,21 +3543,23 @@
         <v>21</v>
       </c>
       <c r="B101" s="82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D101" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="83"/>
       <c r="F101" s="83"/>
-      <c r="G101" s="82"/>
+      <c r="G101" s="82" t="s">
+        <v>19</v>
+      </c>
       <c r="H101" s="82"/>
       <c r="I101" s="82"/>
       <c r="J101" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3563,21 +3567,23 @@
         <v>21</v>
       </c>
       <c r="B102" s="82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C102" s="83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D102" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="83"/>
       <c r="F102" s="83"/>
-      <c r="G102" s="82"/>
+      <c r="G102" s="82" t="s">
+        <v>19</v>
+      </c>
       <c r="H102" s="82"/>
       <c r="I102" s="82"/>
       <c r="J102" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3585,21 +3591,23 @@
         <v>21</v>
       </c>
       <c r="B103" s="82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C103" s="83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D103" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E103" s="83"/>
       <c r="F103" s="83"/>
-      <c r="G103" s="82"/>
+      <c r="G103" s="82" t="s">
+        <v>19</v>
+      </c>
       <c r="H103" s="82"/>
       <c r="I103" s="82"/>
       <c r="J103" s="82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3608,10 +3616,10 @@
         <v>51</v>
       </c>
       <c r="C104" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
@@ -3726,13 +3734,13 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="D111" s="82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="39"/>
@@ -3751,7 +3759,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C114" s="30"/>
       <c r="D114" s="30"/>
@@ -3799,23 +3807,23 @@
         <v>13</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D116" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="24" t="s">
@@ -3825,10 +3833,10 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
       <c r="B117" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>38</v>
@@ -3847,10 +3855,10 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
       <c r="B118" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>108</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>109</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>18</v>
@@ -3874,7 +3882,7 @@
         <v>79</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
@@ -3900,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122" s="88"/>
       <c r="D122" s="88"/>
@@ -3948,10 +3956,10 @@
         <v>42</v>
       </c>
       <c r="B124" s="82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C124" s="83" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D124" s="82" t="s">
         <v>15</v>
@@ -3972,10 +3980,10 @@
         <v>42</v>
       </c>
       <c r="B125" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="83" t="s">
         <v>111</v>
-      </c>
-      <c r="C125" s="83" t="s">
-        <v>112</v>
       </c>
       <c r="D125" s="82" t="s">
         <v>15</v>
@@ -4000,22 +4008,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65494:F65509 WVO982997:WVP983012 WLS982997:WLT983012 WBW982997:WBX983012 VSA982997:VSB983012 VIE982997:VIF983012 UYI982997:UYJ983012 UOM982997:UON983012 UEQ982997:UER983012 TUU982997:TUV983012 TKY982997:TKZ983012 TBC982997:TBD983012 SRG982997:SRH983012 SHK982997:SHL983012 RXO982997:RXP983012 RNS982997:RNT983012 RDW982997:RDX983012 QUA982997:QUB983012 QKE982997:QKF983012 QAI982997:QAJ983012 PQM982997:PQN983012 PGQ982997:PGR983012 OWU982997:OWV983012 OMY982997:OMZ983012 ODC982997:ODD983012 NTG982997:NTH983012 NJK982997:NJL983012 MZO982997:MZP983012 MPS982997:MPT983012 MFW982997:MFX983012 LWA982997:LWB983012 LME982997:LMF983012 LCI982997:LCJ983012 KSM982997:KSN983012 KIQ982997:KIR983012 JYU982997:JYV983012 JOY982997:JOZ983012 JFC982997:JFD983012 IVG982997:IVH983012 ILK982997:ILL983012 IBO982997:IBP983012 HRS982997:HRT983012 HHW982997:HHX983012 GYA982997:GYB983012 GOE982997:GOF983012 GEI982997:GEJ983012 FUM982997:FUN983012 FKQ982997:FKR983012 FAU982997:FAV983012 EQY982997:EQZ983012 EHC982997:EHD983012 DXG982997:DXH983012 DNK982997:DNL983012 DDO982997:DDP983012 CTS982997:CTT983012 CJW982997:CJX983012 CAA982997:CAB983012 BQE982997:BQF983012 BGI982997:BGJ983012 AWM982997:AWN983012 AMQ982997:AMR983012 ACU982997:ACV983012 SY982997:SZ983012 JC982997:JD983012 F982998:F983013 WVO917461:WVP917476 WLS917461:WLT917476 WBW917461:WBX917476 VSA917461:VSB917476 VIE917461:VIF917476 UYI917461:UYJ917476 UOM917461:UON917476 UEQ917461:UER917476 TUU917461:TUV917476 TKY917461:TKZ917476 TBC917461:TBD917476 SRG917461:SRH917476 SHK917461:SHL917476 RXO917461:RXP917476 RNS917461:RNT917476 RDW917461:RDX917476 QUA917461:QUB917476 QKE917461:QKF917476 QAI917461:QAJ917476 PQM917461:PQN917476 PGQ917461:PGR917476 OWU917461:OWV917476 OMY917461:OMZ917476 ODC917461:ODD917476 NTG917461:NTH917476 NJK917461:NJL917476 MZO917461:MZP917476 MPS917461:MPT917476 MFW917461:MFX917476 LWA917461:LWB917476 LME917461:LMF917476 LCI917461:LCJ917476 KSM917461:KSN917476 KIQ917461:KIR917476 JYU917461:JYV917476 JOY917461:JOZ917476 JFC917461:JFD917476 IVG917461:IVH917476 ILK917461:ILL917476 IBO917461:IBP917476 HRS917461:HRT917476 HHW917461:HHX917476 GYA917461:GYB917476 GOE917461:GOF917476 GEI917461:GEJ917476 FUM917461:FUN917476 FKQ917461:FKR917476 FAU917461:FAV917476 EQY917461:EQZ917476 EHC917461:EHD917476 DXG917461:DXH917476 DNK917461:DNL917476 DDO917461:DDP917476 CTS917461:CTT917476 CJW917461:CJX917476 CAA917461:CAB917476 BQE917461:BQF917476 BGI917461:BGJ917476 AWM917461:AWN917476 AMQ917461:AMR917476 ACU917461:ACV917476 SY917461:SZ917476 JC917461:JD917476 F917462:F917477 WVO851925:WVP851940 WLS851925:WLT851940 WBW851925:WBX851940 VSA851925:VSB851940 VIE851925:VIF851940 UYI851925:UYJ851940 UOM851925:UON851940 UEQ851925:UER851940 TUU851925:TUV851940 TKY851925:TKZ851940 TBC851925:TBD851940 SRG851925:SRH851940 SHK851925:SHL851940 RXO851925:RXP851940 RNS851925:RNT851940 RDW851925:RDX851940 QUA851925:QUB851940 QKE851925:QKF851940 QAI851925:QAJ851940 PQM851925:PQN851940 PGQ851925:PGR851940 OWU851925:OWV851940 OMY851925:OMZ851940 ODC851925:ODD851940 NTG851925:NTH851940 NJK851925:NJL851940 MZO851925:MZP851940 MPS851925:MPT851940 MFW851925:MFX851940 LWA851925:LWB851940 LME851925:LMF851940 LCI851925:LCJ851940 KSM851925:KSN851940 KIQ851925:KIR851940 JYU851925:JYV851940 JOY851925:JOZ851940 JFC851925:JFD851940 IVG851925:IVH851940 ILK851925:ILL851940 IBO851925:IBP851940 HRS851925:HRT851940 HHW851925:HHX851940 GYA851925:GYB851940 GOE851925:GOF851940 GEI851925:GEJ851940 FUM851925:FUN851940 FKQ851925:FKR851940 FAU851925:FAV851940 EQY851925:EQZ851940 EHC851925:EHD851940 DXG851925:DXH851940 DNK851925:DNL851940 DDO851925:DDP851940 CTS851925:CTT851940 CJW851925:CJX851940 CAA851925:CAB851940 BQE851925:BQF851940 BGI851925:BGJ851940 AWM851925:AWN851940 AMQ851925:AMR851940 ACU851925:ACV851940 SY851925:SZ851940 JC851925:JD851940 F851926:F851941 WVO786389:WVP786404 WLS786389:WLT786404 WBW786389:WBX786404 VSA786389:VSB786404 VIE786389:VIF786404 UYI786389:UYJ786404 UOM786389:UON786404 UEQ786389:UER786404 TUU786389:TUV786404 TKY786389:TKZ786404 TBC786389:TBD786404 SRG786389:SRH786404 SHK786389:SHL786404 RXO786389:RXP786404 RNS786389:RNT786404 RDW786389:RDX786404 QUA786389:QUB786404 QKE786389:QKF786404 QAI786389:QAJ786404 PQM786389:PQN786404 PGQ786389:PGR786404 OWU786389:OWV786404 OMY786389:OMZ786404 ODC786389:ODD786404 NTG786389:NTH786404 NJK786389:NJL786404 MZO786389:MZP786404 MPS786389:MPT786404 MFW786389:MFX786404 LWA786389:LWB786404 LME786389:LMF786404 LCI786389:LCJ786404 KSM786389:KSN786404 KIQ786389:KIR786404 JYU786389:JYV786404 JOY786389:JOZ786404 JFC786389:JFD786404 IVG786389:IVH786404 ILK786389:ILL786404 IBO786389:IBP786404 HRS786389:HRT786404 HHW786389:HHX786404 GYA786389:GYB786404 GOE786389:GOF786404 GEI786389:GEJ786404 FUM786389:FUN786404 FKQ786389:FKR786404 FAU786389:FAV786404 EQY786389:EQZ786404 EHC786389:EHD786404 DXG786389:DXH786404 DNK786389:DNL786404 DDO786389:DDP786404 CTS786389:CTT786404 CJW786389:CJX786404 CAA786389:CAB786404 BQE786389:BQF786404 BGI786389:BGJ786404 AWM786389:AWN786404 AMQ786389:AMR786404 ACU786389:ACV786404 SY786389:SZ786404 JC786389:JD786404 F786390:F786405 WVO720853:WVP720868 WLS720853:WLT720868 WBW720853:WBX720868 VSA720853:VSB720868 VIE720853:VIF720868 UYI720853:UYJ720868 UOM720853:UON720868 UEQ720853:UER720868 TUU720853:TUV720868 TKY720853:TKZ720868 TBC720853:TBD720868 SRG720853:SRH720868 SHK720853:SHL720868 RXO720853:RXP720868 RNS720853:RNT720868 RDW720853:RDX720868 QUA720853:QUB720868 QKE720853:QKF720868 QAI720853:QAJ720868 PQM720853:PQN720868 PGQ720853:PGR720868 OWU720853:OWV720868 OMY720853:OMZ720868 ODC720853:ODD720868 NTG720853:NTH720868 NJK720853:NJL720868 MZO720853:MZP720868 MPS720853:MPT720868 MFW720853:MFX720868 LWA720853:LWB720868 LME720853:LMF720868 LCI720853:LCJ720868 KSM720853:KSN720868 KIQ720853:KIR720868 JYU720853:JYV720868 JOY720853:JOZ720868 JFC720853:JFD720868 IVG720853:IVH720868 ILK720853:ILL720868 IBO720853:IBP720868 HRS720853:HRT720868 HHW720853:HHX720868 GYA720853:GYB720868 GOE720853:GOF720868 GEI720853:GEJ720868 FUM720853:FUN720868 FKQ720853:FKR720868 FAU720853:FAV720868 EQY720853:EQZ720868 EHC720853:EHD720868 DXG720853:DXH720868 DNK720853:DNL720868 DDO720853:DDP720868 CTS720853:CTT720868 CJW720853:CJX720868 CAA720853:CAB720868 BQE720853:BQF720868 BGI720853:BGJ720868 AWM720853:AWN720868 AMQ720853:AMR720868 ACU720853:ACV720868 SY720853:SZ720868 JC720853:JD720868 F720854:F720869 WVO655317:WVP655332 WLS655317:WLT655332 WBW655317:WBX655332 VSA655317:VSB655332 VIE655317:VIF655332 UYI655317:UYJ655332 UOM655317:UON655332 UEQ655317:UER655332 TUU655317:TUV655332 TKY655317:TKZ655332 TBC655317:TBD655332 SRG655317:SRH655332 SHK655317:SHL655332 RXO655317:RXP655332 RNS655317:RNT655332 RDW655317:RDX655332 QUA655317:QUB655332 QKE655317:QKF655332 QAI655317:QAJ655332 PQM655317:PQN655332 PGQ655317:PGR655332 OWU655317:OWV655332 OMY655317:OMZ655332 ODC655317:ODD655332 NTG655317:NTH655332 NJK655317:NJL655332 MZO655317:MZP655332 MPS655317:MPT655332 MFW655317:MFX655332 LWA655317:LWB655332 LME655317:LMF655332 LCI655317:LCJ655332 KSM655317:KSN655332 KIQ655317:KIR655332 JYU655317:JYV655332 JOY655317:JOZ655332 JFC655317:JFD655332 IVG655317:IVH655332 ILK655317:ILL655332 IBO655317:IBP655332 HRS655317:HRT655332 HHW655317:HHX655332 GYA655317:GYB655332 GOE655317:GOF655332 GEI655317:GEJ655332 FUM655317:FUN655332 FKQ655317:FKR655332 FAU655317:FAV655332 EQY655317:EQZ655332 EHC655317:EHD655332 DXG655317:DXH655332 DNK655317:DNL655332 DDO655317:DDP655332 CTS655317:CTT655332 CJW655317:CJX655332 CAA655317:CAB655332 BQE655317:BQF655332 BGI655317:BGJ655332 AWM655317:AWN655332 AMQ655317:AMR655332 ACU655317:ACV655332 SY655317:SZ655332 JC655317:JD655332 F655318:F655333 WVO589781:WVP589796 WLS589781:WLT589796 WBW589781:WBX589796 VSA589781:VSB589796 VIE589781:VIF589796 UYI589781:UYJ589796 UOM589781:UON589796 UEQ589781:UER589796 TUU589781:TUV589796 TKY589781:TKZ589796 TBC589781:TBD589796 SRG589781:SRH589796 SHK589781:SHL589796 RXO589781:RXP589796 RNS589781:RNT589796 RDW589781:RDX589796 QUA589781:QUB589796 QKE589781:QKF589796 QAI589781:QAJ589796 PQM589781:PQN589796 PGQ589781:PGR589796 OWU589781:OWV589796 OMY589781:OMZ589796 ODC589781:ODD589796 NTG589781:NTH589796 NJK589781:NJL589796 MZO589781:MZP589796 MPS589781:MPT589796 MFW589781:MFX589796 LWA589781:LWB589796 LME589781:LMF589796 LCI589781:LCJ589796 KSM589781:KSN589796 KIQ589781:KIR589796 JYU589781:JYV589796 JOY589781:JOZ589796 JFC589781:JFD589796 IVG589781:IVH589796 ILK589781:ILL589796 IBO589781:IBP589796 HRS589781:HRT589796 HHW589781:HHX589796 GYA589781:GYB589796 GOE589781:GOF589796 GEI589781:GEJ589796 FUM589781:FUN589796 FKQ589781:FKR589796 FAU589781:FAV589796 EQY589781:EQZ589796 EHC589781:EHD589796 DXG589781:DXH589796 DNK589781:DNL589796 DDO589781:DDP589796 CTS589781:CTT589796 CJW589781:CJX589796 CAA589781:CAB589796 BQE589781:BQF589796 BGI589781:BGJ589796 AWM589781:AWN589796 AMQ589781:AMR589796 ACU589781:ACV589796 SY589781:SZ589796 JC589781:JD589796 F589782:F589797 WVO524245:WVP524260 WLS524245:WLT524260 WBW524245:WBX524260 VSA524245:VSB524260 VIE524245:VIF524260 UYI524245:UYJ524260 UOM524245:UON524260 UEQ524245:UER524260 TUU524245:TUV524260 TKY524245:TKZ524260 TBC524245:TBD524260 SRG524245:SRH524260 SHK524245:SHL524260 RXO524245:RXP524260 RNS524245:RNT524260 RDW524245:RDX524260 QUA524245:QUB524260 QKE524245:QKF524260 QAI524245:QAJ524260 PQM524245:PQN524260 PGQ524245:PGR524260 OWU524245:OWV524260 OMY524245:OMZ524260 ODC524245:ODD524260 NTG524245:NTH524260 NJK524245:NJL524260 MZO524245:MZP524260 MPS524245:MPT524260 MFW524245:MFX524260 LWA524245:LWB524260 LME524245:LMF524260 LCI524245:LCJ524260 KSM524245:KSN524260 KIQ524245:KIR524260 JYU524245:JYV524260 JOY524245:JOZ524260 JFC524245:JFD524260 IVG524245:IVH524260 ILK524245:ILL524260 IBO524245:IBP524260 HRS524245:HRT524260 HHW524245:HHX524260 GYA524245:GYB524260 GOE524245:GOF524260 GEI524245:GEJ524260 FUM524245:FUN524260 FKQ524245:FKR524260 FAU524245:FAV524260 EQY524245:EQZ524260 EHC524245:EHD524260 DXG524245:DXH524260 DNK524245:DNL524260 DDO524245:DDP524260 CTS524245:CTT524260 CJW524245:CJX524260 CAA524245:CAB524260 BQE524245:BQF524260 BGI524245:BGJ524260 AWM524245:AWN524260 AMQ524245:AMR524260 ACU524245:ACV524260 SY524245:SZ524260 JC524245:JD524260 F524246:F524261 WVO458709:WVP458724 WLS458709:WLT458724 WBW458709:WBX458724 VSA458709:VSB458724 VIE458709:VIF458724 UYI458709:UYJ458724 UOM458709:UON458724 UEQ458709:UER458724 TUU458709:TUV458724 TKY458709:TKZ458724 TBC458709:TBD458724 SRG458709:SRH458724 SHK458709:SHL458724 RXO458709:RXP458724 RNS458709:RNT458724 RDW458709:RDX458724 QUA458709:QUB458724 QKE458709:QKF458724 QAI458709:QAJ458724 PQM458709:PQN458724 PGQ458709:PGR458724 OWU458709:OWV458724 OMY458709:OMZ458724 ODC458709:ODD458724 NTG458709:NTH458724 NJK458709:NJL458724 MZO458709:MZP458724 MPS458709:MPT458724 MFW458709:MFX458724 LWA458709:LWB458724 LME458709:LMF458724 LCI458709:LCJ458724 KSM458709:KSN458724 KIQ458709:KIR458724 JYU458709:JYV458724 JOY458709:JOZ458724 JFC458709:JFD458724 IVG458709:IVH458724 ILK458709:ILL458724 IBO458709:IBP458724 HRS458709:HRT458724 HHW458709:HHX458724 GYA458709:GYB458724 GOE458709:GOF458724 GEI458709:GEJ458724 FUM458709:FUN458724 FKQ458709:FKR458724 FAU458709:FAV458724 EQY458709:EQZ458724 EHC458709:EHD458724 DXG458709:DXH458724 DNK458709:DNL458724 DDO458709:DDP458724 CTS458709:CTT458724 CJW458709:CJX458724 CAA458709:CAB458724 BQE458709:BQF458724 BGI458709:BGJ458724 AWM458709:AWN458724 AMQ458709:AMR458724 ACU458709:ACV458724 SY458709:SZ458724 JC458709:JD458724 F458710:F458725 WVO393173:WVP393188 WLS393173:WLT393188 WBW393173:WBX393188 VSA393173:VSB393188 VIE393173:VIF393188 UYI393173:UYJ393188 UOM393173:UON393188 UEQ393173:UER393188 TUU393173:TUV393188 TKY393173:TKZ393188 TBC393173:TBD393188 SRG393173:SRH393188 SHK393173:SHL393188 RXO393173:RXP393188 RNS393173:RNT393188 RDW393173:RDX393188 QUA393173:QUB393188 QKE393173:QKF393188 QAI393173:QAJ393188 PQM393173:PQN393188 PGQ393173:PGR393188 OWU393173:OWV393188 OMY393173:OMZ393188 ODC393173:ODD393188 NTG393173:NTH393188 NJK393173:NJL393188 MZO393173:MZP393188 MPS393173:MPT393188 MFW393173:MFX393188 LWA393173:LWB393188 LME393173:LMF393188 LCI393173:LCJ393188 KSM393173:KSN393188 KIQ393173:KIR393188 JYU393173:JYV393188 JOY393173:JOZ393188 JFC393173:JFD393188 IVG393173:IVH393188 ILK393173:ILL393188 IBO393173:IBP393188 HRS393173:HRT393188 HHW393173:HHX393188 GYA393173:GYB393188 GOE393173:GOF393188 GEI393173:GEJ393188 FUM393173:FUN393188 FKQ393173:FKR393188 FAU393173:FAV393188 EQY393173:EQZ393188 EHC393173:EHD393188 DXG393173:DXH393188 DNK393173:DNL393188 DDO393173:DDP393188 CTS393173:CTT393188 CJW393173:CJX393188 CAA393173:CAB393188 BQE393173:BQF393188 BGI393173:BGJ393188 AWM393173:AWN393188 AMQ393173:AMR393188 ACU393173:ACV393188 SY393173:SZ393188 JC393173:JD393188 F393174:F393189 WVO327637:WVP327652 WLS327637:WLT327652 WBW327637:WBX327652 VSA327637:VSB327652 VIE327637:VIF327652 UYI327637:UYJ327652 UOM327637:UON327652 UEQ327637:UER327652 TUU327637:TUV327652 TKY327637:TKZ327652 TBC327637:TBD327652 SRG327637:SRH327652 SHK327637:SHL327652 RXO327637:RXP327652 RNS327637:RNT327652 RDW327637:RDX327652 QUA327637:QUB327652 QKE327637:QKF327652 QAI327637:QAJ327652 PQM327637:PQN327652 PGQ327637:PGR327652 OWU327637:OWV327652 OMY327637:OMZ327652 ODC327637:ODD327652 NTG327637:NTH327652 NJK327637:NJL327652 MZO327637:MZP327652 MPS327637:MPT327652 MFW327637:MFX327652 LWA327637:LWB327652 LME327637:LMF327652 LCI327637:LCJ327652 KSM327637:KSN327652 KIQ327637:KIR327652 JYU327637:JYV327652 JOY327637:JOZ327652 JFC327637:JFD327652 IVG327637:IVH327652 ILK327637:ILL327652 IBO327637:IBP327652 HRS327637:HRT327652 HHW327637:HHX327652 GYA327637:GYB327652 GOE327637:GOF327652 GEI327637:GEJ327652 FUM327637:FUN327652 FKQ327637:FKR327652 FAU327637:FAV327652 EQY327637:EQZ327652 EHC327637:EHD327652 DXG327637:DXH327652 DNK327637:DNL327652 DDO327637:DDP327652 CTS327637:CTT327652 CJW327637:CJX327652 CAA327637:CAB327652 BQE327637:BQF327652 BGI327637:BGJ327652 AWM327637:AWN327652 AMQ327637:AMR327652 ACU327637:ACV327652 SY327637:SZ327652 JC327637:JD327652 F327638:F327653 WVO262101:WVP262116 WLS262101:WLT262116 WBW262101:WBX262116 VSA262101:VSB262116 VIE262101:VIF262116 UYI262101:UYJ262116 UOM262101:UON262116 UEQ262101:UER262116 TUU262101:TUV262116 TKY262101:TKZ262116 TBC262101:TBD262116 SRG262101:SRH262116 SHK262101:SHL262116 RXO262101:RXP262116 RNS262101:RNT262116 RDW262101:RDX262116 QUA262101:QUB262116 QKE262101:QKF262116 QAI262101:QAJ262116 PQM262101:PQN262116 PGQ262101:PGR262116 OWU262101:OWV262116 OMY262101:OMZ262116 ODC262101:ODD262116 NTG262101:NTH262116 NJK262101:NJL262116 MZO262101:MZP262116 MPS262101:MPT262116 MFW262101:MFX262116 LWA262101:LWB262116 LME262101:LMF262116 LCI262101:LCJ262116 KSM262101:KSN262116 KIQ262101:KIR262116 JYU262101:JYV262116 JOY262101:JOZ262116 JFC262101:JFD262116 IVG262101:IVH262116 ILK262101:ILL262116 IBO262101:IBP262116 HRS262101:HRT262116 HHW262101:HHX262116 GYA262101:GYB262116 GOE262101:GOF262116 GEI262101:GEJ262116 FUM262101:FUN262116 FKQ262101:FKR262116 FAU262101:FAV262116 EQY262101:EQZ262116 EHC262101:EHD262116 DXG262101:DXH262116 DNK262101:DNL262116 DDO262101:DDP262116 CTS262101:CTT262116 CJW262101:CJX262116 CAA262101:CAB262116 BQE262101:BQF262116 BGI262101:BGJ262116 AWM262101:AWN262116 AMQ262101:AMR262116 ACU262101:ACV262116 SY262101:SZ262116 JC262101:JD262116 F262102:F262117 WVO196565:WVP196580 WLS196565:WLT196580 WBW196565:WBX196580 VSA196565:VSB196580 VIE196565:VIF196580 UYI196565:UYJ196580 UOM196565:UON196580 UEQ196565:UER196580 TUU196565:TUV196580 TKY196565:TKZ196580 TBC196565:TBD196580 SRG196565:SRH196580 SHK196565:SHL196580 RXO196565:RXP196580 RNS196565:RNT196580 RDW196565:RDX196580 QUA196565:QUB196580 QKE196565:QKF196580 QAI196565:QAJ196580 PQM196565:PQN196580 PGQ196565:PGR196580 OWU196565:OWV196580 OMY196565:OMZ196580 ODC196565:ODD196580 NTG196565:NTH196580 NJK196565:NJL196580 MZO196565:MZP196580 MPS196565:MPT196580 MFW196565:MFX196580 LWA196565:LWB196580 LME196565:LMF196580 LCI196565:LCJ196580 KSM196565:KSN196580 KIQ196565:KIR196580 JYU196565:JYV196580 JOY196565:JOZ196580 JFC196565:JFD196580 IVG196565:IVH196580 ILK196565:ILL196580 IBO196565:IBP196580 HRS196565:HRT196580 HHW196565:HHX196580 GYA196565:GYB196580 GOE196565:GOF196580 GEI196565:GEJ196580 FUM196565:FUN196580 FKQ196565:FKR196580 FAU196565:FAV196580 EQY196565:EQZ196580 EHC196565:EHD196580 DXG196565:DXH196580 DNK196565:DNL196580 DDO196565:DDP196580 CTS196565:CTT196580 CJW196565:CJX196580 CAA196565:CAB196580 BQE196565:BQF196580 BGI196565:BGJ196580 AWM196565:AWN196580 AMQ196565:AMR196580 ACU196565:ACV196580 SY196565:SZ196580 JC196565:JD196580 F196566:F196581 WVO131029:WVP131044 WLS131029:WLT131044 WBW131029:WBX131044 VSA131029:VSB131044 VIE131029:VIF131044 UYI131029:UYJ131044 UOM131029:UON131044 UEQ131029:UER131044 TUU131029:TUV131044 TKY131029:TKZ131044 TBC131029:TBD131044 SRG131029:SRH131044 SHK131029:SHL131044 RXO131029:RXP131044 RNS131029:RNT131044 RDW131029:RDX131044 QUA131029:QUB131044 QKE131029:QKF131044 QAI131029:QAJ131044 PQM131029:PQN131044 PGQ131029:PGR131044 OWU131029:OWV131044 OMY131029:OMZ131044 ODC131029:ODD131044 NTG131029:NTH131044 NJK131029:NJL131044 MZO131029:MZP131044 MPS131029:MPT131044 MFW131029:MFX131044 LWA131029:LWB131044 LME131029:LMF131044 LCI131029:LCJ131044 KSM131029:KSN131044 KIQ131029:KIR131044 JYU131029:JYV131044 JOY131029:JOZ131044 JFC131029:JFD131044 IVG131029:IVH131044 ILK131029:ILL131044 IBO131029:IBP131044 HRS131029:HRT131044 HHW131029:HHX131044 GYA131029:GYB131044 GOE131029:GOF131044 GEI131029:GEJ131044 FUM131029:FUN131044 FKQ131029:FKR131044 FAU131029:FAV131044 EQY131029:EQZ131044 EHC131029:EHD131044 DXG131029:DXH131044 DNK131029:DNL131044 DDO131029:DDP131044 CTS131029:CTT131044 CJW131029:CJX131044 CAA131029:CAB131044 BQE131029:BQF131044 BGI131029:BGJ131044 AWM131029:AWN131044 AMQ131029:AMR131044 ACU131029:ACV131044 SY131029:SZ131044 JC131029:JD131044 F131030:F131045 WVO65493:WVP65508 WLS65493:WLT65508 WBW65493:WBX65508 VSA65493:VSB65508 VIE65493:VIF65508 UYI65493:UYJ65508 UOM65493:UON65508 UEQ65493:UER65508 TUU65493:TUV65508 TKY65493:TKZ65508 TBC65493:TBD65508 SRG65493:SRH65508 SHK65493:SHL65508 RXO65493:RXP65508 RNS65493:RNT65508 RDW65493:RDX65508 QUA65493:QUB65508 QKE65493:QKF65508 QAI65493:QAJ65508 PQM65493:PQN65508 PGQ65493:PGR65508 OWU65493:OWV65508 OMY65493:OMZ65508 ODC65493:ODD65508 NTG65493:NTH65508 NJK65493:NJL65508 MZO65493:MZP65508 MPS65493:MPT65508 MFW65493:MFX65508 LWA65493:LWB65508 LME65493:LMF65508 LCI65493:LCJ65508 KSM65493:KSN65508 KIQ65493:KIR65508 JYU65493:JYV65508 JOY65493:JOZ65508 JFC65493:JFD65508 IVG65493:IVH65508 ILK65493:ILL65508 IBO65493:IBP65508 HRS65493:HRT65508 HHW65493:HHX65508 GYA65493:GYB65508 GOE65493:GOF65508 GEI65493:GEJ65508 FUM65493:FUN65508 FKQ65493:FKR65508 FAU65493:FAV65508 EQY65493:EQZ65508 EHC65493:EHD65508 DXG65493:DXH65508 DNK65493:DNL65508 DDO65493:DDP65508 CTS65493:CTT65508 CJW65493:CJX65508 CAA65493:CAB65508 BQE65493:BQF65508 BGI65493:BGJ65508 AWM65493:AWN65508 AMQ65493:AMR65508 ACU65493:ACV65508 SY65493:SZ65508 JC65493:JD65508 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 D21:D22 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D43 D34:D35 D83:D84 D119 D98:D104" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D43 D34:D35 D83:D84 D119 D98:D104 D21:D22" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -4200,6 +4199,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4207,14 +4215,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4233,6 +4233,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>

--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887512F7-1FE0-4E6E-A5A4-7B91A5F509E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE6F65-6563-4FD6-913C-3AC2327611DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="1845" windowWidth="6930" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
   <si>
     <t>Database Name</t>
   </si>
@@ -255,15 +255,9 @@
     <t>How much the house costs</t>
   </si>
   <si>
-    <t>Transactions</t>
-  </si>
-  <si>
     <t>TransID</t>
   </si>
   <si>
-    <t>Unique ID for Transactions</t>
-  </si>
-  <si>
     <t>ID of person making transaction</t>
   </si>
   <si>
@@ -517,6 +511,18 @@
   </si>
   <si>
     <t>TransactionDetails</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Unique ID for Transaction</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Unit of item</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1782,7 +1788,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44539.758293171297</v>
+        <v>44541.585710995372</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1892,10 +1898,10 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>30</v>
@@ -1908,7 +1914,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1969,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -1995,7 +2001,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>35</v>
@@ -2019,7 +2025,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>36</v>
@@ -2043,7 +2049,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>37</v>
@@ -2068,7 +2074,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2116,10 +2122,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>15</v>
@@ -2145,7 +2151,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="82" t="s">
         <v>15</v>
@@ -2170,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -2244,7 +2250,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>41</v>
@@ -2268,13 +2274,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -2305,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2353,10 +2359,10 @@
         <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
@@ -2409,7 +2415,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2428,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2476,10 +2482,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>15</v>
@@ -2492,7 +2498,7 @@
         <v>20</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="82" t="s">
@@ -2502,10 +2508,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
       <c r="B42" s="82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="82" t="s">
         <v>18</v>
@@ -2524,13 +2530,13 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -2540,6 +2546,28 @@
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="82"/>
+      <c r="B44" s="82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2623,10 +2651,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>15</v>
@@ -2720,10 +2748,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>15</v>
@@ -2734,7 +2762,7 @@
         <v>20</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
@@ -2766,13 +2794,13 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2850,10 +2878,10 @@
         <v>13</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>15</v>
@@ -2864,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
@@ -2896,13 +2924,13 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>61</v>
       </c>
       <c r="D64" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
@@ -2969,10 +2997,10 @@
         <v>13</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>15</v>
@@ -2983,7 +3011,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
@@ -3015,13 +3043,13 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D71" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
@@ -3088,10 +3116,10 @@
         <v>13</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C76" s="83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>15</v>
@@ -3102,7 +3130,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I76" s="11"/>
       <c r="J76" s="11" t="s">
@@ -3134,13 +3162,13 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D78" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E78" s="16"/>
       <c r="F78" s="16"/>
@@ -3207,10 +3235,10 @@
         <v>13</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>15</v>
@@ -3221,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
@@ -3253,13 +3281,13 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E85" s="16"/>
       <c r="F85" s="16"/>
@@ -3278,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
@@ -3326,23 +3354,23 @@
         <v>13</v>
       </c>
       <c r="B90" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D90" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F90" s="54"/>
       <c r="G90" s="52" t="s">
         <v>20</v>
       </c>
       <c r="H90" s="52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I90" s="52"/>
       <c r="J90" s="52" t="s">
@@ -3354,10 +3382,10 @@
         <v>21</v>
       </c>
       <c r="B91" s="52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C91" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D91" s="52" t="s">
         <v>15</v>
@@ -3376,10 +3404,10 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="57"/>
       <c r="B92" s="57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C92" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D92" s="52" t="s">
         <v>38</v>
@@ -3398,13 +3426,13 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E93" s="57"/>
       <c r="F93" s="57"/>
@@ -3423,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C96" s="20"/>
       <c r="D96" s="20"/>
@@ -3471,10 +3499,10 @@
         <v>42</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="D98" s="82" t="s">
         <v>15</v>
@@ -3491,27 +3519,27 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B99" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D99" s="11" t="s">
+      <c r="B99" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D99" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11" t="s">
-        <v>154</v>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="82"/>
+      <c r="I99" s="82"/>
+      <c r="J99" s="82" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3519,7 +3547,7 @@
         <v>21</v>
       </c>
       <c r="B100" s="82" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C100" s="83" t="s">
         <v>155</v>
@@ -3535,7 +3563,7 @@
       <c r="H100" s="82"/>
       <c r="I100" s="82"/>
       <c r="J100" s="82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3543,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="B101" s="82" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C101" s="83" t="s">
         <v>156</v>
@@ -3559,7 +3587,7 @@
       <c r="H101" s="82"/>
       <c r="I101" s="82"/>
       <c r="J101" s="82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3567,10 +3595,10 @@
         <v>21</v>
       </c>
       <c r="B102" s="82" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C102" s="83" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D102" s="82" t="s">
         <v>15</v>
@@ -3583,31 +3611,31 @@
       <c r="H102" s="82"/>
       <c r="I102" s="82"/>
       <c r="J102" s="82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D103" s="82" t="s">
+      <c r="B103" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="82"/>
-      <c r="I103" s="82"/>
-      <c r="J103" s="82" t="s">
-        <v>154</v>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3616,10 +3644,10 @@
         <v>51</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
@@ -3638,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="41"/>
@@ -3686,23 +3714,23 @@
         <v>13</v>
       </c>
       <c r="B109" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F109" s="36"/>
       <c r="G109" s="34" t="s">
         <v>20</v>
       </c>
       <c r="H109" s="34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I109" s="34"/>
       <c r="J109" s="34" t="s">
@@ -3712,10 +3740,10 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
       <c r="B110" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D110" s="34" t="s">
         <v>18</v>
@@ -3734,13 +3762,13 @@
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C111" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E111" s="39"/>
       <c r="F111" s="39"/>
@@ -3759,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="B114" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C114" s="30"/>
       <c r="D114" s="30"/>
@@ -3807,23 +3835,23 @@
         <v>13</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D116" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I116" s="24"/>
       <c r="J116" s="24" t="s">
@@ -3833,10 +3861,10 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="24"/>
       <c r="B117" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D117" s="24" t="s">
         <v>38</v>
@@ -3855,10 +3883,10 @@
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="24"/>
       <c r="B118" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D118" s="24" t="s">
         <v>18</v>
@@ -3879,23 +3907,23 @@
         <v>13</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F119" s="26"/>
       <c r="G119" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I119" s="24"/>
       <c r="J119" s="24" t="s">
@@ -3908,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="B122" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C122" s="88"/>
       <c r="D122" s="88"/>
@@ -3956,10 +3984,10 @@
         <v>42</v>
       </c>
       <c r="B124" s="82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C124" s="83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D124" s="82" t="s">
         <v>15</v>
@@ -3980,10 +4008,10 @@
         <v>42</v>
       </c>
       <c r="B125" s="82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C125" s="83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D125" s="82" t="s">
         <v>15</v>
@@ -4008,7 +4036,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65494:F65509 WVO982997:WVP983012 WLS982997:WLT983012 WBW982997:WBX983012 VSA982997:VSB983012 VIE982997:VIF983012 UYI982997:UYJ983012 UOM982997:UON983012 UEQ982997:UER983012 TUU982997:TUV983012 TKY982997:TKZ983012 TBC982997:TBD983012 SRG982997:SRH983012 SHK982997:SHL983012 RXO982997:RXP983012 RNS982997:RNT983012 RDW982997:RDX983012 QUA982997:QUB983012 QKE982997:QKF983012 QAI982997:QAJ983012 PQM982997:PQN983012 PGQ982997:PGR983012 OWU982997:OWV983012 OMY982997:OMZ983012 ODC982997:ODD983012 NTG982997:NTH983012 NJK982997:NJL983012 MZO982997:MZP983012 MPS982997:MPT983012 MFW982997:MFX983012 LWA982997:LWB983012 LME982997:LMF983012 LCI982997:LCJ983012 KSM982997:KSN983012 KIQ982997:KIR983012 JYU982997:JYV983012 JOY982997:JOZ983012 JFC982997:JFD983012 IVG982997:IVH983012 ILK982997:ILL983012 IBO982997:IBP983012 HRS982997:HRT983012 HHW982997:HHX983012 GYA982997:GYB983012 GOE982997:GOF983012 GEI982997:GEJ983012 FUM982997:FUN983012 FKQ982997:FKR983012 FAU982997:FAV983012 EQY982997:EQZ983012 EHC982997:EHD983012 DXG982997:DXH983012 DNK982997:DNL983012 DDO982997:DDP983012 CTS982997:CTT983012 CJW982997:CJX983012 CAA982997:CAB983012 BQE982997:BQF983012 BGI982997:BGJ983012 AWM982997:AWN983012 AMQ982997:AMR983012 ACU982997:ACV983012 SY982997:SZ983012 JC982997:JD983012 F982998:F983013 WVO917461:WVP917476 WLS917461:WLT917476 WBW917461:WBX917476 VSA917461:VSB917476 VIE917461:VIF917476 UYI917461:UYJ917476 UOM917461:UON917476 UEQ917461:UER917476 TUU917461:TUV917476 TKY917461:TKZ917476 TBC917461:TBD917476 SRG917461:SRH917476 SHK917461:SHL917476 RXO917461:RXP917476 RNS917461:RNT917476 RDW917461:RDX917476 QUA917461:QUB917476 QKE917461:QKF917476 QAI917461:QAJ917476 PQM917461:PQN917476 PGQ917461:PGR917476 OWU917461:OWV917476 OMY917461:OMZ917476 ODC917461:ODD917476 NTG917461:NTH917476 NJK917461:NJL917476 MZO917461:MZP917476 MPS917461:MPT917476 MFW917461:MFX917476 LWA917461:LWB917476 LME917461:LMF917476 LCI917461:LCJ917476 KSM917461:KSN917476 KIQ917461:KIR917476 JYU917461:JYV917476 JOY917461:JOZ917476 JFC917461:JFD917476 IVG917461:IVH917476 ILK917461:ILL917476 IBO917461:IBP917476 HRS917461:HRT917476 HHW917461:HHX917476 GYA917461:GYB917476 GOE917461:GOF917476 GEI917461:GEJ917476 FUM917461:FUN917476 FKQ917461:FKR917476 FAU917461:FAV917476 EQY917461:EQZ917476 EHC917461:EHD917476 DXG917461:DXH917476 DNK917461:DNL917476 DDO917461:DDP917476 CTS917461:CTT917476 CJW917461:CJX917476 CAA917461:CAB917476 BQE917461:BQF917476 BGI917461:BGJ917476 AWM917461:AWN917476 AMQ917461:AMR917476 ACU917461:ACV917476 SY917461:SZ917476 JC917461:JD917476 F917462:F917477 WVO851925:WVP851940 WLS851925:WLT851940 WBW851925:WBX851940 VSA851925:VSB851940 VIE851925:VIF851940 UYI851925:UYJ851940 UOM851925:UON851940 UEQ851925:UER851940 TUU851925:TUV851940 TKY851925:TKZ851940 TBC851925:TBD851940 SRG851925:SRH851940 SHK851925:SHL851940 RXO851925:RXP851940 RNS851925:RNT851940 RDW851925:RDX851940 QUA851925:QUB851940 QKE851925:QKF851940 QAI851925:QAJ851940 PQM851925:PQN851940 PGQ851925:PGR851940 OWU851925:OWV851940 OMY851925:OMZ851940 ODC851925:ODD851940 NTG851925:NTH851940 NJK851925:NJL851940 MZO851925:MZP851940 MPS851925:MPT851940 MFW851925:MFX851940 LWA851925:LWB851940 LME851925:LMF851940 LCI851925:LCJ851940 KSM851925:KSN851940 KIQ851925:KIR851940 JYU851925:JYV851940 JOY851925:JOZ851940 JFC851925:JFD851940 IVG851925:IVH851940 ILK851925:ILL851940 IBO851925:IBP851940 HRS851925:HRT851940 HHW851925:HHX851940 GYA851925:GYB851940 GOE851925:GOF851940 GEI851925:GEJ851940 FUM851925:FUN851940 FKQ851925:FKR851940 FAU851925:FAV851940 EQY851925:EQZ851940 EHC851925:EHD851940 DXG851925:DXH851940 DNK851925:DNL851940 DDO851925:DDP851940 CTS851925:CTT851940 CJW851925:CJX851940 CAA851925:CAB851940 BQE851925:BQF851940 BGI851925:BGJ851940 AWM851925:AWN851940 AMQ851925:AMR851940 ACU851925:ACV851940 SY851925:SZ851940 JC851925:JD851940 F851926:F851941 WVO786389:WVP786404 WLS786389:WLT786404 WBW786389:WBX786404 VSA786389:VSB786404 VIE786389:VIF786404 UYI786389:UYJ786404 UOM786389:UON786404 UEQ786389:UER786404 TUU786389:TUV786404 TKY786389:TKZ786404 TBC786389:TBD786404 SRG786389:SRH786404 SHK786389:SHL786404 RXO786389:RXP786404 RNS786389:RNT786404 RDW786389:RDX786404 QUA786389:QUB786404 QKE786389:QKF786404 QAI786389:QAJ786404 PQM786389:PQN786404 PGQ786389:PGR786404 OWU786389:OWV786404 OMY786389:OMZ786404 ODC786389:ODD786404 NTG786389:NTH786404 NJK786389:NJL786404 MZO786389:MZP786404 MPS786389:MPT786404 MFW786389:MFX786404 LWA786389:LWB786404 LME786389:LMF786404 LCI786389:LCJ786404 KSM786389:KSN786404 KIQ786389:KIR786404 JYU786389:JYV786404 JOY786389:JOZ786404 JFC786389:JFD786404 IVG786389:IVH786404 ILK786389:ILL786404 IBO786389:IBP786404 HRS786389:HRT786404 HHW786389:HHX786404 GYA786389:GYB786404 GOE786389:GOF786404 GEI786389:GEJ786404 FUM786389:FUN786404 FKQ786389:FKR786404 FAU786389:FAV786404 EQY786389:EQZ786404 EHC786389:EHD786404 DXG786389:DXH786404 DNK786389:DNL786404 DDO786389:DDP786404 CTS786389:CTT786404 CJW786389:CJX786404 CAA786389:CAB786404 BQE786389:BQF786404 BGI786389:BGJ786404 AWM786389:AWN786404 AMQ786389:AMR786404 ACU786389:ACV786404 SY786389:SZ786404 JC786389:JD786404 F786390:F786405 WVO720853:WVP720868 WLS720853:WLT720868 WBW720853:WBX720868 VSA720853:VSB720868 VIE720853:VIF720868 UYI720853:UYJ720868 UOM720853:UON720868 UEQ720853:UER720868 TUU720853:TUV720868 TKY720853:TKZ720868 TBC720853:TBD720868 SRG720853:SRH720868 SHK720853:SHL720868 RXO720853:RXP720868 RNS720853:RNT720868 RDW720853:RDX720868 QUA720853:QUB720868 QKE720853:QKF720868 QAI720853:QAJ720868 PQM720853:PQN720868 PGQ720853:PGR720868 OWU720853:OWV720868 OMY720853:OMZ720868 ODC720853:ODD720868 NTG720853:NTH720868 NJK720853:NJL720868 MZO720853:MZP720868 MPS720853:MPT720868 MFW720853:MFX720868 LWA720853:LWB720868 LME720853:LMF720868 LCI720853:LCJ720868 KSM720853:KSN720868 KIQ720853:KIR720868 JYU720853:JYV720868 JOY720853:JOZ720868 JFC720853:JFD720868 IVG720853:IVH720868 ILK720853:ILL720868 IBO720853:IBP720868 HRS720853:HRT720868 HHW720853:HHX720868 GYA720853:GYB720868 GOE720853:GOF720868 GEI720853:GEJ720868 FUM720853:FUN720868 FKQ720853:FKR720868 FAU720853:FAV720868 EQY720853:EQZ720868 EHC720853:EHD720868 DXG720853:DXH720868 DNK720853:DNL720868 DDO720853:DDP720868 CTS720853:CTT720868 CJW720853:CJX720868 CAA720853:CAB720868 BQE720853:BQF720868 BGI720853:BGJ720868 AWM720853:AWN720868 AMQ720853:AMR720868 ACU720853:ACV720868 SY720853:SZ720868 JC720853:JD720868 F720854:F720869 WVO655317:WVP655332 WLS655317:WLT655332 WBW655317:WBX655332 VSA655317:VSB655332 VIE655317:VIF655332 UYI655317:UYJ655332 UOM655317:UON655332 UEQ655317:UER655332 TUU655317:TUV655332 TKY655317:TKZ655332 TBC655317:TBD655332 SRG655317:SRH655332 SHK655317:SHL655332 RXO655317:RXP655332 RNS655317:RNT655332 RDW655317:RDX655332 QUA655317:QUB655332 QKE655317:QKF655332 QAI655317:QAJ655332 PQM655317:PQN655332 PGQ655317:PGR655332 OWU655317:OWV655332 OMY655317:OMZ655332 ODC655317:ODD655332 NTG655317:NTH655332 NJK655317:NJL655332 MZO655317:MZP655332 MPS655317:MPT655332 MFW655317:MFX655332 LWA655317:LWB655332 LME655317:LMF655332 LCI655317:LCJ655332 KSM655317:KSN655332 KIQ655317:KIR655332 JYU655317:JYV655332 JOY655317:JOZ655332 JFC655317:JFD655332 IVG655317:IVH655332 ILK655317:ILL655332 IBO655317:IBP655332 HRS655317:HRT655332 HHW655317:HHX655332 GYA655317:GYB655332 GOE655317:GOF655332 GEI655317:GEJ655332 FUM655317:FUN655332 FKQ655317:FKR655332 FAU655317:FAV655332 EQY655317:EQZ655332 EHC655317:EHD655332 DXG655317:DXH655332 DNK655317:DNL655332 DDO655317:DDP655332 CTS655317:CTT655332 CJW655317:CJX655332 CAA655317:CAB655332 BQE655317:BQF655332 BGI655317:BGJ655332 AWM655317:AWN655332 AMQ655317:AMR655332 ACU655317:ACV655332 SY655317:SZ655332 JC655317:JD655332 F655318:F655333 WVO589781:WVP589796 WLS589781:WLT589796 WBW589781:WBX589796 VSA589781:VSB589796 VIE589781:VIF589796 UYI589781:UYJ589796 UOM589781:UON589796 UEQ589781:UER589796 TUU589781:TUV589796 TKY589781:TKZ589796 TBC589781:TBD589796 SRG589781:SRH589796 SHK589781:SHL589796 RXO589781:RXP589796 RNS589781:RNT589796 RDW589781:RDX589796 QUA589781:QUB589796 QKE589781:QKF589796 QAI589781:QAJ589796 PQM589781:PQN589796 PGQ589781:PGR589796 OWU589781:OWV589796 OMY589781:OMZ589796 ODC589781:ODD589796 NTG589781:NTH589796 NJK589781:NJL589796 MZO589781:MZP589796 MPS589781:MPT589796 MFW589781:MFX589796 LWA589781:LWB589796 LME589781:LMF589796 LCI589781:LCJ589796 KSM589781:KSN589796 KIQ589781:KIR589796 JYU589781:JYV589796 JOY589781:JOZ589796 JFC589781:JFD589796 IVG589781:IVH589796 ILK589781:ILL589796 IBO589781:IBP589796 HRS589781:HRT589796 HHW589781:HHX589796 GYA589781:GYB589796 GOE589781:GOF589796 GEI589781:GEJ589796 FUM589781:FUN589796 FKQ589781:FKR589796 FAU589781:FAV589796 EQY589781:EQZ589796 EHC589781:EHD589796 DXG589781:DXH589796 DNK589781:DNL589796 DDO589781:DDP589796 CTS589781:CTT589796 CJW589781:CJX589796 CAA589781:CAB589796 BQE589781:BQF589796 BGI589781:BGJ589796 AWM589781:AWN589796 AMQ589781:AMR589796 ACU589781:ACV589796 SY589781:SZ589796 JC589781:JD589796 F589782:F589797 WVO524245:WVP524260 WLS524245:WLT524260 WBW524245:WBX524260 VSA524245:VSB524260 VIE524245:VIF524260 UYI524245:UYJ524260 UOM524245:UON524260 UEQ524245:UER524260 TUU524245:TUV524260 TKY524245:TKZ524260 TBC524245:TBD524260 SRG524245:SRH524260 SHK524245:SHL524260 RXO524245:RXP524260 RNS524245:RNT524260 RDW524245:RDX524260 QUA524245:QUB524260 QKE524245:QKF524260 QAI524245:QAJ524260 PQM524245:PQN524260 PGQ524245:PGR524260 OWU524245:OWV524260 OMY524245:OMZ524260 ODC524245:ODD524260 NTG524245:NTH524260 NJK524245:NJL524260 MZO524245:MZP524260 MPS524245:MPT524260 MFW524245:MFX524260 LWA524245:LWB524260 LME524245:LMF524260 LCI524245:LCJ524260 KSM524245:KSN524260 KIQ524245:KIR524260 JYU524245:JYV524260 JOY524245:JOZ524260 JFC524245:JFD524260 IVG524245:IVH524260 ILK524245:ILL524260 IBO524245:IBP524260 HRS524245:HRT524260 HHW524245:HHX524260 GYA524245:GYB524260 GOE524245:GOF524260 GEI524245:GEJ524260 FUM524245:FUN524260 FKQ524245:FKR524260 FAU524245:FAV524260 EQY524245:EQZ524260 EHC524245:EHD524260 DXG524245:DXH524260 DNK524245:DNL524260 DDO524245:DDP524260 CTS524245:CTT524260 CJW524245:CJX524260 CAA524245:CAB524260 BQE524245:BQF524260 BGI524245:BGJ524260 AWM524245:AWN524260 AMQ524245:AMR524260 ACU524245:ACV524260 SY524245:SZ524260 JC524245:JD524260 F524246:F524261 WVO458709:WVP458724 WLS458709:WLT458724 WBW458709:WBX458724 VSA458709:VSB458724 VIE458709:VIF458724 UYI458709:UYJ458724 UOM458709:UON458724 UEQ458709:UER458724 TUU458709:TUV458724 TKY458709:TKZ458724 TBC458709:TBD458724 SRG458709:SRH458724 SHK458709:SHL458724 RXO458709:RXP458724 RNS458709:RNT458724 RDW458709:RDX458724 QUA458709:QUB458724 QKE458709:QKF458724 QAI458709:QAJ458724 PQM458709:PQN458724 PGQ458709:PGR458724 OWU458709:OWV458724 OMY458709:OMZ458724 ODC458709:ODD458724 NTG458709:NTH458724 NJK458709:NJL458724 MZO458709:MZP458724 MPS458709:MPT458724 MFW458709:MFX458724 LWA458709:LWB458724 LME458709:LMF458724 LCI458709:LCJ458724 KSM458709:KSN458724 KIQ458709:KIR458724 JYU458709:JYV458724 JOY458709:JOZ458724 JFC458709:JFD458724 IVG458709:IVH458724 ILK458709:ILL458724 IBO458709:IBP458724 HRS458709:HRT458724 HHW458709:HHX458724 GYA458709:GYB458724 GOE458709:GOF458724 GEI458709:GEJ458724 FUM458709:FUN458724 FKQ458709:FKR458724 FAU458709:FAV458724 EQY458709:EQZ458724 EHC458709:EHD458724 DXG458709:DXH458724 DNK458709:DNL458724 DDO458709:DDP458724 CTS458709:CTT458724 CJW458709:CJX458724 CAA458709:CAB458724 BQE458709:BQF458724 BGI458709:BGJ458724 AWM458709:AWN458724 AMQ458709:AMR458724 ACU458709:ACV458724 SY458709:SZ458724 JC458709:JD458724 F458710:F458725 WVO393173:WVP393188 WLS393173:WLT393188 WBW393173:WBX393188 VSA393173:VSB393188 VIE393173:VIF393188 UYI393173:UYJ393188 UOM393173:UON393188 UEQ393173:UER393188 TUU393173:TUV393188 TKY393173:TKZ393188 TBC393173:TBD393188 SRG393173:SRH393188 SHK393173:SHL393188 RXO393173:RXP393188 RNS393173:RNT393188 RDW393173:RDX393188 QUA393173:QUB393188 QKE393173:QKF393188 QAI393173:QAJ393188 PQM393173:PQN393188 PGQ393173:PGR393188 OWU393173:OWV393188 OMY393173:OMZ393188 ODC393173:ODD393188 NTG393173:NTH393188 NJK393173:NJL393188 MZO393173:MZP393188 MPS393173:MPT393188 MFW393173:MFX393188 LWA393173:LWB393188 LME393173:LMF393188 LCI393173:LCJ393188 KSM393173:KSN393188 KIQ393173:KIR393188 JYU393173:JYV393188 JOY393173:JOZ393188 JFC393173:JFD393188 IVG393173:IVH393188 ILK393173:ILL393188 IBO393173:IBP393188 HRS393173:HRT393188 HHW393173:HHX393188 GYA393173:GYB393188 GOE393173:GOF393188 GEI393173:GEJ393188 FUM393173:FUN393188 FKQ393173:FKR393188 FAU393173:FAV393188 EQY393173:EQZ393188 EHC393173:EHD393188 DXG393173:DXH393188 DNK393173:DNL393188 DDO393173:DDP393188 CTS393173:CTT393188 CJW393173:CJX393188 CAA393173:CAB393188 BQE393173:BQF393188 BGI393173:BGJ393188 AWM393173:AWN393188 AMQ393173:AMR393188 ACU393173:ACV393188 SY393173:SZ393188 JC393173:JD393188 F393174:F393189 WVO327637:WVP327652 WLS327637:WLT327652 WBW327637:WBX327652 VSA327637:VSB327652 VIE327637:VIF327652 UYI327637:UYJ327652 UOM327637:UON327652 UEQ327637:UER327652 TUU327637:TUV327652 TKY327637:TKZ327652 TBC327637:TBD327652 SRG327637:SRH327652 SHK327637:SHL327652 RXO327637:RXP327652 RNS327637:RNT327652 RDW327637:RDX327652 QUA327637:QUB327652 QKE327637:QKF327652 QAI327637:QAJ327652 PQM327637:PQN327652 PGQ327637:PGR327652 OWU327637:OWV327652 OMY327637:OMZ327652 ODC327637:ODD327652 NTG327637:NTH327652 NJK327637:NJL327652 MZO327637:MZP327652 MPS327637:MPT327652 MFW327637:MFX327652 LWA327637:LWB327652 LME327637:LMF327652 LCI327637:LCJ327652 KSM327637:KSN327652 KIQ327637:KIR327652 JYU327637:JYV327652 JOY327637:JOZ327652 JFC327637:JFD327652 IVG327637:IVH327652 ILK327637:ILL327652 IBO327637:IBP327652 HRS327637:HRT327652 HHW327637:HHX327652 GYA327637:GYB327652 GOE327637:GOF327652 GEI327637:GEJ327652 FUM327637:FUN327652 FKQ327637:FKR327652 FAU327637:FAV327652 EQY327637:EQZ327652 EHC327637:EHD327652 DXG327637:DXH327652 DNK327637:DNL327652 DDO327637:DDP327652 CTS327637:CTT327652 CJW327637:CJX327652 CAA327637:CAB327652 BQE327637:BQF327652 BGI327637:BGJ327652 AWM327637:AWN327652 AMQ327637:AMR327652 ACU327637:ACV327652 SY327637:SZ327652 JC327637:JD327652 F327638:F327653 WVO262101:WVP262116 WLS262101:WLT262116 WBW262101:WBX262116 VSA262101:VSB262116 VIE262101:VIF262116 UYI262101:UYJ262116 UOM262101:UON262116 UEQ262101:UER262116 TUU262101:TUV262116 TKY262101:TKZ262116 TBC262101:TBD262116 SRG262101:SRH262116 SHK262101:SHL262116 RXO262101:RXP262116 RNS262101:RNT262116 RDW262101:RDX262116 QUA262101:QUB262116 QKE262101:QKF262116 QAI262101:QAJ262116 PQM262101:PQN262116 PGQ262101:PGR262116 OWU262101:OWV262116 OMY262101:OMZ262116 ODC262101:ODD262116 NTG262101:NTH262116 NJK262101:NJL262116 MZO262101:MZP262116 MPS262101:MPT262116 MFW262101:MFX262116 LWA262101:LWB262116 LME262101:LMF262116 LCI262101:LCJ262116 KSM262101:KSN262116 KIQ262101:KIR262116 JYU262101:JYV262116 JOY262101:JOZ262116 JFC262101:JFD262116 IVG262101:IVH262116 ILK262101:ILL262116 IBO262101:IBP262116 HRS262101:HRT262116 HHW262101:HHX262116 GYA262101:GYB262116 GOE262101:GOF262116 GEI262101:GEJ262116 FUM262101:FUN262116 FKQ262101:FKR262116 FAU262101:FAV262116 EQY262101:EQZ262116 EHC262101:EHD262116 DXG262101:DXH262116 DNK262101:DNL262116 DDO262101:DDP262116 CTS262101:CTT262116 CJW262101:CJX262116 CAA262101:CAB262116 BQE262101:BQF262116 BGI262101:BGJ262116 AWM262101:AWN262116 AMQ262101:AMR262116 ACU262101:ACV262116 SY262101:SZ262116 JC262101:JD262116 F262102:F262117 WVO196565:WVP196580 WLS196565:WLT196580 WBW196565:WBX196580 VSA196565:VSB196580 VIE196565:VIF196580 UYI196565:UYJ196580 UOM196565:UON196580 UEQ196565:UER196580 TUU196565:TUV196580 TKY196565:TKZ196580 TBC196565:TBD196580 SRG196565:SRH196580 SHK196565:SHL196580 RXO196565:RXP196580 RNS196565:RNT196580 RDW196565:RDX196580 QUA196565:QUB196580 QKE196565:QKF196580 QAI196565:QAJ196580 PQM196565:PQN196580 PGQ196565:PGR196580 OWU196565:OWV196580 OMY196565:OMZ196580 ODC196565:ODD196580 NTG196565:NTH196580 NJK196565:NJL196580 MZO196565:MZP196580 MPS196565:MPT196580 MFW196565:MFX196580 LWA196565:LWB196580 LME196565:LMF196580 LCI196565:LCJ196580 KSM196565:KSN196580 KIQ196565:KIR196580 JYU196565:JYV196580 JOY196565:JOZ196580 JFC196565:JFD196580 IVG196565:IVH196580 ILK196565:ILL196580 IBO196565:IBP196580 HRS196565:HRT196580 HHW196565:HHX196580 GYA196565:GYB196580 GOE196565:GOF196580 GEI196565:GEJ196580 FUM196565:FUN196580 FKQ196565:FKR196580 FAU196565:FAV196580 EQY196565:EQZ196580 EHC196565:EHD196580 DXG196565:DXH196580 DNK196565:DNL196580 DDO196565:DDP196580 CTS196565:CTT196580 CJW196565:CJX196580 CAA196565:CAB196580 BQE196565:BQF196580 BGI196565:BGJ196580 AWM196565:AWN196580 AMQ196565:AMR196580 ACU196565:ACV196580 SY196565:SZ196580 JC196565:JD196580 F196566:F196581 WVO131029:WVP131044 WLS131029:WLT131044 WBW131029:WBX131044 VSA131029:VSB131044 VIE131029:VIF131044 UYI131029:UYJ131044 UOM131029:UON131044 UEQ131029:UER131044 TUU131029:TUV131044 TKY131029:TKZ131044 TBC131029:TBD131044 SRG131029:SRH131044 SHK131029:SHL131044 RXO131029:RXP131044 RNS131029:RNT131044 RDW131029:RDX131044 QUA131029:QUB131044 QKE131029:QKF131044 QAI131029:QAJ131044 PQM131029:PQN131044 PGQ131029:PGR131044 OWU131029:OWV131044 OMY131029:OMZ131044 ODC131029:ODD131044 NTG131029:NTH131044 NJK131029:NJL131044 MZO131029:MZP131044 MPS131029:MPT131044 MFW131029:MFX131044 LWA131029:LWB131044 LME131029:LMF131044 LCI131029:LCJ131044 KSM131029:KSN131044 KIQ131029:KIR131044 JYU131029:JYV131044 JOY131029:JOZ131044 JFC131029:JFD131044 IVG131029:IVH131044 ILK131029:ILL131044 IBO131029:IBP131044 HRS131029:HRT131044 HHW131029:HHX131044 GYA131029:GYB131044 GOE131029:GOF131044 GEI131029:GEJ131044 FUM131029:FUN131044 FKQ131029:FKR131044 FAU131029:FAV131044 EQY131029:EQZ131044 EHC131029:EHD131044 DXG131029:DXH131044 DNK131029:DNL131044 DDO131029:DDP131044 CTS131029:CTT131044 CJW131029:CJX131044 CAA131029:CAB131044 BQE131029:BQF131044 BGI131029:BGJ131044 AWM131029:AWN131044 AMQ131029:AMR131044 ACU131029:ACV131044 SY131029:SZ131044 JC131029:JD131044 F131030:F131045 WVO65493:WVP65508 WLS65493:WLT65508 WBW65493:WBX65508 VSA65493:VSB65508 VIE65493:VIF65508 UYI65493:UYJ65508 UOM65493:UON65508 UEQ65493:UER65508 TUU65493:TUV65508 TKY65493:TKZ65508 TBC65493:TBD65508 SRG65493:SRH65508 SHK65493:SHL65508 RXO65493:RXP65508 RNS65493:RNT65508 RDW65493:RDX65508 QUA65493:QUB65508 QKE65493:QKF65508 QAI65493:QAJ65508 PQM65493:PQN65508 PGQ65493:PGR65508 OWU65493:OWV65508 OMY65493:OMZ65508 ODC65493:ODD65508 NTG65493:NTH65508 NJK65493:NJL65508 MZO65493:MZP65508 MPS65493:MPT65508 MFW65493:MFX65508 LWA65493:LWB65508 LME65493:LMF65508 LCI65493:LCJ65508 KSM65493:KSN65508 KIQ65493:KIR65508 JYU65493:JYV65508 JOY65493:JOZ65508 JFC65493:JFD65508 IVG65493:IVH65508 ILK65493:ILL65508 IBO65493:IBP65508 HRS65493:HRT65508 HHW65493:HHX65508 GYA65493:GYB65508 GOE65493:GOF65508 GEI65493:GEJ65508 FUM65493:FUN65508 FKQ65493:FKR65508 FAU65493:FAV65508 EQY65493:EQZ65508 EHC65493:EHD65508 DXG65493:DXH65508 DNK65493:DNL65508 DDO65493:DDP65508 CTS65493:CTT65508 CJW65493:CJX65508 CAA65493:CAB65508 BQE65493:BQF65508 BGI65493:BGJ65508 AWM65493:AWN65508 AMQ65493:AMR65508 ACU65493:ACV65508 SY65493:SZ65508 JC65493:JD65508 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D43 D34:D35 D83:D84 D119 D98:D104 D21:D22" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D44 D34:D35 D83:D84 D119 D21:D22 D98:D104" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4200,18 +4228,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4234,18 +4262,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BE6F65-6563-4FD6-913C-3AC2327611DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC5C3E-65C9-4D5A-B1BC-772C5DEE2BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="1845" windowWidth="6930" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="1275" windowWidth="8565" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="170">
   <si>
     <t>Database Name</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Check it starts with J and is integer</t>
   </si>
   <si>
-    <t>SettlementInventory</t>
-  </si>
-  <si>
     <t>The ID from settlements table</t>
   </si>
   <si>
@@ -243,18 +240,9 @@
     <t>How much the medicine costs</t>
   </si>
   <si>
-    <t>Housing</t>
-  </si>
-  <si>
     <t>HousingDescription</t>
   </si>
   <si>
-    <t>Description of the house</t>
-  </si>
-  <si>
-    <t>How much the house costs</t>
-  </si>
-  <si>
     <t>TransID</t>
   </si>
   <si>
@@ -435,12 +423,6 @@
     <t>Description of the item</t>
   </si>
   <si>
-    <t>InvPrice</t>
-  </si>
-  <si>
-    <t>Price of the item</t>
-  </si>
-  <si>
     <t>ID from InventoryDescription table</t>
   </si>
   <si>
@@ -483,12 +465,6 @@
     <t>HousingID</t>
   </si>
   <si>
-    <t>Primary key for the housing</t>
-  </si>
-  <si>
-    <t>Check it starts with H</t>
-  </si>
-  <si>
     <t>Foreign key from weapons table</t>
   </si>
   <si>
@@ -519,10 +495,55 @@
     <t>Unique ID for Transaction</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Unit of item</t>
+    <t>TypeOfHousing</t>
+  </si>
+  <si>
+    <t>The type of housing that the settlement offers</t>
+  </si>
+  <si>
+    <t>SettlementItems</t>
+  </si>
+  <si>
+    <t>Stored</t>
+  </si>
+  <si>
+    <t>Location in settlement where to find weapons</t>
+  </si>
+  <si>
+    <t>How much is available</t>
+  </si>
+  <si>
+    <t>Location in settlement where to find food</t>
+  </si>
+  <si>
+    <t>Location in settlement where to find medicine</t>
+  </si>
+  <si>
+    <t>Location in settlement where to find vehicles</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>MiscID</t>
+  </si>
+  <si>
+    <t>Primary key for the miscellaneous</t>
+  </si>
+  <si>
+    <t>Description of the miscellaneous item</t>
+  </si>
+  <si>
+    <t>How much the miscellaneous item costs</t>
+  </si>
+  <si>
+    <t>Location in settlement where to find items</t>
+  </si>
+  <si>
+    <t>Check it starts with MI</t>
+  </si>
+  <si>
+    <t>varchar(6)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -969,6 +990,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1249,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1813,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44541.585710995372</v>
+        <v>44543.78637199074</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1898,10 +1923,10 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>30</v>
@@ -1914,10 +1939,34 @@
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="83"/>
+      <c r="G9" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1975,7 +2024,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -2001,7 +2050,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>35</v>
@@ -2025,7 +2074,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>36</v>
@@ -2049,7 +2098,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>37</v>
@@ -2074,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -2122,10 +2171,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>15</v>
@@ -2151,13 +2200,13 @@
         <v>25</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D22" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="11" t="s">
@@ -2176,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C25" s="91"/>
       <c r="D25" s="91"/>
@@ -2250,7 +2299,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
       <c r="B28" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" s="46" t="s">
         <v>41</v>
@@ -2274,13 +2323,13 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46"/>
@@ -2311,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
@@ -2359,10 +2408,10 @@
         <v>42</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>15</v>
@@ -2415,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2434,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
@@ -2482,10 +2531,10 @@
         <v>13</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>15</v>
@@ -2498,7 +2547,7 @@
         <v>20</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="82" t="s">
@@ -2508,10 +2557,10 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="82"/>
       <c r="B42" s="82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" s="83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" s="82" t="s">
         <v>18</v>
@@ -2527,97 +2576,79 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="D44" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="82"/>
-      <c r="J44" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B45" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>12</v>
+      <c r="D47" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="82" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,18 +2656,18 @@
         <v>42</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="13"/>
+        <v>46</v>
+      </c>
+      <c r="F48" s="12"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
       </c>
@@ -2647,705 +2678,771 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="11" t="s">
+      <c r="A49" s="82"/>
+      <c r="B49" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="82"/>
+      <c r="I49" s="82"/>
+      <c r="J49" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="19" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>136</v>
-      </c>
       <c r="C55" s="12" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E55" s="12"/>
-      <c r="F55" s="13"/>
+      <c r="F55" s="12"/>
       <c r="G55" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>138</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="57"/>
+      <c r="B57" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="17"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21"/>
-    </row>
-    <row r="61" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E62" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G62" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I61" s="9" t="s">
+      <c r="I62" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="J62" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="B63" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="11" t="s">
+      <c r="E63" s="12"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="11"/>
+      <c r="H63" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C64" s="16" t="s">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="57"/>
+      <c r="B66" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
+      <c r="B67" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D64" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="14" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+      <c r="B75" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+      <c r="G75" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="57"/>
+      <c r="I75" s="57"/>
+      <c r="J75" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+      <c r="B76" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="B79" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E80" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F80" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="9" t="s">
+      <c r="I80" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J80" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="D69" s="11" t="s">
+      <c r="B81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="11" t="s">
+      <c r="E81" s="12"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="11" t="s">
+      <c r="H81" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="12" t="s">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D83" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="57"/>
+      <c r="B84" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D84" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D78" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
-    </row>
-    <row r="82" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11" t="s">
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="82" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>72</v>
+      <c r="A85" s="57"/>
+      <c r="B85" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>158</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="82" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="55" t="s">
+      <c r="A88" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" s="59"/>
-      <c r="D88" s="59"/>
-      <c r="E88" s="59"/>
-      <c r="F88" s="59"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="59"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="60"/>
+      <c r="B88" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="51" t="s">
+      <c r="G89" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="51" t="s">
+      <c r="H89" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I89" s="51" t="s">
+      <c r="I89" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J89" s="51" t="s">
+      <c r="J89" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3353,86 +3450,82 @@
       <c r="A90" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="F90" s="54"/>
-      <c r="G90" s="52" t="s">
+      <c r="B90" s="94" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52" t="s">
+      <c r="H90" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B91" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="52"/>
-      <c r="I91" s="52"/>
-      <c r="J91" s="52" t="s">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C92" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="57"/>
-      <c r="I92" s="57"/>
-      <c r="J92" s="52" t="s">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D92" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="57"/>
       <c r="B93" s="57" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="C93" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="52" t="s">
-        <v>120</v>
+        <v>167</v>
+      </c>
+      <c r="D93" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="E93" s="57"/>
       <c r="F93" s="57"/>
@@ -3441,589 +3534,756 @@
       </c>
       <c r="H93" s="57"/>
       <c r="I93" s="57"/>
-      <c r="J93" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="14" t="s">
+      <c r="J93" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="57"/>
+      <c r="B94" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D94" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="21"/>
-    </row>
-    <row r="97" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="15" t="s">
+      <c r="B97" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="59"/>
+      <c r="D97" s="59"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="60"/>
+    </row>
+    <row r="98" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B98" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="9" t="s">
+      <c r="C98" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D98" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E98" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F98" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G98" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H98" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I97" s="9" t="s">
+      <c r="I98" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J97" s="9" t="s">
+      <c r="J98" s="51" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D98" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E98" s="12"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
-      <c r="J98" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B99" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99" s="83" t="s">
-        <v>154</v>
+      <c r="A99" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="D99" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="82"/>
-      <c r="I99" s="82"/>
-      <c r="J99" s="82" t="s">
+      <c r="E99" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F99" s="54"/>
+      <c r="G99" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="57"/>
+      <c r="B101" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C101" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="57"/>
+      <c r="B102" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="E102" s="57"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C105" s="20"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20"/>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I106" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="82" t="s">
+      <c r="D107" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="12"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B100" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="D100" s="82" t="s">
+      <c r="B108" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D108" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="82"/>
-      <c r="I100" s="82"/>
-      <c r="J100" s="82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="82" t="s">
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="82"/>
+      <c r="I108" s="82"/>
+      <c r="J108" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B101" s="82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="D101" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="82"/>
-      <c r="I101" s="82"/>
-      <c r="J101" s="82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B102" s="82" t="s">
+      <c r="B109" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="C102" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="D102" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
-      <c r="J102" s="82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B103" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="42"/>
-    </row>
-    <row r="108" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B108" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D108" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H108" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I108" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J108" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>78</v>
+      <c r="C109" s="83" t="s">
+        <v>147</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="35" t="s">
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H109" s="82"/>
+      <c r="I109" s="82"/>
+      <c r="J109" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C110" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="D110" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H110" s="82"/>
+      <c r="I110" s="82"/>
+      <c r="J110" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H111" s="82"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11"/>
+      <c r="J112" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F109" s="36"/>
-      <c r="G109" s="34" t="s">
+      <c r="D113" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="42"/>
+    </row>
+    <row r="117" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H117" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I117" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B118" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D118" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="F118" s="36"/>
+      <c r="G118" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H109" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="I109" s="34"/>
-      <c r="J109" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D110" s="34" t="s">
+      <c r="H118" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="34"/>
+      <c r="B119" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H110" s="34"/>
-      <c r="I110" s="34"/>
-      <c r="J110" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D111" s="82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111" s="39"/>
-      <c r="F111" s="39"/>
-      <c r="G111" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="27" t="s">
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" s="34"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B114" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" s="30"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="30"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="30"/>
-      <c r="H114" s="30"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="31"/>
-    </row>
-    <row r="115" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="28" t="s">
+      <c r="B123" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="31"/>
+    </row>
+    <row r="124" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B115" s="22" t="s">
+      <c r="B124" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="23" t="s">
+      <c r="C124" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D115" s="23" t="s">
+      <c r="D124" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="23" t="s">
+      <c r="E124" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F115" s="23" t="s">
+      <c r="F124" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="23" t="s">
+      <c r="G124" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H115" s="23" t="s">
+      <c r="H124" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="23" t="s">
+      <c r="I124" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J115" s="23" t="s">
+      <c r="J124" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="24" t="s">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D116" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F116" s="26"/>
-      <c r="G116" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C117" s="25" t="s">
+      <c r="B125" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D117" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E117" s="25"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H117" s="24"/>
-      <c r="I117" s="24"/>
-      <c r="J117" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="D118" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H118" s="24"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B119" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D119" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="F119" s="26"/>
-      <c r="G119" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="I119" s="24"/>
-      <c r="J119" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C122" s="88"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="88"/>
-      <c r="F122" s="88"/>
-      <c r="G122" s="88"/>
-      <c r="H122" s="88"/>
-      <c r="I122" s="88"/>
-      <c r="J122" s="89"/>
-    </row>
-    <row r="123" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="H123" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="I123" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="J123" s="81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B124" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C124" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D124" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H124" s="82"/>
-      <c r="I124" s="82"/>
-      <c r="J124" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B125" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C125" s="83" t="s">
-        <v>109</v>
+      <c r="C125" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D125" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E125" s="83"/>
-      <c r="F125" s="84"/>
-      <c r="G125" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H125" s="82"/>
-      <c r="I125" s="82"/>
-      <c r="J125" s="82" t="s">
+      <c r="E125" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="F125" s="26"/>
+      <c r="G125" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H127" s="24"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F128" s="26"/>
+      <c r="G128" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" s="88"/>
+      <c r="D131" s="88"/>
+      <c r="E131" s="88"/>
+      <c r="F131" s="88"/>
+      <c r="G131" s="88"/>
+      <c r="H131" s="88"/>
+      <c r="I131" s="88"/>
+      <c r="J131" s="89"/>
+    </row>
+    <row r="132" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H132" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I132" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" s="81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D133" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="82"/>
+      <c r="I133" s="82"/>
+      <c r="J133" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="D134" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" s="83"/>
+      <c r="F134" s="84"/>
+      <c r="G134" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="82"/>
+      <c r="I134" s="82"/>
+      <c r="J134" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4033,16 +4293,31 @@
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65494:F65509 WVO982997:WVP983012 WLS982997:WLT983012 WBW982997:WBX983012 VSA982997:VSB983012 VIE982997:VIF983012 UYI982997:UYJ983012 UOM982997:UON983012 UEQ982997:UER983012 TUU982997:TUV983012 TKY982997:TKZ983012 TBC982997:TBD983012 SRG982997:SRH983012 SHK982997:SHL983012 RXO982997:RXP983012 RNS982997:RNT983012 RDW982997:RDX983012 QUA982997:QUB983012 QKE982997:QKF983012 QAI982997:QAJ983012 PQM982997:PQN983012 PGQ982997:PGR983012 OWU982997:OWV983012 OMY982997:OMZ983012 ODC982997:ODD983012 NTG982997:NTH983012 NJK982997:NJL983012 MZO982997:MZP983012 MPS982997:MPT983012 MFW982997:MFX983012 LWA982997:LWB983012 LME982997:LMF983012 LCI982997:LCJ983012 KSM982997:KSN983012 KIQ982997:KIR983012 JYU982997:JYV983012 JOY982997:JOZ983012 JFC982997:JFD983012 IVG982997:IVH983012 ILK982997:ILL983012 IBO982997:IBP983012 HRS982997:HRT983012 HHW982997:HHX983012 GYA982997:GYB983012 GOE982997:GOF983012 GEI982997:GEJ983012 FUM982997:FUN983012 FKQ982997:FKR983012 FAU982997:FAV983012 EQY982997:EQZ983012 EHC982997:EHD983012 DXG982997:DXH983012 DNK982997:DNL983012 DDO982997:DDP983012 CTS982997:CTT983012 CJW982997:CJX983012 CAA982997:CAB983012 BQE982997:BQF983012 BGI982997:BGJ983012 AWM982997:AWN983012 AMQ982997:AMR983012 ACU982997:ACV983012 SY982997:SZ983012 JC982997:JD983012 F982998:F983013 WVO917461:WVP917476 WLS917461:WLT917476 WBW917461:WBX917476 VSA917461:VSB917476 VIE917461:VIF917476 UYI917461:UYJ917476 UOM917461:UON917476 UEQ917461:UER917476 TUU917461:TUV917476 TKY917461:TKZ917476 TBC917461:TBD917476 SRG917461:SRH917476 SHK917461:SHL917476 RXO917461:RXP917476 RNS917461:RNT917476 RDW917461:RDX917476 QUA917461:QUB917476 QKE917461:QKF917476 QAI917461:QAJ917476 PQM917461:PQN917476 PGQ917461:PGR917476 OWU917461:OWV917476 OMY917461:OMZ917476 ODC917461:ODD917476 NTG917461:NTH917476 NJK917461:NJL917476 MZO917461:MZP917476 MPS917461:MPT917476 MFW917461:MFX917476 LWA917461:LWB917476 LME917461:LMF917476 LCI917461:LCJ917476 KSM917461:KSN917476 KIQ917461:KIR917476 JYU917461:JYV917476 JOY917461:JOZ917476 JFC917461:JFD917476 IVG917461:IVH917476 ILK917461:ILL917476 IBO917461:IBP917476 HRS917461:HRT917476 HHW917461:HHX917476 GYA917461:GYB917476 GOE917461:GOF917476 GEI917461:GEJ917476 FUM917461:FUN917476 FKQ917461:FKR917476 FAU917461:FAV917476 EQY917461:EQZ917476 EHC917461:EHD917476 DXG917461:DXH917476 DNK917461:DNL917476 DDO917461:DDP917476 CTS917461:CTT917476 CJW917461:CJX917476 CAA917461:CAB917476 BQE917461:BQF917476 BGI917461:BGJ917476 AWM917461:AWN917476 AMQ917461:AMR917476 ACU917461:ACV917476 SY917461:SZ917476 JC917461:JD917476 F917462:F917477 WVO851925:WVP851940 WLS851925:WLT851940 WBW851925:WBX851940 VSA851925:VSB851940 VIE851925:VIF851940 UYI851925:UYJ851940 UOM851925:UON851940 UEQ851925:UER851940 TUU851925:TUV851940 TKY851925:TKZ851940 TBC851925:TBD851940 SRG851925:SRH851940 SHK851925:SHL851940 RXO851925:RXP851940 RNS851925:RNT851940 RDW851925:RDX851940 QUA851925:QUB851940 QKE851925:QKF851940 QAI851925:QAJ851940 PQM851925:PQN851940 PGQ851925:PGR851940 OWU851925:OWV851940 OMY851925:OMZ851940 ODC851925:ODD851940 NTG851925:NTH851940 NJK851925:NJL851940 MZO851925:MZP851940 MPS851925:MPT851940 MFW851925:MFX851940 LWA851925:LWB851940 LME851925:LMF851940 LCI851925:LCJ851940 KSM851925:KSN851940 KIQ851925:KIR851940 JYU851925:JYV851940 JOY851925:JOZ851940 JFC851925:JFD851940 IVG851925:IVH851940 ILK851925:ILL851940 IBO851925:IBP851940 HRS851925:HRT851940 HHW851925:HHX851940 GYA851925:GYB851940 GOE851925:GOF851940 GEI851925:GEJ851940 FUM851925:FUN851940 FKQ851925:FKR851940 FAU851925:FAV851940 EQY851925:EQZ851940 EHC851925:EHD851940 DXG851925:DXH851940 DNK851925:DNL851940 DDO851925:DDP851940 CTS851925:CTT851940 CJW851925:CJX851940 CAA851925:CAB851940 BQE851925:BQF851940 BGI851925:BGJ851940 AWM851925:AWN851940 AMQ851925:AMR851940 ACU851925:ACV851940 SY851925:SZ851940 JC851925:JD851940 F851926:F851941 WVO786389:WVP786404 WLS786389:WLT786404 WBW786389:WBX786404 VSA786389:VSB786404 VIE786389:VIF786404 UYI786389:UYJ786404 UOM786389:UON786404 UEQ786389:UER786404 TUU786389:TUV786404 TKY786389:TKZ786404 TBC786389:TBD786404 SRG786389:SRH786404 SHK786389:SHL786404 RXO786389:RXP786404 RNS786389:RNT786404 RDW786389:RDX786404 QUA786389:QUB786404 QKE786389:QKF786404 QAI786389:QAJ786404 PQM786389:PQN786404 PGQ786389:PGR786404 OWU786389:OWV786404 OMY786389:OMZ786404 ODC786389:ODD786404 NTG786389:NTH786404 NJK786389:NJL786404 MZO786389:MZP786404 MPS786389:MPT786404 MFW786389:MFX786404 LWA786389:LWB786404 LME786389:LMF786404 LCI786389:LCJ786404 KSM786389:KSN786404 KIQ786389:KIR786404 JYU786389:JYV786404 JOY786389:JOZ786404 JFC786389:JFD786404 IVG786389:IVH786404 ILK786389:ILL786404 IBO786389:IBP786404 HRS786389:HRT786404 HHW786389:HHX786404 GYA786389:GYB786404 GOE786389:GOF786404 GEI786389:GEJ786404 FUM786389:FUN786404 FKQ786389:FKR786404 FAU786389:FAV786404 EQY786389:EQZ786404 EHC786389:EHD786404 DXG786389:DXH786404 DNK786389:DNL786404 DDO786389:DDP786404 CTS786389:CTT786404 CJW786389:CJX786404 CAA786389:CAB786404 BQE786389:BQF786404 BGI786389:BGJ786404 AWM786389:AWN786404 AMQ786389:AMR786404 ACU786389:ACV786404 SY786389:SZ786404 JC786389:JD786404 F786390:F786405 WVO720853:WVP720868 WLS720853:WLT720868 WBW720853:WBX720868 VSA720853:VSB720868 VIE720853:VIF720868 UYI720853:UYJ720868 UOM720853:UON720868 UEQ720853:UER720868 TUU720853:TUV720868 TKY720853:TKZ720868 TBC720853:TBD720868 SRG720853:SRH720868 SHK720853:SHL720868 RXO720853:RXP720868 RNS720853:RNT720868 RDW720853:RDX720868 QUA720853:QUB720868 QKE720853:QKF720868 QAI720853:QAJ720868 PQM720853:PQN720868 PGQ720853:PGR720868 OWU720853:OWV720868 OMY720853:OMZ720868 ODC720853:ODD720868 NTG720853:NTH720868 NJK720853:NJL720868 MZO720853:MZP720868 MPS720853:MPT720868 MFW720853:MFX720868 LWA720853:LWB720868 LME720853:LMF720868 LCI720853:LCJ720868 KSM720853:KSN720868 KIQ720853:KIR720868 JYU720853:JYV720868 JOY720853:JOZ720868 JFC720853:JFD720868 IVG720853:IVH720868 ILK720853:ILL720868 IBO720853:IBP720868 HRS720853:HRT720868 HHW720853:HHX720868 GYA720853:GYB720868 GOE720853:GOF720868 GEI720853:GEJ720868 FUM720853:FUN720868 FKQ720853:FKR720868 FAU720853:FAV720868 EQY720853:EQZ720868 EHC720853:EHD720868 DXG720853:DXH720868 DNK720853:DNL720868 DDO720853:DDP720868 CTS720853:CTT720868 CJW720853:CJX720868 CAA720853:CAB720868 BQE720853:BQF720868 BGI720853:BGJ720868 AWM720853:AWN720868 AMQ720853:AMR720868 ACU720853:ACV720868 SY720853:SZ720868 JC720853:JD720868 F720854:F720869 WVO655317:WVP655332 WLS655317:WLT655332 WBW655317:WBX655332 VSA655317:VSB655332 VIE655317:VIF655332 UYI655317:UYJ655332 UOM655317:UON655332 UEQ655317:UER655332 TUU655317:TUV655332 TKY655317:TKZ655332 TBC655317:TBD655332 SRG655317:SRH655332 SHK655317:SHL655332 RXO655317:RXP655332 RNS655317:RNT655332 RDW655317:RDX655332 QUA655317:QUB655332 QKE655317:QKF655332 QAI655317:QAJ655332 PQM655317:PQN655332 PGQ655317:PGR655332 OWU655317:OWV655332 OMY655317:OMZ655332 ODC655317:ODD655332 NTG655317:NTH655332 NJK655317:NJL655332 MZO655317:MZP655332 MPS655317:MPT655332 MFW655317:MFX655332 LWA655317:LWB655332 LME655317:LMF655332 LCI655317:LCJ655332 KSM655317:KSN655332 KIQ655317:KIR655332 JYU655317:JYV655332 JOY655317:JOZ655332 JFC655317:JFD655332 IVG655317:IVH655332 ILK655317:ILL655332 IBO655317:IBP655332 HRS655317:HRT655332 HHW655317:HHX655332 GYA655317:GYB655332 GOE655317:GOF655332 GEI655317:GEJ655332 FUM655317:FUN655332 FKQ655317:FKR655332 FAU655317:FAV655332 EQY655317:EQZ655332 EHC655317:EHD655332 DXG655317:DXH655332 DNK655317:DNL655332 DDO655317:DDP655332 CTS655317:CTT655332 CJW655317:CJX655332 CAA655317:CAB655332 BQE655317:BQF655332 BGI655317:BGJ655332 AWM655317:AWN655332 AMQ655317:AMR655332 ACU655317:ACV655332 SY655317:SZ655332 JC655317:JD655332 F655318:F655333 WVO589781:WVP589796 WLS589781:WLT589796 WBW589781:WBX589796 VSA589781:VSB589796 VIE589781:VIF589796 UYI589781:UYJ589796 UOM589781:UON589796 UEQ589781:UER589796 TUU589781:TUV589796 TKY589781:TKZ589796 TBC589781:TBD589796 SRG589781:SRH589796 SHK589781:SHL589796 RXO589781:RXP589796 RNS589781:RNT589796 RDW589781:RDX589796 QUA589781:QUB589796 QKE589781:QKF589796 QAI589781:QAJ589796 PQM589781:PQN589796 PGQ589781:PGR589796 OWU589781:OWV589796 OMY589781:OMZ589796 ODC589781:ODD589796 NTG589781:NTH589796 NJK589781:NJL589796 MZO589781:MZP589796 MPS589781:MPT589796 MFW589781:MFX589796 LWA589781:LWB589796 LME589781:LMF589796 LCI589781:LCJ589796 KSM589781:KSN589796 KIQ589781:KIR589796 JYU589781:JYV589796 JOY589781:JOZ589796 JFC589781:JFD589796 IVG589781:IVH589796 ILK589781:ILL589796 IBO589781:IBP589796 HRS589781:HRT589796 HHW589781:HHX589796 GYA589781:GYB589796 GOE589781:GOF589796 GEI589781:GEJ589796 FUM589781:FUN589796 FKQ589781:FKR589796 FAU589781:FAV589796 EQY589781:EQZ589796 EHC589781:EHD589796 DXG589781:DXH589796 DNK589781:DNL589796 DDO589781:DDP589796 CTS589781:CTT589796 CJW589781:CJX589796 CAA589781:CAB589796 BQE589781:BQF589796 BGI589781:BGJ589796 AWM589781:AWN589796 AMQ589781:AMR589796 ACU589781:ACV589796 SY589781:SZ589796 JC589781:JD589796 F589782:F589797 WVO524245:WVP524260 WLS524245:WLT524260 WBW524245:WBX524260 VSA524245:VSB524260 VIE524245:VIF524260 UYI524245:UYJ524260 UOM524245:UON524260 UEQ524245:UER524260 TUU524245:TUV524260 TKY524245:TKZ524260 TBC524245:TBD524260 SRG524245:SRH524260 SHK524245:SHL524260 RXO524245:RXP524260 RNS524245:RNT524260 RDW524245:RDX524260 QUA524245:QUB524260 QKE524245:QKF524260 QAI524245:QAJ524260 PQM524245:PQN524260 PGQ524245:PGR524260 OWU524245:OWV524260 OMY524245:OMZ524260 ODC524245:ODD524260 NTG524245:NTH524260 NJK524245:NJL524260 MZO524245:MZP524260 MPS524245:MPT524260 MFW524245:MFX524260 LWA524245:LWB524260 LME524245:LMF524260 LCI524245:LCJ524260 KSM524245:KSN524260 KIQ524245:KIR524260 JYU524245:JYV524260 JOY524245:JOZ524260 JFC524245:JFD524260 IVG524245:IVH524260 ILK524245:ILL524260 IBO524245:IBP524260 HRS524245:HRT524260 HHW524245:HHX524260 GYA524245:GYB524260 GOE524245:GOF524260 GEI524245:GEJ524260 FUM524245:FUN524260 FKQ524245:FKR524260 FAU524245:FAV524260 EQY524245:EQZ524260 EHC524245:EHD524260 DXG524245:DXH524260 DNK524245:DNL524260 DDO524245:DDP524260 CTS524245:CTT524260 CJW524245:CJX524260 CAA524245:CAB524260 BQE524245:BQF524260 BGI524245:BGJ524260 AWM524245:AWN524260 AMQ524245:AMR524260 ACU524245:ACV524260 SY524245:SZ524260 JC524245:JD524260 F524246:F524261 WVO458709:WVP458724 WLS458709:WLT458724 WBW458709:WBX458724 VSA458709:VSB458724 VIE458709:VIF458724 UYI458709:UYJ458724 UOM458709:UON458724 UEQ458709:UER458724 TUU458709:TUV458724 TKY458709:TKZ458724 TBC458709:TBD458724 SRG458709:SRH458724 SHK458709:SHL458724 RXO458709:RXP458724 RNS458709:RNT458724 RDW458709:RDX458724 QUA458709:QUB458724 QKE458709:QKF458724 QAI458709:QAJ458724 PQM458709:PQN458724 PGQ458709:PGR458724 OWU458709:OWV458724 OMY458709:OMZ458724 ODC458709:ODD458724 NTG458709:NTH458724 NJK458709:NJL458724 MZO458709:MZP458724 MPS458709:MPT458724 MFW458709:MFX458724 LWA458709:LWB458724 LME458709:LMF458724 LCI458709:LCJ458724 KSM458709:KSN458724 KIQ458709:KIR458724 JYU458709:JYV458724 JOY458709:JOZ458724 JFC458709:JFD458724 IVG458709:IVH458724 ILK458709:ILL458724 IBO458709:IBP458724 HRS458709:HRT458724 HHW458709:HHX458724 GYA458709:GYB458724 GOE458709:GOF458724 GEI458709:GEJ458724 FUM458709:FUN458724 FKQ458709:FKR458724 FAU458709:FAV458724 EQY458709:EQZ458724 EHC458709:EHD458724 DXG458709:DXH458724 DNK458709:DNL458724 DDO458709:DDP458724 CTS458709:CTT458724 CJW458709:CJX458724 CAA458709:CAB458724 BQE458709:BQF458724 BGI458709:BGJ458724 AWM458709:AWN458724 AMQ458709:AMR458724 ACU458709:ACV458724 SY458709:SZ458724 JC458709:JD458724 F458710:F458725 WVO393173:WVP393188 WLS393173:WLT393188 WBW393173:WBX393188 VSA393173:VSB393188 VIE393173:VIF393188 UYI393173:UYJ393188 UOM393173:UON393188 UEQ393173:UER393188 TUU393173:TUV393188 TKY393173:TKZ393188 TBC393173:TBD393188 SRG393173:SRH393188 SHK393173:SHL393188 RXO393173:RXP393188 RNS393173:RNT393188 RDW393173:RDX393188 QUA393173:QUB393188 QKE393173:QKF393188 QAI393173:QAJ393188 PQM393173:PQN393188 PGQ393173:PGR393188 OWU393173:OWV393188 OMY393173:OMZ393188 ODC393173:ODD393188 NTG393173:NTH393188 NJK393173:NJL393188 MZO393173:MZP393188 MPS393173:MPT393188 MFW393173:MFX393188 LWA393173:LWB393188 LME393173:LMF393188 LCI393173:LCJ393188 KSM393173:KSN393188 KIQ393173:KIR393188 JYU393173:JYV393188 JOY393173:JOZ393188 JFC393173:JFD393188 IVG393173:IVH393188 ILK393173:ILL393188 IBO393173:IBP393188 HRS393173:HRT393188 HHW393173:HHX393188 GYA393173:GYB393188 GOE393173:GOF393188 GEI393173:GEJ393188 FUM393173:FUN393188 FKQ393173:FKR393188 FAU393173:FAV393188 EQY393173:EQZ393188 EHC393173:EHD393188 DXG393173:DXH393188 DNK393173:DNL393188 DDO393173:DDP393188 CTS393173:CTT393188 CJW393173:CJX393188 CAA393173:CAB393188 BQE393173:BQF393188 BGI393173:BGJ393188 AWM393173:AWN393188 AMQ393173:AMR393188 ACU393173:ACV393188 SY393173:SZ393188 JC393173:JD393188 F393174:F393189 WVO327637:WVP327652 WLS327637:WLT327652 WBW327637:WBX327652 VSA327637:VSB327652 VIE327637:VIF327652 UYI327637:UYJ327652 UOM327637:UON327652 UEQ327637:UER327652 TUU327637:TUV327652 TKY327637:TKZ327652 TBC327637:TBD327652 SRG327637:SRH327652 SHK327637:SHL327652 RXO327637:RXP327652 RNS327637:RNT327652 RDW327637:RDX327652 QUA327637:QUB327652 QKE327637:QKF327652 QAI327637:QAJ327652 PQM327637:PQN327652 PGQ327637:PGR327652 OWU327637:OWV327652 OMY327637:OMZ327652 ODC327637:ODD327652 NTG327637:NTH327652 NJK327637:NJL327652 MZO327637:MZP327652 MPS327637:MPT327652 MFW327637:MFX327652 LWA327637:LWB327652 LME327637:LMF327652 LCI327637:LCJ327652 KSM327637:KSN327652 KIQ327637:KIR327652 JYU327637:JYV327652 JOY327637:JOZ327652 JFC327637:JFD327652 IVG327637:IVH327652 ILK327637:ILL327652 IBO327637:IBP327652 HRS327637:HRT327652 HHW327637:HHX327652 GYA327637:GYB327652 GOE327637:GOF327652 GEI327637:GEJ327652 FUM327637:FUN327652 FKQ327637:FKR327652 FAU327637:FAV327652 EQY327637:EQZ327652 EHC327637:EHD327652 DXG327637:DXH327652 DNK327637:DNL327652 DDO327637:DDP327652 CTS327637:CTT327652 CJW327637:CJX327652 CAA327637:CAB327652 BQE327637:BQF327652 BGI327637:BGJ327652 AWM327637:AWN327652 AMQ327637:AMR327652 ACU327637:ACV327652 SY327637:SZ327652 JC327637:JD327652 F327638:F327653 WVO262101:WVP262116 WLS262101:WLT262116 WBW262101:WBX262116 VSA262101:VSB262116 VIE262101:VIF262116 UYI262101:UYJ262116 UOM262101:UON262116 UEQ262101:UER262116 TUU262101:TUV262116 TKY262101:TKZ262116 TBC262101:TBD262116 SRG262101:SRH262116 SHK262101:SHL262116 RXO262101:RXP262116 RNS262101:RNT262116 RDW262101:RDX262116 QUA262101:QUB262116 QKE262101:QKF262116 QAI262101:QAJ262116 PQM262101:PQN262116 PGQ262101:PGR262116 OWU262101:OWV262116 OMY262101:OMZ262116 ODC262101:ODD262116 NTG262101:NTH262116 NJK262101:NJL262116 MZO262101:MZP262116 MPS262101:MPT262116 MFW262101:MFX262116 LWA262101:LWB262116 LME262101:LMF262116 LCI262101:LCJ262116 KSM262101:KSN262116 KIQ262101:KIR262116 JYU262101:JYV262116 JOY262101:JOZ262116 JFC262101:JFD262116 IVG262101:IVH262116 ILK262101:ILL262116 IBO262101:IBP262116 HRS262101:HRT262116 HHW262101:HHX262116 GYA262101:GYB262116 GOE262101:GOF262116 GEI262101:GEJ262116 FUM262101:FUN262116 FKQ262101:FKR262116 FAU262101:FAV262116 EQY262101:EQZ262116 EHC262101:EHD262116 DXG262101:DXH262116 DNK262101:DNL262116 DDO262101:DDP262116 CTS262101:CTT262116 CJW262101:CJX262116 CAA262101:CAB262116 BQE262101:BQF262116 BGI262101:BGJ262116 AWM262101:AWN262116 AMQ262101:AMR262116 ACU262101:ACV262116 SY262101:SZ262116 JC262101:JD262116 F262102:F262117 WVO196565:WVP196580 WLS196565:WLT196580 WBW196565:WBX196580 VSA196565:VSB196580 VIE196565:VIF196580 UYI196565:UYJ196580 UOM196565:UON196580 UEQ196565:UER196580 TUU196565:TUV196580 TKY196565:TKZ196580 TBC196565:TBD196580 SRG196565:SRH196580 SHK196565:SHL196580 RXO196565:RXP196580 RNS196565:RNT196580 RDW196565:RDX196580 QUA196565:QUB196580 QKE196565:QKF196580 QAI196565:QAJ196580 PQM196565:PQN196580 PGQ196565:PGR196580 OWU196565:OWV196580 OMY196565:OMZ196580 ODC196565:ODD196580 NTG196565:NTH196580 NJK196565:NJL196580 MZO196565:MZP196580 MPS196565:MPT196580 MFW196565:MFX196580 LWA196565:LWB196580 LME196565:LMF196580 LCI196565:LCJ196580 KSM196565:KSN196580 KIQ196565:KIR196580 JYU196565:JYV196580 JOY196565:JOZ196580 JFC196565:JFD196580 IVG196565:IVH196580 ILK196565:ILL196580 IBO196565:IBP196580 HRS196565:HRT196580 HHW196565:HHX196580 GYA196565:GYB196580 GOE196565:GOF196580 GEI196565:GEJ196580 FUM196565:FUN196580 FKQ196565:FKR196580 FAU196565:FAV196580 EQY196565:EQZ196580 EHC196565:EHD196580 DXG196565:DXH196580 DNK196565:DNL196580 DDO196565:DDP196580 CTS196565:CTT196580 CJW196565:CJX196580 CAA196565:CAB196580 BQE196565:BQF196580 BGI196565:BGJ196580 AWM196565:AWN196580 AMQ196565:AMR196580 ACU196565:ACV196580 SY196565:SZ196580 JC196565:JD196580 F196566:F196581 WVO131029:WVP131044 WLS131029:WLT131044 WBW131029:WBX131044 VSA131029:VSB131044 VIE131029:VIF131044 UYI131029:UYJ131044 UOM131029:UON131044 UEQ131029:UER131044 TUU131029:TUV131044 TKY131029:TKZ131044 TBC131029:TBD131044 SRG131029:SRH131044 SHK131029:SHL131044 RXO131029:RXP131044 RNS131029:RNT131044 RDW131029:RDX131044 QUA131029:QUB131044 QKE131029:QKF131044 QAI131029:QAJ131044 PQM131029:PQN131044 PGQ131029:PGR131044 OWU131029:OWV131044 OMY131029:OMZ131044 ODC131029:ODD131044 NTG131029:NTH131044 NJK131029:NJL131044 MZO131029:MZP131044 MPS131029:MPT131044 MFW131029:MFX131044 LWA131029:LWB131044 LME131029:LMF131044 LCI131029:LCJ131044 KSM131029:KSN131044 KIQ131029:KIR131044 JYU131029:JYV131044 JOY131029:JOZ131044 JFC131029:JFD131044 IVG131029:IVH131044 ILK131029:ILL131044 IBO131029:IBP131044 HRS131029:HRT131044 HHW131029:HHX131044 GYA131029:GYB131044 GOE131029:GOF131044 GEI131029:GEJ131044 FUM131029:FUN131044 FKQ131029:FKR131044 FAU131029:FAV131044 EQY131029:EQZ131044 EHC131029:EHD131044 DXG131029:DXH131044 DNK131029:DNL131044 DDO131029:DDP131044 CTS131029:CTT131044 CJW131029:CJX131044 CAA131029:CAB131044 BQE131029:BQF131044 BGI131029:BGJ131044 AWM131029:AWN131044 AMQ131029:AMR131044 ACU131029:ACV131044 SY131029:SZ131044 JC131029:JD131044 F131030:F131045 WVO65493:WVP65508 WLS65493:WLT65508 WBW65493:WBX65508 VSA65493:VSB65508 VIE65493:VIF65508 UYI65493:UYJ65508 UOM65493:UON65508 UEQ65493:UER65508 TUU65493:TUV65508 TKY65493:TKZ65508 TBC65493:TBD65508 SRG65493:SRH65508 SHK65493:SHL65508 RXO65493:RXP65508 RNS65493:RNT65508 RDW65493:RDX65508 QUA65493:QUB65508 QKE65493:QKF65508 QAI65493:QAJ65508 PQM65493:PQN65508 PGQ65493:PGR65508 OWU65493:OWV65508 OMY65493:OMZ65508 ODC65493:ODD65508 NTG65493:NTH65508 NJK65493:NJL65508 MZO65493:MZP65508 MPS65493:MPT65508 MFW65493:MFX65508 LWA65493:LWB65508 LME65493:LMF65508 LCI65493:LCJ65508 KSM65493:KSN65508 KIQ65493:KIR65508 JYU65493:JYV65508 JOY65493:JOZ65508 JFC65493:JFD65508 IVG65493:IVH65508 ILK65493:ILL65508 IBO65493:IBP65508 HRS65493:HRT65508 HHW65493:HHX65508 GYA65493:GYB65508 GOE65493:GOF65508 GEI65493:GEJ65508 FUM65493:FUN65508 FKQ65493:FKR65508 FAU65493:FAV65508 EQY65493:EQZ65508 EHC65493:EHD65508 DXG65493:DXH65508 DNK65493:DNL65508 DDO65493:DDP65508 CTS65493:CTT65508 CJW65493:CJX65508 CAA65493:CAB65508 BQE65493:BQF65508 BGI65493:BGJ65508 AWM65493:AWN65508 AMQ65493:AMR65508 ACU65493:ACV65508 SY65493:SZ65508 JC65493:JD65508 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65503:F65518 WVO983006:WVP983021 WLS983006:WLT983021 WBW983006:WBX983021 VSA983006:VSB983021 VIE983006:VIF983021 UYI983006:UYJ983021 UOM983006:UON983021 UEQ983006:UER983021 TUU983006:TUV983021 TKY983006:TKZ983021 TBC983006:TBD983021 SRG983006:SRH983021 SHK983006:SHL983021 RXO983006:RXP983021 RNS983006:RNT983021 RDW983006:RDX983021 QUA983006:QUB983021 QKE983006:QKF983021 QAI983006:QAJ983021 PQM983006:PQN983021 PGQ983006:PGR983021 OWU983006:OWV983021 OMY983006:OMZ983021 ODC983006:ODD983021 NTG983006:NTH983021 NJK983006:NJL983021 MZO983006:MZP983021 MPS983006:MPT983021 MFW983006:MFX983021 LWA983006:LWB983021 LME983006:LMF983021 LCI983006:LCJ983021 KSM983006:KSN983021 KIQ983006:KIR983021 JYU983006:JYV983021 JOY983006:JOZ983021 JFC983006:JFD983021 IVG983006:IVH983021 ILK983006:ILL983021 IBO983006:IBP983021 HRS983006:HRT983021 HHW983006:HHX983021 GYA983006:GYB983021 GOE983006:GOF983021 GEI983006:GEJ983021 FUM983006:FUN983021 FKQ983006:FKR983021 FAU983006:FAV983021 EQY983006:EQZ983021 EHC983006:EHD983021 DXG983006:DXH983021 DNK983006:DNL983021 DDO983006:DDP983021 CTS983006:CTT983021 CJW983006:CJX983021 CAA983006:CAB983021 BQE983006:BQF983021 BGI983006:BGJ983021 AWM983006:AWN983021 AMQ983006:AMR983021 ACU983006:ACV983021 SY983006:SZ983021 JC983006:JD983021 F983007:F983022 WVO917470:WVP917485 WLS917470:WLT917485 WBW917470:WBX917485 VSA917470:VSB917485 VIE917470:VIF917485 UYI917470:UYJ917485 UOM917470:UON917485 UEQ917470:UER917485 TUU917470:TUV917485 TKY917470:TKZ917485 TBC917470:TBD917485 SRG917470:SRH917485 SHK917470:SHL917485 RXO917470:RXP917485 RNS917470:RNT917485 RDW917470:RDX917485 QUA917470:QUB917485 QKE917470:QKF917485 QAI917470:QAJ917485 PQM917470:PQN917485 PGQ917470:PGR917485 OWU917470:OWV917485 OMY917470:OMZ917485 ODC917470:ODD917485 NTG917470:NTH917485 NJK917470:NJL917485 MZO917470:MZP917485 MPS917470:MPT917485 MFW917470:MFX917485 LWA917470:LWB917485 LME917470:LMF917485 LCI917470:LCJ917485 KSM917470:KSN917485 KIQ917470:KIR917485 JYU917470:JYV917485 JOY917470:JOZ917485 JFC917470:JFD917485 IVG917470:IVH917485 ILK917470:ILL917485 IBO917470:IBP917485 HRS917470:HRT917485 HHW917470:HHX917485 GYA917470:GYB917485 GOE917470:GOF917485 GEI917470:GEJ917485 FUM917470:FUN917485 FKQ917470:FKR917485 FAU917470:FAV917485 EQY917470:EQZ917485 EHC917470:EHD917485 DXG917470:DXH917485 DNK917470:DNL917485 DDO917470:DDP917485 CTS917470:CTT917485 CJW917470:CJX917485 CAA917470:CAB917485 BQE917470:BQF917485 BGI917470:BGJ917485 AWM917470:AWN917485 AMQ917470:AMR917485 ACU917470:ACV917485 SY917470:SZ917485 JC917470:JD917485 F917471:F917486 WVO851934:WVP851949 WLS851934:WLT851949 WBW851934:WBX851949 VSA851934:VSB851949 VIE851934:VIF851949 UYI851934:UYJ851949 UOM851934:UON851949 UEQ851934:UER851949 TUU851934:TUV851949 TKY851934:TKZ851949 TBC851934:TBD851949 SRG851934:SRH851949 SHK851934:SHL851949 RXO851934:RXP851949 RNS851934:RNT851949 RDW851934:RDX851949 QUA851934:QUB851949 QKE851934:QKF851949 QAI851934:QAJ851949 PQM851934:PQN851949 PGQ851934:PGR851949 OWU851934:OWV851949 OMY851934:OMZ851949 ODC851934:ODD851949 NTG851934:NTH851949 NJK851934:NJL851949 MZO851934:MZP851949 MPS851934:MPT851949 MFW851934:MFX851949 LWA851934:LWB851949 LME851934:LMF851949 LCI851934:LCJ851949 KSM851934:KSN851949 KIQ851934:KIR851949 JYU851934:JYV851949 JOY851934:JOZ851949 JFC851934:JFD851949 IVG851934:IVH851949 ILK851934:ILL851949 IBO851934:IBP851949 HRS851934:HRT851949 HHW851934:HHX851949 GYA851934:GYB851949 GOE851934:GOF851949 GEI851934:GEJ851949 FUM851934:FUN851949 FKQ851934:FKR851949 FAU851934:FAV851949 EQY851934:EQZ851949 EHC851934:EHD851949 DXG851934:DXH851949 DNK851934:DNL851949 DDO851934:DDP851949 CTS851934:CTT851949 CJW851934:CJX851949 CAA851934:CAB851949 BQE851934:BQF851949 BGI851934:BGJ851949 AWM851934:AWN851949 AMQ851934:AMR851949 ACU851934:ACV851949 SY851934:SZ851949 JC851934:JD851949 F851935:F851950 WVO786398:WVP786413 WLS786398:WLT786413 WBW786398:WBX786413 VSA786398:VSB786413 VIE786398:VIF786413 UYI786398:UYJ786413 UOM786398:UON786413 UEQ786398:UER786413 TUU786398:TUV786413 TKY786398:TKZ786413 TBC786398:TBD786413 SRG786398:SRH786413 SHK786398:SHL786413 RXO786398:RXP786413 RNS786398:RNT786413 RDW786398:RDX786413 QUA786398:QUB786413 QKE786398:QKF786413 QAI786398:QAJ786413 PQM786398:PQN786413 PGQ786398:PGR786413 OWU786398:OWV786413 OMY786398:OMZ786413 ODC786398:ODD786413 NTG786398:NTH786413 NJK786398:NJL786413 MZO786398:MZP786413 MPS786398:MPT786413 MFW786398:MFX786413 LWA786398:LWB786413 LME786398:LMF786413 LCI786398:LCJ786413 KSM786398:KSN786413 KIQ786398:KIR786413 JYU786398:JYV786413 JOY786398:JOZ786413 JFC786398:JFD786413 IVG786398:IVH786413 ILK786398:ILL786413 IBO786398:IBP786413 HRS786398:HRT786413 HHW786398:HHX786413 GYA786398:GYB786413 GOE786398:GOF786413 GEI786398:GEJ786413 FUM786398:FUN786413 FKQ786398:FKR786413 FAU786398:FAV786413 EQY786398:EQZ786413 EHC786398:EHD786413 DXG786398:DXH786413 DNK786398:DNL786413 DDO786398:DDP786413 CTS786398:CTT786413 CJW786398:CJX786413 CAA786398:CAB786413 BQE786398:BQF786413 BGI786398:BGJ786413 AWM786398:AWN786413 AMQ786398:AMR786413 ACU786398:ACV786413 SY786398:SZ786413 JC786398:JD786413 F786399:F786414 WVO720862:WVP720877 WLS720862:WLT720877 WBW720862:WBX720877 VSA720862:VSB720877 VIE720862:VIF720877 UYI720862:UYJ720877 UOM720862:UON720877 UEQ720862:UER720877 TUU720862:TUV720877 TKY720862:TKZ720877 TBC720862:TBD720877 SRG720862:SRH720877 SHK720862:SHL720877 RXO720862:RXP720877 RNS720862:RNT720877 RDW720862:RDX720877 QUA720862:QUB720877 QKE720862:QKF720877 QAI720862:QAJ720877 PQM720862:PQN720877 PGQ720862:PGR720877 OWU720862:OWV720877 OMY720862:OMZ720877 ODC720862:ODD720877 NTG720862:NTH720877 NJK720862:NJL720877 MZO720862:MZP720877 MPS720862:MPT720877 MFW720862:MFX720877 LWA720862:LWB720877 LME720862:LMF720877 LCI720862:LCJ720877 KSM720862:KSN720877 KIQ720862:KIR720877 JYU720862:JYV720877 JOY720862:JOZ720877 JFC720862:JFD720877 IVG720862:IVH720877 ILK720862:ILL720877 IBO720862:IBP720877 HRS720862:HRT720877 HHW720862:HHX720877 GYA720862:GYB720877 GOE720862:GOF720877 GEI720862:GEJ720877 FUM720862:FUN720877 FKQ720862:FKR720877 FAU720862:FAV720877 EQY720862:EQZ720877 EHC720862:EHD720877 DXG720862:DXH720877 DNK720862:DNL720877 DDO720862:DDP720877 CTS720862:CTT720877 CJW720862:CJX720877 CAA720862:CAB720877 BQE720862:BQF720877 BGI720862:BGJ720877 AWM720862:AWN720877 AMQ720862:AMR720877 ACU720862:ACV720877 SY720862:SZ720877 JC720862:JD720877 F720863:F720878 WVO655326:WVP655341 WLS655326:WLT655341 WBW655326:WBX655341 VSA655326:VSB655341 VIE655326:VIF655341 UYI655326:UYJ655341 UOM655326:UON655341 UEQ655326:UER655341 TUU655326:TUV655341 TKY655326:TKZ655341 TBC655326:TBD655341 SRG655326:SRH655341 SHK655326:SHL655341 RXO655326:RXP655341 RNS655326:RNT655341 RDW655326:RDX655341 QUA655326:QUB655341 QKE655326:QKF655341 QAI655326:QAJ655341 PQM655326:PQN655341 PGQ655326:PGR655341 OWU655326:OWV655341 OMY655326:OMZ655341 ODC655326:ODD655341 NTG655326:NTH655341 NJK655326:NJL655341 MZO655326:MZP655341 MPS655326:MPT655341 MFW655326:MFX655341 LWA655326:LWB655341 LME655326:LMF655341 LCI655326:LCJ655341 KSM655326:KSN655341 KIQ655326:KIR655341 JYU655326:JYV655341 JOY655326:JOZ655341 JFC655326:JFD655341 IVG655326:IVH655341 ILK655326:ILL655341 IBO655326:IBP655341 HRS655326:HRT655341 HHW655326:HHX655341 GYA655326:GYB655341 GOE655326:GOF655341 GEI655326:GEJ655341 FUM655326:FUN655341 FKQ655326:FKR655341 FAU655326:FAV655341 EQY655326:EQZ655341 EHC655326:EHD655341 DXG655326:DXH655341 DNK655326:DNL655341 DDO655326:DDP655341 CTS655326:CTT655341 CJW655326:CJX655341 CAA655326:CAB655341 BQE655326:BQF655341 BGI655326:BGJ655341 AWM655326:AWN655341 AMQ655326:AMR655341 ACU655326:ACV655341 SY655326:SZ655341 JC655326:JD655341 F655327:F655342 WVO589790:WVP589805 WLS589790:WLT589805 WBW589790:WBX589805 VSA589790:VSB589805 VIE589790:VIF589805 UYI589790:UYJ589805 UOM589790:UON589805 UEQ589790:UER589805 TUU589790:TUV589805 TKY589790:TKZ589805 TBC589790:TBD589805 SRG589790:SRH589805 SHK589790:SHL589805 RXO589790:RXP589805 RNS589790:RNT589805 RDW589790:RDX589805 QUA589790:QUB589805 QKE589790:QKF589805 QAI589790:QAJ589805 PQM589790:PQN589805 PGQ589790:PGR589805 OWU589790:OWV589805 OMY589790:OMZ589805 ODC589790:ODD589805 NTG589790:NTH589805 NJK589790:NJL589805 MZO589790:MZP589805 MPS589790:MPT589805 MFW589790:MFX589805 LWA589790:LWB589805 LME589790:LMF589805 LCI589790:LCJ589805 KSM589790:KSN589805 KIQ589790:KIR589805 JYU589790:JYV589805 JOY589790:JOZ589805 JFC589790:JFD589805 IVG589790:IVH589805 ILK589790:ILL589805 IBO589790:IBP589805 HRS589790:HRT589805 HHW589790:HHX589805 GYA589790:GYB589805 GOE589790:GOF589805 GEI589790:GEJ589805 FUM589790:FUN589805 FKQ589790:FKR589805 FAU589790:FAV589805 EQY589790:EQZ589805 EHC589790:EHD589805 DXG589790:DXH589805 DNK589790:DNL589805 DDO589790:DDP589805 CTS589790:CTT589805 CJW589790:CJX589805 CAA589790:CAB589805 BQE589790:BQF589805 BGI589790:BGJ589805 AWM589790:AWN589805 AMQ589790:AMR589805 ACU589790:ACV589805 SY589790:SZ589805 JC589790:JD589805 F589791:F589806 WVO524254:WVP524269 WLS524254:WLT524269 WBW524254:WBX524269 VSA524254:VSB524269 VIE524254:VIF524269 UYI524254:UYJ524269 UOM524254:UON524269 UEQ524254:UER524269 TUU524254:TUV524269 TKY524254:TKZ524269 TBC524254:TBD524269 SRG524254:SRH524269 SHK524254:SHL524269 RXO524254:RXP524269 RNS524254:RNT524269 RDW524254:RDX524269 QUA524254:QUB524269 QKE524254:QKF524269 QAI524254:QAJ524269 PQM524254:PQN524269 PGQ524254:PGR524269 OWU524254:OWV524269 OMY524254:OMZ524269 ODC524254:ODD524269 NTG524254:NTH524269 NJK524254:NJL524269 MZO524254:MZP524269 MPS524254:MPT524269 MFW524254:MFX524269 LWA524254:LWB524269 LME524254:LMF524269 LCI524254:LCJ524269 KSM524254:KSN524269 KIQ524254:KIR524269 JYU524254:JYV524269 JOY524254:JOZ524269 JFC524254:JFD524269 IVG524254:IVH524269 ILK524254:ILL524269 IBO524254:IBP524269 HRS524254:HRT524269 HHW524254:HHX524269 GYA524254:GYB524269 GOE524254:GOF524269 GEI524254:GEJ524269 FUM524254:FUN524269 FKQ524254:FKR524269 FAU524254:FAV524269 EQY524254:EQZ524269 EHC524254:EHD524269 DXG524254:DXH524269 DNK524254:DNL524269 DDO524254:DDP524269 CTS524254:CTT524269 CJW524254:CJX524269 CAA524254:CAB524269 BQE524254:BQF524269 BGI524254:BGJ524269 AWM524254:AWN524269 AMQ524254:AMR524269 ACU524254:ACV524269 SY524254:SZ524269 JC524254:JD524269 F524255:F524270 WVO458718:WVP458733 WLS458718:WLT458733 WBW458718:WBX458733 VSA458718:VSB458733 VIE458718:VIF458733 UYI458718:UYJ458733 UOM458718:UON458733 UEQ458718:UER458733 TUU458718:TUV458733 TKY458718:TKZ458733 TBC458718:TBD458733 SRG458718:SRH458733 SHK458718:SHL458733 RXO458718:RXP458733 RNS458718:RNT458733 RDW458718:RDX458733 QUA458718:QUB458733 QKE458718:QKF458733 QAI458718:QAJ458733 PQM458718:PQN458733 PGQ458718:PGR458733 OWU458718:OWV458733 OMY458718:OMZ458733 ODC458718:ODD458733 NTG458718:NTH458733 NJK458718:NJL458733 MZO458718:MZP458733 MPS458718:MPT458733 MFW458718:MFX458733 LWA458718:LWB458733 LME458718:LMF458733 LCI458718:LCJ458733 KSM458718:KSN458733 KIQ458718:KIR458733 JYU458718:JYV458733 JOY458718:JOZ458733 JFC458718:JFD458733 IVG458718:IVH458733 ILK458718:ILL458733 IBO458718:IBP458733 HRS458718:HRT458733 HHW458718:HHX458733 GYA458718:GYB458733 GOE458718:GOF458733 GEI458718:GEJ458733 FUM458718:FUN458733 FKQ458718:FKR458733 FAU458718:FAV458733 EQY458718:EQZ458733 EHC458718:EHD458733 DXG458718:DXH458733 DNK458718:DNL458733 DDO458718:DDP458733 CTS458718:CTT458733 CJW458718:CJX458733 CAA458718:CAB458733 BQE458718:BQF458733 BGI458718:BGJ458733 AWM458718:AWN458733 AMQ458718:AMR458733 ACU458718:ACV458733 SY458718:SZ458733 JC458718:JD458733 F458719:F458734 WVO393182:WVP393197 WLS393182:WLT393197 WBW393182:WBX393197 VSA393182:VSB393197 VIE393182:VIF393197 UYI393182:UYJ393197 UOM393182:UON393197 UEQ393182:UER393197 TUU393182:TUV393197 TKY393182:TKZ393197 TBC393182:TBD393197 SRG393182:SRH393197 SHK393182:SHL393197 RXO393182:RXP393197 RNS393182:RNT393197 RDW393182:RDX393197 QUA393182:QUB393197 QKE393182:QKF393197 QAI393182:QAJ393197 PQM393182:PQN393197 PGQ393182:PGR393197 OWU393182:OWV393197 OMY393182:OMZ393197 ODC393182:ODD393197 NTG393182:NTH393197 NJK393182:NJL393197 MZO393182:MZP393197 MPS393182:MPT393197 MFW393182:MFX393197 LWA393182:LWB393197 LME393182:LMF393197 LCI393182:LCJ393197 KSM393182:KSN393197 KIQ393182:KIR393197 JYU393182:JYV393197 JOY393182:JOZ393197 JFC393182:JFD393197 IVG393182:IVH393197 ILK393182:ILL393197 IBO393182:IBP393197 HRS393182:HRT393197 HHW393182:HHX393197 GYA393182:GYB393197 GOE393182:GOF393197 GEI393182:GEJ393197 FUM393182:FUN393197 FKQ393182:FKR393197 FAU393182:FAV393197 EQY393182:EQZ393197 EHC393182:EHD393197 DXG393182:DXH393197 DNK393182:DNL393197 DDO393182:DDP393197 CTS393182:CTT393197 CJW393182:CJX393197 CAA393182:CAB393197 BQE393182:BQF393197 BGI393182:BGJ393197 AWM393182:AWN393197 AMQ393182:AMR393197 ACU393182:ACV393197 SY393182:SZ393197 JC393182:JD393197 F393183:F393198 WVO327646:WVP327661 WLS327646:WLT327661 WBW327646:WBX327661 VSA327646:VSB327661 VIE327646:VIF327661 UYI327646:UYJ327661 UOM327646:UON327661 UEQ327646:UER327661 TUU327646:TUV327661 TKY327646:TKZ327661 TBC327646:TBD327661 SRG327646:SRH327661 SHK327646:SHL327661 RXO327646:RXP327661 RNS327646:RNT327661 RDW327646:RDX327661 QUA327646:QUB327661 QKE327646:QKF327661 QAI327646:QAJ327661 PQM327646:PQN327661 PGQ327646:PGR327661 OWU327646:OWV327661 OMY327646:OMZ327661 ODC327646:ODD327661 NTG327646:NTH327661 NJK327646:NJL327661 MZO327646:MZP327661 MPS327646:MPT327661 MFW327646:MFX327661 LWA327646:LWB327661 LME327646:LMF327661 LCI327646:LCJ327661 KSM327646:KSN327661 KIQ327646:KIR327661 JYU327646:JYV327661 JOY327646:JOZ327661 JFC327646:JFD327661 IVG327646:IVH327661 ILK327646:ILL327661 IBO327646:IBP327661 HRS327646:HRT327661 HHW327646:HHX327661 GYA327646:GYB327661 GOE327646:GOF327661 GEI327646:GEJ327661 FUM327646:FUN327661 FKQ327646:FKR327661 FAU327646:FAV327661 EQY327646:EQZ327661 EHC327646:EHD327661 DXG327646:DXH327661 DNK327646:DNL327661 DDO327646:DDP327661 CTS327646:CTT327661 CJW327646:CJX327661 CAA327646:CAB327661 BQE327646:BQF327661 BGI327646:BGJ327661 AWM327646:AWN327661 AMQ327646:AMR327661 ACU327646:ACV327661 SY327646:SZ327661 JC327646:JD327661 F327647:F327662 WVO262110:WVP262125 WLS262110:WLT262125 WBW262110:WBX262125 VSA262110:VSB262125 VIE262110:VIF262125 UYI262110:UYJ262125 UOM262110:UON262125 UEQ262110:UER262125 TUU262110:TUV262125 TKY262110:TKZ262125 TBC262110:TBD262125 SRG262110:SRH262125 SHK262110:SHL262125 RXO262110:RXP262125 RNS262110:RNT262125 RDW262110:RDX262125 QUA262110:QUB262125 QKE262110:QKF262125 QAI262110:QAJ262125 PQM262110:PQN262125 PGQ262110:PGR262125 OWU262110:OWV262125 OMY262110:OMZ262125 ODC262110:ODD262125 NTG262110:NTH262125 NJK262110:NJL262125 MZO262110:MZP262125 MPS262110:MPT262125 MFW262110:MFX262125 LWA262110:LWB262125 LME262110:LMF262125 LCI262110:LCJ262125 KSM262110:KSN262125 KIQ262110:KIR262125 JYU262110:JYV262125 JOY262110:JOZ262125 JFC262110:JFD262125 IVG262110:IVH262125 ILK262110:ILL262125 IBO262110:IBP262125 HRS262110:HRT262125 HHW262110:HHX262125 GYA262110:GYB262125 GOE262110:GOF262125 GEI262110:GEJ262125 FUM262110:FUN262125 FKQ262110:FKR262125 FAU262110:FAV262125 EQY262110:EQZ262125 EHC262110:EHD262125 DXG262110:DXH262125 DNK262110:DNL262125 DDO262110:DDP262125 CTS262110:CTT262125 CJW262110:CJX262125 CAA262110:CAB262125 BQE262110:BQF262125 BGI262110:BGJ262125 AWM262110:AWN262125 AMQ262110:AMR262125 ACU262110:ACV262125 SY262110:SZ262125 JC262110:JD262125 F262111:F262126 WVO196574:WVP196589 WLS196574:WLT196589 WBW196574:WBX196589 VSA196574:VSB196589 VIE196574:VIF196589 UYI196574:UYJ196589 UOM196574:UON196589 UEQ196574:UER196589 TUU196574:TUV196589 TKY196574:TKZ196589 TBC196574:TBD196589 SRG196574:SRH196589 SHK196574:SHL196589 RXO196574:RXP196589 RNS196574:RNT196589 RDW196574:RDX196589 QUA196574:QUB196589 QKE196574:QKF196589 QAI196574:QAJ196589 PQM196574:PQN196589 PGQ196574:PGR196589 OWU196574:OWV196589 OMY196574:OMZ196589 ODC196574:ODD196589 NTG196574:NTH196589 NJK196574:NJL196589 MZO196574:MZP196589 MPS196574:MPT196589 MFW196574:MFX196589 LWA196574:LWB196589 LME196574:LMF196589 LCI196574:LCJ196589 KSM196574:KSN196589 KIQ196574:KIR196589 JYU196574:JYV196589 JOY196574:JOZ196589 JFC196574:JFD196589 IVG196574:IVH196589 ILK196574:ILL196589 IBO196574:IBP196589 HRS196574:HRT196589 HHW196574:HHX196589 GYA196574:GYB196589 GOE196574:GOF196589 GEI196574:GEJ196589 FUM196574:FUN196589 FKQ196574:FKR196589 FAU196574:FAV196589 EQY196574:EQZ196589 EHC196574:EHD196589 DXG196574:DXH196589 DNK196574:DNL196589 DDO196574:DDP196589 CTS196574:CTT196589 CJW196574:CJX196589 CAA196574:CAB196589 BQE196574:BQF196589 BGI196574:BGJ196589 AWM196574:AWN196589 AMQ196574:AMR196589 ACU196574:ACV196589 SY196574:SZ196589 JC196574:JD196589 F196575:F196590 WVO131038:WVP131053 WLS131038:WLT131053 WBW131038:WBX131053 VSA131038:VSB131053 VIE131038:VIF131053 UYI131038:UYJ131053 UOM131038:UON131053 UEQ131038:UER131053 TUU131038:TUV131053 TKY131038:TKZ131053 TBC131038:TBD131053 SRG131038:SRH131053 SHK131038:SHL131053 RXO131038:RXP131053 RNS131038:RNT131053 RDW131038:RDX131053 QUA131038:QUB131053 QKE131038:QKF131053 QAI131038:QAJ131053 PQM131038:PQN131053 PGQ131038:PGR131053 OWU131038:OWV131053 OMY131038:OMZ131053 ODC131038:ODD131053 NTG131038:NTH131053 NJK131038:NJL131053 MZO131038:MZP131053 MPS131038:MPT131053 MFW131038:MFX131053 LWA131038:LWB131053 LME131038:LMF131053 LCI131038:LCJ131053 KSM131038:KSN131053 KIQ131038:KIR131053 JYU131038:JYV131053 JOY131038:JOZ131053 JFC131038:JFD131053 IVG131038:IVH131053 ILK131038:ILL131053 IBO131038:IBP131053 HRS131038:HRT131053 HHW131038:HHX131053 GYA131038:GYB131053 GOE131038:GOF131053 GEI131038:GEJ131053 FUM131038:FUN131053 FKQ131038:FKR131053 FAU131038:FAV131053 EQY131038:EQZ131053 EHC131038:EHD131053 DXG131038:DXH131053 DNK131038:DNL131053 DDO131038:DDP131053 CTS131038:CTT131053 CJW131038:CJX131053 CAA131038:CAB131053 BQE131038:BQF131053 BGI131038:BGJ131053 AWM131038:AWN131053 AMQ131038:AMR131053 ACU131038:ACV131053 SY131038:SZ131053 JC131038:JD131053 F131039:F131054 WVO65502:WVP65517 WLS65502:WLT65517 WBW65502:WBX65517 VSA65502:VSB65517 VIE65502:VIF65517 UYI65502:UYJ65517 UOM65502:UON65517 UEQ65502:UER65517 TUU65502:TUV65517 TKY65502:TKZ65517 TBC65502:TBD65517 SRG65502:SRH65517 SHK65502:SHL65517 RXO65502:RXP65517 RNS65502:RNT65517 RDW65502:RDX65517 QUA65502:QUB65517 QKE65502:QKF65517 QAI65502:QAJ65517 PQM65502:PQN65517 PGQ65502:PGR65517 OWU65502:OWV65517 OMY65502:OMZ65517 ODC65502:ODD65517 NTG65502:NTH65517 NJK65502:NJL65517 MZO65502:MZP65517 MPS65502:MPT65517 MFW65502:MFX65517 LWA65502:LWB65517 LME65502:LMF65517 LCI65502:LCJ65517 KSM65502:KSN65517 KIQ65502:KIR65517 JYU65502:JYV65517 JOY65502:JOZ65517 JFC65502:JFD65517 IVG65502:IVH65517 ILK65502:ILL65517 IBO65502:IBP65517 HRS65502:HRT65517 HHW65502:HHX65517 GYA65502:GYB65517 GOE65502:GOF65517 GEI65502:GEJ65517 FUM65502:FUN65517 FKQ65502:FKR65517 FAU65502:FAV65517 EQY65502:EQZ65517 EHC65502:EHD65517 DXG65502:DXH65517 DNK65502:DNL65517 DDO65502:DDP65517 CTS65502:CTT65517 CJW65502:CJX65517 CAA65502:CAB65517 BQE65502:BQF65517 BGI65502:BGJ65517 AWM65502:AWN65517 AMQ65502:AMR65517 ACU65502:ACV65517 SY65502:SZ65517 JC65502:JD65517 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65486:C65509 IZ65485:IZ65508 SV65485:SV65508 ACR65485:ACR65508 AMN65485:AMN65508 AWJ65485:AWJ65508 BGF65485:BGF65508 BQB65485:BQB65508 BZX65485:BZX65508 CJT65485:CJT65508 CTP65485:CTP65508 DDL65485:DDL65508 DNH65485:DNH65508 DXD65485:DXD65508 EGZ65485:EGZ65508 EQV65485:EQV65508 FAR65485:FAR65508 FKN65485:FKN65508 FUJ65485:FUJ65508 GEF65485:GEF65508 GOB65485:GOB65508 GXX65485:GXX65508 HHT65485:HHT65508 HRP65485:HRP65508 IBL65485:IBL65508 ILH65485:ILH65508 IVD65485:IVD65508 JEZ65485:JEZ65508 JOV65485:JOV65508 JYR65485:JYR65508 KIN65485:KIN65508 KSJ65485:KSJ65508 LCF65485:LCF65508 LMB65485:LMB65508 LVX65485:LVX65508 MFT65485:MFT65508 MPP65485:MPP65508 MZL65485:MZL65508 NJH65485:NJH65508 NTD65485:NTD65508 OCZ65485:OCZ65508 OMV65485:OMV65508 OWR65485:OWR65508 PGN65485:PGN65508 PQJ65485:PQJ65508 QAF65485:QAF65508 QKB65485:QKB65508 QTX65485:QTX65508 RDT65485:RDT65508 RNP65485:RNP65508 RXL65485:RXL65508 SHH65485:SHH65508 SRD65485:SRD65508 TAZ65485:TAZ65508 TKV65485:TKV65508 TUR65485:TUR65508 UEN65485:UEN65508 UOJ65485:UOJ65508 UYF65485:UYF65508 VIB65485:VIB65508 VRX65485:VRX65508 WBT65485:WBT65508 WLP65485:WLP65508 WVL65485:WVL65508 C131022:C131045 IZ131021:IZ131044 SV131021:SV131044 ACR131021:ACR131044 AMN131021:AMN131044 AWJ131021:AWJ131044 BGF131021:BGF131044 BQB131021:BQB131044 BZX131021:BZX131044 CJT131021:CJT131044 CTP131021:CTP131044 DDL131021:DDL131044 DNH131021:DNH131044 DXD131021:DXD131044 EGZ131021:EGZ131044 EQV131021:EQV131044 FAR131021:FAR131044 FKN131021:FKN131044 FUJ131021:FUJ131044 GEF131021:GEF131044 GOB131021:GOB131044 GXX131021:GXX131044 HHT131021:HHT131044 HRP131021:HRP131044 IBL131021:IBL131044 ILH131021:ILH131044 IVD131021:IVD131044 JEZ131021:JEZ131044 JOV131021:JOV131044 JYR131021:JYR131044 KIN131021:KIN131044 KSJ131021:KSJ131044 LCF131021:LCF131044 LMB131021:LMB131044 LVX131021:LVX131044 MFT131021:MFT131044 MPP131021:MPP131044 MZL131021:MZL131044 NJH131021:NJH131044 NTD131021:NTD131044 OCZ131021:OCZ131044 OMV131021:OMV131044 OWR131021:OWR131044 PGN131021:PGN131044 PQJ131021:PQJ131044 QAF131021:QAF131044 QKB131021:QKB131044 QTX131021:QTX131044 RDT131021:RDT131044 RNP131021:RNP131044 RXL131021:RXL131044 SHH131021:SHH131044 SRD131021:SRD131044 TAZ131021:TAZ131044 TKV131021:TKV131044 TUR131021:TUR131044 UEN131021:UEN131044 UOJ131021:UOJ131044 UYF131021:UYF131044 VIB131021:VIB131044 VRX131021:VRX131044 WBT131021:WBT131044 WLP131021:WLP131044 WVL131021:WVL131044 C196558:C196581 IZ196557:IZ196580 SV196557:SV196580 ACR196557:ACR196580 AMN196557:AMN196580 AWJ196557:AWJ196580 BGF196557:BGF196580 BQB196557:BQB196580 BZX196557:BZX196580 CJT196557:CJT196580 CTP196557:CTP196580 DDL196557:DDL196580 DNH196557:DNH196580 DXD196557:DXD196580 EGZ196557:EGZ196580 EQV196557:EQV196580 FAR196557:FAR196580 FKN196557:FKN196580 FUJ196557:FUJ196580 GEF196557:GEF196580 GOB196557:GOB196580 GXX196557:GXX196580 HHT196557:HHT196580 HRP196557:HRP196580 IBL196557:IBL196580 ILH196557:ILH196580 IVD196557:IVD196580 JEZ196557:JEZ196580 JOV196557:JOV196580 JYR196557:JYR196580 KIN196557:KIN196580 KSJ196557:KSJ196580 LCF196557:LCF196580 LMB196557:LMB196580 LVX196557:LVX196580 MFT196557:MFT196580 MPP196557:MPP196580 MZL196557:MZL196580 NJH196557:NJH196580 NTD196557:NTD196580 OCZ196557:OCZ196580 OMV196557:OMV196580 OWR196557:OWR196580 PGN196557:PGN196580 PQJ196557:PQJ196580 QAF196557:QAF196580 QKB196557:QKB196580 QTX196557:QTX196580 RDT196557:RDT196580 RNP196557:RNP196580 RXL196557:RXL196580 SHH196557:SHH196580 SRD196557:SRD196580 TAZ196557:TAZ196580 TKV196557:TKV196580 TUR196557:TUR196580 UEN196557:UEN196580 UOJ196557:UOJ196580 UYF196557:UYF196580 VIB196557:VIB196580 VRX196557:VRX196580 WBT196557:WBT196580 WLP196557:WLP196580 WVL196557:WVL196580 C262094:C262117 IZ262093:IZ262116 SV262093:SV262116 ACR262093:ACR262116 AMN262093:AMN262116 AWJ262093:AWJ262116 BGF262093:BGF262116 BQB262093:BQB262116 BZX262093:BZX262116 CJT262093:CJT262116 CTP262093:CTP262116 DDL262093:DDL262116 DNH262093:DNH262116 DXD262093:DXD262116 EGZ262093:EGZ262116 EQV262093:EQV262116 FAR262093:FAR262116 FKN262093:FKN262116 FUJ262093:FUJ262116 GEF262093:GEF262116 GOB262093:GOB262116 GXX262093:GXX262116 HHT262093:HHT262116 HRP262093:HRP262116 IBL262093:IBL262116 ILH262093:ILH262116 IVD262093:IVD262116 JEZ262093:JEZ262116 JOV262093:JOV262116 JYR262093:JYR262116 KIN262093:KIN262116 KSJ262093:KSJ262116 LCF262093:LCF262116 LMB262093:LMB262116 LVX262093:LVX262116 MFT262093:MFT262116 MPP262093:MPP262116 MZL262093:MZL262116 NJH262093:NJH262116 NTD262093:NTD262116 OCZ262093:OCZ262116 OMV262093:OMV262116 OWR262093:OWR262116 PGN262093:PGN262116 PQJ262093:PQJ262116 QAF262093:QAF262116 QKB262093:QKB262116 QTX262093:QTX262116 RDT262093:RDT262116 RNP262093:RNP262116 RXL262093:RXL262116 SHH262093:SHH262116 SRD262093:SRD262116 TAZ262093:TAZ262116 TKV262093:TKV262116 TUR262093:TUR262116 UEN262093:UEN262116 UOJ262093:UOJ262116 UYF262093:UYF262116 VIB262093:VIB262116 VRX262093:VRX262116 WBT262093:WBT262116 WLP262093:WLP262116 WVL262093:WVL262116 C327630:C327653 IZ327629:IZ327652 SV327629:SV327652 ACR327629:ACR327652 AMN327629:AMN327652 AWJ327629:AWJ327652 BGF327629:BGF327652 BQB327629:BQB327652 BZX327629:BZX327652 CJT327629:CJT327652 CTP327629:CTP327652 DDL327629:DDL327652 DNH327629:DNH327652 DXD327629:DXD327652 EGZ327629:EGZ327652 EQV327629:EQV327652 FAR327629:FAR327652 FKN327629:FKN327652 FUJ327629:FUJ327652 GEF327629:GEF327652 GOB327629:GOB327652 GXX327629:GXX327652 HHT327629:HHT327652 HRP327629:HRP327652 IBL327629:IBL327652 ILH327629:ILH327652 IVD327629:IVD327652 JEZ327629:JEZ327652 JOV327629:JOV327652 JYR327629:JYR327652 KIN327629:KIN327652 KSJ327629:KSJ327652 LCF327629:LCF327652 LMB327629:LMB327652 LVX327629:LVX327652 MFT327629:MFT327652 MPP327629:MPP327652 MZL327629:MZL327652 NJH327629:NJH327652 NTD327629:NTD327652 OCZ327629:OCZ327652 OMV327629:OMV327652 OWR327629:OWR327652 PGN327629:PGN327652 PQJ327629:PQJ327652 QAF327629:QAF327652 QKB327629:QKB327652 QTX327629:QTX327652 RDT327629:RDT327652 RNP327629:RNP327652 RXL327629:RXL327652 SHH327629:SHH327652 SRD327629:SRD327652 TAZ327629:TAZ327652 TKV327629:TKV327652 TUR327629:TUR327652 UEN327629:UEN327652 UOJ327629:UOJ327652 UYF327629:UYF327652 VIB327629:VIB327652 VRX327629:VRX327652 WBT327629:WBT327652 WLP327629:WLP327652 WVL327629:WVL327652 C393166:C393189 IZ393165:IZ393188 SV393165:SV393188 ACR393165:ACR393188 AMN393165:AMN393188 AWJ393165:AWJ393188 BGF393165:BGF393188 BQB393165:BQB393188 BZX393165:BZX393188 CJT393165:CJT393188 CTP393165:CTP393188 DDL393165:DDL393188 DNH393165:DNH393188 DXD393165:DXD393188 EGZ393165:EGZ393188 EQV393165:EQV393188 FAR393165:FAR393188 FKN393165:FKN393188 FUJ393165:FUJ393188 GEF393165:GEF393188 GOB393165:GOB393188 GXX393165:GXX393188 HHT393165:HHT393188 HRP393165:HRP393188 IBL393165:IBL393188 ILH393165:ILH393188 IVD393165:IVD393188 JEZ393165:JEZ393188 JOV393165:JOV393188 JYR393165:JYR393188 KIN393165:KIN393188 KSJ393165:KSJ393188 LCF393165:LCF393188 LMB393165:LMB393188 LVX393165:LVX393188 MFT393165:MFT393188 MPP393165:MPP393188 MZL393165:MZL393188 NJH393165:NJH393188 NTD393165:NTD393188 OCZ393165:OCZ393188 OMV393165:OMV393188 OWR393165:OWR393188 PGN393165:PGN393188 PQJ393165:PQJ393188 QAF393165:QAF393188 QKB393165:QKB393188 QTX393165:QTX393188 RDT393165:RDT393188 RNP393165:RNP393188 RXL393165:RXL393188 SHH393165:SHH393188 SRD393165:SRD393188 TAZ393165:TAZ393188 TKV393165:TKV393188 TUR393165:TUR393188 UEN393165:UEN393188 UOJ393165:UOJ393188 UYF393165:UYF393188 VIB393165:VIB393188 VRX393165:VRX393188 WBT393165:WBT393188 WLP393165:WLP393188 WVL393165:WVL393188 C458702:C458725 IZ458701:IZ458724 SV458701:SV458724 ACR458701:ACR458724 AMN458701:AMN458724 AWJ458701:AWJ458724 BGF458701:BGF458724 BQB458701:BQB458724 BZX458701:BZX458724 CJT458701:CJT458724 CTP458701:CTP458724 DDL458701:DDL458724 DNH458701:DNH458724 DXD458701:DXD458724 EGZ458701:EGZ458724 EQV458701:EQV458724 FAR458701:FAR458724 FKN458701:FKN458724 FUJ458701:FUJ458724 GEF458701:GEF458724 GOB458701:GOB458724 GXX458701:GXX458724 HHT458701:HHT458724 HRP458701:HRP458724 IBL458701:IBL458724 ILH458701:ILH458724 IVD458701:IVD458724 JEZ458701:JEZ458724 JOV458701:JOV458724 JYR458701:JYR458724 KIN458701:KIN458724 KSJ458701:KSJ458724 LCF458701:LCF458724 LMB458701:LMB458724 LVX458701:LVX458724 MFT458701:MFT458724 MPP458701:MPP458724 MZL458701:MZL458724 NJH458701:NJH458724 NTD458701:NTD458724 OCZ458701:OCZ458724 OMV458701:OMV458724 OWR458701:OWR458724 PGN458701:PGN458724 PQJ458701:PQJ458724 QAF458701:QAF458724 QKB458701:QKB458724 QTX458701:QTX458724 RDT458701:RDT458724 RNP458701:RNP458724 RXL458701:RXL458724 SHH458701:SHH458724 SRD458701:SRD458724 TAZ458701:TAZ458724 TKV458701:TKV458724 TUR458701:TUR458724 UEN458701:UEN458724 UOJ458701:UOJ458724 UYF458701:UYF458724 VIB458701:VIB458724 VRX458701:VRX458724 WBT458701:WBT458724 WLP458701:WLP458724 WVL458701:WVL458724 C524238:C524261 IZ524237:IZ524260 SV524237:SV524260 ACR524237:ACR524260 AMN524237:AMN524260 AWJ524237:AWJ524260 BGF524237:BGF524260 BQB524237:BQB524260 BZX524237:BZX524260 CJT524237:CJT524260 CTP524237:CTP524260 DDL524237:DDL524260 DNH524237:DNH524260 DXD524237:DXD524260 EGZ524237:EGZ524260 EQV524237:EQV524260 FAR524237:FAR524260 FKN524237:FKN524260 FUJ524237:FUJ524260 GEF524237:GEF524260 GOB524237:GOB524260 GXX524237:GXX524260 HHT524237:HHT524260 HRP524237:HRP524260 IBL524237:IBL524260 ILH524237:ILH524260 IVD524237:IVD524260 JEZ524237:JEZ524260 JOV524237:JOV524260 JYR524237:JYR524260 KIN524237:KIN524260 KSJ524237:KSJ524260 LCF524237:LCF524260 LMB524237:LMB524260 LVX524237:LVX524260 MFT524237:MFT524260 MPP524237:MPP524260 MZL524237:MZL524260 NJH524237:NJH524260 NTD524237:NTD524260 OCZ524237:OCZ524260 OMV524237:OMV524260 OWR524237:OWR524260 PGN524237:PGN524260 PQJ524237:PQJ524260 QAF524237:QAF524260 QKB524237:QKB524260 QTX524237:QTX524260 RDT524237:RDT524260 RNP524237:RNP524260 RXL524237:RXL524260 SHH524237:SHH524260 SRD524237:SRD524260 TAZ524237:TAZ524260 TKV524237:TKV524260 TUR524237:TUR524260 UEN524237:UEN524260 UOJ524237:UOJ524260 UYF524237:UYF524260 VIB524237:VIB524260 VRX524237:VRX524260 WBT524237:WBT524260 WLP524237:WLP524260 WVL524237:WVL524260 C589774:C589797 IZ589773:IZ589796 SV589773:SV589796 ACR589773:ACR589796 AMN589773:AMN589796 AWJ589773:AWJ589796 BGF589773:BGF589796 BQB589773:BQB589796 BZX589773:BZX589796 CJT589773:CJT589796 CTP589773:CTP589796 DDL589773:DDL589796 DNH589773:DNH589796 DXD589773:DXD589796 EGZ589773:EGZ589796 EQV589773:EQV589796 FAR589773:FAR589796 FKN589773:FKN589796 FUJ589773:FUJ589796 GEF589773:GEF589796 GOB589773:GOB589796 GXX589773:GXX589796 HHT589773:HHT589796 HRP589773:HRP589796 IBL589773:IBL589796 ILH589773:ILH589796 IVD589773:IVD589796 JEZ589773:JEZ589796 JOV589773:JOV589796 JYR589773:JYR589796 KIN589773:KIN589796 KSJ589773:KSJ589796 LCF589773:LCF589796 LMB589773:LMB589796 LVX589773:LVX589796 MFT589773:MFT589796 MPP589773:MPP589796 MZL589773:MZL589796 NJH589773:NJH589796 NTD589773:NTD589796 OCZ589773:OCZ589796 OMV589773:OMV589796 OWR589773:OWR589796 PGN589773:PGN589796 PQJ589773:PQJ589796 QAF589773:QAF589796 QKB589773:QKB589796 QTX589773:QTX589796 RDT589773:RDT589796 RNP589773:RNP589796 RXL589773:RXL589796 SHH589773:SHH589796 SRD589773:SRD589796 TAZ589773:TAZ589796 TKV589773:TKV589796 TUR589773:TUR589796 UEN589773:UEN589796 UOJ589773:UOJ589796 UYF589773:UYF589796 VIB589773:VIB589796 VRX589773:VRX589796 WBT589773:WBT589796 WLP589773:WLP589796 WVL589773:WVL589796 C655310:C655333 IZ655309:IZ655332 SV655309:SV655332 ACR655309:ACR655332 AMN655309:AMN655332 AWJ655309:AWJ655332 BGF655309:BGF655332 BQB655309:BQB655332 BZX655309:BZX655332 CJT655309:CJT655332 CTP655309:CTP655332 DDL655309:DDL655332 DNH655309:DNH655332 DXD655309:DXD655332 EGZ655309:EGZ655332 EQV655309:EQV655332 FAR655309:FAR655332 FKN655309:FKN655332 FUJ655309:FUJ655332 GEF655309:GEF655332 GOB655309:GOB655332 GXX655309:GXX655332 HHT655309:HHT655332 HRP655309:HRP655332 IBL655309:IBL655332 ILH655309:ILH655332 IVD655309:IVD655332 JEZ655309:JEZ655332 JOV655309:JOV655332 JYR655309:JYR655332 KIN655309:KIN655332 KSJ655309:KSJ655332 LCF655309:LCF655332 LMB655309:LMB655332 LVX655309:LVX655332 MFT655309:MFT655332 MPP655309:MPP655332 MZL655309:MZL655332 NJH655309:NJH655332 NTD655309:NTD655332 OCZ655309:OCZ655332 OMV655309:OMV655332 OWR655309:OWR655332 PGN655309:PGN655332 PQJ655309:PQJ655332 QAF655309:QAF655332 QKB655309:QKB655332 QTX655309:QTX655332 RDT655309:RDT655332 RNP655309:RNP655332 RXL655309:RXL655332 SHH655309:SHH655332 SRD655309:SRD655332 TAZ655309:TAZ655332 TKV655309:TKV655332 TUR655309:TUR655332 UEN655309:UEN655332 UOJ655309:UOJ655332 UYF655309:UYF655332 VIB655309:VIB655332 VRX655309:VRX655332 WBT655309:WBT655332 WLP655309:WLP655332 WVL655309:WVL655332 C720846:C720869 IZ720845:IZ720868 SV720845:SV720868 ACR720845:ACR720868 AMN720845:AMN720868 AWJ720845:AWJ720868 BGF720845:BGF720868 BQB720845:BQB720868 BZX720845:BZX720868 CJT720845:CJT720868 CTP720845:CTP720868 DDL720845:DDL720868 DNH720845:DNH720868 DXD720845:DXD720868 EGZ720845:EGZ720868 EQV720845:EQV720868 FAR720845:FAR720868 FKN720845:FKN720868 FUJ720845:FUJ720868 GEF720845:GEF720868 GOB720845:GOB720868 GXX720845:GXX720868 HHT720845:HHT720868 HRP720845:HRP720868 IBL720845:IBL720868 ILH720845:ILH720868 IVD720845:IVD720868 JEZ720845:JEZ720868 JOV720845:JOV720868 JYR720845:JYR720868 KIN720845:KIN720868 KSJ720845:KSJ720868 LCF720845:LCF720868 LMB720845:LMB720868 LVX720845:LVX720868 MFT720845:MFT720868 MPP720845:MPP720868 MZL720845:MZL720868 NJH720845:NJH720868 NTD720845:NTD720868 OCZ720845:OCZ720868 OMV720845:OMV720868 OWR720845:OWR720868 PGN720845:PGN720868 PQJ720845:PQJ720868 QAF720845:QAF720868 QKB720845:QKB720868 QTX720845:QTX720868 RDT720845:RDT720868 RNP720845:RNP720868 RXL720845:RXL720868 SHH720845:SHH720868 SRD720845:SRD720868 TAZ720845:TAZ720868 TKV720845:TKV720868 TUR720845:TUR720868 UEN720845:UEN720868 UOJ720845:UOJ720868 UYF720845:UYF720868 VIB720845:VIB720868 VRX720845:VRX720868 WBT720845:WBT720868 WLP720845:WLP720868 WVL720845:WVL720868 C786382:C786405 IZ786381:IZ786404 SV786381:SV786404 ACR786381:ACR786404 AMN786381:AMN786404 AWJ786381:AWJ786404 BGF786381:BGF786404 BQB786381:BQB786404 BZX786381:BZX786404 CJT786381:CJT786404 CTP786381:CTP786404 DDL786381:DDL786404 DNH786381:DNH786404 DXD786381:DXD786404 EGZ786381:EGZ786404 EQV786381:EQV786404 FAR786381:FAR786404 FKN786381:FKN786404 FUJ786381:FUJ786404 GEF786381:GEF786404 GOB786381:GOB786404 GXX786381:GXX786404 HHT786381:HHT786404 HRP786381:HRP786404 IBL786381:IBL786404 ILH786381:ILH786404 IVD786381:IVD786404 JEZ786381:JEZ786404 JOV786381:JOV786404 JYR786381:JYR786404 KIN786381:KIN786404 KSJ786381:KSJ786404 LCF786381:LCF786404 LMB786381:LMB786404 LVX786381:LVX786404 MFT786381:MFT786404 MPP786381:MPP786404 MZL786381:MZL786404 NJH786381:NJH786404 NTD786381:NTD786404 OCZ786381:OCZ786404 OMV786381:OMV786404 OWR786381:OWR786404 PGN786381:PGN786404 PQJ786381:PQJ786404 QAF786381:QAF786404 QKB786381:QKB786404 QTX786381:QTX786404 RDT786381:RDT786404 RNP786381:RNP786404 RXL786381:RXL786404 SHH786381:SHH786404 SRD786381:SRD786404 TAZ786381:TAZ786404 TKV786381:TKV786404 TUR786381:TUR786404 UEN786381:UEN786404 UOJ786381:UOJ786404 UYF786381:UYF786404 VIB786381:VIB786404 VRX786381:VRX786404 WBT786381:WBT786404 WLP786381:WLP786404 WVL786381:WVL786404 C851918:C851941 IZ851917:IZ851940 SV851917:SV851940 ACR851917:ACR851940 AMN851917:AMN851940 AWJ851917:AWJ851940 BGF851917:BGF851940 BQB851917:BQB851940 BZX851917:BZX851940 CJT851917:CJT851940 CTP851917:CTP851940 DDL851917:DDL851940 DNH851917:DNH851940 DXD851917:DXD851940 EGZ851917:EGZ851940 EQV851917:EQV851940 FAR851917:FAR851940 FKN851917:FKN851940 FUJ851917:FUJ851940 GEF851917:GEF851940 GOB851917:GOB851940 GXX851917:GXX851940 HHT851917:HHT851940 HRP851917:HRP851940 IBL851917:IBL851940 ILH851917:ILH851940 IVD851917:IVD851940 JEZ851917:JEZ851940 JOV851917:JOV851940 JYR851917:JYR851940 KIN851917:KIN851940 KSJ851917:KSJ851940 LCF851917:LCF851940 LMB851917:LMB851940 LVX851917:LVX851940 MFT851917:MFT851940 MPP851917:MPP851940 MZL851917:MZL851940 NJH851917:NJH851940 NTD851917:NTD851940 OCZ851917:OCZ851940 OMV851917:OMV851940 OWR851917:OWR851940 PGN851917:PGN851940 PQJ851917:PQJ851940 QAF851917:QAF851940 QKB851917:QKB851940 QTX851917:QTX851940 RDT851917:RDT851940 RNP851917:RNP851940 RXL851917:RXL851940 SHH851917:SHH851940 SRD851917:SRD851940 TAZ851917:TAZ851940 TKV851917:TKV851940 TUR851917:TUR851940 UEN851917:UEN851940 UOJ851917:UOJ851940 UYF851917:UYF851940 VIB851917:VIB851940 VRX851917:VRX851940 WBT851917:WBT851940 WLP851917:WLP851940 WVL851917:WVL851940 C917454:C917477 IZ917453:IZ917476 SV917453:SV917476 ACR917453:ACR917476 AMN917453:AMN917476 AWJ917453:AWJ917476 BGF917453:BGF917476 BQB917453:BQB917476 BZX917453:BZX917476 CJT917453:CJT917476 CTP917453:CTP917476 DDL917453:DDL917476 DNH917453:DNH917476 DXD917453:DXD917476 EGZ917453:EGZ917476 EQV917453:EQV917476 FAR917453:FAR917476 FKN917453:FKN917476 FUJ917453:FUJ917476 GEF917453:GEF917476 GOB917453:GOB917476 GXX917453:GXX917476 HHT917453:HHT917476 HRP917453:HRP917476 IBL917453:IBL917476 ILH917453:ILH917476 IVD917453:IVD917476 JEZ917453:JEZ917476 JOV917453:JOV917476 JYR917453:JYR917476 KIN917453:KIN917476 KSJ917453:KSJ917476 LCF917453:LCF917476 LMB917453:LMB917476 LVX917453:LVX917476 MFT917453:MFT917476 MPP917453:MPP917476 MZL917453:MZL917476 NJH917453:NJH917476 NTD917453:NTD917476 OCZ917453:OCZ917476 OMV917453:OMV917476 OWR917453:OWR917476 PGN917453:PGN917476 PQJ917453:PQJ917476 QAF917453:QAF917476 QKB917453:QKB917476 QTX917453:QTX917476 RDT917453:RDT917476 RNP917453:RNP917476 RXL917453:RXL917476 SHH917453:SHH917476 SRD917453:SRD917476 TAZ917453:TAZ917476 TKV917453:TKV917476 TUR917453:TUR917476 UEN917453:UEN917476 UOJ917453:UOJ917476 UYF917453:UYF917476 VIB917453:VIB917476 VRX917453:VRX917476 WBT917453:WBT917476 WLP917453:WLP917476 WVL917453:WVL917476 C982990:C983013 IZ982989:IZ983012 SV982989:SV983012 ACR982989:ACR983012 AMN982989:AMN983012 AWJ982989:AWJ983012 BGF982989:BGF983012 BQB982989:BQB983012 BZX982989:BZX983012 CJT982989:CJT983012 CTP982989:CTP983012 DDL982989:DDL983012 DNH982989:DNH983012 DXD982989:DXD983012 EGZ982989:EGZ983012 EQV982989:EQV983012 FAR982989:FAR983012 FKN982989:FKN983012 FUJ982989:FUJ983012 GEF982989:GEF983012 GOB982989:GOB983012 GXX982989:GXX983012 HHT982989:HHT983012 HRP982989:HRP983012 IBL982989:IBL983012 ILH982989:ILH983012 IVD982989:IVD983012 JEZ982989:JEZ983012 JOV982989:JOV983012 JYR982989:JYR983012 KIN982989:KIN983012 KSJ982989:KSJ983012 LCF982989:LCF983012 LMB982989:LMB983012 LVX982989:LVX983012 MFT982989:MFT983012 MPP982989:MPP983012 MZL982989:MZL983012 NJH982989:NJH983012 NTD982989:NTD983012 OCZ982989:OCZ983012 OMV982989:OMV983012 OWR982989:OWR983012 PGN982989:PGN983012 PQJ982989:PQJ983012 QAF982989:QAF983012 QKB982989:QKB983012 QTX982989:QTX983012 RDT982989:RDT983012 RNP982989:RNP983012 RXL982989:RXL983012 SHH982989:SHH983012 SRD982989:SRD983012 TAZ982989:TAZ983012 TKV982989:TKV983012 TUR982989:TUR983012 UEN982989:UEN983012 UOJ982989:UOJ983012 UYF982989:UYF983012 VIB982989:VIB983012 VRX982989:VRX983012 WBT982989:WBT983012 WLP982989:WLP983012 WVL982989:WVL983012 D13:D16 SL24:SL28 D48:D50 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D124:D125 D90:D93 D6:D8 D55:D56 D62:D63 D69:D70 D76:D77 D116 D109:D110 D41:D44 D34:D35 D83:D84 D119 D21:D22 D98:D104" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65495:C65518 IZ65494:IZ65517 SV65494:SV65517 ACR65494:ACR65517 AMN65494:AMN65517 AWJ65494:AWJ65517 BGF65494:BGF65517 BQB65494:BQB65517 BZX65494:BZX65517 CJT65494:CJT65517 CTP65494:CTP65517 DDL65494:DDL65517 DNH65494:DNH65517 DXD65494:DXD65517 EGZ65494:EGZ65517 EQV65494:EQV65517 FAR65494:FAR65517 FKN65494:FKN65517 FUJ65494:FUJ65517 GEF65494:GEF65517 GOB65494:GOB65517 GXX65494:GXX65517 HHT65494:HHT65517 HRP65494:HRP65517 IBL65494:IBL65517 ILH65494:ILH65517 IVD65494:IVD65517 JEZ65494:JEZ65517 JOV65494:JOV65517 JYR65494:JYR65517 KIN65494:KIN65517 KSJ65494:KSJ65517 LCF65494:LCF65517 LMB65494:LMB65517 LVX65494:LVX65517 MFT65494:MFT65517 MPP65494:MPP65517 MZL65494:MZL65517 NJH65494:NJH65517 NTD65494:NTD65517 OCZ65494:OCZ65517 OMV65494:OMV65517 OWR65494:OWR65517 PGN65494:PGN65517 PQJ65494:PQJ65517 QAF65494:QAF65517 QKB65494:QKB65517 QTX65494:QTX65517 RDT65494:RDT65517 RNP65494:RNP65517 RXL65494:RXL65517 SHH65494:SHH65517 SRD65494:SRD65517 TAZ65494:TAZ65517 TKV65494:TKV65517 TUR65494:TUR65517 UEN65494:UEN65517 UOJ65494:UOJ65517 UYF65494:UYF65517 VIB65494:VIB65517 VRX65494:VRX65517 WBT65494:WBT65517 WLP65494:WLP65517 WVL65494:WVL65517 C131031:C131054 IZ131030:IZ131053 SV131030:SV131053 ACR131030:ACR131053 AMN131030:AMN131053 AWJ131030:AWJ131053 BGF131030:BGF131053 BQB131030:BQB131053 BZX131030:BZX131053 CJT131030:CJT131053 CTP131030:CTP131053 DDL131030:DDL131053 DNH131030:DNH131053 DXD131030:DXD131053 EGZ131030:EGZ131053 EQV131030:EQV131053 FAR131030:FAR131053 FKN131030:FKN131053 FUJ131030:FUJ131053 GEF131030:GEF131053 GOB131030:GOB131053 GXX131030:GXX131053 HHT131030:HHT131053 HRP131030:HRP131053 IBL131030:IBL131053 ILH131030:ILH131053 IVD131030:IVD131053 JEZ131030:JEZ131053 JOV131030:JOV131053 JYR131030:JYR131053 KIN131030:KIN131053 KSJ131030:KSJ131053 LCF131030:LCF131053 LMB131030:LMB131053 LVX131030:LVX131053 MFT131030:MFT131053 MPP131030:MPP131053 MZL131030:MZL131053 NJH131030:NJH131053 NTD131030:NTD131053 OCZ131030:OCZ131053 OMV131030:OMV131053 OWR131030:OWR131053 PGN131030:PGN131053 PQJ131030:PQJ131053 QAF131030:QAF131053 QKB131030:QKB131053 QTX131030:QTX131053 RDT131030:RDT131053 RNP131030:RNP131053 RXL131030:RXL131053 SHH131030:SHH131053 SRD131030:SRD131053 TAZ131030:TAZ131053 TKV131030:TKV131053 TUR131030:TUR131053 UEN131030:UEN131053 UOJ131030:UOJ131053 UYF131030:UYF131053 VIB131030:VIB131053 VRX131030:VRX131053 WBT131030:WBT131053 WLP131030:WLP131053 WVL131030:WVL131053 C196567:C196590 IZ196566:IZ196589 SV196566:SV196589 ACR196566:ACR196589 AMN196566:AMN196589 AWJ196566:AWJ196589 BGF196566:BGF196589 BQB196566:BQB196589 BZX196566:BZX196589 CJT196566:CJT196589 CTP196566:CTP196589 DDL196566:DDL196589 DNH196566:DNH196589 DXD196566:DXD196589 EGZ196566:EGZ196589 EQV196566:EQV196589 FAR196566:FAR196589 FKN196566:FKN196589 FUJ196566:FUJ196589 GEF196566:GEF196589 GOB196566:GOB196589 GXX196566:GXX196589 HHT196566:HHT196589 HRP196566:HRP196589 IBL196566:IBL196589 ILH196566:ILH196589 IVD196566:IVD196589 JEZ196566:JEZ196589 JOV196566:JOV196589 JYR196566:JYR196589 KIN196566:KIN196589 KSJ196566:KSJ196589 LCF196566:LCF196589 LMB196566:LMB196589 LVX196566:LVX196589 MFT196566:MFT196589 MPP196566:MPP196589 MZL196566:MZL196589 NJH196566:NJH196589 NTD196566:NTD196589 OCZ196566:OCZ196589 OMV196566:OMV196589 OWR196566:OWR196589 PGN196566:PGN196589 PQJ196566:PQJ196589 QAF196566:QAF196589 QKB196566:QKB196589 QTX196566:QTX196589 RDT196566:RDT196589 RNP196566:RNP196589 RXL196566:RXL196589 SHH196566:SHH196589 SRD196566:SRD196589 TAZ196566:TAZ196589 TKV196566:TKV196589 TUR196566:TUR196589 UEN196566:UEN196589 UOJ196566:UOJ196589 UYF196566:UYF196589 VIB196566:VIB196589 VRX196566:VRX196589 WBT196566:WBT196589 WLP196566:WLP196589 WVL196566:WVL196589 C262103:C262126 IZ262102:IZ262125 SV262102:SV262125 ACR262102:ACR262125 AMN262102:AMN262125 AWJ262102:AWJ262125 BGF262102:BGF262125 BQB262102:BQB262125 BZX262102:BZX262125 CJT262102:CJT262125 CTP262102:CTP262125 DDL262102:DDL262125 DNH262102:DNH262125 DXD262102:DXD262125 EGZ262102:EGZ262125 EQV262102:EQV262125 FAR262102:FAR262125 FKN262102:FKN262125 FUJ262102:FUJ262125 GEF262102:GEF262125 GOB262102:GOB262125 GXX262102:GXX262125 HHT262102:HHT262125 HRP262102:HRP262125 IBL262102:IBL262125 ILH262102:ILH262125 IVD262102:IVD262125 JEZ262102:JEZ262125 JOV262102:JOV262125 JYR262102:JYR262125 KIN262102:KIN262125 KSJ262102:KSJ262125 LCF262102:LCF262125 LMB262102:LMB262125 LVX262102:LVX262125 MFT262102:MFT262125 MPP262102:MPP262125 MZL262102:MZL262125 NJH262102:NJH262125 NTD262102:NTD262125 OCZ262102:OCZ262125 OMV262102:OMV262125 OWR262102:OWR262125 PGN262102:PGN262125 PQJ262102:PQJ262125 QAF262102:QAF262125 QKB262102:QKB262125 QTX262102:QTX262125 RDT262102:RDT262125 RNP262102:RNP262125 RXL262102:RXL262125 SHH262102:SHH262125 SRD262102:SRD262125 TAZ262102:TAZ262125 TKV262102:TKV262125 TUR262102:TUR262125 UEN262102:UEN262125 UOJ262102:UOJ262125 UYF262102:UYF262125 VIB262102:VIB262125 VRX262102:VRX262125 WBT262102:WBT262125 WLP262102:WLP262125 WVL262102:WVL262125 C327639:C327662 IZ327638:IZ327661 SV327638:SV327661 ACR327638:ACR327661 AMN327638:AMN327661 AWJ327638:AWJ327661 BGF327638:BGF327661 BQB327638:BQB327661 BZX327638:BZX327661 CJT327638:CJT327661 CTP327638:CTP327661 DDL327638:DDL327661 DNH327638:DNH327661 DXD327638:DXD327661 EGZ327638:EGZ327661 EQV327638:EQV327661 FAR327638:FAR327661 FKN327638:FKN327661 FUJ327638:FUJ327661 GEF327638:GEF327661 GOB327638:GOB327661 GXX327638:GXX327661 HHT327638:HHT327661 HRP327638:HRP327661 IBL327638:IBL327661 ILH327638:ILH327661 IVD327638:IVD327661 JEZ327638:JEZ327661 JOV327638:JOV327661 JYR327638:JYR327661 KIN327638:KIN327661 KSJ327638:KSJ327661 LCF327638:LCF327661 LMB327638:LMB327661 LVX327638:LVX327661 MFT327638:MFT327661 MPP327638:MPP327661 MZL327638:MZL327661 NJH327638:NJH327661 NTD327638:NTD327661 OCZ327638:OCZ327661 OMV327638:OMV327661 OWR327638:OWR327661 PGN327638:PGN327661 PQJ327638:PQJ327661 QAF327638:QAF327661 QKB327638:QKB327661 QTX327638:QTX327661 RDT327638:RDT327661 RNP327638:RNP327661 RXL327638:RXL327661 SHH327638:SHH327661 SRD327638:SRD327661 TAZ327638:TAZ327661 TKV327638:TKV327661 TUR327638:TUR327661 UEN327638:UEN327661 UOJ327638:UOJ327661 UYF327638:UYF327661 VIB327638:VIB327661 VRX327638:VRX327661 WBT327638:WBT327661 WLP327638:WLP327661 WVL327638:WVL327661 C393175:C393198 IZ393174:IZ393197 SV393174:SV393197 ACR393174:ACR393197 AMN393174:AMN393197 AWJ393174:AWJ393197 BGF393174:BGF393197 BQB393174:BQB393197 BZX393174:BZX393197 CJT393174:CJT393197 CTP393174:CTP393197 DDL393174:DDL393197 DNH393174:DNH393197 DXD393174:DXD393197 EGZ393174:EGZ393197 EQV393174:EQV393197 FAR393174:FAR393197 FKN393174:FKN393197 FUJ393174:FUJ393197 GEF393174:GEF393197 GOB393174:GOB393197 GXX393174:GXX393197 HHT393174:HHT393197 HRP393174:HRP393197 IBL393174:IBL393197 ILH393174:ILH393197 IVD393174:IVD393197 JEZ393174:JEZ393197 JOV393174:JOV393197 JYR393174:JYR393197 KIN393174:KIN393197 KSJ393174:KSJ393197 LCF393174:LCF393197 LMB393174:LMB393197 LVX393174:LVX393197 MFT393174:MFT393197 MPP393174:MPP393197 MZL393174:MZL393197 NJH393174:NJH393197 NTD393174:NTD393197 OCZ393174:OCZ393197 OMV393174:OMV393197 OWR393174:OWR393197 PGN393174:PGN393197 PQJ393174:PQJ393197 QAF393174:QAF393197 QKB393174:QKB393197 QTX393174:QTX393197 RDT393174:RDT393197 RNP393174:RNP393197 RXL393174:RXL393197 SHH393174:SHH393197 SRD393174:SRD393197 TAZ393174:TAZ393197 TKV393174:TKV393197 TUR393174:TUR393197 UEN393174:UEN393197 UOJ393174:UOJ393197 UYF393174:UYF393197 VIB393174:VIB393197 VRX393174:VRX393197 WBT393174:WBT393197 WLP393174:WLP393197 WVL393174:WVL393197 C458711:C458734 IZ458710:IZ458733 SV458710:SV458733 ACR458710:ACR458733 AMN458710:AMN458733 AWJ458710:AWJ458733 BGF458710:BGF458733 BQB458710:BQB458733 BZX458710:BZX458733 CJT458710:CJT458733 CTP458710:CTP458733 DDL458710:DDL458733 DNH458710:DNH458733 DXD458710:DXD458733 EGZ458710:EGZ458733 EQV458710:EQV458733 FAR458710:FAR458733 FKN458710:FKN458733 FUJ458710:FUJ458733 GEF458710:GEF458733 GOB458710:GOB458733 GXX458710:GXX458733 HHT458710:HHT458733 HRP458710:HRP458733 IBL458710:IBL458733 ILH458710:ILH458733 IVD458710:IVD458733 JEZ458710:JEZ458733 JOV458710:JOV458733 JYR458710:JYR458733 KIN458710:KIN458733 KSJ458710:KSJ458733 LCF458710:LCF458733 LMB458710:LMB458733 LVX458710:LVX458733 MFT458710:MFT458733 MPP458710:MPP458733 MZL458710:MZL458733 NJH458710:NJH458733 NTD458710:NTD458733 OCZ458710:OCZ458733 OMV458710:OMV458733 OWR458710:OWR458733 PGN458710:PGN458733 PQJ458710:PQJ458733 QAF458710:QAF458733 QKB458710:QKB458733 QTX458710:QTX458733 RDT458710:RDT458733 RNP458710:RNP458733 RXL458710:RXL458733 SHH458710:SHH458733 SRD458710:SRD458733 TAZ458710:TAZ458733 TKV458710:TKV458733 TUR458710:TUR458733 UEN458710:UEN458733 UOJ458710:UOJ458733 UYF458710:UYF458733 VIB458710:VIB458733 VRX458710:VRX458733 WBT458710:WBT458733 WLP458710:WLP458733 WVL458710:WVL458733 C524247:C524270 IZ524246:IZ524269 SV524246:SV524269 ACR524246:ACR524269 AMN524246:AMN524269 AWJ524246:AWJ524269 BGF524246:BGF524269 BQB524246:BQB524269 BZX524246:BZX524269 CJT524246:CJT524269 CTP524246:CTP524269 DDL524246:DDL524269 DNH524246:DNH524269 DXD524246:DXD524269 EGZ524246:EGZ524269 EQV524246:EQV524269 FAR524246:FAR524269 FKN524246:FKN524269 FUJ524246:FUJ524269 GEF524246:GEF524269 GOB524246:GOB524269 GXX524246:GXX524269 HHT524246:HHT524269 HRP524246:HRP524269 IBL524246:IBL524269 ILH524246:ILH524269 IVD524246:IVD524269 JEZ524246:JEZ524269 JOV524246:JOV524269 JYR524246:JYR524269 KIN524246:KIN524269 KSJ524246:KSJ524269 LCF524246:LCF524269 LMB524246:LMB524269 LVX524246:LVX524269 MFT524246:MFT524269 MPP524246:MPP524269 MZL524246:MZL524269 NJH524246:NJH524269 NTD524246:NTD524269 OCZ524246:OCZ524269 OMV524246:OMV524269 OWR524246:OWR524269 PGN524246:PGN524269 PQJ524246:PQJ524269 QAF524246:QAF524269 QKB524246:QKB524269 QTX524246:QTX524269 RDT524246:RDT524269 RNP524246:RNP524269 RXL524246:RXL524269 SHH524246:SHH524269 SRD524246:SRD524269 TAZ524246:TAZ524269 TKV524246:TKV524269 TUR524246:TUR524269 UEN524246:UEN524269 UOJ524246:UOJ524269 UYF524246:UYF524269 VIB524246:VIB524269 VRX524246:VRX524269 WBT524246:WBT524269 WLP524246:WLP524269 WVL524246:WVL524269 C589783:C589806 IZ589782:IZ589805 SV589782:SV589805 ACR589782:ACR589805 AMN589782:AMN589805 AWJ589782:AWJ589805 BGF589782:BGF589805 BQB589782:BQB589805 BZX589782:BZX589805 CJT589782:CJT589805 CTP589782:CTP589805 DDL589782:DDL589805 DNH589782:DNH589805 DXD589782:DXD589805 EGZ589782:EGZ589805 EQV589782:EQV589805 FAR589782:FAR589805 FKN589782:FKN589805 FUJ589782:FUJ589805 GEF589782:GEF589805 GOB589782:GOB589805 GXX589782:GXX589805 HHT589782:HHT589805 HRP589782:HRP589805 IBL589782:IBL589805 ILH589782:ILH589805 IVD589782:IVD589805 JEZ589782:JEZ589805 JOV589782:JOV589805 JYR589782:JYR589805 KIN589782:KIN589805 KSJ589782:KSJ589805 LCF589782:LCF589805 LMB589782:LMB589805 LVX589782:LVX589805 MFT589782:MFT589805 MPP589782:MPP589805 MZL589782:MZL589805 NJH589782:NJH589805 NTD589782:NTD589805 OCZ589782:OCZ589805 OMV589782:OMV589805 OWR589782:OWR589805 PGN589782:PGN589805 PQJ589782:PQJ589805 QAF589782:QAF589805 QKB589782:QKB589805 QTX589782:QTX589805 RDT589782:RDT589805 RNP589782:RNP589805 RXL589782:RXL589805 SHH589782:SHH589805 SRD589782:SRD589805 TAZ589782:TAZ589805 TKV589782:TKV589805 TUR589782:TUR589805 UEN589782:UEN589805 UOJ589782:UOJ589805 UYF589782:UYF589805 VIB589782:VIB589805 VRX589782:VRX589805 WBT589782:WBT589805 WLP589782:WLP589805 WVL589782:WVL589805 C655319:C655342 IZ655318:IZ655341 SV655318:SV655341 ACR655318:ACR655341 AMN655318:AMN655341 AWJ655318:AWJ655341 BGF655318:BGF655341 BQB655318:BQB655341 BZX655318:BZX655341 CJT655318:CJT655341 CTP655318:CTP655341 DDL655318:DDL655341 DNH655318:DNH655341 DXD655318:DXD655341 EGZ655318:EGZ655341 EQV655318:EQV655341 FAR655318:FAR655341 FKN655318:FKN655341 FUJ655318:FUJ655341 GEF655318:GEF655341 GOB655318:GOB655341 GXX655318:GXX655341 HHT655318:HHT655341 HRP655318:HRP655341 IBL655318:IBL655341 ILH655318:ILH655341 IVD655318:IVD655341 JEZ655318:JEZ655341 JOV655318:JOV655341 JYR655318:JYR655341 KIN655318:KIN655341 KSJ655318:KSJ655341 LCF655318:LCF655341 LMB655318:LMB655341 LVX655318:LVX655341 MFT655318:MFT655341 MPP655318:MPP655341 MZL655318:MZL655341 NJH655318:NJH655341 NTD655318:NTD655341 OCZ655318:OCZ655341 OMV655318:OMV655341 OWR655318:OWR655341 PGN655318:PGN655341 PQJ655318:PQJ655341 QAF655318:QAF655341 QKB655318:QKB655341 QTX655318:QTX655341 RDT655318:RDT655341 RNP655318:RNP655341 RXL655318:RXL655341 SHH655318:SHH655341 SRD655318:SRD655341 TAZ655318:TAZ655341 TKV655318:TKV655341 TUR655318:TUR655341 UEN655318:UEN655341 UOJ655318:UOJ655341 UYF655318:UYF655341 VIB655318:VIB655341 VRX655318:VRX655341 WBT655318:WBT655341 WLP655318:WLP655341 WVL655318:WVL655341 C720855:C720878 IZ720854:IZ720877 SV720854:SV720877 ACR720854:ACR720877 AMN720854:AMN720877 AWJ720854:AWJ720877 BGF720854:BGF720877 BQB720854:BQB720877 BZX720854:BZX720877 CJT720854:CJT720877 CTP720854:CTP720877 DDL720854:DDL720877 DNH720854:DNH720877 DXD720854:DXD720877 EGZ720854:EGZ720877 EQV720854:EQV720877 FAR720854:FAR720877 FKN720854:FKN720877 FUJ720854:FUJ720877 GEF720854:GEF720877 GOB720854:GOB720877 GXX720854:GXX720877 HHT720854:HHT720877 HRP720854:HRP720877 IBL720854:IBL720877 ILH720854:ILH720877 IVD720854:IVD720877 JEZ720854:JEZ720877 JOV720854:JOV720877 JYR720854:JYR720877 KIN720854:KIN720877 KSJ720854:KSJ720877 LCF720854:LCF720877 LMB720854:LMB720877 LVX720854:LVX720877 MFT720854:MFT720877 MPP720854:MPP720877 MZL720854:MZL720877 NJH720854:NJH720877 NTD720854:NTD720877 OCZ720854:OCZ720877 OMV720854:OMV720877 OWR720854:OWR720877 PGN720854:PGN720877 PQJ720854:PQJ720877 QAF720854:QAF720877 QKB720854:QKB720877 QTX720854:QTX720877 RDT720854:RDT720877 RNP720854:RNP720877 RXL720854:RXL720877 SHH720854:SHH720877 SRD720854:SRD720877 TAZ720854:TAZ720877 TKV720854:TKV720877 TUR720854:TUR720877 UEN720854:UEN720877 UOJ720854:UOJ720877 UYF720854:UYF720877 VIB720854:VIB720877 VRX720854:VRX720877 WBT720854:WBT720877 WLP720854:WLP720877 WVL720854:WVL720877 C786391:C786414 IZ786390:IZ786413 SV786390:SV786413 ACR786390:ACR786413 AMN786390:AMN786413 AWJ786390:AWJ786413 BGF786390:BGF786413 BQB786390:BQB786413 BZX786390:BZX786413 CJT786390:CJT786413 CTP786390:CTP786413 DDL786390:DDL786413 DNH786390:DNH786413 DXD786390:DXD786413 EGZ786390:EGZ786413 EQV786390:EQV786413 FAR786390:FAR786413 FKN786390:FKN786413 FUJ786390:FUJ786413 GEF786390:GEF786413 GOB786390:GOB786413 GXX786390:GXX786413 HHT786390:HHT786413 HRP786390:HRP786413 IBL786390:IBL786413 ILH786390:ILH786413 IVD786390:IVD786413 JEZ786390:JEZ786413 JOV786390:JOV786413 JYR786390:JYR786413 KIN786390:KIN786413 KSJ786390:KSJ786413 LCF786390:LCF786413 LMB786390:LMB786413 LVX786390:LVX786413 MFT786390:MFT786413 MPP786390:MPP786413 MZL786390:MZL786413 NJH786390:NJH786413 NTD786390:NTD786413 OCZ786390:OCZ786413 OMV786390:OMV786413 OWR786390:OWR786413 PGN786390:PGN786413 PQJ786390:PQJ786413 QAF786390:QAF786413 QKB786390:QKB786413 QTX786390:QTX786413 RDT786390:RDT786413 RNP786390:RNP786413 RXL786390:RXL786413 SHH786390:SHH786413 SRD786390:SRD786413 TAZ786390:TAZ786413 TKV786390:TKV786413 TUR786390:TUR786413 UEN786390:UEN786413 UOJ786390:UOJ786413 UYF786390:UYF786413 VIB786390:VIB786413 VRX786390:VRX786413 WBT786390:WBT786413 WLP786390:WLP786413 WVL786390:WVL786413 C851927:C851950 IZ851926:IZ851949 SV851926:SV851949 ACR851926:ACR851949 AMN851926:AMN851949 AWJ851926:AWJ851949 BGF851926:BGF851949 BQB851926:BQB851949 BZX851926:BZX851949 CJT851926:CJT851949 CTP851926:CTP851949 DDL851926:DDL851949 DNH851926:DNH851949 DXD851926:DXD851949 EGZ851926:EGZ851949 EQV851926:EQV851949 FAR851926:FAR851949 FKN851926:FKN851949 FUJ851926:FUJ851949 GEF851926:GEF851949 GOB851926:GOB851949 GXX851926:GXX851949 HHT851926:HHT851949 HRP851926:HRP851949 IBL851926:IBL851949 ILH851926:ILH851949 IVD851926:IVD851949 JEZ851926:JEZ851949 JOV851926:JOV851949 JYR851926:JYR851949 KIN851926:KIN851949 KSJ851926:KSJ851949 LCF851926:LCF851949 LMB851926:LMB851949 LVX851926:LVX851949 MFT851926:MFT851949 MPP851926:MPP851949 MZL851926:MZL851949 NJH851926:NJH851949 NTD851926:NTD851949 OCZ851926:OCZ851949 OMV851926:OMV851949 OWR851926:OWR851949 PGN851926:PGN851949 PQJ851926:PQJ851949 QAF851926:QAF851949 QKB851926:QKB851949 QTX851926:QTX851949 RDT851926:RDT851949 RNP851926:RNP851949 RXL851926:RXL851949 SHH851926:SHH851949 SRD851926:SRD851949 TAZ851926:TAZ851949 TKV851926:TKV851949 TUR851926:TUR851949 UEN851926:UEN851949 UOJ851926:UOJ851949 UYF851926:UYF851949 VIB851926:VIB851949 VRX851926:VRX851949 WBT851926:WBT851949 WLP851926:WLP851949 WVL851926:WVL851949 C917463:C917486 IZ917462:IZ917485 SV917462:SV917485 ACR917462:ACR917485 AMN917462:AMN917485 AWJ917462:AWJ917485 BGF917462:BGF917485 BQB917462:BQB917485 BZX917462:BZX917485 CJT917462:CJT917485 CTP917462:CTP917485 DDL917462:DDL917485 DNH917462:DNH917485 DXD917462:DXD917485 EGZ917462:EGZ917485 EQV917462:EQV917485 FAR917462:FAR917485 FKN917462:FKN917485 FUJ917462:FUJ917485 GEF917462:GEF917485 GOB917462:GOB917485 GXX917462:GXX917485 HHT917462:HHT917485 HRP917462:HRP917485 IBL917462:IBL917485 ILH917462:ILH917485 IVD917462:IVD917485 JEZ917462:JEZ917485 JOV917462:JOV917485 JYR917462:JYR917485 KIN917462:KIN917485 KSJ917462:KSJ917485 LCF917462:LCF917485 LMB917462:LMB917485 LVX917462:LVX917485 MFT917462:MFT917485 MPP917462:MPP917485 MZL917462:MZL917485 NJH917462:NJH917485 NTD917462:NTD917485 OCZ917462:OCZ917485 OMV917462:OMV917485 OWR917462:OWR917485 PGN917462:PGN917485 PQJ917462:PQJ917485 QAF917462:QAF917485 QKB917462:QKB917485 QTX917462:QTX917485 RDT917462:RDT917485 RNP917462:RNP917485 RXL917462:RXL917485 SHH917462:SHH917485 SRD917462:SRD917485 TAZ917462:TAZ917485 TKV917462:TKV917485 TUR917462:TUR917485 UEN917462:UEN917485 UOJ917462:UOJ917485 UYF917462:UYF917485 VIB917462:VIB917485 VRX917462:VRX917485 WBT917462:WBT917485 WLP917462:WLP917485 WVL917462:WVL917485 C982999:C983022 IZ982998:IZ983021 SV982998:SV983021 ACR982998:ACR983021 AMN982998:AMN983021 AWJ982998:AWJ983021 BGF982998:BGF983021 BQB982998:BQB983021 BZX982998:BZX983021 CJT982998:CJT983021 CTP982998:CTP983021 DDL982998:DDL983021 DNH982998:DNH983021 DXD982998:DXD983021 EGZ982998:EGZ983021 EQV982998:EQV983021 FAR982998:FAR983021 FKN982998:FKN983021 FUJ982998:FUJ983021 GEF982998:GEF983021 GOB982998:GOB983021 GXX982998:GXX983021 HHT982998:HHT983021 HRP982998:HRP983021 IBL982998:IBL983021 ILH982998:ILH983021 IVD982998:IVD983021 JEZ982998:JEZ983021 JOV982998:JOV983021 JYR982998:JYR983021 KIN982998:KIN983021 KSJ982998:KSJ983021 LCF982998:LCF983021 LMB982998:LMB983021 LVX982998:LVX983021 MFT982998:MFT983021 MPP982998:MPP983021 MZL982998:MZL983021 NJH982998:NJH983021 NTD982998:NTD983021 OCZ982998:OCZ983021 OMV982998:OMV983021 OWR982998:OWR983021 PGN982998:PGN983021 PQJ982998:PQJ983021 QAF982998:QAF983021 QKB982998:QKB983021 QTX982998:QTX983021 RDT982998:RDT983021 RNP982998:RNP983021 RXL982998:RXL983021 SHH982998:SHH983021 SRD982998:SRD983021 TAZ982998:TAZ983021 TKV982998:TKV983021 TUR982998:TUR983021 UEN982998:UEN983021 UOJ982998:UOJ983021 UYF982998:UYF983021 VIB982998:VIB983021 VRX982998:VRX983021 WBT982998:WBT983021 WLP982998:WLP983021 WVL982998:WVL983021 D13:D16 SL24:SL28 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D133:D134 D99:D102 D6:D9 D54:D55 D63:D64 D72:D73 D81:D82 D125 D118:D119 D41:D42 D34:D35 D90:D91 D128 D21:D22 D107:D113 D47:D50" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -4227,22 +4502,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4259,21 +4536,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC5C3E-65C9-4D5A-B1BC-772C5DEE2BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E0B85-8D79-4333-8AEB-936D1E42BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="1275" windowWidth="8565" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3345" yWindow="3030" windowWidth="8565" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="171">
   <si>
     <t>Database Name</t>
   </si>
@@ -114,9 +114,6 @@
     <t>SettlementID</t>
   </si>
   <si>
-    <t>varchar(4)</t>
-  </si>
-  <si>
     <t>Check it starts with S and is integer</t>
   </si>
   <si>
@@ -544,6 +541,12 @@
   </si>
   <si>
     <t>varchar(6)</t>
+  </si>
+  <si>
+    <t>AmountOfMoney</t>
+  </si>
+  <si>
+    <t>Amount of money person hold</t>
   </si>
 </sst>
 </file>
@@ -1274,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1816,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44543.78637199074</v>
+        <v>44543.804939467591</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1889,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63"/>
       <c r="J6" s="63" t="s">
@@ -1899,10 +1902,10 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="63"/>
       <c r="B7" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>18</v>
@@ -1923,23 +1926,23 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="64" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="63" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1949,10 +1952,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="83" t="s">
         <v>153</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>154</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>18</v>
@@ -1976,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="77"/>
       <c r="D11" s="77"/>
@@ -2024,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -2033,14 +2036,14 @@
         <v>15</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="73"/>
       <c r="G13" s="71" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71" t="s">
@@ -2050,10 +2053,10 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>17</v>
@@ -2074,10 +2077,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>17</v>
@@ -2098,13 +2101,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C16" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="71" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="72"/>
@@ -2117,98 +2120,94 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="82"/>
+      <c r="B17" s="82" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="B20" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="11" t="s">
         <v>19</v>
       </c>
@@ -2218,103 +2217,105 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-    </row>
-    <row r="26" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="B26" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="92"/>
+    </row>
+    <row r="27" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B27" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C27" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D27" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="44" t="s">
+      <c r="E27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F27" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="44" t="s">
+      <c r="G27" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="44" t="s">
+      <c r="H27" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I27" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="J27" s="44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B28" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="45" t="s">
+      <c r="F28" s="47"/>
+      <c r="G28" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="45" t="s">
+        <v>46</v>
+      </c>
       <c r="I28" s="45"/>
       <c r="J28" s="45" t="s">
         <v>16</v>
@@ -2323,129 +2324,127 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="46"/>
+        <v>17</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="F29" s="46"/>
       <c r="G29" s="45" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="82" t="s">
+      <c r="J29" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-    </row>
-    <row r="33" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="B33" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="82" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="F35" s="13"/>
       <c r="G35" s="11" t="s">
         <v>19</v>
       </c>
@@ -2456,17 +2455,21 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="A36" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="B36" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D36" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="12"/>
+        <v>15</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="F36" s="12"/>
       <c r="G36" s="11" t="s">
         <v>19</v>
@@ -2477,197 +2480,193 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="B40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J41" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B42" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="D42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="82"/>
+      <c r="B43" s="82" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I41" s="11"/>
-      <c r="J41" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82" t="s">
+      <c r="C43" s="83" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="82" t="s">
+      <c r="D43" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-    </row>
-    <row r="46" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B46" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J47" s="9" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="82" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="F48" s="13"/>
       <c r="G48" s="11" t="s">
         <v>19</v>
       </c>
@@ -2678,190 +2677,194 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82" t="s">
+      <c r="A49" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="12"/>
+      <c r="G49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="82"/>
+      <c r="B50" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="83" t="s">
+      <c r="D50" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="82" t="s">
+      <c r="E50" s="83"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-    </row>
-    <row r="53" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J54" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="11" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B55" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="D55" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>157</v>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="57" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D58" s="82" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E58" s="57"/>
       <c r="F58" s="57"/>
@@ -2874,168 +2877,168 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="17"/>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="82" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="17"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21"/>
-    </row>
-    <row r="62" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="B62" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E63" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F63" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J62" s="9" t="s">
+      <c r="J63" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B64" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="12"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D65" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
+      <c r="A65" s="11"/>
+      <c r="B65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
       <c r="J65" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>159</v>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="57" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C67" s="57" t="s">
         <v>158</v>
       </c>
       <c r="D67" s="82" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E67" s="57"/>
       <c r="F67" s="57"/>
@@ -3049,18 +3052,28 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="17"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="57"/>
+      <c r="B68" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -3073,155 +3086,145 @@
       <c r="J69" s="17"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
-    </row>
-    <row r="71" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="B71" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E72" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J71" s="9" t="s">
+      <c r="J72" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B73" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="D73" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="11"/>
       <c r="I73" s="11"/>
       <c r="J73" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="82" t="s">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="57" t="s">
-        <v>161</v>
-      </c>
       <c r="D75" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E75" s="57"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H75" s="57"/>
-      <c r="I75" s="57"/>
-      <c r="J75" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="57" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D76" s="82" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E76" s="57"/>
       <c r="F76" s="57"/>
@@ -3234,157 +3237,157 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="14" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
+      <c r="B77" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" s="57"/>
+      <c r="F77" s="57"/>
+      <c r="G77" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="57"/>
+      <c r="I77" s="57"/>
+      <c r="J77" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
-    </row>
-    <row r="80" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="B80" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D81" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E81" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J81" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="52" t="s">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B82" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="D82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="12"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="11"/>
       <c r="I82" s="11"/>
       <c r="J82" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D83" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
+      <c r="A83" s="11"/>
+      <c r="B83" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
       <c r="J83" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
-      <c r="B84" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C84" s="57" t="s">
-        <v>160</v>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H84" s="57"/>
-      <c r="I84" s="57"/>
-      <c r="J84" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="57" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D85" s="82" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E85" s="57"/>
       <c r="F85" s="57"/>
@@ -3397,157 +3400,157 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="57"/>
+      <c r="B86" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="57"/>
+      <c r="I86" s="57"/>
+      <c r="J86" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="89" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B89" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J89" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" s="94" t="s">
+      <c r="C91" s="83" t="s">
         <v>163</v>
       </c>
-      <c r="C90" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E90" s="12"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="11" t="s">
+      <c r="D91" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H91" s="11"/>
+      <c r="H91" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D92" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
       <c r="J92" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
-      <c r="B93" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93" s="57" t="s">
-        <v>167</v>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>165</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="57"/>
-      <c r="I93" s="57"/>
-      <c r="J93" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="57" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E94" s="57"/>
       <c r="F94" s="57"/>
@@ -3560,125 +3563,125 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55" t="s">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="57"/>
+      <c r="B95" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B97" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="59"/>
-      <c r="D97" s="59"/>
-      <c r="E97" s="59"/>
-      <c r="F97" s="59"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="59"/>
-      <c r="I97" s="59"/>
-      <c r="J97" s="60"/>
-    </row>
-    <row r="98" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="56" t="s">
+      <c r="B98" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="59"/>
+      <c r="D98" s="59"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="60"/>
+    </row>
+    <row r="99" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B98" s="50" t="s">
+      <c r="B99" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C98" s="51" t="s">
+      <c r="C99" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="51" t="s">
+      <c r="D99" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E98" s="51" t="s">
+      <c r="E99" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="51" t="s">
+      <c r="F99" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="51" t="s">
+      <c r="G99" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="H98" s="51" t="s">
+      <c r="H99" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="I98" s="51" t="s">
+      <c r="I99" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="J98" s="51" t="s">
+      <c r="J99" s="51" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="D99" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="F99" s="54"/>
-      <c r="G99" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I99" s="52"/>
-      <c r="J99" s="52" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="52" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C100" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D100" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E100" s="53"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="54"/>
       <c r="G100" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="H100" s="52"/>
+        <v>20</v>
+      </c>
+      <c r="H100" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="I100" s="52"/>
       <c r="J100" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
-      <c r="B101" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C101" s="57" t="s">
-        <v>114</v>
+      <c r="A101" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
+        <v>15</v>
+      </c>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
       <c r="J101" s="52" t="s">
         <v>16</v>
       </c>
@@ -3686,13 +3689,13 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="57"/>
       <c r="B102" s="57" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C102" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D102" s="52" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="E102" s="57"/>
       <c r="F102" s="57"/>
@@ -3705,101 +3708,99 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="14" t="s">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="57"/>
+      <c r="B103" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D103" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="21"/>
-    </row>
-    <row r="106" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
+      <c r="B106" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
+    </row>
+    <row r="107" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B107" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C107" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D107" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E107" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="F107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G107" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H107" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J106" s="9" t="s">
+      <c r="J107" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B107" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D107" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="B108" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="C108" s="83" t="s">
-        <v>146</v>
+      <c r="A108" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="D108" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="82"/>
-      <c r="I108" s="82"/>
-      <c r="J108" s="82" t="s">
-        <v>144</v>
+      <c r="E108" s="12"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -3807,10 +3808,10 @@
         <v>21</v>
       </c>
       <c r="B109" s="82" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C109" s="83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>15</v>
@@ -3823,7 +3824,7 @@
       <c r="H109" s="82"/>
       <c r="I109" s="82"/>
       <c r="J109" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3831,10 +3832,10 @@
         <v>21</v>
       </c>
       <c r="B110" s="82" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C110" s="83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D110" s="82" t="s">
         <v>15</v>
@@ -3847,7 +3848,7 @@
       <c r="H110" s="82"/>
       <c r="I110" s="82"/>
       <c r="J110" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3855,10 +3856,10 @@
         <v>21</v>
       </c>
       <c r="B111" s="82" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C111" s="83" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D111" s="82" t="s">
         <v>15</v>
@@ -3871,270 +3872,272 @@
       <c r="H111" s="82"/>
       <c r="I111" s="82"/>
       <c r="J111" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C112" s="83" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="D112" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H112" s="82"/>
+      <c r="I112" s="82"/>
+      <c r="J112" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B112" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C112" s="12" t="s">
+      <c r="B113" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D112" s="11" t="s">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="41"/>
+      <c r="D117" s="41"/>
+      <c r="E117" s="41"/>
+      <c r="F117" s="41"/>
+      <c r="G117" s="41"/>
+      <c r="H117" s="41"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="42"/>
+    </row>
+    <row r="118" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B118" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H118" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I118" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B119" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
-      <c r="J112" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="42"/>
-    </row>
-    <row r="117" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I117" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J117" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B118" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C118" s="35" t="s">
+      <c r="E119" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D118" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E118" s="35" t="s">
+      <c r="F119" s="36"/>
+      <c r="G119" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H119" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F118" s="36"/>
-      <c r="G118" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="I118" s="34"/>
-      <c r="J118" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H119" s="34"/>
       <c r="I119" s="34"/>
       <c r="J119" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39" t="s">
+      <c r="A120" s="34"/>
+      <c r="B120" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D120" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="35"/>
+      <c r="F120" s="35"/>
+      <c r="G120" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H120" s="34"/>
+      <c r="I120" s="34"/>
+      <c r="J120" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C121" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="C120" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="J120" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="27" t="s">
+      <c r="D121" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B124" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="31"/>
+    </row>
+    <row r="125" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C123" s="30"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
-      <c r="F123" s="30"/>
-      <c r="G123" s="30"/>
-      <c r="H123" s="30"/>
-      <c r="I123" s="30"/>
-      <c r="J123" s="31"/>
-    </row>
-    <row r="124" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F124" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I124" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J124" s="23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C125" s="25" t="s">
+      <c r="D126" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D125" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="25" t="s">
+      <c r="F126" s="26"/>
+      <c r="G126" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H126" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="F125" s="26"/>
-      <c r="G125" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H125" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="24"/>
       <c r="I126" s="24"/>
       <c r="J126" s="24" t="s">
         <v>16</v>
@@ -4143,13 +4146,13 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E127" s="25"/>
       <c r="F127" s="25"/>
@@ -4163,112 +4166,110 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="24" t="s">
-        <v>13</v>
-      </c>
+      <c r="A128" s="24"/>
       <c r="B128" s="24" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D128" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F128" s="26"/>
+        <v>101</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
       <c r="G128" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H128" s="24" t="s">
-        <v>76</v>
-      </c>
+      <c r="H128" s="24"/>
       <c r="I128" s="24"/>
       <c r="J128" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="85" t="s">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" s="26"/>
+      <c r="G129" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H129" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="C131" s="88"/>
-      <c r="D131" s="88"/>
-      <c r="E131" s="88"/>
-      <c r="F131" s="88"/>
-      <c r="G131" s="88"/>
-      <c r="H131" s="88"/>
-      <c r="I131" s="88"/>
-      <c r="J131" s="89"/>
-    </row>
-    <row r="132" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="86" t="s">
+      <c r="B132" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="88"/>
+      <c r="D132" s="88"/>
+      <c r="E132" s="88"/>
+      <c r="F132" s="88"/>
+      <c r="G132" s="88"/>
+      <c r="H132" s="88"/>
+      <c r="I132" s="88"/>
+      <c r="J132" s="89"/>
+    </row>
+    <row r="133" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B132" s="80" t="s">
+      <c r="B133" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C132" s="81" t="s">
+      <c r="C133" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="81" t="s">
+      <c r="D133" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="81" t="s">
+      <c r="E133" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F132" s="81" t="s">
+      <c r="F133" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G132" s="81" t="s">
+      <c r="G133" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H132" s="81" t="s">
+      <c r="H133" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I132" s="81" t="s">
+      <c r="I133" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="J132" s="81" t="s">
+      <c r="J133" s="81" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="B133" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" s="83" t="s">
-        <v>106</v>
-      </c>
-      <c r="D133" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" s="82"/>
-      <c r="I133" s="82"/>
-      <c r="J133" s="82" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B134" s="82" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="C134" s="83" t="s">
         <v>105</v>
@@ -4277,7 +4278,7 @@
         <v>15</v>
       </c>
       <c r="E134" s="83"/>
-      <c r="F134" s="84"/>
+      <c r="F134" s="83"/>
       <c r="G134" s="82" t="s">
         <v>19</v>
       </c>
@@ -4287,16 +4288,40 @@
         <v>16</v>
       </c>
     </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" s="83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D135" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="83"/>
+      <c r="F135" s="84"/>
+      <c r="G135" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" s="82"/>
+      <c r="I135" s="82"/>
+      <c r="J135" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65503:F65518 WVO983006:WVP983021 WLS983006:WLT983021 WBW983006:WBX983021 VSA983006:VSB983021 VIE983006:VIF983021 UYI983006:UYJ983021 UOM983006:UON983021 UEQ983006:UER983021 TUU983006:TUV983021 TKY983006:TKZ983021 TBC983006:TBD983021 SRG983006:SRH983021 SHK983006:SHL983021 RXO983006:RXP983021 RNS983006:RNT983021 RDW983006:RDX983021 QUA983006:QUB983021 QKE983006:QKF983021 QAI983006:QAJ983021 PQM983006:PQN983021 PGQ983006:PGR983021 OWU983006:OWV983021 OMY983006:OMZ983021 ODC983006:ODD983021 NTG983006:NTH983021 NJK983006:NJL983021 MZO983006:MZP983021 MPS983006:MPT983021 MFW983006:MFX983021 LWA983006:LWB983021 LME983006:LMF983021 LCI983006:LCJ983021 KSM983006:KSN983021 KIQ983006:KIR983021 JYU983006:JYV983021 JOY983006:JOZ983021 JFC983006:JFD983021 IVG983006:IVH983021 ILK983006:ILL983021 IBO983006:IBP983021 HRS983006:HRT983021 HHW983006:HHX983021 GYA983006:GYB983021 GOE983006:GOF983021 GEI983006:GEJ983021 FUM983006:FUN983021 FKQ983006:FKR983021 FAU983006:FAV983021 EQY983006:EQZ983021 EHC983006:EHD983021 DXG983006:DXH983021 DNK983006:DNL983021 DDO983006:DDP983021 CTS983006:CTT983021 CJW983006:CJX983021 CAA983006:CAB983021 BQE983006:BQF983021 BGI983006:BGJ983021 AWM983006:AWN983021 AMQ983006:AMR983021 ACU983006:ACV983021 SY983006:SZ983021 JC983006:JD983021 F983007:F983022 WVO917470:WVP917485 WLS917470:WLT917485 WBW917470:WBX917485 VSA917470:VSB917485 VIE917470:VIF917485 UYI917470:UYJ917485 UOM917470:UON917485 UEQ917470:UER917485 TUU917470:TUV917485 TKY917470:TKZ917485 TBC917470:TBD917485 SRG917470:SRH917485 SHK917470:SHL917485 RXO917470:RXP917485 RNS917470:RNT917485 RDW917470:RDX917485 QUA917470:QUB917485 QKE917470:QKF917485 QAI917470:QAJ917485 PQM917470:PQN917485 PGQ917470:PGR917485 OWU917470:OWV917485 OMY917470:OMZ917485 ODC917470:ODD917485 NTG917470:NTH917485 NJK917470:NJL917485 MZO917470:MZP917485 MPS917470:MPT917485 MFW917470:MFX917485 LWA917470:LWB917485 LME917470:LMF917485 LCI917470:LCJ917485 KSM917470:KSN917485 KIQ917470:KIR917485 JYU917470:JYV917485 JOY917470:JOZ917485 JFC917470:JFD917485 IVG917470:IVH917485 ILK917470:ILL917485 IBO917470:IBP917485 HRS917470:HRT917485 HHW917470:HHX917485 GYA917470:GYB917485 GOE917470:GOF917485 GEI917470:GEJ917485 FUM917470:FUN917485 FKQ917470:FKR917485 FAU917470:FAV917485 EQY917470:EQZ917485 EHC917470:EHD917485 DXG917470:DXH917485 DNK917470:DNL917485 DDO917470:DDP917485 CTS917470:CTT917485 CJW917470:CJX917485 CAA917470:CAB917485 BQE917470:BQF917485 BGI917470:BGJ917485 AWM917470:AWN917485 AMQ917470:AMR917485 ACU917470:ACV917485 SY917470:SZ917485 JC917470:JD917485 F917471:F917486 WVO851934:WVP851949 WLS851934:WLT851949 WBW851934:WBX851949 VSA851934:VSB851949 VIE851934:VIF851949 UYI851934:UYJ851949 UOM851934:UON851949 UEQ851934:UER851949 TUU851934:TUV851949 TKY851934:TKZ851949 TBC851934:TBD851949 SRG851934:SRH851949 SHK851934:SHL851949 RXO851934:RXP851949 RNS851934:RNT851949 RDW851934:RDX851949 QUA851934:QUB851949 QKE851934:QKF851949 QAI851934:QAJ851949 PQM851934:PQN851949 PGQ851934:PGR851949 OWU851934:OWV851949 OMY851934:OMZ851949 ODC851934:ODD851949 NTG851934:NTH851949 NJK851934:NJL851949 MZO851934:MZP851949 MPS851934:MPT851949 MFW851934:MFX851949 LWA851934:LWB851949 LME851934:LMF851949 LCI851934:LCJ851949 KSM851934:KSN851949 KIQ851934:KIR851949 JYU851934:JYV851949 JOY851934:JOZ851949 JFC851934:JFD851949 IVG851934:IVH851949 ILK851934:ILL851949 IBO851934:IBP851949 HRS851934:HRT851949 HHW851934:HHX851949 GYA851934:GYB851949 GOE851934:GOF851949 GEI851934:GEJ851949 FUM851934:FUN851949 FKQ851934:FKR851949 FAU851934:FAV851949 EQY851934:EQZ851949 EHC851934:EHD851949 DXG851934:DXH851949 DNK851934:DNL851949 DDO851934:DDP851949 CTS851934:CTT851949 CJW851934:CJX851949 CAA851934:CAB851949 BQE851934:BQF851949 BGI851934:BGJ851949 AWM851934:AWN851949 AMQ851934:AMR851949 ACU851934:ACV851949 SY851934:SZ851949 JC851934:JD851949 F851935:F851950 WVO786398:WVP786413 WLS786398:WLT786413 WBW786398:WBX786413 VSA786398:VSB786413 VIE786398:VIF786413 UYI786398:UYJ786413 UOM786398:UON786413 UEQ786398:UER786413 TUU786398:TUV786413 TKY786398:TKZ786413 TBC786398:TBD786413 SRG786398:SRH786413 SHK786398:SHL786413 RXO786398:RXP786413 RNS786398:RNT786413 RDW786398:RDX786413 QUA786398:QUB786413 QKE786398:QKF786413 QAI786398:QAJ786413 PQM786398:PQN786413 PGQ786398:PGR786413 OWU786398:OWV786413 OMY786398:OMZ786413 ODC786398:ODD786413 NTG786398:NTH786413 NJK786398:NJL786413 MZO786398:MZP786413 MPS786398:MPT786413 MFW786398:MFX786413 LWA786398:LWB786413 LME786398:LMF786413 LCI786398:LCJ786413 KSM786398:KSN786413 KIQ786398:KIR786413 JYU786398:JYV786413 JOY786398:JOZ786413 JFC786398:JFD786413 IVG786398:IVH786413 ILK786398:ILL786413 IBO786398:IBP786413 HRS786398:HRT786413 HHW786398:HHX786413 GYA786398:GYB786413 GOE786398:GOF786413 GEI786398:GEJ786413 FUM786398:FUN786413 FKQ786398:FKR786413 FAU786398:FAV786413 EQY786398:EQZ786413 EHC786398:EHD786413 DXG786398:DXH786413 DNK786398:DNL786413 DDO786398:DDP786413 CTS786398:CTT786413 CJW786398:CJX786413 CAA786398:CAB786413 BQE786398:BQF786413 BGI786398:BGJ786413 AWM786398:AWN786413 AMQ786398:AMR786413 ACU786398:ACV786413 SY786398:SZ786413 JC786398:JD786413 F786399:F786414 WVO720862:WVP720877 WLS720862:WLT720877 WBW720862:WBX720877 VSA720862:VSB720877 VIE720862:VIF720877 UYI720862:UYJ720877 UOM720862:UON720877 UEQ720862:UER720877 TUU720862:TUV720877 TKY720862:TKZ720877 TBC720862:TBD720877 SRG720862:SRH720877 SHK720862:SHL720877 RXO720862:RXP720877 RNS720862:RNT720877 RDW720862:RDX720877 QUA720862:QUB720877 QKE720862:QKF720877 QAI720862:QAJ720877 PQM720862:PQN720877 PGQ720862:PGR720877 OWU720862:OWV720877 OMY720862:OMZ720877 ODC720862:ODD720877 NTG720862:NTH720877 NJK720862:NJL720877 MZO720862:MZP720877 MPS720862:MPT720877 MFW720862:MFX720877 LWA720862:LWB720877 LME720862:LMF720877 LCI720862:LCJ720877 KSM720862:KSN720877 KIQ720862:KIR720877 JYU720862:JYV720877 JOY720862:JOZ720877 JFC720862:JFD720877 IVG720862:IVH720877 ILK720862:ILL720877 IBO720862:IBP720877 HRS720862:HRT720877 HHW720862:HHX720877 GYA720862:GYB720877 GOE720862:GOF720877 GEI720862:GEJ720877 FUM720862:FUN720877 FKQ720862:FKR720877 FAU720862:FAV720877 EQY720862:EQZ720877 EHC720862:EHD720877 DXG720862:DXH720877 DNK720862:DNL720877 DDO720862:DDP720877 CTS720862:CTT720877 CJW720862:CJX720877 CAA720862:CAB720877 BQE720862:BQF720877 BGI720862:BGJ720877 AWM720862:AWN720877 AMQ720862:AMR720877 ACU720862:ACV720877 SY720862:SZ720877 JC720862:JD720877 F720863:F720878 WVO655326:WVP655341 WLS655326:WLT655341 WBW655326:WBX655341 VSA655326:VSB655341 VIE655326:VIF655341 UYI655326:UYJ655341 UOM655326:UON655341 UEQ655326:UER655341 TUU655326:TUV655341 TKY655326:TKZ655341 TBC655326:TBD655341 SRG655326:SRH655341 SHK655326:SHL655341 RXO655326:RXP655341 RNS655326:RNT655341 RDW655326:RDX655341 QUA655326:QUB655341 QKE655326:QKF655341 QAI655326:QAJ655341 PQM655326:PQN655341 PGQ655326:PGR655341 OWU655326:OWV655341 OMY655326:OMZ655341 ODC655326:ODD655341 NTG655326:NTH655341 NJK655326:NJL655341 MZO655326:MZP655341 MPS655326:MPT655341 MFW655326:MFX655341 LWA655326:LWB655341 LME655326:LMF655341 LCI655326:LCJ655341 KSM655326:KSN655341 KIQ655326:KIR655341 JYU655326:JYV655341 JOY655326:JOZ655341 JFC655326:JFD655341 IVG655326:IVH655341 ILK655326:ILL655341 IBO655326:IBP655341 HRS655326:HRT655341 HHW655326:HHX655341 GYA655326:GYB655341 GOE655326:GOF655341 GEI655326:GEJ655341 FUM655326:FUN655341 FKQ655326:FKR655341 FAU655326:FAV655341 EQY655326:EQZ655341 EHC655326:EHD655341 DXG655326:DXH655341 DNK655326:DNL655341 DDO655326:DDP655341 CTS655326:CTT655341 CJW655326:CJX655341 CAA655326:CAB655341 BQE655326:BQF655341 BGI655326:BGJ655341 AWM655326:AWN655341 AMQ655326:AMR655341 ACU655326:ACV655341 SY655326:SZ655341 JC655326:JD655341 F655327:F655342 WVO589790:WVP589805 WLS589790:WLT589805 WBW589790:WBX589805 VSA589790:VSB589805 VIE589790:VIF589805 UYI589790:UYJ589805 UOM589790:UON589805 UEQ589790:UER589805 TUU589790:TUV589805 TKY589790:TKZ589805 TBC589790:TBD589805 SRG589790:SRH589805 SHK589790:SHL589805 RXO589790:RXP589805 RNS589790:RNT589805 RDW589790:RDX589805 QUA589790:QUB589805 QKE589790:QKF589805 QAI589790:QAJ589805 PQM589790:PQN589805 PGQ589790:PGR589805 OWU589790:OWV589805 OMY589790:OMZ589805 ODC589790:ODD589805 NTG589790:NTH589805 NJK589790:NJL589805 MZO589790:MZP589805 MPS589790:MPT589805 MFW589790:MFX589805 LWA589790:LWB589805 LME589790:LMF589805 LCI589790:LCJ589805 KSM589790:KSN589805 KIQ589790:KIR589805 JYU589790:JYV589805 JOY589790:JOZ589805 JFC589790:JFD589805 IVG589790:IVH589805 ILK589790:ILL589805 IBO589790:IBP589805 HRS589790:HRT589805 HHW589790:HHX589805 GYA589790:GYB589805 GOE589790:GOF589805 GEI589790:GEJ589805 FUM589790:FUN589805 FKQ589790:FKR589805 FAU589790:FAV589805 EQY589790:EQZ589805 EHC589790:EHD589805 DXG589790:DXH589805 DNK589790:DNL589805 DDO589790:DDP589805 CTS589790:CTT589805 CJW589790:CJX589805 CAA589790:CAB589805 BQE589790:BQF589805 BGI589790:BGJ589805 AWM589790:AWN589805 AMQ589790:AMR589805 ACU589790:ACV589805 SY589790:SZ589805 JC589790:JD589805 F589791:F589806 WVO524254:WVP524269 WLS524254:WLT524269 WBW524254:WBX524269 VSA524254:VSB524269 VIE524254:VIF524269 UYI524254:UYJ524269 UOM524254:UON524269 UEQ524254:UER524269 TUU524254:TUV524269 TKY524254:TKZ524269 TBC524254:TBD524269 SRG524254:SRH524269 SHK524254:SHL524269 RXO524254:RXP524269 RNS524254:RNT524269 RDW524254:RDX524269 QUA524254:QUB524269 QKE524254:QKF524269 QAI524254:QAJ524269 PQM524254:PQN524269 PGQ524254:PGR524269 OWU524254:OWV524269 OMY524254:OMZ524269 ODC524254:ODD524269 NTG524254:NTH524269 NJK524254:NJL524269 MZO524254:MZP524269 MPS524254:MPT524269 MFW524254:MFX524269 LWA524254:LWB524269 LME524254:LMF524269 LCI524254:LCJ524269 KSM524254:KSN524269 KIQ524254:KIR524269 JYU524254:JYV524269 JOY524254:JOZ524269 JFC524254:JFD524269 IVG524254:IVH524269 ILK524254:ILL524269 IBO524254:IBP524269 HRS524254:HRT524269 HHW524254:HHX524269 GYA524254:GYB524269 GOE524254:GOF524269 GEI524254:GEJ524269 FUM524254:FUN524269 FKQ524254:FKR524269 FAU524254:FAV524269 EQY524254:EQZ524269 EHC524254:EHD524269 DXG524254:DXH524269 DNK524254:DNL524269 DDO524254:DDP524269 CTS524254:CTT524269 CJW524254:CJX524269 CAA524254:CAB524269 BQE524254:BQF524269 BGI524254:BGJ524269 AWM524254:AWN524269 AMQ524254:AMR524269 ACU524254:ACV524269 SY524254:SZ524269 JC524254:JD524269 F524255:F524270 WVO458718:WVP458733 WLS458718:WLT458733 WBW458718:WBX458733 VSA458718:VSB458733 VIE458718:VIF458733 UYI458718:UYJ458733 UOM458718:UON458733 UEQ458718:UER458733 TUU458718:TUV458733 TKY458718:TKZ458733 TBC458718:TBD458733 SRG458718:SRH458733 SHK458718:SHL458733 RXO458718:RXP458733 RNS458718:RNT458733 RDW458718:RDX458733 QUA458718:QUB458733 QKE458718:QKF458733 QAI458718:QAJ458733 PQM458718:PQN458733 PGQ458718:PGR458733 OWU458718:OWV458733 OMY458718:OMZ458733 ODC458718:ODD458733 NTG458718:NTH458733 NJK458718:NJL458733 MZO458718:MZP458733 MPS458718:MPT458733 MFW458718:MFX458733 LWA458718:LWB458733 LME458718:LMF458733 LCI458718:LCJ458733 KSM458718:KSN458733 KIQ458718:KIR458733 JYU458718:JYV458733 JOY458718:JOZ458733 JFC458718:JFD458733 IVG458718:IVH458733 ILK458718:ILL458733 IBO458718:IBP458733 HRS458718:HRT458733 HHW458718:HHX458733 GYA458718:GYB458733 GOE458718:GOF458733 GEI458718:GEJ458733 FUM458718:FUN458733 FKQ458718:FKR458733 FAU458718:FAV458733 EQY458718:EQZ458733 EHC458718:EHD458733 DXG458718:DXH458733 DNK458718:DNL458733 DDO458718:DDP458733 CTS458718:CTT458733 CJW458718:CJX458733 CAA458718:CAB458733 BQE458718:BQF458733 BGI458718:BGJ458733 AWM458718:AWN458733 AMQ458718:AMR458733 ACU458718:ACV458733 SY458718:SZ458733 JC458718:JD458733 F458719:F458734 WVO393182:WVP393197 WLS393182:WLT393197 WBW393182:WBX393197 VSA393182:VSB393197 VIE393182:VIF393197 UYI393182:UYJ393197 UOM393182:UON393197 UEQ393182:UER393197 TUU393182:TUV393197 TKY393182:TKZ393197 TBC393182:TBD393197 SRG393182:SRH393197 SHK393182:SHL393197 RXO393182:RXP393197 RNS393182:RNT393197 RDW393182:RDX393197 QUA393182:QUB393197 QKE393182:QKF393197 QAI393182:QAJ393197 PQM393182:PQN393197 PGQ393182:PGR393197 OWU393182:OWV393197 OMY393182:OMZ393197 ODC393182:ODD393197 NTG393182:NTH393197 NJK393182:NJL393197 MZO393182:MZP393197 MPS393182:MPT393197 MFW393182:MFX393197 LWA393182:LWB393197 LME393182:LMF393197 LCI393182:LCJ393197 KSM393182:KSN393197 KIQ393182:KIR393197 JYU393182:JYV393197 JOY393182:JOZ393197 JFC393182:JFD393197 IVG393182:IVH393197 ILK393182:ILL393197 IBO393182:IBP393197 HRS393182:HRT393197 HHW393182:HHX393197 GYA393182:GYB393197 GOE393182:GOF393197 GEI393182:GEJ393197 FUM393182:FUN393197 FKQ393182:FKR393197 FAU393182:FAV393197 EQY393182:EQZ393197 EHC393182:EHD393197 DXG393182:DXH393197 DNK393182:DNL393197 DDO393182:DDP393197 CTS393182:CTT393197 CJW393182:CJX393197 CAA393182:CAB393197 BQE393182:BQF393197 BGI393182:BGJ393197 AWM393182:AWN393197 AMQ393182:AMR393197 ACU393182:ACV393197 SY393182:SZ393197 JC393182:JD393197 F393183:F393198 WVO327646:WVP327661 WLS327646:WLT327661 WBW327646:WBX327661 VSA327646:VSB327661 VIE327646:VIF327661 UYI327646:UYJ327661 UOM327646:UON327661 UEQ327646:UER327661 TUU327646:TUV327661 TKY327646:TKZ327661 TBC327646:TBD327661 SRG327646:SRH327661 SHK327646:SHL327661 RXO327646:RXP327661 RNS327646:RNT327661 RDW327646:RDX327661 QUA327646:QUB327661 QKE327646:QKF327661 QAI327646:QAJ327661 PQM327646:PQN327661 PGQ327646:PGR327661 OWU327646:OWV327661 OMY327646:OMZ327661 ODC327646:ODD327661 NTG327646:NTH327661 NJK327646:NJL327661 MZO327646:MZP327661 MPS327646:MPT327661 MFW327646:MFX327661 LWA327646:LWB327661 LME327646:LMF327661 LCI327646:LCJ327661 KSM327646:KSN327661 KIQ327646:KIR327661 JYU327646:JYV327661 JOY327646:JOZ327661 JFC327646:JFD327661 IVG327646:IVH327661 ILK327646:ILL327661 IBO327646:IBP327661 HRS327646:HRT327661 HHW327646:HHX327661 GYA327646:GYB327661 GOE327646:GOF327661 GEI327646:GEJ327661 FUM327646:FUN327661 FKQ327646:FKR327661 FAU327646:FAV327661 EQY327646:EQZ327661 EHC327646:EHD327661 DXG327646:DXH327661 DNK327646:DNL327661 DDO327646:DDP327661 CTS327646:CTT327661 CJW327646:CJX327661 CAA327646:CAB327661 BQE327646:BQF327661 BGI327646:BGJ327661 AWM327646:AWN327661 AMQ327646:AMR327661 ACU327646:ACV327661 SY327646:SZ327661 JC327646:JD327661 F327647:F327662 WVO262110:WVP262125 WLS262110:WLT262125 WBW262110:WBX262125 VSA262110:VSB262125 VIE262110:VIF262125 UYI262110:UYJ262125 UOM262110:UON262125 UEQ262110:UER262125 TUU262110:TUV262125 TKY262110:TKZ262125 TBC262110:TBD262125 SRG262110:SRH262125 SHK262110:SHL262125 RXO262110:RXP262125 RNS262110:RNT262125 RDW262110:RDX262125 QUA262110:QUB262125 QKE262110:QKF262125 QAI262110:QAJ262125 PQM262110:PQN262125 PGQ262110:PGR262125 OWU262110:OWV262125 OMY262110:OMZ262125 ODC262110:ODD262125 NTG262110:NTH262125 NJK262110:NJL262125 MZO262110:MZP262125 MPS262110:MPT262125 MFW262110:MFX262125 LWA262110:LWB262125 LME262110:LMF262125 LCI262110:LCJ262125 KSM262110:KSN262125 KIQ262110:KIR262125 JYU262110:JYV262125 JOY262110:JOZ262125 JFC262110:JFD262125 IVG262110:IVH262125 ILK262110:ILL262125 IBO262110:IBP262125 HRS262110:HRT262125 HHW262110:HHX262125 GYA262110:GYB262125 GOE262110:GOF262125 GEI262110:GEJ262125 FUM262110:FUN262125 FKQ262110:FKR262125 FAU262110:FAV262125 EQY262110:EQZ262125 EHC262110:EHD262125 DXG262110:DXH262125 DNK262110:DNL262125 DDO262110:DDP262125 CTS262110:CTT262125 CJW262110:CJX262125 CAA262110:CAB262125 BQE262110:BQF262125 BGI262110:BGJ262125 AWM262110:AWN262125 AMQ262110:AMR262125 ACU262110:ACV262125 SY262110:SZ262125 JC262110:JD262125 F262111:F262126 WVO196574:WVP196589 WLS196574:WLT196589 WBW196574:WBX196589 VSA196574:VSB196589 VIE196574:VIF196589 UYI196574:UYJ196589 UOM196574:UON196589 UEQ196574:UER196589 TUU196574:TUV196589 TKY196574:TKZ196589 TBC196574:TBD196589 SRG196574:SRH196589 SHK196574:SHL196589 RXO196574:RXP196589 RNS196574:RNT196589 RDW196574:RDX196589 QUA196574:QUB196589 QKE196574:QKF196589 QAI196574:QAJ196589 PQM196574:PQN196589 PGQ196574:PGR196589 OWU196574:OWV196589 OMY196574:OMZ196589 ODC196574:ODD196589 NTG196574:NTH196589 NJK196574:NJL196589 MZO196574:MZP196589 MPS196574:MPT196589 MFW196574:MFX196589 LWA196574:LWB196589 LME196574:LMF196589 LCI196574:LCJ196589 KSM196574:KSN196589 KIQ196574:KIR196589 JYU196574:JYV196589 JOY196574:JOZ196589 JFC196574:JFD196589 IVG196574:IVH196589 ILK196574:ILL196589 IBO196574:IBP196589 HRS196574:HRT196589 HHW196574:HHX196589 GYA196574:GYB196589 GOE196574:GOF196589 GEI196574:GEJ196589 FUM196574:FUN196589 FKQ196574:FKR196589 FAU196574:FAV196589 EQY196574:EQZ196589 EHC196574:EHD196589 DXG196574:DXH196589 DNK196574:DNL196589 DDO196574:DDP196589 CTS196574:CTT196589 CJW196574:CJX196589 CAA196574:CAB196589 BQE196574:BQF196589 BGI196574:BGJ196589 AWM196574:AWN196589 AMQ196574:AMR196589 ACU196574:ACV196589 SY196574:SZ196589 JC196574:JD196589 F196575:F196590 WVO131038:WVP131053 WLS131038:WLT131053 WBW131038:WBX131053 VSA131038:VSB131053 VIE131038:VIF131053 UYI131038:UYJ131053 UOM131038:UON131053 UEQ131038:UER131053 TUU131038:TUV131053 TKY131038:TKZ131053 TBC131038:TBD131053 SRG131038:SRH131053 SHK131038:SHL131053 RXO131038:RXP131053 RNS131038:RNT131053 RDW131038:RDX131053 QUA131038:QUB131053 QKE131038:QKF131053 QAI131038:QAJ131053 PQM131038:PQN131053 PGQ131038:PGR131053 OWU131038:OWV131053 OMY131038:OMZ131053 ODC131038:ODD131053 NTG131038:NTH131053 NJK131038:NJL131053 MZO131038:MZP131053 MPS131038:MPT131053 MFW131038:MFX131053 LWA131038:LWB131053 LME131038:LMF131053 LCI131038:LCJ131053 KSM131038:KSN131053 KIQ131038:KIR131053 JYU131038:JYV131053 JOY131038:JOZ131053 JFC131038:JFD131053 IVG131038:IVH131053 ILK131038:ILL131053 IBO131038:IBP131053 HRS131038:HRT131053 HHW131038:HHX131053 GYA131038:GYB131053 GOE131038:GOF131053 GEI131038:GEJ131053 FUM131038:FUN131053 FKQ131038:FKR131053 FAU131038:FAV131053 EQY131038:EQZ131053 EHC131038:EHD131053 DXG131038:DXH131053 DNK131038:DNL131053 DDO131038:DDP131053 CTS131038:CTT131053 CJW131038:CJX131053 CAA131038:CAB131053 BQE131038:BQF131053 BGI131038:BGJ131053 AWM131038:AWN131053 AMQ131038:AMR131053 ACU131038:ACV131053 SY131038:SZ131053 JC131038:JD131053 F131039:F131054 WVO65502:WVP65517 WLS65502:WLT65517 WBW65502:WBX65517 VSA65502:VSB65517 VIE65502:VIF65517 UYI65502:UYJ65517 UOM65502:UON65517 UEQ65502:UER65517 TUU65502:TUV65517 TKY65502:TKZ65517 TBC65502:TBD65517 SRG65502:SRH65517 SHK65502:SHL65517 RXO65502:RXP65517 RNS65502:RNT65517 RDW65502:RDX65517 QUA65502:QUB65517 QKE65502:QKF65517 QAI65502:QAJ65517 PQM65502:PQN65517 PGQ65502:PGR65517 OWU65502:OWV65517 OMY65502:OMZ65517 ODC65502:ODD65517 NTG65502:NTH65517 NJK65502:NJL65517 MZO65502:MZP65517 MPS65502:MPT65517 MFW65502:MFX65517 LWA65502:LWB65517 LME65502:LMF65517 LCI65502:LCJ65517 KSM65502:KSN65517 KIQ65502:KIR65517 JYU65502:JYV65517 JOY65502:JOZ65517 JFC65502:JFD65517 IVG65502:IVH65517 ILK65502:ILL65517 IBO65502:IBP65517 HRS65502:HRT65517 HHW65502:HHX65517 GYA65502:GYB65517 GOE65502:GOF65517 GEI65502:GEJ65517 FUM65502:FUN65517 FKQ65502:FKR65517 FAU65502:FAV65517 EQY65502:EQZ65517 EHC65502:EHD65517 DXG65502:DXH65517 DNK65502:DNL65517 DDO65502:DDP65517 CTS65502:CTT65517 CJW65502:CJX65517 CAA65502:CAB65517 BQE65502:BQF65517 BGI65502:BGJ65517 AWM65502:AWN65517 AMQ65502:AMR65517 ACU65502:ACV65517 SY65502:SZ65517 JC65502:JD65517 WLI14:WLJ16 WBM14:WBN16 VRQ14:VRR16 VHU14:VHV16 UXY14:UXZ16 UOC14:UOD16 UEG14:UEH16 TUK14:TUL16 TKO14:TKP16 TAS14:TAT16 SQW14:SQX16 SHA14:SHB16 RXE14:RXF16 RNI14:RNJ16 RDM14:RDN16 QTQ14:QTR16 QJU14:QJV16 PZY14:PZZ16 PQC14:PQD16 PGG14:PGH16 OWK14:OWL16 OMO14:OMP16 OCS14:OCT16 NSW14:NSX16 NJA14:NJB16 MZE14:MZF16 MPI14:MPJ16 MFM14:MFN16 LVQ14:LVR16 LLU14:LLV16 LBY14:LBZ16 KSC14:KSD16 KIG14:KIH16 JYK14:JYL16 JOO14:JOP16 JES14:JET16 IUW14:IUX16 ILA14:ILB16 IBE14:IBF16 HRI14:HRJ16 HHM14:HHN16 GXQ14:GXR16 GNU14:GNV16 GDY14:GDZ16 FUC14:FUD16 FKG14:FKH16 FAK14:FAL16 EQO14:EQP16 EGS14:EGT16 DWW14:DWX16 DNA14:DNB16 DDE14:DDF16 CTI14:CTJ16 CJM14:CJN16 BZQ14:BZR16 BPU14:BPV16 BFY14:BFZ16 AWC14:AWD16 AMG14:AMH16 ACK14:ACL16 SO14:SP16 IS14:IT16 WVE14:WVF16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65504:F65519 WVO983007:WVP983022 WLS983007:WLT983022 WBW983007:WBX983022 VSA983007:VSB983022 VIE983007:VIF983022 UYI983007:UYJ983022 UOM983007:UON983022 UEQ983007:UER983022 TUU983007:TUV983022 TKY983007:TKZ983022 TBC983007:TBD983022 SRG983007:SRH983022 SHK983007:SHL983022 RXO983007:RXP983022 RNS983007:RNT983022 RDW983007:RDX983022 QUA983007:QUB983022 QKE983007:QKF983022 QAI983007:QAJ983022 PQM983007:PQN983022 PGQ983007:PGR983022 OWU983007:OWV983022 OMY983007:OMZ983022 ODC983007:ODD983022 NTG983007:NTH983022 NJK983007:NJL983022 MZO983007:MZP983022 MPS983007:MPT983022 MFW983007:MFX983022 LWA983007:LWB983022 LME983007:LMF983022 LCI983007:LCJ983022 KSM983007:KSN983022 KIQ983007:KIR983022 JYU983007:JYV983022 JOY983007:JOZ983022 JFC983007:JFD983022 IVG983007:IVH983022 ILK983007:ILL983022 IBO983007:IBP983022 HRS983007:HRT983022 HHW983007:HHX983022 GYA983007:GYB983022 GOE983007:GOF983022 GEI983007:GEJ983022 FUM983007:FUN983022 FKQ983007:FKR983022 FAU983007:FAV983022 EQY983007:EQZ983022 EHC983007:EHD983022 DXG983007:DXH983022 DNK983007:DNL983022 DDO983007:DDP983022 CTS983007:CTT983022 CJW983007:CJX983022 CAA983007:CAB983022 BQE983007:BQF983022 BGI983007:BGJ983022 AWM983007:AWN983022 AMQ983007:AMR983022 ACU983007:ACV983022 SY983007:SZ983022 JC983007:JD983022 F983008:F983023 WVO917471:WVP917486 WLS917471:WLT917486 WBW917471:WBX917486 VSA917471:VSB917486 VIE917471:VIF917486 UYI917471:UYJ917486 UOM917471:UON917486 UEQ917471:UER917486 TUU917471:TUV917486 TKY917471:TKZ917486 TBC917471:TBD917486 SRG917471:SRH917486 SHK917471:SHL917486 RXO917471:RXP917486 RNS917471:RNT917486 RDW917471:RDX917486 QUA917471:QUB917486 QKE917471:QKF917486 QAI917471:QAJ917486 PQM917471:PQN917486 PGQ917471:PGR917486 OWU917471:OWV917486 OMY917471:OMZ917486 ODC917471:ODD917486 NTG917471:NTH917486 NJK917471:NJL917486 MZO917471:MZP917486 MPS917471:MPT917486 MFW917471:MFX917486 LWA917471:LWB917486 LME917471:LMF917486 LCI917471:LCJ917486 KSM917471:KSN917486 KIQ917471:KIR917486 JYU917471:JYV917486 JOY917471:JOZ917486 JFC917471:JFD917486 IVG917471:IVH917486 ILK917471:ILL917486 IBO917471:IBP917486 HRS917471:HRT917486 HHW917471:HHX917486 GYA917471:GYB917486 GOE917471:GOF917486 GEI917471:GEJ917486 FUM917471:FUN917486 FKQ917471:FKR917486 FAU917471:FAV917486 EQY917471:EQZ917486 EHC917471:EHD917486 DXG917471:DXH917486 DNK917471:DNL917486 DDO917471:DDP917486 CTS917471:CTT917486 CJW917471:CJX917486 CAA917471:CAB917486 BQE917471:BQF917486 BGI917471:BGJ917486 AWM917471:AWN917486 AMQ917471:AMR917486 ACU917471:ACV917486 SY917471:SZ917486 JC917471:JD917486 F917472:F917487 WVO851935:WVP851950 WLS851935:WLT851950 WBW851935:WBX851950 VSA851935:VSB851950 VIE851935:VIF851950 UYI851935:UYJ851950 UOM851935:UON851950 UEQ851935:UER851950 TUU851935:TUV851950 TKY851935:TKZ851950 TBC851935:TBD851950 SRG851935:SRH851950 SHK851935:SHL851950 RXO851935:RXP851950 RNS851935:RNT851950 RDW851935:RDX851950 QUA851935:QUB851950 QKE851935:QKF851950 QAI851935:QAJ851950 PQM851935:PQN851950 PGQ851935:PGR851950 OWU851935:OWV851950 OMY851935:OMZ851950 ODC851935:ODD851950 NTG851935:NTH851950 NJK851935:NJL851950 MZO851935:MZP851950 MPS851935:MPT851950 MFW851935:MFX851950 LWA851935:LWB851950 LME851935:LMF851950 LCI851935:LCJ851950 KSM851935:KSN851950 KIQ851935:KIR851950 JYU851935:JYV851950 JOY851935:JOZ851950 JFC851935:JFD851950 IVG851935:IVH851950 ILK851935:ILL851950 IBO851935:IBP851950 HRS851935:HRT851950 HHW851935:HHX851950 GYA851935:GYB851950 GOE851935:GOF851950 GEI851935:GEJ851950 FUM851935:FUN851950 FKQ851935:FKR851950 FAU851935:FAV851950 EQY851935:EQZ851950 EHC851935:EHD851950 DXG851935:DXH851950 DNK851935:DNL851950 DDO851935:DDP851950 CTS851935:CTT851950 CJW851935:CJX851950 CAA851935:CAB851950 BQE851935:BQF851950 BGI851935:BGJ851950 AWM851935:AWN851950 AMQ851935:AMR851950 ACU851935:ACV851950 SY851935:SZ851950 JC851935:JD851950 F851936:F851951 WVO786399:WVP786414 WLS786399:WLT786414 WBW786399:WBX786414 VSA786399:VSB786414 VIE786399:VIF786414 UYI786399:UYJ786414 UOM786399:UON786414 UEQ786399:UER786414 TUU786399:TUV786414 TKY786399:TKZ786414 TBC786399:TBD786414 SRG786399:SRH786414 SHK786399:SHL786414 RXO786399:RXP786414 RNS786399:RNT786414 RDW786399:RDX786414 QUA786399:QUB786414 QKE786399:QKF786414 QAI786399:QAJ786414 PQM786399:PQN786414 PGQ786399:PGR786414 OWU786399:OWV786414 OMY786399:OMZ786414 ODC786399:ODD786414 NTG786399:NTH786414 NJK786399:NJL786414 MZO786399:MZP786414 MPS786399:MPT786414 MFW786399:MFX786414 LWA786399:LWB786414 LME786399:LMF786414 LCI786399:LCJ786414 KSM786399:KSN786414 KIQ786399:KIR786414 JYU786399:JYV786414 JOY786399:JOZ786414 JFC786399:JFD786414 IVG786399:IVH786414 ILK786399:ILL786414 IBO786399:IBP786414 HRS786399:HRT786414 HHW786399:HHX786414 GYA786399:GYB786414 GOE786399:GOF786414 GEI786399:GEJ786414 FUM786399:FUN786414 FKQ786399:FKR786414 FAU786399:FAV786414 EQY786399:EQZ786414 EHC786399:EHD786414 DXG786399:DXH786414 DNK786399:DNL786414 DDO786399:DDP786414 CTS786399:CTT786414 CJW786399:CJX786414 CAA786399:CAB786414 BQE786399:BQF786414 BGI786399:BGJ786414 AWM786399:AWN786414 AMQ786399:AMR786414 ACU786399:ACV786414 SY786399:SZ786414 JC786399:JD786414 F786400:F786415 WVO720863:WVP720878 WLS720863:WLT720878 WBW720863:WBX720878 VSA720863:VSB720878 VIE720863:VIF720878 UYI720863:UYJ720878 UOM720863:UON720878 UEQ720863:UER720878 TUU720863:TUV720878 TKY720863:TKZ720878 TBC720863:TBD720878 SRG720863:SRH720878 SHK720863:SHL720878 RXO720863:RXP720878 RNS720863:RNT720878 RDW720863:RDX720878 QUA720863:QUB720878 QKE720863:QKF720878 QAI720863:QAJ720878 PQM720863:PQN720878 PGQ720863:PGR720878 OWU720863:OWV720878 OMY720863:OMZ720878 ODC720863:ODD720878 NTG720863:NTH720878 NJK720863:NJL720878 MZO720863:MZP720878 MPS720863:MPT720878 MFW720863:MFX720878 LWA720863:LWB720878 LME720863:LMF720878 LCI720863:LCJ720878 KSM720863:KSN720878 KIQ720863:KIR720878 JYU720863:JYV720878 JOY720863:JOZ720878 JFC720863:JFD720878 IVG720863:IVH720878 ILK720863:ILL720878 IBO720863:IBP720878 HRS720863:HRT720878 HHW720863:HHX720878 GYA720863:GYB720878 GOE720863:GOF720878 GEI720863:GEJ720878 FUM720863:FUN720878 FKQ720863:FKR720878 FAU720863:FAV720878 EQY720863:EQZ720878 EHC720863:EHD720878 DXG720863:DXH720878 DNK720863:DNL720878 DDO720863:DDP720878 CTS720863:CTT720878 CJW720863:CJX720878 CAA720863:CAB720878 BQE720863:BQF720878 BGI720863:BGJ720878 AWM720863:AWN720878 AMQ720863:AMR720878 ACU720863:ACV720878 SY720863:SZ720878 JC720863:JD720878 F720864:F720879 WVO655327:WVP655342 WLS655327:WLT655342 WBW655327:WBX655342 VSA655327:VSB655342 VIE655327:VIF655342 UYI655327:UYJ655342 UOM655327:UON655342 UEQ655327:UER655342 TUU655327:TUV655342 TKY655327:TKZ655342 TBC655327:TBD655342 SRG655327:SRH655342 SHK655327:SHL655342 RXO655327:RXP655342 RNS655327:RNT655342 RDW655327:RDX655342 QUA655327:QUB655342 QKE655327:QKF655342 QAI655327:QAJ655342 PQM655327:PQN655342 PGQ655327:PGR655342 OWU655327:OWV655342 OMY655327:OMZ655342 ODC655327:ODD655342 NTG655327:NTH655342 NJK655327:NJL655342 MZO655327:MZP655342 MPS655327:MPT655342 MFW655327:MFX655342 LWA655327:LWB655342 LME655327:LMF655342 LCI655327:LCJ655342 KSM655327:KSN655342 KIQ655327:KIR655342 JYU655327:JYV655342 JOY655327:JOZ655342 JFC655327:JFD655342 IVG655327:IVH655342 ILK655327:ILL655342 IBO655327:IBP655342 HRS655327:HRT655342 HHW655327:HHX655342 GYA655327:GYB655342 GOE655327:GOF655342 GEI655327:GEJ655342 FUM655327:FUN655342 FKQ655327:FKR655342 FAU655327:FAV655342 EQY655327:EQZ655342 EHC655327:EHD655342 DXG655327:DXH655342 DNK655327:DNL655342 DDO655327:DDP655342 CTS655327:CTT655342 CJW655327:CJX655342 CAA655327:CAB655342 BQE655327:BQF655342 BGI655327:BGJ655342 AWM655327:AWN655342 AMQ655327:AMR655342 ACU655327:ACV655342 SY655327:SZ655342 JC655327:JD655342 F655328:F655343 WVO589791:WVP589806 WLS589791:WLT589806 WBW589791:WBX589806 VSA589791:VSB589806 VIE589791:VIF589806 UYI589791:UYJ589806 UOM589791:UON589806 UEQ589791:UER589806 TUU589791:TUV589806 TKY589791:TKZ589806 TBC589791:TBD589806 SRG589791:SRH589806 SHK589791:SHL589806 RXO589791:RXP589806 RNS589791:RNT589806 RDW589791:RDX589806 QUA589791:QUB589806 QKE589791:QKF589806 QAI589791:QAJ589806 PQM589791:PQN589806 PGQ589791:PGR589806 OWU589791:OWV589806 OMY589791:OMZ589806 ODC589791:ODD589806 NTG589791:NTH589806 NJK589791:NJL589806 MZO589791:MZP589806 MPS589791:MPT589806 MFW589791:MFX589806 LWA589791:LWB589806 LME589791:LMF589806 LCI589791:LCJ589806 KSM589791:KSN589806 KIQ589791:KIR589806 JYU589791:JYV589806 JOY589791:JOZ589806 JFC589791:JFD589806 IVG589791:IVH589806 ILK589791:ILL589806 IBO589791:IBP589806 HRS589791:HRT589806 HHW589791:HHX589806 GYA589791:GYB589806 GOE589791:GOF589806 GEI589791:GEJ589806 FUM589791:FUN589806 FKQ589791:FKR589806 FAU589791:FAV589806 EQY589791:EQZ589806 EHC589791:EHD589806 DXG589791:DXH589806 DNK589791:DNL589806 DDO589791:DDP589806 CTS589791:CTT589806 CJW589791:CJX589806 CAA589791:CAB589806 BQE589791:BQF589806 BGI589791:BGJ589806 AWM589791:AWN589806 AMQ589791:AMR589806 ACU589791:ACV589806 SY589791:SZ589806 JC589791:JD589806 F589792:F589807 WVO524255:WVP524270 WLS524255:WLT524270 WBW524255:WBX524270 VSA524255:VSB524270 VIE524255:VIF524270 UYI524255:UYJ524270 UOM524255:UON524270 UEQ524255:UER524270 TUU524255:TUV524270 TKY524255:TKZ524270 TBC524255:TBD524270 SRG524255:SRH524270 SHK524255:SHL524270 RXO524255:RXP524270 RNS524255:RNT524270 RDW524255:RDX524270 QUA524255:QUB524270 QKE524255:QKF524270 QAI524255:QAJ524270 PQM524255:PQN524270 PGQ524255:PGR524270 OWU524255:OWV524270 OMY524255:OMZ524270 ODC524255:ODD524270 NTG524255:NTH524270 NJK524255:NJL524270 MZO524255:MZP524270 MPS524255:MPT524270 MFW524255:MFX524270 LWA524255:LWB524270 LME524255:LMF524270 LCI524255:LCJ524270 KSM524255:KSN524270 KIQ524255:KIR524270 JYU524255:JYV524270 JOY524255:JOZ524270 JFC524255:JFD524270 IVG524255:IVH524270 ILK524255:ILL524270 IBO524255:IBP524270 HRS524255:HRT524270 HHW524255:HHX524270 GYA524255:GYB524270 GOE524255:GOF524270 GEI524255:GEJ524270 FUM524255:FUN524270 FKQ524255:FKR524270 FAU524255:FAV524270 EQY524255:EQZ524270 EHC524255:EHD524270 DXG524255:DXH524270 DNK524255:DNL524270 DDO524255:DDP524270 CTS524255:CTT524270 CJW524255:CJX524270 CAA524255:CAB524270 BQE524255:BQF524270 BGI524255:BGJ524270 AWM524255:AWN524270 AMQ524255:AMR524270 ACU524255:ACV524270 SY524255:SZ524270 JC524255:JD524270 F524256:F524271 WVO458719:WVP458734 WLS458719:WLT458734 WBW458719:WBX458734 VSA458719:VSB458734 VIE458719:VIF458734 UYI458719:UYJ458734 UOM458719:UON458734 UEQ458719:UER458734 TUU458719:TUV458734 TKY458719:TKZ458734 TBC458719:TBD458734 SRG458719:SRH458734 SHK458719:SHL458734 RXO458719:RXP458734 RNS458719:RNT458734 RDW458719:RDX458734 QUA458719:QUB458734 QKE458719:QKF458734 QAI458719:QAJ458734 PQM458719:PQN458734 PGQ458719:PGR458734 OWU458719:OWV458734 OMY458719:OMZ458734 ODC458719:ODD458734 NTG458719:NTH458734 NJK458719:NJL458734 MZO458719:MZP458734 MPS458719:MPT458734 MFW458719:MFX458734 LWA458719:LWB458734 LME458719:LMF458734 LCI458719:LCJ458734 KSM458719:KSN458734 KIQ458719:KIR458734 JYU458719:JYV458734 JOY458719:JOZ458734 JFC458719:JFD458734 IVG458719:IVH458734 ILK458719:ILL458734 IBO458719:IBP458734 HRS458719:HRT458734 HHW458719:HHX458734 GYA458719:GYB458734 GOE458719:GOF458734 GEI458719:GEJ458734 FUM458719:FUN458734 FKQ458719:FKR458734 FAU458719:FAV458734 EQY458719:EQZ458734 EHC458719:EHD458734 DXG458719:DXH458734 DNK458719:DNL458734 DDO458719:DDP458734 CTS458719:CTT458734 CJW458719:CJX458734 CAA458719:CAB458734 BQE458719:BQF458734 BGI458719:BGJ458734 AWM458719:AWN458734 AMQ458719:AMR458734 ACU458719:ACV458734 SY458719:SZ458734 JC458719:JD458734 F458720:F458735 WVO393183:WVP393198 WLS393183:WLT393198 WBW393183:WBX393198 VSA393183:VSB393198 VIE393183:VIF393198 UYI393183:UYJ393198 UOM393183:UON393198 UEQ393183:UER393198 TUU393183:TUV393198 TKY393183:TKZ393198 TBC393183:TBD393198 SRG393183:SRH393198 SHK393183:SHL393198 RXO393183:RXP393198 RNS393183:RNT393198 RDW393183:RDX393198 QUA393183:QUB393198 QKE393183:QKF393198 QAI393183:QAJ393198 PQM393183:PQN393198 PGQ393183:PGR393198 OWU393183:OWV393198 OMY393183:OMZ393198 ODC393183:ODD393198 NTG393183:NTH393198 NJK393183:NJL393198 MZO393183:MZP393198 MPS393183:MPT393198 MFW393183:MFX393198 LWA393183:LWB393198 LME393183:LMF393198 LCI393183:LCJ393198 KSM393183:KSN393198 KIQ393183:KIR393198 JYU393183:JYV393198 JOY393183:JOZ393198 JFC393183:JFD393198 IVG393183:IVH393198 ILK393183:ILL393198 IBO393183:IBP393198 HRS393183:HRT393198 HHW393183:HHX393198 GYA393183:GYB393198 GOE393183:GOF393198 GEI393183:GEJ393198 FUM393183:FUN393198 FKQ393183:FKR393198 FAU393183:FAV393198 EQY393183:EQZ393198 EHC393183:EHD393198 DXG393183:DXH393198 DNK393183:DNL393198 DDO393183:DDP393198 CTS393183:CTT393198 CJW393183:CJX393198 CAA393183:CAB393198 BQE393183:BQF393198 BGI393183:BGJ393198 AWM393183:AWN393198 AMQ393183:AMR393198 ACU393183:ACV393198 SY393183:SZ393198 JC393183:JD393198 F393184:F393199 WVO327647:WVP327662 WLS327647:WLT327662 WBW327647:WBX327662 VSA327647:VSB327662 VIE327647:VIF327662 UYI327647:UYJ327662 UOM327647:UON327662 UEQ327647:UER327662 TUU327647:TUV327662 TKY327647:TKZ327662 TBC327647:TBD327662 SRG327647:SRH327662 SHK327647:SHL327662 RXO327647:RXP327662 RNS327647:RNT327662 RDW327647:RDX327662 QUA327647:QUB327662 QKE327647:QKF327662 QAI327647:QAJ327662 PQM327647:PQN327662 PGQ327647:PGR327662 OWU327647:OWV327662 OMY327647:OMZ327662 ODC327647:ODD327662 NTG327647:NTH327662 NJK327647:NJL327662 MZO327647:MZP327662 MPS327647:MPT327662 MFW327647:MFX327662 LWA327647:LWB327662 LME327647:LMF327662 LCI327647:LCJ327662 KSM327647:KSN327662 KIQ327647:KIR327662 JYU327647:JYV327662 JOY327647:JOZ327662 JFC327647:JFD327662 IVG327647:IVH327662 ILK327647:ILL327662 IBO327647:IBP327662 HRS327647:HRT327662 HHW327647:HHX327662 GYA327647:GYB327662 GOE327647:GOF327662 GEI327647:GEJ327662 FUM327647:FUN327662 FKQ327647:FKR327662 FAU327647:FAV327662 EQY327647:EQZ327662 EHC327647:EHD327662 DXG327647:DXH327662 DNK327647:DNL327662 DDO327647:DDP327662 CTS327647:CTT327662 CJW327647:CJX327662 CAA327647:CAB327662 BQE327647:BQF327662 BGI327647:BGJ327662 AWM327647:AWN327662 AMQ327647:AMR327662 ACU327647:ACV327662 SY327647:SZ327662 JC327647:JD327662 F327648:F327663 WVO262111:WVP262126 WLS262111:WLT262126 WBW262111:WBX262126 VSA262111:VSB262126 VIE262111:VIF262126 UYI262111:UYJ262126 UOM262111:UON262126 UEQ262111:UER262126 TUU262111:TUV262126 TKY262111:TKZ262126 TBC262111:TBD262126 SRG262111:SRH262126 SHK262111:SHL262126 RXO262111:RXP262126 RNS262111:RNT262126 RDW262111:RDX262126 QUA262111:QUB262126 QKE262111:QKF262126 QAI262111:QAJ262126 PQM262111:PQN262126 PGQ262111:PGR262126 OWU262111:OWV262126 OMY262111:OMZ262126 ODC262111:ODD262126 NTG262111:NTH262126 NJK262111:NJL262126 MZO262111:MZP262126 MPS262111:MPT262126 MFW262111:MFX262126 LWA262111:LWB262126 LME262111:LMF262126 LCI262111:LCJ262126 KSM262111:KSN262126 KIQ262111:KIR262126 JYU262111:JYV262126 JOY262111:JOZ262126 JFC262111:JFD262126 IVG262111:IVH262126 ILK262111:ILL262126 IBO262111:IBP262126 HRS262111:HRT262126 HHW262111:HHX262126 GYA262111:GYB262126 GOE262111:GOF262126 GEI262111:GEJ262126 FUM262111:FUN262126 FKQ262111:FKR262126 FAU262111:FAV262126 EQY262111:EQZ262126 EHC262111:EHD262126 DXG262111:DXH262126 DNK262111:DNL262126 DDO262111:DDP262126 CTS262111:CTT262126 CJW262111:CJX262126 CAA262111:CAB262126 BQE262111:BQF262126 BGI262111:BGJ262126 AWM262111:AWN262126 AMQ262111:AMR262126 ACU262111:ACV262126 SY262111:SZ262126 JC262111:JD262126 F262112:F262127 WVO196575:WVP196590 WLS196575:WLT196590 WBW196575:WBX196590 VSA196575:VSB196590 VIE196575:VIF196590 UYI196575:UYJ196590 UOM196575:UON196590 UEQ196575:UER196590 TUU196575:TUV196590 TKY196575:TKZ196590 TBC196575:TBD196590 SRG196575:SRH196590 SHK196575:SHL196590 RXO196575:RXP196590 RNS196575:RNT196590 RDW196575:RDX196590 QUA196575:QUB196590 QKE196575:QKF196590 QAI196575:QAJ196590 PQM196575:PQN196590 PGQ196575:PGR196590 OWU196575:OWV196590 OMY196575:OMZ196590 ODC196575:ODD196590 NTG196575:NTH196590 NJK196575:NJL196590 MZO196575:MZP196590 MPS196575:MPT196590 MFW196575:MFX196590 LWA196575:LWB196590 LME196575:LMF196590 LCI196575:LCJ196590 KSM196575:KSN196590 KIQ196575:KIR196590 JYU196575:JYV196590 JOY196575:JOZ196590 JFC196575:JFD196590 IVG196575:IVH196590 ILK196575:ILL196590 IBO196575:IBP196590 HRS196575:HRT196590 HHW196575:HHX196590 GYA196575:GYB196590 GOE196575:GOF196590 GEI196575:GEJ196590 FUM196575:FUN196590 FKQ196575:FKR196590 FAU196575:FAV196590 EQY196575:EQZ196590 EHC196575:EHD196590 DXG196575:DXH196590 DNK196575:DNL196590 DDO196575:DDP196590 CTS196575:CTT196590 CJW196575:CJX196590 CAA196575:CAB196590 BQE196575:BQF196590 BGI196575:BGJ196590 AWM196575:AWN196590 AMQ196575:AMR196590 ACU196575:ACV196590 SY196575:SZ196590 JC196575:JD196590 F196576:F196591 WVO131039:WVP131054 WLS131039:WLT131054 WBW131039:WBX131054 VSA131039:VSB131054 VIE131039:VIF131054 UYI131039:UYJ131054 UOM131039:UON131054 UEQ131039:UER131054 TUU131039:TUV131054 TKY131039:TKZ131054 TBC131039:TBD131054 SRG131039:SRH131054 SHK131039:SHL131054 RXO131039:RXP131054 RNS131039:RNT131054 RDW131039:RDX131054 QUA131039:QUB131054 QKE131039:QKF131054 QAI131039:QAJ131054 PQM131039:PQN131054 PGQ131039:PGR131054 OWU131039:OWV131054 OMY131039:OMZ131054 ODC131039:ODD131054 NTG131039:NTH131054 NJK131039:NJL131054 MZO131039:MZP131054 MPS131039:MPT131054 MFW131039:MFX131054 LWA131039:LWB131054 LME131039:LMF131054 LCI131039:LCJ131054 KSM131039:KSN131054 KIQ131039:KIR131054 JYU131039:JYV131054 JOY131039:JOZ131054 JFC131039:JFD131054 IVG131039:IVH131054 ILK131039:ILL131054 IBO131039:IBP131054 HRS131039:HRT131054 HHW131039:HHX131054 GYA131039:GYB131054 GOE131039:GOF131054 GEI131039:GEJ131054 FUM131039:FUN131054 FKQ131039:FKR131054 FAU131039:FAV131054 EQY131039:EQZ131054 EHC131039:EHD131054 DXG131039:DXH131054 DNK131039:DNL131054 DDO131039:DDP131054 CTS131039:CTT131054 CJW131039:CJX131054 CAA131039:CAB131054 BQE131039:BQF131054 BGI131039:BGJ131054 AWM131039:AWN131054 AMQ131039:AMR131054 ACU131039:ACV131054 SY131039:SZ131054 JC131039:JD131054 F131040:F131055 WVO65503:WVP65518 WLS65503:WLT65518 WBW65503:WBX65518 VSA65503:VSB65518 VIE65503:VIF65518 UYI65503:UYJ65518 UOM65503:UON65518 UEQ65503:UER65518 TUU65503:TUV65518 TKY65503:TKZ65518 TBC65503:TBD65518 SRG65503:SRH65518 SHK65503:SHL65518 RXO65503:RXP65518 RNS65503:RNT65518 RDW65503:RDX65518 QUA65503:QUB65518 QKE65503:QKF65518 QAI65503:QAJ65518 PQM65503:PQN65518 PGQ65503:PGR65518 OWU65503:OWV65518 OMY65503:OMZ65518 ODC65503:ODD65518 NTG65503:NTH65518 NJK65503:NJL65518 MZO65503:MZP65518 MPS65503:MPT65518 MFW65503:MFX65518 LWA65503:LWB65518 LME65503:LMF65518 LCI65503:LCJ65518 KSM65503:KSN65518 KIQ65503:KIR65518 JYU65503:JYV65518 JOY65503:JOZ65518 JFC65503:JFD65518 IVG65503:IVH65518 ILK65503:ILL65518 IBO65503:IBP65518 HRS65503:HRT65518 HHW65503:HHX65518 GYA65503:GYB65518 GOE65503:GOF65518 GEI65503:GEJ65518 FUM65503:FUN65518 FKQ65503:FKR65518 FAU65503:FAV65518 EQY65503:EQZ65518 EHC65503:EHD65518 DXG65503:DXH65518 DNK65503:DNL65518 DDO65503:DDP65518 CTS65503:CTT65518 CJW65503:CJX65518 CAA65503:CAB65518 BQE65503:BQF65518 BGI65503:BGJ65518 AWM65503:AWN65518 AMQ65503:AMR65518 ACU65503:ACV65518 SY65503:SZ65518 JC65503:JD65518 WLI14:WLJ17 WBM14:WBN17 VRQ14:VRR17 VHU14:VHV17 UXY14:UXZ17 UOC14:UOD17 UEG14:UEH17 TUK14:TUL17 TKO14:TKP17 TAS14:TAT17 SQW14:SQX17 SHA14:SHB17 RXE14:RXF17 RNI14:RNJ17 RDM14:RDN17 QTQ14:QTR17 QJU14:QJV17 PZY14:PZZ17 PQC14:PQD17 PGG14:PGH17 OWK14:OWL17 OMO14:OMP17 OCS14:OCT17 NSW14:NSX17 NJA14:NJB17 MZE14:MZF17 MPI14:MPJ17 MFM14:MFN17 LVQ14:LVR17 LLU14:LLV17 LBY14:LBZ17 KSC14:KSD17 KIG14:KIH17 JYK14:JYL17 JOO14:JOP17 JES14:JET17 IUW14:IUX17 ILA14:ILB17 IBE14:IBF17 HRI14:HRJ17 HHM14:HHN17 GXQ14:GXR17 GNU14:GNV17 GDY14:GDZ17 FUC14:FUD17 FKG14:FKH17 FAK14:FAL17 EQO14:EQP17 EGS14:EGT17 DWW14:DWX17 DNA14:DNB17 DDE14:DDF17 CTI14:CTJ17 CJM14:CJN17 BZQ14:BZR17 BPU14:BPV17 BFY14:BFZ17 AWC14:AWD17 AMG14:AMH17 ACK14:ACL17 SO14:SP17 IS14:IT17 WVE14:WVF17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65495:C65518 IZ65494:IZ65517 SV65494:SV65517 ACR65494:ACR65517 AMN65494:AMN65517 AWJ65494:AWJ65517 BGF65494:BGF65517 BQB65494:BQB65517 BZX65494:BZX65517 CJT65494:CJT65517 CTP65494:CTP65517 DDL65494:DDL65517 DNH65494:DNH65517 DXD65494:DXD65517 EGZ65494:EGZ65517 EQV65494:EQV65517 FAR65494:FAR65517 FKN65494:FKN65517 FUJ65494:FUJ65517 GEF65494:GEF65517 GOB65494:GOB65517 GXX65494:GXX65517 HHT65494:HHT65517 HRP65494:HRP65517 IBL65494:IBL65517 ILH65494:ILH65517 IVD65494:IVD65517 JEZ65494:JEZ65517 JOV65494:JOV65517 JYR65494:JYR65517 KIN65494:KIN65517 KSJ65494:KSJ65517 LCF65494:LCF65517 LMB65494:LMB65517 LVX65494:LVX65517 MFT65494:MFT65517 MPP65494:MPP65517 MZL65494:MZL65517 NJH65494:NJH65517 NTD65494:NTD65517 OCZ65494:OCZ65517 OMV65494:OMV65517 OWR65494:OWR65517 PGN65494:PGN65517 PQJ65494:PQJ65517 QAF65494:QAF65517 QKB65494:QKB65517 QTX65494:QTX65517 RDT65494:RDT65517 RNP65494:RNP65517 RXL65494:RXL65517 SHH65494:SHH65517 SRD65494:SRD65517 TAZ65494:TAZ65517 TKV65494:TKV65517 TUR65494:TUR65517 UEN65494:UEN65517 UOJ65494:UOJ65517 UYF65494:UYF65517 VIB65494:VIB65517 VRX65494:VRX65517 WBT65494:WBT65517 WLP65494:WLP65517 WVL65494:WVL65517 C131031:C131054 IZ131030:IZ131053 SV131030:SV131053 ACR131030:ACR131053 AMN131030:AMN131053 AWJ131030:AWJ131053 BGF131030:BGF131053 BQB131030:BQB131053 BZX131030:BZX131053 CJT131030:CJT131053 CTP131030:CTP131053 DDL131030:DDL131053 DNH131030:DNH131053 DXD131030:DXD131053 EGZ131030:EGZ131053 EQV131030:EQV131053 FAR131030:FAR131053 FKN131030:FKN131053 FUJ131030:FUJ131053 GEF131030:GEF131053 GOB131030:GOB131053 GXX131030:GXX131053 HHT131030:HHT131053 HRP131030:HRP131053 IBL131030:IBL131053 ILH131030:ILH131053 IVD131030:IVD131053 JEZ131030:JEZ131053 JOV131030:JOV131053 JYR131030:JYR131053 KIN131030:KIN131053 KSJ131030:KSJ131053 LCF131030:LCF131053 LMB131030:LMB131053 LVX131030:LVX131053 MFT131030:MFT131053 MPP131030:MPP131053 MZL131030:MZL131053 NJH131030:NJH131053 NTD131030:NTD131053 OCZ131030:OCZ131053 OMV131030:OMV131053 OWR131030:OWR131053 PGN131030:PGN131053 PQJ131030:PQJ131053 QAF131030:QAF131053 QKB131030:QKB131053 QTX131030:QTX131053 RDT131030:RDT131053 RNP131030:RNP131053 RXL131030:RXL131053 SHH131030:SHH131053 SRD131030:SRD131053 TAZ131030:TAZ131053 TKV131030:TKV131053 TUR131030:TUR131053 UEN131030:UEN131053 UOJ131030:UOJ131053 UYF131030:UYF131053 VIB131030:VIB131053 VRX131030:VRX131053 WBT131030:WBT131053 WLP131030:WLP131053 WVL131030:WVL131053 C196567:C196590 IZ196566:IZ196589 SV196566:SV196589 ACR196566:ACR196589 AMN196566:AMN196589 AWJ196566:AWJ196589 BGF196566:BGF196589 BQB196566:BQB196589 BZX196566:BZX196589 CJT196566:CJT196589 CTP196566:CTP196589 DDL196566:DDL196589 DNH196566:DNH196589 DXD196566:DXD196589 EGZ196566:EGZ196589 EQV196566:EQV196589 FAR196566:FAR196589 FKN196566:FKN196589 FUJ196566:FUJ196589 GEF196566:GEF196589 GOB196566:GOB196589 GXX196566:GXX196589 HHT196566:HHT196589 HRP196566:HRP196589 IBL196566:IBL196589 ILH196566:ILH196589 IVD196566:IVD196589 JEZ196566:JEZ196589 JOV196566:JOV196589 JYR196566:JYR196589 KIN196566:KIN196589 KSJ196566:KSJ196589 LCF196566:LCF196589 LMB196566:LMB196589 LVX196566:LVX196589 MFT196566:MFT196589 MPP196566:MPP196589 MZL196566:MZL196589 NJH196566:NJH196589 NTD196566:NTD196589 OCZ196566:OCZ196589 OMV196566:OMV196589 OWR196566:OWR196589 PGN196566:PGN196589 PQJ196566:PQJ196589 QAF196566:QAF196589 QKB196566:QKB196589 QTX196566:QTX196589 RDT196566:RDT196589 RNP196566:RNP196589 RXL196566:RXL196589 SHH196566:SHH196589 SRD196566:SRD196589 TAZ196566:TAZ196589 TKV196566:TKV196589 TUR196566:TUR196589 UEN196566:UEN196589 UOJ196566:UOJ196589 UYF196566:UYF196589 VIB196566:VIB196589 VRX196566:VRX196589 WBT196566:WBT196589 WLP196566:WLP196589 WVL196566:WVL196589 C262103:C262126 IZ262102:IZ262125 SV262102:SV262125 ACR262102:ACR262125 AMN262102:AMN262125 AWJ262102:AWJ262125 BGF262102:BGF262125 BQB262102:BQB262125 BZX262102:BZX262125 CJT262102:CJT262125 CTP262102:CTP262125 DDL262102:DDL262125 DNH262102:DNH262125 DXD262102:DXD262125 EGZ262102:EGZ262125 EQV262102:EQV262125 FAR262102:FAR262125 FKN262102:FKN262125 FUJ262102:FUJ262125 GEF262102:GEF262125 GOB262102:GOB262125 GXX262102:GXX262125 HHT262102:HHT262125 HRP262102:HRP262125 IBL262102:IBL262125 ILH262102:ILH262125 IVD262102:IVD262125 JEZ262102:JEZ262125 JOV262102:JOV262125 JYR262102:JYR262125 KIN262102:KIN262125 KSJ262102:KSJ262125 LCF262102:LCF262125 LMB262102:LMB262125 LVX262102:LVX262125 MFT262102:MFT262125 MPP262102:MPP262125 MZL262102:MZL262125 NJH262102:NJH262125 NTD262102:NTD262125 OCZ262102:OCZ262125 OMV262102:OMV262125 OWR262102:OWR262125 PGN262102:PGN262125 PQJ262102:PQJ262125 QAF262102:QAF262125 QKB262102:QKB262125 QTX262102:QTX262125 RDT262102:RDT262125 RNP262102:RNP262125 RXL262102:RXL262125 SHH262102:SHH262125 SRD262102:SRD262125 TAZ262102:TAZ262125 TKV262102:TKV262125 TUR262102:TUR262125 UEN262102:UEN262125 UOJ262102:UOJ262125 UYF262102:UYF262125 VIB262102:VIB262125 VRX262102:VRX262125 WBT262102:WBT262125 WLP262102:WLP262125 WVL262102:WVL262125 C327639:C327662 IZ327638:IZ327661 SV327638:SV327661 ACR327638:ACR327661 AMN327638:AMN327661 AWJ327638:AWJ327661 BGF327638:BGF327661 BQB327638:BQB327661 BZX327638:BZX327661 CJT327638:CJT327661 CTP327638:CTP327661 DDL327638:DDL327661 DNH327638:DNH327661 DXD327638:DXD327661 EGZ327638:EGZ327661 EQV327638:EQV327661 FAR327638:FAR327661 FKN327638:FKN327661 FUJ327638:FUJ327661 GEF327638:GEF327661 GOB327638:GOB327661 GXX327638:GXX327661 HHT327638:HHT327661 HRP327638:HRP327661 IBL327638:IBL327661 ILH327638:ILH327661 IVD327638:IVD327661 JEZ327638:JEZ327661 JOV327638:JOV327661 JYR327638:JYR327661 KIN327638:KIN327661 KSJ327638:KSJ327661 LCF327638:LCF327661 LMB327638:LMB327661 LVX327638:LVX327661 MFT327638:MFT327661 MPP327638:MPP327661 MZL327638:MZL327661 NJH327638:NJH327661 NTD327638:NTD327661 OCZ327638:OCZ327661 OMV327638:OMV327661 OWR327638:OWR327661 PGN327638:PGN327661 PQJ327638:PQJ327661 QAF327638:QAF327661 QKB327638:QKB327661 QTX327638:QTX327661 RDT327638:RDT327661 RNP327638:RNP327661 RXL327638:RXL327661 SHH327638:SHH327661 SRD327638:SRD327661 TAZ327638:TAZ327661 TKV327638:TKV327661 TUR327638:TUR327661 UEN327638:UEN327661 UOJ327638:UOJ327661 UYF327638:UYF327661 VIB327638:VIB327661 VRX327638:VRX327661 WBT327638:WBT327661 WLP327638:WLP327661 WVL327638:WVL327661 C393175:C393198 IZ393174:IZ393197 SV393174:SV393197 ACR393174:ACR393197 AMN393174:AMN393197 AWJ393174:AWJ393197 BGF393174:BGF393197 BQB393174:BQB393197 BZX393174:BZX393197 CJT393174:CJT393197 CTP393174:CTP393197 DDL393174:DDL393197 DNH393174:DNH393197 DXD393174:DXD393197 EGZ393174:EGZ393197 EQV393174:EQV393197 FAR393174:FAR393197 FKN393174:FKN393197 FUJ393174:FUJ393197 GEF393174:GEF393197 GOB393174:GOB393197 GXX393174:GXX393197 HHT393174:HHT393197 HRP393174:HRP393197 IBL393174:IBL393197 ILH393174:ILH393197 IVD393174:IVD393197 JEZ393174:JEZ393197 JOV393174:JOV393197 JYR393174:JYR393197 KIN393174:KIN393197 KSJ393174:KSJ393197 LCF393174:LCF393197 LMB393174:LMB393197 LVX393174:LVX393197 MFT393174:MFT393197 MPP393174:MPP393197 MZL393174:MZL393197 NJH393174:NJH393197 NTD393174:NTD393197 OCZ393174:OCZ393197 OMV393174:OMV393197 OWR393174:OWR393197 PGN393174:PGN393197 PQJ393174:PQJ393197 QAF393174:QAF393197 QKB393174:QKB393197 QTX393174:QTX393197 RDT393174:RDT393197 RNP393174:RNP393197 RXL393174:RXL393197 SHH393174:SHH393197 SRD393174:SRD393197 TAZ393174:TAZ393197 TKV393174:TKV393197 TUR393174:TUR393197 UEN393174:UEN393197 UOJ393174:UOJ393197 UYF393174:UYF393197 VIB393174:VIB393197 VRX393174:VRX393197 WBT393174:WBT393197 WLP393174:WLP393197 WVL393174:WVL393197 C458711:C458734 IZ458710:IZ458733 SV458710:SV458733 ACR458710:ACR458733 AMN458710:AMN458733 AWJ458710:AWJ458733 BGF458710:BGF458733 BQB458710:BQB458733 BZX458710:BZX458733 CJT458710:CJT458733 CTP458710:CTP458733 DDL458710:DDL458733 DNH458710:DNH458733 DXD458710:DXD458733 EGZ458710:EGZ458733 EQV458710:EQV458733 FAR458710:FAR458733 FKN458710:FKN458733 FUJ458710:FUJ458733 GEF458710:GEF458733 GOB458710:GOB458733 GXX458710:GXX458733 HHT458710:HHT458733 HRP458710:HRP458733 IBL458710:IBL458733 ILH458710:ILH458733 IVD458710:IVD458733 JEZ458710:JEZ458733 JOV458710:JOV458733 JYR458710:JYR458733 KIN458710:KIN458733 KSJ458710:KSJ458733 LCF458710:LCF458733 LMB458710:LMB458733 LVX458710:LVX458733 MFT458710:MFT458733 MPP458710:MPP458733 MZL458710:MZL458733 NJH458710:NJH458733 NTD458710:NTD458733 OCZ458710:OCZ458733 OMV458710:OMV458733 OWR458710:OWR458733 PGN458710:PGN458733 PQJ458710:PQJ458733 QAF458710:QAF458733 QKB458710:QKB458733 QTX458710:QTX458733 RDT458710:RDT458733 RNP458710:RNP458733 RXL458710:RXL458733 SHH458710:SHH458733 SRD458710:SRD458733 TAZ458710:TAZ458733 TKV458710:TKV458733 TUR458710:TUR458733 UEN458710:UEN458733 UOJ458710:UOJ458733 UYF458710:UYF458733 VIB458710:VIB458733 VRX458710:VRX458733 WBT458710:WBT458733 WLP458710:WLP458733 WVL458710:WVL458733 C524247:C524270 IZ524246:IZ524269 SV524246:SV524269 ACR524246:ACR524269 AMN524246:AMN524269 AWJ524246:AWJ524269 BGF524246:BGF524269 BQB524246:BQB524269 BZX524246:BZX524269 CJT524246:CJT524269 CTP524246:CTP524269 DDL524246:DDL524269 DNH524246:DNH524269 DXD524246:DXD524269 EGZ524246:EGZ524269 EQV524246:EQV524269 FAR524246:FAR524269 FKN524246:FKN524269 FUJ524246:FUJ524269 GEF524246:GEF524269 GOB524246:GOB524269 GXX524246:GXX524269 HHT524246:HHT524269 HRP524246:HRP524269 IBL524246:IBL524269 ILH524246:ILH524269 IVD524246:IVD524269 JEZ524246:JEZ524269 JOV524246:JOV524269 JYR524246:JYR524269 KIN524246:KIN524269 KSJ524246:KSJ524269 LCF524246:LCF524269 LMB524246:LMB524269 LVX524246:LVX524269 MFT524246:MFT524269 MPP524246:MPP524269 MZL524246:MZL524269 NJH524246:NJH524269 NTD524246:NTD524269 OCZ524246:OCZ524269 OMV524246:OMV524269 OWR524246:OWR524269 PGN524246:PGN524269 PQJ524246:PQJ524269 QAF524246:QAF524269 QKB524246:QKB524269 QTX524246:QTX524269 RDT524246:RDT524269 RNP524246:RNP524269 RXL524246:RXL524269 SHH524246:SHH524269 SRD524246:SRD524269 TAZ524246:TAZ524269 TKV524246:TKV524269 TUR524246:TUR524269 UEN524246:UEN524269 UOJ524246:UOJ524269 UYF524246:UYF524269 VIB524246:VIB524269 VRX524246:VRX524269 WBT524246:WBT524269 WLP524246:WLP524269 WVL524246:WVL524269 C589783:C589806 IZ589782:IZ589805 SV589782:SV589805 ACR589782:ACR589805 AMN589782:AMN589805 AWJ589782:AWJ589805 BGF589782:BGF589805 BQB589782:BQB589805 BZX589782:BZX589805 CJT589782:CJT589805 CTP589782:CTP589805 DDL589782:DDL589805 DNH589782:DNH589805 DXD589782:DXD589805 EGZ589782:EGZ589805 EQV589782:EQV589805 FAR589782:FAR589805 FKN589782:FKN589805 FUJ589782:FUJ589805 GEF589782:GEF589805 GOB589782:GOB589805 GXX589782:GXX589805 HHT589782:HHT589805 HRP589782:HRP589805 IBL589782:IBL589805 ILH589782:ILH589805 IVD589782:IVD589805 JEZ589782:JEZ589805 JOV589782:JOV589805 JYR589782:JYR589805 KIN589782:KIN589805 KSJ589782:KSJ589805 LCF589782:LCF589805 LMB589782:LMB589805 LVX589782:LVX589805 MFT589782:MFT589805 MPP589782:MPP589805 MZL589782:MZL589805 NJH589782:NJH589805 NTD589782:NTD589805 OCZ589782:OCZ589805 OMV589782:OMV589805 OWR589782:OWR589805 PGN589782:PGN589805 PQJ589782:PQJ589805 QAF589782:QAF589805 QKB589782:QKB589805 QTX589782:QTX589805 RDT589782:RDT589805 RNP589782:RNP589805 RXL589782:RXL589805 SHH589782:SHH589805 SRD589782:SRD589805 TAZ589782:TAZ589805 TKV589782:TKV589805 TUR589782:TUR589805 UEN589782:UEN589805 UOJ589782:UOJ589805 UYF589782:UYF589805 VIB589782:VIB589805 VRX589782:VRX589805 WBT589782:WBT589805 WLP589782:WLP589805 WVL589782:WVL589805 C655319:C655342 IZ655318:IZ655341 SV655318:SV655341 ACR655318:ACR655341 AMN655318:AMN655341 AWJ655318:AWJ655341 BGF655318:BGF655341 BQB655318:BQB655341 BZX655318:BZX655341 CJT655318:CJT655341 CTP655318:CTP655341 DDL655318:DDL655341 DNH655318:DNH655341 DXD655318:DXD655341 EGZ655318:EGZ655341 EQV655318:EQV655341 FAR655318:FAR655341 FKN655318:FKN655341 FUJ655318:FUJ655341 GEF655318:GEF655341 GOB655318:GOB655341 GXX655318:GXX655341 HHT655318:HHT655341 HRP655318:HRP655341 IBL655318:IBL655341 ILH655318:ILH655341 IVD655318:IVD655341 JEZ655318:JEZ655341 JOV655318:JOV655341 JYR655318:JYR655341 KIN655318:KIN655341 KSJ655318:KSJ655341 LCF655318:LCF655341 LMB655318:LMB655341 LVX655318:LVX655341 MFT655318:MFT655341 MPP655318:MPP655341 MZL655318:MZL655341 NJH655318:NJH655341 NTD655318:NTD655341 OCZ655318:OCZ655341 OMV655318:OMV655341 OWR655318:OWR655341 PGN655318:PGN655341 PQJ655318:PQJ655341 QAF655318:QAF655341 QKB655318:QKB655341 QTX655318:QTX655341 RDT655318:RDT655341 RNP655318:RNP655341 RXL655318:RXL655341 SHH655318:SHH655341 SRD655318:SRD655341 TAZ655318:TAZ655341 TKV655318:TKV655341 TUR655318:TUR655341 UEN655318:UEN655341 UOJ655318:UOJ655341 UYF655318:UYF655341 VIB655318:VIB655341 VRX655318:VRX655341 WBT655318:WBT655341 WLP655318:WLP655341 WVL655318:WVL655341 C720855:C720878 IZ720854:IZ720877 SV720854:SV720877 ACR720854:ACR720877 AMN720854:AMN720877 AWJ720854:AWJ720877 BGF720854:BGF720877 BQB720854:BQB720877 BZX720854:BZX720877 CJT720854:CJT720877 CTP720854:CTP720877 DDL720854:DDL720877 DNH720854:DNH720877 DXD720854:DXD720877 EGZ720854:EGZ720877 EQV720854:EQV720877 FAR720854:FAR720877 FKN720854:FKN720877 FUJ720854:FUJ720877 GEF720854:GEF720877 GOB720854:GOB720877 GXX720854:GXX720877 HHT720854:HHT720877 HRP720854:HRP720877 IBL720854:IBL720877 ILH720854:ILH720877 IVD720854:IVD720877 JEZ720854:JEZ720877 JOV720854:JOV720877 JYR720854:JYR720877 KIN720854:KIN720877 KSJ720854:KSJ720877 LCF720854:LCF720877 LMB720854:LMB720877 LVX720854:LVX720877 MFT720854:MFT720877 MPP720854:MPP720877 MZL720854:MZL720877 NJH720854:NJH720877 NTD720854:NTD720877 OCZ720854:OCZ720877 OMV720854:OMV720877 OWR720854:OWR720877 PGN720854:PGN720877 PQJ720854:PQJ720877 QAF720854:QAF720877 QKB720854:QKB720877 QTX720854:QTX720877 RDT720854:RDT720877 RNP720854:RNP720877 RXL720854:RXL720877 SHH720854:SHH720877 SRD720854:SRD720877 TAZ720854:TAZ720877 TKV720854:TKV720877 TUR720854:TUR720877 UEN720854:UEN720877 UOJ720854:UOJ720877 UYF720854:UYF720877 VIB720854:VIB720877 VRX720854:VRX720877 WBT720854:WBT720877 WLP720854:WLP720877 WVL720854:WVL720877 C786391:C786414 IZ786390:IZ786413 SV786390:SV786413 ACR786390:ACR786413 AMN786390:AMN786413 AWJ786390:AWJ786413 BGF786390:BGF786413 BQB786390:BQB786413 BZX786390:BZX786413 CJT786390:CJT786413 CTP786390:CTP786413 DDL786390:DDL786413 DNH786390:DNH786413 DXD786390:DXD786413 EGZ786390:EGZ786413 EQV786390:EQV786413 FAR786390:FAR786413 FKN786390:FKN786413 FUJ786390:FUJ786413 GEF786390:GEF786413 GOB786390:GOB786413 GXX786390:GXX786413 HHT786390:HHT786413 HRP786390:HRP786413 IBL786390:IBL786413 ILH786390:ILH786413 IVD786390:IVD786413 JEZ786390:JEZ786413 JOV786390:JOV786413 JYR786390:JYR786413 KIN786390:KIN786413 KSJ786390:KSJ786413 LCF786390:LCF786413 LMB786390:LMB786413 LVX786390:LVX786413 MFT786390:MFT786413 MPP786390:MPP786413 MZL786390:MZL786413 NJH786390:NJH786413 NTD786390:NTD786413 OCZ786390:OCZ786413 OMV786390:OMV786413 OWR786390:OWR786413 PGN786390:PGN786413 PQJ786390:PQJ786413 QAF786390:QAF786413 QKB786390:QKB786413 QTX786390:QTX786413 RDT786390:RDT786413 RNP786390:RNP786413 RXL786390:RXL786413 SHH786390:SHH786413 SRD786390:SRD786413 TAZ786390:TAZ786413 TKV786390:TKV786413 TUR786390:TUR786413 UEN786390:UEN786413 UOJ786390:UOJ786413 UYF786390:UYF786413 VIB786390:VIB786413 VRX786390:VRX786413 WBT786390:WBT786413 WLP786390:WLP786413 WVL786390:WVL786413 C851927:C851950 IZ851926:IZ851949 SV851926:SV851949 ACR851926:ACR851949 AMN851926:AMN851949 AWJ851926:AWJ851949 BGF851926:BGF851949 BQB851926:BQB851949 BZX851926:BZX851949 CJT851926:CJT851949 CTP851926:CTP851949 DDL851926:DDL851949 DNH851926:DNH851949 DXD851926:DXD851949 EGZ851926:EGZ851949 EQV851926:EQV851949 FAR851926:FAR851949 FKN851926:FKN851949 FUJ851926:FUJ851949 GEF851926:GEF851949 GOB851926:GOB851949 GXX851926:GXX851949 HHT851926:HHT851949 HRP851926:HRP851949 IBL851926:IBL851949 ILH851926:ILH851949 IVD851926:IVD851949 JEZ851926:JEZ851949 JOV851926:JOV851949 JYR851926:JYR851949 KIN851926:KIN851949 KSJ851926:KSJ851949 LCF851926:LCF851949 LMB851926:LMB851949 LVX851926:LVX851949 MFT851926:MFT851949 MPP851926:MPP851949 MZL851926:MZL851949 NJH851926:NJH851949 NTD851926:NTD851949 OCZ851926:OCZ851949 OMV851926:OMV851949 OWR851926:OWR851949 PGN851926:PGN851949 PQJ851926:PQJ851949 QAF851926:QAF851949 QKB851926:QKB851949 QTX851926:QTX851949 RDT851926:RDT851949 RNP851926:RNP851949 RXL851926:RXL851949 SHH851926:SHH851949 SRD851926:SRD851949 TAZ851926:TAZ851949 TKV851926:TKV851949 TUR851926:TUR851949 UEN851926:UEN851949 UOJ851926:UOJ851949 UYF851926:UYF851949 VIB851926:VIB851949 VRX851926:VRX851949 WBT851926:WBT851949 WLP851926:WLP851949 WVL851926:WVL851949 C917463:C917486 IZ917462:IZ917485 SV917462:SV917485 ACR917462:ACR917485 AMN917462:AMN917485 AWJ917462:AWJ917485 BGF917462:BGF917485 BQB917462:BQB917485 BZX917462:BZX917485 CJT917462:CJT917485 CTP917462:CTP917485 DDL917462:DDL917485 DNH917462:DNH917485 DXD917462:DXD917485 EGZ917462:EGZ917485 EQV917462:EQV917485 FAR917462:FAR917485 FKN917462:FKN917485 FUJ917462:FUJ917485 GEF917462:GEF917485 GOB917462:GOB917485 GXX917462:GXX917485 HHT917462:HHT917485 HRP917462:HRP917485 IBL917462:IBL917485 ILH917462:ILH917485 IVD917462:IVD917485 JEZ917462:JEZ917485 JOV917462:JOV917485 JYR917462:JYR917485 KIN917462:KIN917485 KSJ917462:KSJ917485 LCF917462:LCF917485 LMB917462:LMB917485 LVX917462:LVX917485 MFT917462:MFT917485 MPP917462:MPP917485 MZL917462:MZL917485 NJH917462:NJH917485 NTD917462:NTD917485 OCZ917462:OCZ917485 OMV917462:OMV917485 OWR917462:OWR917485 PGN917462:PGN917485 PQJ917462:PQJ917485 QAF917462:QAF917485 QKB917462:QKB917485 QTX917462:QTX917485 RDT917462:RDT917485 RNP917462:RNP917485 RXL917462:RXL917485 SHH917462:SHH917485 SRD917462:SRD917485 TAZ917462:TAZ917485 TKV917462:TKV917485 TUR917462:TUR917485 UEN917462:UEN917485 UOJ917462:UOJ917485 UYF917462:UYF917485 VIB917462:VIB917485 VRX917462:VRX917485 WBT917462:WBT917485 WLP917462:WLP917485 WVL917462:WVL917485 C982999:C983022 IZ982998:IZ983021 SV982998:SV983021 ACR982998:ACR983021 AMN982998:AMN983021 AWJ982998:AWJ983021 BGF982998:BGF983021 BQB982998:BQB983021 BZX982998:BZX983021 CJT982998:CJT983021 CTP982998:CTP983021 DDL982998:DDL983021 DNH982998:DNH983021 DXD982998:DXD983021 EGZ982998:EGZ983021 EQV982998:EQV983021 FAR982998:FAR983021 FKN982998:FKN983021 FUJ982998:FUJ983021 GEF982998:GEF983021 GOB982998:GOB983021 GXX982998:GXX983021 HHT982998:HHT983021 HRP982998:HRP983021 IBL982998:IBL983021 ILH982998:ILH983021 IVD982998:IVD983021 JEZ982998:JEZ983021 JOV982998:JOV983021 JYR982998:JYR983021 KIN982998:KIN983021 KSJ982998:KSJ983021 LCF982998:LCF983021 LMB982998:LMB983021 LVX982998:LVX983021 MFT982998:MFT983021 MPP982998:MPP983021 MZL982998:MZL983021 NJH982998:NJH983021 NTD982998:NTD983021 OCZ982998:OCZ983021 OMV982998:OMV983021 OWR982998:OWR983021 PGN982998:PGN983021 PQJ982998:PQJ983021 QAF982998:QAF983021 QKB982998:QKB983021 QTX982998:QTX983021 RDT982998:RDT983021 RNP982998:RNP983021 RXL982998:RXL983021 SHH982998:SHH983021 SRD982998:SRD983021 TAZ982998:TAZ983021 TKV982998:TKV983021 TUR982998:TUR983021 UEN982998:UEN983021 UOJ982998:UOJ983021 UYF982998:UYF983021 VIB982998:VIB983021 VRX982998:VRX983021 WBT982998:WBT983021 WLP982998:WLP983021 WVL982998:WVL983021 D13:D16 SL24:SL28 WLF14:WLF22 WBJ14:WBJ22 VRN14:VRN22 VHR14:VHR22 UXV14:UXV22 UNZ14:UNZ22 UED14:UED22 TUH14:TUH22 TKL14:TKL22 TAP14:TAP22 SQT14:SQT22 SGX14:SGX22 RXB14:RXB22 RNF14:RNF22 RDJ14:RDJ22 QTN14:QTN22 QJR14:QJR22 PZV14:PZV22 PPZ14:PPZ22 PGD14:PGD22 OWH14:OWH22 OML14:OML22 OCP14:OCP22 NST14:NST22 NIX14:NIX22 MZB14:MZB22 MPF14:MPF22 MFJ14:MFJ22 LVN14:LVN22 LLR14:LLR22 LBV14:LBV22 KRZ14:KRZ22 KID14:KID22 JYH14:JYH22 JOL14:JOL22 JEP14:JEP22 IUT14:IUT22 IKX14:IKX22 IBB14:IBB22 HRF14:HRF22 HHJ14:HHJ22 GXN14:GXN22 GNR14:GNR22 GDV14:GDV22 FTZ14:FTZ22 FKD14:FKD22 FAH14:FAH22 EQL14:EQL22 EGP14:EGP22 DWT14:DWT22 DMX14:DMX22 DDB14:DDB22 CTF14:CTF22 CJJ14:CJJ22 BZN14:BZN22 BPR14:BPR22 BFV14:BFV22 AVZ14:AVZ22 AMD14:AMD22 ACH14:ACH22 SL14:SL22 IP14:IP22 WVB14:WVB22 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D27:D28 SL32 IP32 WVB32 WLF32 WBJ32 VRN32 VHR32 UXV32 UNZ32 UED32 TUH32 TKL32 TAP32 SQT32 SGX32 RXB32 RNF32 RDJ32 QTN32 QJR32 PZV32 PPZ32 PGD32 OWH32 OML32 OCP32 NST32 NIX32 MZB32 MPF32 MFJ32 LVN32 LLR32 LBV32 KRZ32 KID32 JYH32 JOL32 JEP32 IUT32 IKX32 IBB32 HRF32 HHJ32 GXN32 GNR32 GDV32 FTZ32 FKD32 FAH32 EQL32 EGP32 DWT32 DMX32 DDB32 CTF32 CJJ32 BZN32 BPR32 BFV32 AVZ32 AMD32 ACH32 ABX29:ABX31 ACH24:ACH28 ALT29:ALT31 AMD24:AMD28 AVP29:AVP31 AVZ24:AVZ28 BFL29:BFL31 BFV24:BFV28 BPH29:BPH31 BPR24:BPR28 BZD29:BZD31 BZN24:BZN28 CIZ29:CIZ31 CJJ24:CJJ28 CSV29:CSV31 CTF24:CTF28 DCR29:DCR31 DDB24:DDB28 DMN29:DMN31 DMX24:DMX28 DWJ29:DWJ31 DWT24:DWT28 EGF29:EGF31 EGP24:EGP28 EQB29:EQB31 EQL24:EQL28 EZX29:EZX31 FAH24:FAH28 FJT29:FJT31 FKD24:FKD28 FTP29:FTP31 FTZ24:FTZ28 GDL29:GDL31 GDV24:GDV28 GNH29:GNH31 GNR24:GNR28 GXD29:GXD31 GXN24:GXN28 HGZ29:HGZ31 HHJ24:HHJ28 HQV29:HQV31 HRF24:HRF28 IAR29:IAR31 IBB24:IBB28 IKN29:IKN31 IKX24:IKX28 IUJ29:IUJ31 IUT24:IUT28 JEF29:JEF31 JEP24:JEP28 JOB29:JOB31 JOL24:JOL28 JXX29:JXX31 JYH24:JYH28 KHT29:KHT31 KID24:KID28 KRP29:KRP31 KRZ24:KRZ28 LBL29:LBL31 LBV24:LBV28 LLH29:LLH31 LLR24:LLR28 LVD29:LVD31 LVN24:LVN28 MEZ29:MEZ31 MFJ24:MFJ28 MOV29:MOV31 MPF24:MPF28 MYR29:MYR31 MZB24:MZB28 NIN29:NIN31 NIX24:NIX28 NSJ29:NSJ31 NST24:NST28 OCF29:OCF31 OCP24:OCP28 OMB29:OMB31 OML24:OML28 OVX29:OVX31 OWH24:OWH28 PFT29:PFT31 PGD24:PGD28 PPP29:PPP31 PPZ24:PPZ28 PZL29:PZL31 PZV24:PZV28 QJH29:QJH31 QJR24:QJR28 QTD29:QTD31 QTN24:QTN28 RCZ29:RCZ31 RDJ24:RDJ28 RMV29:RMV31 RNF24:RNF28 RWR29:RWR31 RXB24:RXB28 SGN29:SGN31 SGX24:SGX28 SQJ29:SQJ31 SQT24:SQT28 TAF29:TAF31 TAP24:TAP28 TKB29:TKB31 TKL24:TKL28 TTX29:TTX31 TUH24:TUH28 UDT29:UDT31 UED24:UED28 UNP29:UNP31 UNZ24:UNZ28 UXL29:UXL31 UXV24:UXV28 VHH29:VHH31 VHR24:VHR28 VRD29:VRD31 VRN24:VRN28 WAZ29:WAZ31 WBJ24:WBJ28 WKV29:WKV31 WLF24:WLF28 WUR29:WUR31 WVB24:WVB28 IF29:IF31 IP24:IP28 SB29:SB31 D133:D134 D99:D102 D6:D9 D54:D55 D63:D64 D72:D73 D81:D82 D125 D118:D119 D41:D42 D34:D35 D90:D91 D128 D21:D22 D107:D113 D47:D50" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65496:C65519 IZ65495:IZ65518 SV65495:SV65518 ACR65495:ACR65518 AMN65495:AMN65518 AWJ65495:AWJ65518 BGF65495:BGF65518 BQB65495:BQB65518 BZX65495:BZX65518 CJT65495:CJT65518 CTP65495:CTP65518 DDL65495:DDL65518 DNH65495:DNH65518 DXD65495:DXD65518 EGZ65495:EGZ65518 EQV65495:EQV65518 FAR65495:FAR65518 FKN65495:FKN65518 FUJ65495:FUJ65518 GEF65495:GEF65518 GOB65495:GOB65518 GXX65495:GXX65518 HHT65495:HHT65518 HRP65495:HRP65518 IBL65495:IBL65518 ILH65495:ILH65518 IVD65495:IVD65518 JEZ65495:JEZ65518 JOV65495:JOV65518 JYR65495:JYR65518 KIN65495:KIN65518 KSJ65495:KSJ65518 LCF65495:LCF65518 LMB65495:LMB65518 LVX65495:LVX65518 MFT65495:MFT65518 MPP65495:MPP65518 MZL65495:MZL65518 NJH65495:NJH65518 NTD65495:NTD65518 OCZ65495:OCZ65518 OMV65495:OMV65518 OWR65495:OWR65518 PGN65495:PGN65518 PQJ65495:PQJ65518 QAF65495:QAF65518 QKB65495:QKB65518 QTX65495:QTX65518 RDT65495:RDT65518 RNP65495:RNP65518 RXL65495:RXL65518 SHH65495:SHH65518 SRD65495:SRD65518 TAZ65495:TAZ65518 TKV65495:TKV65518 TUR65495:TUR65518 UEN65495:UEN65518 UOJ65495:UOJ65518 UYF65495:UYF65518 VIB65495:VIB65518 VRX65495:VRX65518 WBT65495:WBT65518 WLP65495:WLP65518 WVL65495:WVL65518 C131032:C131055 IZ131031:IZ131054 SV131031:SV131054 ACR131031:ACR131054 AMN131031:AMN131054 AWJ131031:AWJ131054 BGF131031:BGF131054 BQB131031:BQB131054 BZX131031:BZX131054 CJT131031:CJT131054 CTP131031:CTP131054 DDL131031:DDL131054 DNH131031:DNH131054 DXD131031:DXD131054 EGZ131031:EGZ131054 EQV131031:EQV131054 FAR131031:FAR131054 FKN131031:FKN131054 FUJ131031:FUJ131054 GEF131031:GEF131054 GOB131031:GOB131054 GXX131031:GXX131054 HHT131031:HHT131054 HRP131031:HRP131054 IBL131031:IBL131054 ILH131031:ILH131054 IVD131031:IVD131054 JEZ131031:JEZ131054 JOV131031:JOV131054 JYR131031:JYR131054 KIN131031:KIN131054 KSJ131031:KSJ131054 LCF131031:LCF131054 LMB131031:LMB131054 LVX131031:LVX131054 MFT131031:MFT131054 MPP131031:MPP131054 MZL131031:MZL131054 NJH131031:NJH131054 NTD131031:NTD131054 OCZ131031:OCZ131054 OMV131031:OMV131054 OWR131031:OWR131054 PGN131031:PGN131054 PQJ131031:PQJ131054 QAF131031:QAF131054 QKB131031:QKB131054 QTX131031:QTX131054 RDT131031:RDT131054 RNP131031:RNP131054 RXL131031:RXL131054 SHH131031:SHH131054 SRD131031:SRD131054 TAZ131031:TAZ131054 TKV131031:TKV131054 TUR131031:TUR131054 UEN131031:UEN131054 UOJ131031:UOJ131054 UYF131031:UYF131054 VIB131031:VIB131054 VRX131031:VRX131054 WBT131031:WBT131054 WLP131031:WLP131054 WVL131031:WVL131054 C196568:C196591 IZ196567:IZ196590 SV196567:SV196590 ACR196567:ACR196590 AMN196567:AMN196590 AWJ196567:AWJ196590 BGF196567:BGF196590 BQB196567:BQB196590 BZX196567:BZX196590 CJT196567:CJT196590 CTP196567:CTP196590 DDL196567:DDL196590 DNH196567:DNH196590 DXD196567:DXD196590 EGZ196567:EGZ196590 EQV196567:EQV196590 FAR196567:FAR196590 FKN196567:FKN196590 FUJ196567:FUJ196590 GEF196567:GEF196590 GOB196567:GOB196590 GXX196567:GXX196590 HHT196567:HHT196590 HRP196567:HRP196590 IBL196567:IBL196590 ILH196567:ILH196590 IVD196567:IVD196590 JEZ196567:JEZ196590 JOV196567:JOV196590 JYR196567:JYR196590 KIN196567:KIN196590 KSJ196567:KSJ196590 LCF196567:LCF196590 LMB196567:LMB196590 LVX196567:LVX196590 MFT196567:MFT196590 MPP196567:MPP196590 MZL196567:MZL196590 NJH196567:NJH196590 NTD196567:NTD196590 OCZ196567:OCZ196590 OMV196567:OMV196590 OWR196567:OWR196590 PGN196567:PGN196590 PQJ196567:PQJ196590 QAF196567:QAF196590 QKB196567:QKB196590 QTX196567:QTX196590 RDT196567:RDT196590 RNP196567:RNP196590 RXL196567:RXL196590 SHH196567:SHH196590 SRD196567:SRD196590 TAZ196567:TAZ196590 TKV196567:TKV196590 TUR196567:TUR196590 UEN196567:UEN196590 UOJ196567:UOJ196590 UYF196567:UYF196590 VIB196567:VIB196590 VRX196567:VRX196590 WBT196567:WBT196590 WLP196567:WLP196590 WVL196567:WVL196590 C262104:C262127 IZ262103:IZ262126 SV262103:SV262126 ACR262103:ACR262126 AMN262103:AMN262126 AWJ262103:AWJ262126 BGF262103:BGF262126 BQB262103:BQB262126 BZX262103:BZX262126 CJT262103:CJT262126 CTP262103:CTP262126 DDL262103:DDL262126 DNH262103:DNH262126 DXD262103:DXD262126 EGZ262103:EGZ262126 EQV262103:EQV262126 FAR262103:FAR262126 FKN262103:FKN262126 FUJ262103:FUJ262126 GEF262103:GEF262126 GOB262103:GOB262126 GXX262103:GXX262126 HHT262103:HHT262126 HRP262103:HRP262126 IBL262103:IBL262126 ILH262103:ILH262126 IVD262103:IVD262126 JEZ262103:JEZ262126 JOV262103:JOV262126 JYR262103:JYR262126 KIN262103:KIN262126 KSJ262103:KSJ262126 LCF262103:LCF262126 LMB262103:LMB262126 LVX262103:LVX262126 MFT262103:MFT262126 MPP262103:MPP262126 MZL262103:MZL262126 NJH262103:NJH262126 NTD262103:NTD262126 OCZ262103:OCZ262126 OMV262103:OMV262126 OWR262103:OWR262126 PGN262103:PGN262126 PQJ262103:PQJ262126 QAF262103:QAF262126 QKB262103:QKB262126 QTX262103:QTX262126 RDT262103:RDT262126 RNP262103:RNP262126 RXL262103:RXL262126 SHH262103:SHH262126 SRD262103:SRD262126 TAZ262103:TAZ262126 TKV262103:TKV262126 TUR262103:TUR262126 UEN262103:UEN262126 UOJ262103:UOJ262126 UYF262103:UYF262126 VIB262103:VIB262126 VRX262103:VRX262126 WBT262103:WBT262126 WLP262103:WLP262126 WVL262103:WVL262126 C327640:C327663 IZ327639:IZ327662 SV327639:SV327662 ACR327639:ACR327662 AMN327639:AMN327662 AWJ327639:AWJ327662 BGF327639:BGF327662 BQB327639:BQB327662 BZX327639:BZX327662 CJT327639:CJT327662 CTP327639:CTP327662 DDL327639:DDL327662 DNH327639:DNH327662 DXD327639:DXD327662 EGZ327639:EGZ327662 EQV327639:EQV327662 FAR327639:FAR327662 FKN327639:FKN327662 FUJ327639:FUJ327662 GEF327639:GEF327662 GOB327639:GOB327662 GXX327639:GXX327662 HHT327639:HHT327662 HRP327639:HRP327662 IBL327639:IBL327662 ILH327639:ILH327662 IVD327639:IVD327662 JEZ327639:JEZ327662 JOV327639:JOV327662 JYR327639:JYR327662 KIN327639:KIN327662 KSJ327639:KSJ327662 LCF327639:LCF327662 LMB327639:LMB327662 LVX327639:LVX327662 MFT327639:MFT327662 MPP327639:MPP327662 MZL327639:MZL327662 NJH327639:NJH327662 NTD327639:NTD327662 OCZ327639:OCZ327662 OMV327639:OMV327662 OWR327639:OWR327662 PGN327639:PGN327662 PQJ327639:PQJ327662 QAF327639:QAF327662 QKB327639:QKB327662 QTX327639:QTX327662 RDT327639:RDT327662 RNP327639:RNP327662 RXL327639:RXL327662 SHH327639:SHH327662 SRD327639:SRD327662 TAZ327639:TAZ327662 TKV327639:TKV327662 TUR327639:TUR327662 UEN327639:UEN327662 UOJ327639:UOJ327662 UYF327639:UYF327662 VIB327639:VIB327662 VRX327639:VRX327662 WBT327639:WBT327662 WLP327639:WLP327662 WVL327639:WVL327662 C393176:C393199 IZ393175:IZ393198 SV393175:SV393198 ACR393175:ACR393198 AMN393175:AMN393198 AWJ393175:AWJ393198 BGF393175:BGF393198 BQB393175:BQB393198 BZX393175:BZX393198 CJT393175:CJT393198 CTP393175:CTP393198 DDL393175:DDL393198 DNH393175:DNH393198 DXD393175:DXD393198 EGZ393175:EGZ393198 EQV393175:EQV393198 FAR393175:FAR393198 FKN393175:FKN393198 FUJ393175:FUJ393198 GEF393175:GEF393198 GOB393175:GOB393198 GXX393175:GXX393198 HHT393175:HHT393198 HRP393175:HRP393198 IBL393175:IBL393198 ILH393175:ILH393198 IVD393175:IVD393198 JEZ393175:JEZ393198 JOV393175:JOV393198 JYR393175:JYR393198 KIN393175:KIN393198 KSJ393175:KSJ393198 LCF393175:LCF393198 LMB393175:LMB393198 LVX393175:LVX393198 MFT393175:MFT393198 MPP393175:MPP393198 MZL393175:MZL393198 NJH393175:NJH393198 NTD393175:NTD393198 OCZ393175:OCZ393198 OMV393175:OMV393198 OWR393175:OWR393198 PGN393175:PGN393198 PQJ393175:PQJ393198 QAF393175:QAF393198 QKB393175:QKB393198 QTX393175:QTX393198 RDT393175:RDT393198 RNP393175:RNP393198 RXL393175:RXL393198 SHH393175:SHH393198 SRD393175:SRD393198 TAZ393175:TAZ393198 TKV393175:TKV393198 TUR393175:TUR393198 UEN393175:UEN393198 UOJ393175:UOJ393198 UYF393175:UYF393198 VIB393175:VIB393198 VRX393175:VRX393198 WBT393175:WBT393198 WLP393175:WLP393198 WVL393175:WVL393198 C458712:C458735 IZ458711:IZ458734 SV458711:SV458734 ACR458711:ACR458734 AMN458711:AMN458734 AWJ458711:AWJ458734 BGF458711:BGF458734 BQB458711:BQB458734 BZX458711:BZX458734 CJT458711:CJT458734 CTP458711:CTP458734 DDL458711:DDL458734 DNH458711:DNH458734 DXD458711:DXD458734 EGZ458711:EGZ458734 EQV458711:EQV458734 FAR458711:FAR458734 FKN458711:FKN458734 FUJ458711:FUJ458734 GEF458711:GEF458734 GOB458711:GOB458734 GXX458711:GXX458734 HHT458711:HHT458734 HRP458711:HRP458734 IBL458711:IBL458734 ILH458711:ILH458734 IVD458711:IVD458734 JEZ458711:JEZ458734 JOV458711:JOV458734 JYR458711:JYR458734 KIN458711:KIN458734 KSJ458711:KSJ458734 LCF458711:LCF458734 LMB458711:LMB458734 LVX458711:LVX458734 MFT458711:MFT458734 MPP458711:MPP458734 MZL458711:MZL458734 NJH458711:NJH458734 NTD458711:NTD458734 OCZ458711:OCZ458734 OMV458711:OMV458734 OWR458711:OWR458734 PGN458711:PGN458734 PQJ458711:PQJ458734 QAF458711:QAF458734 QKB458711:QKB458734 QTX458711:QTX458734 RDT458711:RDT458734 RNP458711:RNP458734 RXL458711:RXL458734 SHH458711:SHH458734 SRD458711:SRD458734 TAZ458711:TAZ458734 TKV458711:TKV458734 TUR458711:TUR458734 UEN458711:UEN458734 UOJ458711:UOJ458734 UYF458711:UYF458734 VIB458711:VIB458734 VRX458711:VRX458734 WBT458711:WBT458734 WLP458711:WLP458734 WVL458711:WVL458734 C524248:C524271 IZ524247:IZ524270 SV524247:SV524270 ACR524247:ACR524270 AMN524247:AMN524270 AWJ524247:AWJ524270 BGF524247:BGF524270 BQB524247:BQB524270 BZX524247:BZX524270 CJT524247:CJT524270 CTP524247:CTP524270 DDL524247:DDL524270 DNH524247:DNH524270 DXD524247:DXD524270 EGZ524247:EGZ524270 EQV524247:EQV524270 FAR524247:FAR524270 FKN524247:FKN524270 FUJ524247:FUJ524270 GEF524247:GEF524270 GOB524247:GOB524270 GXX524247:GXX524270 HHT524247:HHT524270 HRP524247:HRP524270 IBL524247:IBL524270 ILH524247:ILH524270 IVD524247:IVD524270 JEZ524247:JEZ524270 JOV524247:JOV524270 JYR524247:JYR524270 KIN524247:KIN524270 KSJ524247:KSJ524270 LCF524247:LCF524270 LMB524247:LMB524270 LVX524247:LVX524270 MFT524247:MFT524270 MPP524247:MPP524270 MZL524247:MZL524270 NJH524247:NJH524270 NTD524247:NTD524270 OCZ524247:OCZ524270 OMV524247:OMV524270 OWR524247:OWR524270 PGN524247:PGN524270 PQJ524247:PQJ524270 QAF524247:QAF524270 QKB524247:QKB524270 QTX524247:QTX524270 RDT524247:RDT524270 RNP524247:RNP524270 RXL524247:RXL524270 SHH524247:SHH524270 SRD524247:SRD524270 TAZ524247:TAZ524270 TKV524247:TKV524270 TUR524247:TUR524270 UEN524247:UEN524270 UOJ524247:UOJ524270 UYF524247:UYF524270 VIB524247:VIB524270 VRX524247:VRX524270 WBT524247:WBT524270 WLP524247:WLP524270 WVL524247:WVL524270 C589784:C589807 IZ589783:IZ589806 SV589783:SV589806 ACR589783:ACR589806 AMN589783:AMN589806 AWJ589783:AWJ589806 BGF589783:BGF589806 BQB589783:BQB589806 BZX589783:BZX589806 CJT589783:CJT589806 CTP589783:CTP589806 DDL589783:DDL589806 DNH589783:DNH589806 DXD589783:DXD589806 EGZ589783:EGZ589806 EQV589783:EQV589806 FAR589783:FAR589806 FKN589783:FKN589806 FUJ589783:FUJ589806 GEF589783:GEF589806 GOB589783:GOB589806 GXX589783:GXX589806 HHT589783:HHT589806 HRP589783:HRP589806 IBL589783:IBL589806 ILH589783:ILH589806 IVD589783:IVD589806 JEZ589783:JEZ589806 JOV589783:JOV589806 JYR589783:JYR589806 KIN589783:KIN589806 KSJ589783:KSJ589806 LCF589783:LCF589806 LMB589783:LMB589806 LVX589783:LVX589806 MFT589783:MFT589806 MPP589783:MPP589806 MZL589783:MZL589806 NJH589783:NJH589806 NTD589783:NTD589806 OCZ589783:OCZ589806 OMV589783:OMV589806 OWR589783:OWR589806 PGN589783:PGN589806 PQJ589783:PQJ589806 QAF589783:QAF589806 QKB589783:QKB589806 QTX589783:QTX589806 RDT589783:RDT589806 RNP589783:RNP589806 RXL589783:RXL589806 SHH589783:SHH589806 SRD589783:SRD589806 TAZ589783:TAZ589806 TKV589783:TKV589806 TUR589783:TUR589806 UEN589783:UEN589806 UOJ589783:UOJ589806 UYF589783:UYF589806 VIB589783:VIB589806 VRX589783:VRX589806 WBT589783:WBT589806 WLP589783:WLP589806 WVL589783:WVL589806 C655320:C655343 IZ655319:IZ655342 SV655319:SV655342 ACR655319:ACR655342 AMN655319:AMN655342 AWJ655319:AWJ655342 BGF655319:BGF655342 BQB655319:BQB655342 BZX655319:BZX655342 CJT655319:CJT655342 CTP655319:CTP655342 DDL655319:DDL655342 DNH655319:DNH655342 DXD655319:DXD655342 EGZ655319:EGZ655342 EQV655319:EQV655342 FAR655319:FAR655342 FKN655319:FKN655342 FUJ655319:FUJ655342 GEF655319:GEF655342 GOB655319:GOB655342 GXX655319:GXX655342 HHT655319:HHT655342 HRP655319:HRP655342 IBL655319:IBL655342 ILH655319:ILH655342 IVD655319:IVD655342 JEZ655319:JEZ655342 JOV655319:JOV655342 JYR655319:JYR655342 KIN655319:KIN655342 KSJ655319:KSJ655342 LCF655319:LCF655342 LMB655319:LMB655342 LVX655319:LVX655342 MFT655319:MFT655342 MPP655319:MPP655342 MZL655319:MZL655342 NJH655319:NJH655342 NTD655319:NTD655342 OCZ655319:OCZ655342 OMV655319:OMV655342 OWR655319:OWR655342 PGN655319:PGN655342 PQJ655319:PQJ655342 QAF655319:QAF655342 QKB655319:QKB655342 QTX655319:QTX655342 RDT655319:RDT655342 RNP655319:RNP655342 RXL655319:RXL655342 SHH655319:SHH655342 SRD655319:SRD655342 TAZ655319:TAZ655342 TKV655319:TKV655342 TUR655319:TUR655342 UEN655319:UEN655342 UOJ655319:UOJ655342 UYF655319:UYF655342 VIB655319:VIB655342 VRX655319:VRX655342 WBT655319:WBT655342 WLP655319:WLP655342 WVL655319:WVL655342 C720856:C720879 IZ720855:IZ720878 SV720855:SV720878 ACR720855:ACR720878 AMN720855:AMN720878 AWJ720855:AWJ720878 BGF720855:BGF720878 BQB720855:BQB720878 BZX720855:BZX720878 CJT720855:CJT720878 CTP720855:CTP720878 DDL720855:DDL720878 DNH720855:DNH720878 DXD720855:DXD720878 EGZ720855:EGZ720878 EQV720855:EQV720878 FAR720855:FAR720878 FKN720855:FKN720878 FUJ720855:FUJ720878 GEF720855:GEF720878 GOB720855:GOB720878 GXX720855:GXX720878 HHT720855:HHT720878 HRP720855:HRP720878 IBL720855:IBL720878 ILH720855:ILH720878 IVD720855:IVD720878 JEZ720855:JEZ720878 JOV720855:JOV720878 JYR720855:JYR720878 KIN720855:KIN720878 KSJ720855:KSJ720878 LCF720855:LCF720878 LMB720855:LMB720878 LVX720855:LVX720878 MFT720855:MFT720878 MPP720855:MPP720878 MZL720855:MZL720878 NJH720855:NJH720878 NTD720855:NTD720878 OCZ720855:OCZ720878 OMV720855:OMV720878 OWR720855:OWR720878 PGN720855:PGN720878 PQJ720855:PQJ720878 QAF720855:QAF720878 QKB720855:QKB720878 QTX720855:QTX720878 RDT720855:RDT720878 RNP720855:RNP720878 RXL720855:RXL720878 SHH720855:SHH720878 SRD720855:SRD720878 TAZ720855:TAZ720878 TKV720855:TKV720878 TUR720855:TUR720878 UEN720855:UEN720878 UOJ720855:UOJ720878 UYF720855:UYF720878 VIB720855:VIB720878 VRX720855:VRX720878 WBT720855:WBT720878 WLP720855:WLP720878 WVL720855:WVL720878 C786392:C786415 IZ786391:IZ786414 SV786391:SV786414 ACR786391:ACR786414 AMN786391:AMN786414 AWJ786391:AWJ786414 BGF786391:BGF786414 BQB786391:BQB786414 BZX786391:BZX786414 CJT786391:CJT786414 CTP786391:CTP786414 DDL786391:DDL786414 DNH786391:DNH786414 DXD786391:DXD786414 EGZ786391:EGZ786414 EQV786391:EQV786414 FAR786391:FAR786414 FKN786391:FKN786414 FUJ786391:FUJ786414 GEF786391:GEF786414 GOB786391:GOB786414 GXX786391:GXX786414 HHT786391:HHT786414 HRP786391:HRP786414 IBL786391:IBL786414 ILH786391:ILH786414 IVD786391:IVD786414 JEZ786391:JEZ786414 JOV786391:JOV786414 JYR786391:JYR786414 KIN786391:KIN786414 KSJ786391:KSJ786414 LCF786391:LCF786414 LMB786391:LMB786414 LVX786391:LVX786414 MFT786391:MFT786414 MPP786391:MPP786414 MZL786391:MZL786414 NJH786391:NJH786414 NTD786391:NTD786414 OCZ786391:OCZ786414 OMV786391:OMV786414 OWR786391:OWR786414 PGN786391:PGN786414 PQJ786391:PQJ786414 QAF786391:QAF786414 QKB786391:QKB786414 QTX786391:QTX786414 RDT786391:RDT786414 RNP786391:RNP786414 RXL786391:RXL786414 SHH786391:SHH786414 SRD786391:SRD786414 TAZ786391:TAZ786414 TKV786391:TKV786414 TUR786391:TUR786414 UEN786391:UEN786414 UOJ786391:UOJ786414 UYF786391:UYF786414 VIB786391:VIB786414 VRX786391:VRX786414 WBT786391:WBT786414 WLP786391:WLP786414 WVL786391:WVL786414 C851928:C851951 IZ851927:IZ851950 SV851927:SV851950 ACR851927:ACR851950 AMN851927:AMN851950 AWJ851927:AWJ851950 BGF851927:BGF851950 BQB851927:BQB851950 BZX851927:BZX851950 CJT851927:CJT851950 CTP851927:CTP851950 DDL851927:DDL851950 DNH851927:DNH851950 DXD851927:DXD851950 EGZ851927:EGZ851950 EQV851927:EQV851950 FAR851927:FAR851950 FKN851927:FKN851950 FUJ851927:FUJ851950 GEF851927:GEF851950 GOB851927:GOB851950 GXX851927:GXX851950 HHT851927:HHT851950 HRP851927:HRP851950 IBL851927:IBL851950 ILH851927:ILH851950 IVD851927:IVD851950 JEZ851927:JEZ851950 JOV851927:JOV851950 JYR851927:JYR851950 KIN851927:KIN851950 KSJ851927:KSJ851950 LCF851927:LCF851950 LMB851927:LMB851950 LVX851927:LVX851950 MFT851927:MFT851950 MPP851927:MPP851950 MZL851927:MZL851950 NJH851927:NJH851950 NTD851927:NTD851950 OCZ851927:OCZ851950 OMV851927:OMV851950 OWR851927:OWR851950 PGN851927:PGN851950 PQJ851927:PQJ851950 QAF851927:QAF851950 QKB851927:QKB851950 QTX851927:QTX851950 RDT851927:RDT851950 RNP851927:RNP851950 RXL851927:RXL851950 SHH851927:SHH851950 SRD851927:SRD851950 TAZ851927:TAZ851950 TKV851927:TKV851950 TUR851927:TUR851950 UEN851927:UEN851950 UOJ851927:UOJ851950 UYF851927:UYF851950 VIB851927:VIB851950 VRX851927:VRX851950 WBT851927:WBT851950 WLP851927:WLP851950 WVL851927:WVL851950 C917464:C917487 IZ917463:IZ917486 SV917463:SV917486 ACR917463:ACR917486 AMN917463:AMN917486 AWJ917463:AWJ917486 BGF917463:BGF917486 BQB917463:BQB917486 BZX917463:BZX917486 CJT917463:CJT917486 CTP917463:CTP917486 DDL917463:DDL917486 DNH917463:DNH917486 DXD917463:DXD917486 EGZ917463:EGZ917486 EQV917463:EQV917486 FAR917463:FAR917486 FKN917463:FKN917486 FUJ917463:FUJ917486 GEF917463:GEF917486 GOB917463:GOB917486 GXX917463:GXX917486 HHT917463:HHT917486 HRP917463:HRP917486 IBL917463:IBL917486 ILH917463:ILH917486 IVD917463:IVD917486 JEZ917463:JEZ917486 JOV917463:JOV917486 JYR917463:JYR917486 KIN917463:KIN917486 KSJ917463:KSJ917486 LCF917463:LCF917486 LMB917463:LMB917486 LVX917463:LVX917486 MFT917463:MFT917486 MPP917463:MPP917486 MZL917463:MZL917486 NJH917463:NJH917486 NTD917463:NTD917486 OCZ917463:OCZ917486 OMV917463:OMV917486 OWR917463:OWR917486 PGN917463:PGN917486 PQJ917463:PQJ917486 QAF917463:QAF917486 QKB917463:QKB917486 QTX917463:QTX917486 RDT917463:RDT917486 RNP917463:RNP917486 RXL917463:RXL917486 SHH917463:SHH917486 SRD917463:SRD917486 TAZ917463:TAZ917486 TKV917463:TKV917486 TUR917463:TUR917486 UEN917463:UEN917486 UOJ917463:UOJ917486 UYF917463:UYF917486 VIB917463:VIB917486 VRX917463:VRX917486 WBT917463:WBT917486 WLP917463:WLP917486 WVL917463:WVL917486 C983000:C983023 IZ982999:IZ983022 SV982999:SV983022 ACR982999:ACR983022 AMN982999:AMN983022 AWJ982999:AWJ983022 BGF982999:BGF983022 BQB982999:BQB983022 BZX982999:BZX983022 CJT982999:CJT983022 CTP982999:CTP983022 DDL982999:DDL983022 DNH982999:DNH983022 DXD982999:DXD983022 EGZ982999:EGZ983022 EQV982999:EQV983022 FAR982999:FAR983022 FKN982999:FKN983022 FUJ982999:FUJ983022 GEF982999:GEF983022 GOB982999:GOB983022 GXX982999:GXX983022 HHT982999:HHT983022 HRP982999:HRP983022 IBL982999:IBL983022 ILH982999:ILH983022 IVD982999:IVD983022 JEZ982999:JEZ983022 JOV982999:JOV983022 JYR982999:JYR983022 KIN982999:KIN983022 KSJ982999:KSJ983022 LCF982999:LCF983022 LMB982999:LMB983022 LVX982999:LVX983022 MFT982999:MFT983022 MPP982999:MPP983022 MZL982999:MZL983022 NJH982999:NJH983022 NTD982999:NTD983022 OCZ982999:OCZ983022 OMV982999:OMV983022 OWR982999:OWR983022 PGN982999:PGN983022 PQJ982999:PQJ983022 QAF982999:QAF983022 QKB982999:QKB983022 QTX982999:QTX983022 RDT982999:RDT983022 RNP982999:RNP983022 RXL982999:RXL983022 SHH982999:SHH983022 SRD982999:SRD983022 TAZ982999:TAZ983022 TKV982999:TKV983022 TUR982999:TUR983022 UEN982999:UEN983022 UOJ982999:UOJ983022 UYF982999:UYF983022 VIB982999:VIB983022 VRX982999:VRX983022 WBT982999:WBT983022 WLP982999:WLP983022 WVL982999:WVL983022 D48:D51 SL25:SL29 WLF14:WLF23 WBJ14:WBJ23 VRN14:VRN23 VHR14:VHR23 UXV14:UXV23 UNZ14:UNZ23 UED14:UED23 TUH14:TUH23 TKL14:TKL23 TAP14:TAP23 SQT14:SQT23 SGX14:SGX23 RXB14:RXB23 RNF14:RNF23 RDJ14:RDJ23 QTN14:QTN23 QJR14:QJR23 PZV14:PZV23 PPZ14:PPZ23 PGD14:PGD23 OWH14:OWH23 OML14:OML23 OCP14:OCP23 NST14:NST23 NIX14:NIX23 MZB14:MZB23 MPF14:MPF23 MFJ14:MFJ23 LVN14:LVN23 LLR14:LLR23 LBV14:LBV23 KRZ14:KRZ23 KID14:KID23 JYH14:JYH23 JOL14:JOL23 JEP14:JEP23 IUT14:IUT23 IKX14:IKX23 IBB14:IBB23 HRF14:HRF23 HHJ14:HHJ23 GXN14:GXN23 GNR14:GNR23 GDV14:GDV23 FTZ14:FTZ23 FKD14:FKD23 FAH14:FAH23 EQL14:EQL23 EGP14:EGP23 DWT14:DWT23 DMX14:DMX23 DDB14:DDB23 CTF14:CTF23 CJJ14:CJJ23 BZN14:BZN23 BPR14:BPR23 BFV14:BFV23 AVZ14:AVZ23 AMD14:AMD23 ACH14:ACH23 SL14:SL23 IP14:IP23 WVB14:WVB23 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D28:D29 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D134:D135 D100:D103 D6:D9 D55:D56 D64:D65 D73:D74 D82:D83 D126 D119:D120 D42:D43 D35:D36 D91:D92 D129 D22:D23 D108:D114 D13:D17" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04E0B85-8D79-4333-8AEB-936D1E42BE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4535CDB-75CC-4FDA-BBA7-4E00DF8A1679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3030" windowWidth="8565" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,6 @@
     <t>The type of housing that the settlement offers</t>
   </si>
   <si>
-    <t>SettlementItems</t>
-  </si>
-  <si>
     <t>Stored</t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>Amount of money person hold</t>
+  </si>
+  <si>
+    <t>SettlementInventory</t>
   </si>
 </sst>
 </file>
@@ -984,6 +984,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -993,10 +997,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44543.804939467591</v>
+        <v>44544.319404513888</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1827,17 +1827,17 @@
       <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
@@ -2123,10 +2123,10 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="82" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="83" t="s">
         <v>169</v>
-      </c>
-      <c r="C17" s="83" t="s">
-        <v>170</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>120</v>
@@ -2249,17 +2249,17 @@
       <c r="A26" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="92"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
     </row>
     <row r="27" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -2727,10 +2727,10 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
-      <c r="C51" s="93"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -2858,10 +2858,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="57" t="s">
         <v>155</v>
-      </c>
-      <c r="C58" s="57" t="s">
-        <v>156</v>
       </c>
       <c r="D58" s="82" t="s">
         <v>18</v>
@@ -2883,7 +2883,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D59" s="82" t="s">
         <v>51</v>
@@ -3032,10 +3032,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D67" s="82" t="s">
         <v>18</v>
@@ -3057,7 +3057,7 @@
         <v>49</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="82" t="s">
         <v>51</v>
@@ -3218,10 +3218,10 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>18</v>
@@ -3243,7 +3243,7 @@
         <v>49</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" s="82" t="s">
         <v>51</v>
@@ -3381,10 +3381,10 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D85" s="82" t="s">
         <v>18</v>
@@ -3406,7 +3406,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D86" s="82" t="s">
         <v>51</v>
@@ -3428,7 +3428,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -3475,14 +3475,14 @@
       <c r="A91" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="94" t="s">
+      <c r="B91" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="C91" s="83" t="s">
-        <v>163</v>
-      </c>
       <c r="D91" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="13"/>
@@ -3490,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11" t="s">
@@ -3503,7 +3503,7 @@
         <v>67</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>18</v>
@@ -3525,7 +3525,7 @@
         <v>88</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D93" s="82" t="s">
         <v>120</v>
@@ -3544,10 +3544,10 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D94" s="82" t="s">
         <v>18</v>
@@ -3569,7 +3569,7 @@
         <v>49</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D95" s="82" t="s">
         <v>51</v>
@@ -4328,18 +4328,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4528,18 +4528,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4535CDB-75CC-4FDA-BBA7-4E00DF8A1679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB7F62-4766-4ED7-8E3A-034F21BBD96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
     <t>How much the medicine costs</t>
   </si>
   <si>
-    <t>HousingDescription</t>
-  </si>
-  <si>
     <t>TransID</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>MedicinePrice</t>
   </si>
   <si>
-    <t>HousingPrice</t>
-  </si>
-  <si>
     <t>TransTimeStamp</t>
   </si>
   <si>
@@ -547,6 +541,12 @@
   </si>
   <si>
     <t>SettlementInventory</t>
+  </si>
+  <si>
+    <t>MiscDescription</t>
+  </si>
+  <si>
+    <t>MiscPrice</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44544.319404513888</v>
+        <v>44545.279090393517</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1926,10 +1926,10 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>29</v>
@@ -1942,7 +1942,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1952,10 +1952,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>18</v>
@@ -2027,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -2053,7 +2053,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>34</v>
@@ -2077,7 +2077,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>35</v>
@@ -2101,7 +2101,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>36</v>
@@ -2123,13 +2123,13 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
@@ -2148,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2196,10 +2196,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
@@ -2225,7 +2225,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>15</v>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="93"/>
@@ -2324,7 +2324,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>40</v>
@@ -2348,13 +2348,13 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -2433,10 +2433,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>15</v>
@@ -2489,7 +2489,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -2556,10 +2556,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>15</v>
@@ -2572,7 +2572,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="82" t="s">
@@ -2582,10 +2582,10 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D43" s="82" t="s">
         <v>18</v>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -2681,10 +2681,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>15</v>
@@ -2790,10 +2790,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>15</v>
@@ -2804,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
@@ -2836,13 +2836,13 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2858,10 +2858,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D58" s="82" t="s">
         <v>18</v>
@@ -2883,7 +2883,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59" s="82" t="s">
         <v>51</v>
@@ -2964,10 +2964,10 @@
         <v>13</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>15</v>
@@ -2978,7 +2978,7 @@
         <v>20</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
@@ -3010,13 +3010,13 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -3032,10 +3032,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="82" t="s">
         <v>18</v>
@@ -3057,7 +3057,7 @@
         <v>49</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D68" s="82" t="s">
         <v>51</v>
@@ -3150,10 +3150,10 @@
         <v>13</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>15</v>
@@ -3164,7 +3164,7 @@
         <v>20</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11" t="s">
@@ -3196,13 +3196,13 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -3218,10 +3218,10 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>18</v>
@@ -3243,7 +3243,7 @@
         <v>49</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" s="82" t="s">
         <v>51</v>
@@ -3313,10 +3313,10 @@
         <v>13</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>15</v>
@@ -3327,7 +3327,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="11" t="s">
@@ -3359,13 +3359,13 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>66</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
@@ -3381,10 +3381,10 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D85" s="82" t="s">
         <v>18</v>
@@ -3406,7 +3406,7 @@
         <v>49</v>
       </c>
       <c r="C86" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D86" s="82" t="s">
         <v>51</v>
@@ -3428,7 +3428,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -3476,13 +3476,13 @@
         <v>13</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C91" s="83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="13"/>
@@ -3490,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11" t="s">
@@ -3500,10 +3500,10 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>18</v>
@@ -3522,13 +3522,13 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
@@ -3544,10 +3544,10 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D94" s="82" t="s">
         <v>18</v>
@@ -3569,7 +3569,7 @@
         <v>49</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D95" s="82" t="s">
         <v>51</v>
@@ -3591,7 +3591,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -3639,23 +3639,23 @@
         <v>13</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D100" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F100" s="54"/>
       <c r="G100" s="52" t="s">
         <v>20</v>
       </c>
       <c r="H100" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I100" s="52"/>
       <c r="J100" s="52" t="s">
@@ -3667,10 +3667,10 @@
         <v>21</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D101" s="52" t="s">
         <v>15</v>
@@ -3689,10 +3689,10 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="57"/>
       <c r="B102" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C102" s="57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D102" s="52" t="s">
         <v>37</v>
@@ -3711,13 +3711,13 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="57"/>
       <c r="B103" s="57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C103" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D103" s="52" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E103" s="57"/>
       <c r="F103" s="57"/>
@@ -3736,7 +3736,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -3784,10 +3784,10 @@
         <v>41</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D108" s="82" t="s">
         <v>15</v>
@@ -3808,10 +3808,10 @@
         <v>21</v>
       </c>
       <c r="B109" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C109" s="83" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>15</v>
@@ -3824,7 +3824,7 @@
       <c r="H109" s="82"/>
       <c r="I109" s="82"/>
       <c r="J109" s="82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3832,10 +3832,10 @@
         <v>21</v>
       </c>
       <c r="B110" s="82" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C110" s="83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D110" s="82" t="s">
         <v>15</v>
@@ -3848,7 +3848,7 @@
       <c r="H110" s="82"/>
       <c r="I110" s="82"/>
       <c r="J110" s="82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3856,10 +3856,10 @@
         <v>21</v>
       </c>
       <c r="B111" s="82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C111" s="83" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D111" s="82" t="s">
         <v>15</v>
@@ -3872,7 +3872,7 @@
       <c r="H111" s="82"/>
       <c r="I111" s="82"/>
       <c r="J111" s="82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3880,10 +3880,10 @@
         <v>21</v>
       </c>
       <c r="B112" s="82" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C112" s="83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D112" s="82" t="s">
         <v>15</v>
@@ -3896,7 +3896,7 @@
       <c r="H112" s="82"/>
       <c r="I112" s="82"/>
       <c r="J112" s="82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -3904,10 +3904,10 @@
         <v>21</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>15</v>
@@ -3920,7 +3920,7 @@
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -3929,10 +3929,10 @@
         <v>49</v>
       </c>
       <c r="C114" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D114" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
@@ -3951,7 +3951,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C117" s="41"/>
       <c r="D117" s="41"/>
@@ -3999,23 +3999,23 @@
         <v>13</v>
       </c>
       <c r="B119" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C119" s="35" t="s">
         <v>72</v>
-      </c>
-      <c r="C119" s="35" t="s">
-        <v>73</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F119" s="36"/>
       <c r="G119" s="34" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I119" s="34"/>
       <c r="J119" s="34" t="s">
@@ -4025,10 +4025,10 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C120" s="35" t="s">
         <v>76</v>
-      </c>
-      <c r="C120" s="35" t="s">
-        <v>77</v>
       </c>
       <c r="D120" s="34" t="s">
         <v>18</v>
@@ -4047,13 +4047,13 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D121" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39"/>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C124" s="30"/>
       <c r="D124" s="30"/>
@@ -4120,23 +4120,23 @@
         <v>13</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D126" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F126" s="26"/>
       <c r="G126" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I126" s="24"/>
       <c r="J126" s="24" t="s">
@@ -4146,10 +4146,10 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>37</v>
@@ -4168,10 +4168,10 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D128" s="24" t="s">
         <v>18</v>
@@ -4192,23 +4192,23 @@
         <v>13</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D129" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F129" s="26"/>
       <c r="G129" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I129" s="24"/>
       <c r="J129" s="24" t="s">
@@ -4221,7 +4221,7 @@
         <v>2</v>
       </c>
       <c r="B132" s="87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C132" s="88"/>
       <c r="D132" s="88"/>
@@ -4269,10 +4269,10 @@
         <v>41</v>
       </c>
       <c r="B134" s="82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C134" s="83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D134" s="82" t="s">
         <v>15</v>
@@ -4293,10 +4293,10 @@
         <v>41</v>
       </c>
       <c r="B135" s="82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C135" s="83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D135" s="82" t="s">
         <v>15</v>
@@ -4328,18 +4328,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4528,18 +4528,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\DatabaseIIGroupOne-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DB7F62-4766-4ED7-8E3A-034F21BBD96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FBB03B-DD32-4099-A48F-5E097CE2F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12705" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="184">
   <si>
     <t>Database Name</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Starts with S</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Amount settlement has</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>How much the weapon costs</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
     <t>FoodDescription</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>Starts with M</t>
   </si>
   <si>
-    <t>Check it starts with M and is integer</t>
-  </si>
-  <si>
     <t>MissionDate</t>
   </si>
   <si>
@@ -360,9 +351,6 @@
     <t>JobDescription</t>
   </si>
   <si>
-    <t>JobBasePay/Day</t>
-  </si>
-  <si>
     <t>The base pay for this job/day</t>
   </si>
   <si>
@@ -480,9 +468,6 @@
     <t>TransactionDetails</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
     <t>Unique ID for Transaction</t>
   </si>
   <si>
@@ -492,9 +477,6 @@
     <t>The type of housing that the settlement offers</t>
   </si>
   <si>
-    <t>Stored</t>
-  </si>
-  <si>
     <t>Location in settlement where to find weapons</t>
   </si>
   <si>
@@ -528,12 +510,6 @@
     <t>Location in settlement where to find items</t>
   </si>
   <si>
-    <t>Check it starts with MI</t>
-  </si>
-  <si>
-    <t>varchar(6)</t>
-  </si>
-  <si>
     <t>AmountOfMoney</t>
   </si>
   <si>
@@ -547,6 +523,69 @@
   </si>
   <si>
     <t>MiscPrice</t>
+  </si>
+  <si>
+    <t>Foods</t>
+  </si>
+  <si>
+    <t>WeaponQuantity</t>
+  </si>
+  <si>
+    <t>FoodStored</t>
+  </si>
+  <si>
+    <t>FoodQuantity</t>
+  </si>
+  <si>
+    <t>VehicleQuantity</t>
+  </si>
+  <si>
+    <t>MedicineStored</t>
+  </si>
+  <si>
+    <t>MedicineQuantity</t>
+  </si>
+  <si>
+    <t>MiscStored</t>
+  </si>
+  <si>
+    <t>MiscQuantity</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>QuantityBought</t>
+  </si>
+  <si>
+    <t>Check it starts with Q and is integer</t>
+  </si>
+  <si>
+    <t>JobBasePayPerDay</t>
+  </si>
+  <si>
+    <t>SetQuantity</t>
+  </si>
+  <si>
+    <t>Check it starts with U</t>
+  </si>
+  <si>
+    <t>WeaponStored</t>
+  </si>
+  <si>
+    <t>VehicleStored</t>
+  </si>
+  <si>
+    <t>PayPerPerson</t>
+  </si>
+  <si>
+    <t>Description of pay</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -735,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -996,6 +1035,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J130" sqref="J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1858,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44545.279090393517</v>
+        <v>44549.879600231485</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1926,10 +1968,10 @@
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="63"/>
       <c r="B8" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C8" s="64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>29</v>
@@ -1942,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I8" s="63"/>
       <c r="J8" s="63" t="s">
@@ -1952,10 +1994,10 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="82"/>
       <c r="B9" s="82" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D9" s="82" t="s">
         <v>18</v>
@@ -2027,7 +2069,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>14</v>
@@ -2053,7 +2095,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>34</v>
@@ -2077,7 +2119,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>35</v>
@@ -2101,7 +2143,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>36</v>
@@ -2123,13 +2165,13 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="82"/>
       <c r="B17" s="82" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E17" s="83"/>
       <c r="F17" s="83"/>
@@ -2148,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
@@ -2196,10 +2238,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>15</v>
@@ -2225,7 +2267,7 @@
         <v>25</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>15</v>
@@ -2250,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="93"/>
@@ -2324,7 +2366,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
       <c r="B29" s="45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" s="46" t="s">
         <v>40</v>
@@ -2348,13 +2390,13 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
       <c r="B30" s="45" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
@@ -2385,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20"/>
@@ -2433,10 +2475,10 @@
         <v>41</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>15</v>
@@ -2489,7 +2531,7 @@
         <v>44</v>
       </c>
       <c r="D37" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -2508,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
@@ -2556,10 +2598,10 @@
         <v>13</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>15</v>
@@ -2572,7 +2614,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I42" s="11"/>
       <c r="J42" s="82" t="s">
@@ -2582,10 +2624,10 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="82"/>
       <c r="B43" s="82" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C43" s="83" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D43" s="82" t="s">
         <v>18</v>
@@ -2607,7 +2649,7 @@
         <v>2</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -2681,10 +2723,10 @@
         <v>41</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>15</v>
@@ -2705,13 +2747,13 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="82"/>
       <c r="B50" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="83" t="s">
+      <c r="D50" s="82" t="s">
         <v>50</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>51</v>
       </c>
       <c r="E50" s="83"/>
       <c r="F50" s="83"/>
@@ -2742,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="20"/>
@@ -2790,10 +2832,10 @@
         <v>13</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>15</v>
@@ -2804,7 +2846,7 @@
         <v>20</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I55" s="11"/>
       <c r="J55" s="11" t="s">
@@ -2814,10 +2856,10 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>18</v>
@@ -2836,13 +2878,13 @@
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="B57" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E57" s="16"/>
       <c r="F57" s="16"/>
@@ -2858,10 +2900,10 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="57"/>
       <c r="B58" s="57" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D58" s="82" t="s">
         <v>18</v>
@@ -2880,13 +2922,13 @@
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="57"/>
       <c r="B59" s="57" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D59" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E59" s="57"/>
       <c r="F59" s="57"/>
@@ -2916,7 +2958,7 @@
         <v>2</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C62" s="20"/>
       <c r="D62" s="20"/>
@@ -2964,10 +3006,10 @@
         <v>13</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>15</v>
@@ -2978,7 +3020,7 @@
         <v>20</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
@@ -2988,10 +3030,10 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>18</v>
@@ -3010,13 +3052,13 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="16"/>
       <c r="B66" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D66" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E66" s="16"/>
       <c r="F66" s="16"/>
@@ -3032,10 +3074,10 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="57"/>
       <c r="B67" s="57" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D67" s="82" t="s">
         <v>18</v>
@@ -3054,13 +3096,13 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="57" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="C68" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D68" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E68" s="57"/>
       <c r="F68" s="57"/>
@@ -3102,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" s="20"/>
       <c r="D71" s="20"/>
@@ -3150,10 +3192,10 @@
         <v>13</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>15</v>
@@ -3164,7 +3206,7 @@
         <v>20</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="11" t="s">
@@ -3174,10 +3216,10 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>18</v>
@@ -3196,13 +3238,13 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="B75" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D75" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
@@ -3218,10 +3260,10 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="57"/>
       <c r="B76" s="57" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D76" s="82" t="s">
         <v>18</v>
@@ -3240,13 +3282,13 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="57"/>
       <c r="B77" s="57" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D77" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E77" s="57"/>
       <c r="F77" s="57"/>
@@ -3265,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
@@ -3313,10 +3355,10 @@
         <v>13</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>15</v>
@@ -3327,7 +3369,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I82" s="11"/>
       <c r="J82" s="11" t="s">
@@ -3337,10 +3379,10 @@
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>18</v>
@@ -3359,13 +3401,13 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D84" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E84" s="16"/>
       <c r="F84" s="16"/>
@@ -3381,10 +3423,10 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="57"/>
       <c r="B85" s="57" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D85" s="82" t="s">
         <v>18</v>
@@ -3403,13 +3445,13 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="57"/>
       <c r="B86" s="57" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="C86" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D86" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E86" s="57"/>
       <c r="F86" s="57"/>
@@ -3428,7 +3470,7 @@
         <v>2</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20"/>
@@ -3476,13 +3518,13 @@
         <v>13</v>
       </c>
       <c r="B91" s="91" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C91" s="83" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="13"/>
@@ -3490,7 +3532,7 @@
         <v>20</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11" t="s">
@@ -3500,10 +3542,10 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="11" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>18</v>
@@ -3522,13 +3564,13 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="16"/>
       <c r="B93" s="16" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D93" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E93" s="16"/>
       <c r="F93" s="16"/>
@@ -3544,10 +3586,10 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="57"/>
       <c r="B94" s="57" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C94" s="57" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D94" s="82" t="s">
         <v>18</v>
@@ -3566,13 +3608,13 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="57"/>
       <c r="B95" s="57" t="s">
-        <v>49</v>
+        <v>171</v>
       </c>
       <c r="C95" s="57" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D95" s="82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E95" s="57"/>
       <c r="F95" s="57"/>
@@ -3591,7 +3633,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="58" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
@@ -3639,23 +3681,23 @@
         <v>13</v>
       </c>
       <c r="B100" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C100" s="53" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D100" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F100" s="54"/>
       <c r="G100" s="52" t="s">
         <v>20</v>
       </c>
       <c r="H100" s="52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I100" s="52"/>
       <c r="J100" s="52" t="s">
@@ -3667,10 +3709,10 @@
         <v>21</v>
       </c>
       <c r="B101" s="52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D101" s="52" t="s">
         <v>15</v>
@@ -3689,10 +3731,10 @@
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="57"/>
       <c r="B102" s="57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C102" s="57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D102" s="52" t="s">
         <v>37</v>
@@ -3711,13 +3753,13 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="57"/>
       <c r="B103" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C103" s="57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D103" s="52" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E103" s="57"/>
       <c r="F103" s="57"/>
@@ -3736,7 +3778,7 @@
         <v>2</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C106" s="20"/>
       <c r="D106" s="20"/>
@@ -3784,10 +3826,10 @@
         <v>41</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D108" s="82" t="s">
         <v>15</v>
@@ -3808,10 +3850,10 @@
         <v>21</v>
       </c>
       <c r="B109" s="82" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C109" s="83" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D109" s="82" t="s">
         <v>15</v>
@@ -3824,7 +3866,7 @@
       <c r="H109" s="82"/>
       <c r="I109" s="82"/>
       <c r="J109" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -3832,10 +3874,10 @@
         <v>21</v>
       </c>
       <c r="B110" s="82" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C110" s="83" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D110" s="82" t="s">
         <v>15</v>
@@ -3848,7 +3890,7 @@
       <c r="H110" s="82"/>
       <c r="I110" s="82"/>
       <c r="J110" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -3856,10 +3898,10 @@
         <v>21</v>
       </c>
       <c r="B111" s="82" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C111" s="83" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D111" s="82" t="s">
         <v>15</v>
@@ -3872,7 +3914,7 @@
       <c r="H111" s="82"/>
       <c r="I111" s="82"/>
       <c r="J111" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -3880,10 +3922,10 @@
         <v>21</v>
       </c>
       <c r="B112" s="82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C112" s="83" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D112" s="82" t="s">
         <v>15</v>
@@ -3896,7 +3938,7 @@
       <c r="H112" s="82"/>
       <c r="I112" s="82"/>
       <c r="J112" s="82" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -3904,10 +3946,10 @@
         <v>21</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>15</v>
@@ -3920,19 +3962,19 @@
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="16"/>
       <c r="B114" s="16" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E114" s="16"/>
       <c r="F114" s="16"/>
@@ -3951,7 +3993,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C117" s="41"/>
       <c r="D117" s="41"/>
@@ -3999,23 +4041,23 @@
         <v>13</v>
       </c>
       <c r="B119" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C119" s="35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D119" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E119" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F119" s="36"/>
       <c r="G119" s="34" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I119" s="34"/>
       <c r="J119" s="34" t="s">
@@ -4025,10 +4067,10 @@
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
       <c r="B120" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D120" s="34" t="s">
         <v>18</v>
@@ -4047,13 +4089,13 @@
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C121" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D121" s="82" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E121" s="39"/>
       <c r="F121" s="39"/>
@@ -4072,7 +4114,7 @@
         <v>2</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C124" s="30"/>
       <c r="D124" s="30"/>
@@ -4120,23 +4162,23 @@
         <v>13</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D126" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F126" s="26"/>
       <c r="G126" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H126" s="24" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="I126" s="24"/>
       <c r="J126" s="24" t="s">
@@ -4146,10 +4188,10 @@
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="24"/>
       <c r="B127" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D127" s="24" t="s">
         <v>37</v>
@@ -4168,10 +4210,10 @@
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="24"/>
       <c r="B128" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D128" s="24" t="s">
         <v>18</v>
@@ -4189,103 +4231,99 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D129" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F129" s="26"/>
       <c r="G129" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H129" s="24" t="s">
-        <v>74</v>
-      </c>
+      <c r="H129" s="24"/>
       <c r="I129" s="24"/>
       <c r="J129" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="85" t="s">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="17"/>
+      <c r="B130" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="E130" s="90"/>
+      <c r="F130" s="95"/>
+      <c r="G130" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="133" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="B132" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="C132" s="88"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88"/>
-      <c r="F132" s="88"/>
-      <c r="G132" s="88"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="88"/>
-      <c r="J132" s="89"/>
-    </row>
-    <row r="133" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="86" t="s">
+      <c r="B133" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C133" s="88"/>
+      <c r="D133" s="88"/>
+      <c r="E133" s="88"/>
+      <c r="F133" s="88"/>
+      <c r="G133" s="88"/>
+      <c r="H133" s="88"/>
+      <c r="I133" s="88"/>
+      <c r="J133" s="89"/>
+    </row>
+    <row r="134" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="80" t="s">
+      <c r="B134" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C133" s="81" t="s">
+      <c r="C134" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="81" t="s">
+      <c r="D134" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="81" t="s">
+      <c r="E134" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F133" s="81" t="s">
+      <c r="F134" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="G133" s="81" t="s">
+      <c r="G134" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H133" s="81" t="s">
+      <c r="H134" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I133" s="81" t="s">
+      <c r="I134" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="J133" s="81" t="s">
+      <c r="J134" s="81" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="B134" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" s="82"/>
-      <c r="I134" s="82"/>
-      <c r="J134" s="82" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -4293,22 +4331,46 @@
         <v>41</v>
       </c>
       <c r="B135" s="82" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C135" s="83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D135" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E135" s="83"/>
-      <c r="F135" s="84"/>
+      <c r="F135" s="83"/>
       <c r="G135" s="82" t="s">
         <v>19</v>
       </c>
       <c r="H135" s="82"/>
       <c r="I135" s="82"/>
       <c r="J135" s="82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" s="83"/>
+      <c r="F136" s="84"/>
+      <c r="G136" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="82"/>
+      <c r="I136" s="82"/>
+      <c r="J136" s="82" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4318,31 +4380,16 @@
     <mergeCell ref="B4:J4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65504:F65519 WVO983007:WVP983022 WLS983007:WLT983022 WBW983007:WBX983022 VSA983007:VSB983022 VIE983007:VIF983022 UYI983007:UYJ983022 UOM983007:UON983022 UEQ983007:UER983022 TUU983007:TUV983022 TKY983007:TKZ983022 TBC983007:TBD983022 SRG983007:SRH983022 SHK983007:SHL983022 RXO983007:RXP983022 RNS983007:RNT983022 RDW983007:RDX983022 QUA983007:QUB983022 QKE983007:QKF983022 QAI983007:QAJ983022 PQM983007:PQN983022 PGQ983007:PGR983022 OWU983007:OWV983022 OMY983007:OMZ983022 ODC983007:ODD983022 NTG983007:NTH983022 NJK983007:NJL983022 MZO983007:MZP983022 MPS983007:MPT983022 MFW983007:MFX983022 LWA983007:LWB983022 LME983007:LMF983022 LCI983007:LCJ983022 KSM983007:KSN983022 KIQ983007:KIR983022 JYU983007:JYV983022 JOY983007:JOZ983022 JFC983007:JFD983022 IVG983007:IVH983022 ILK983007:ILL983022 IBO983007:IBP983022 HRS983007:HRT983022 HHW983007:HHX983022 GYA983007:GYB983022 GOE983007:GOF983022 GEI983007:GEJ983022 FUM983007:FUN983022 FKQ983007:FKR983022 FAU983007:FAV983022 EQY983007:EQZ983022 EHC983007:EHD983022 DXG983007:DXH983022 DNK983007:DNL983022 DDO983007:DDP983022 CTS983007:CTT983022 CJW983007:CJX983022 CAA983007:CAB983022 BQE983007:BQF983022 BGI983007:BGJ983022 AWM983007:AWN983022 AMQ983007:AMR983022 ACU983007:ACV983022 SY983007:SZ983022 JC983007:JD983022 F983008:F983023 WVO917471:WVP917486 WLS917471:WLT917486 WBW917471:WBX917486 VSA917471:VSB917486 VIE917471:VIF917486 UYI917471:UYJ917486 UOM917471:UON917486 UEQ917471:UER917486 TUU917471:TUV917486 TKY917471:TKZ917486 TBC917471:TBD917486 SRG917471:SRH917486 SHK917471:SHL917486 RXO917471:RXP917486 RNS917471:RNT917486 RDW917471:RDX917486 QUA917471:QUB917486 QKE917471:QKF917486 QAI917471:QAJ917486 PQM917471:PQN917486 PGQ917471:PGR917486 OWU917471:OWV917486 OMY917471:OMZ917486 ODC917471:ODD917486 NTG917471:NTH917486 NJK917471:NJL917486 MZO917471:MZP917486 MPS917471:MPT917486 MFW917471:MFX917486 LWA917471:LWB917486 LME917471:LMF917486 LCI917471:LCJ917486 KSM917471:KSN917486 KIQ917471:KIR917486 JYU917471:JYV917486 JOY917471:JOZ917486 JFC917471:JFD917486 IVG917471:IVH917486 ILK917471:ILL917486 IBO917471:IBP917486 HRS917471:HRT917486 HHW917471:HHX917486 GYA917471:GYB917486 GOE917471:GOF917486 GEI917471:GEJ917486 FUM917471:FUN917486 FKQ917471:FKR917486 FAU917471:FAV917486 EQY917471:EQZ917486 EHC917471:EHD917486 DXG917471:DXH917486 DNK917471:DNL917486 DDO917471:DDP917486 CTS917471:CTT917486 CJW917471:CJX917486 CAA917471:CAB917486 BQE917471:BQF917486 BGI917471:BGJ917486 AWM917471:AWN917486 AMQ917471:AMR917486 ACU917471:ACV917486 SY917471:SZ917486 JC917471:JD917486 F917472:F917487 WVO851935:WVP851950 WLS851935:WLT851950 WBW851935:WBX851950 VSA851935:VSB851950 VIE851935:VIF851950 UYI851935:UYJ851950 UOM851935:UON851950 UEQ851935:UER851950 TUU851935:TUV851950 TKY851935:TKZ851950 TBC851935:TBD851950 SRG851935:SRH851950 SHK851935:SHL851950 RXO851935:RXP851950 RNS851935:RNT851950 RDW851935:RDX851950 QUA851935:QUB851950 QKE851935:QKF851950 QAI851935:QAJ851950 PQM851935:PQN851950 PGQ851935:PGR851950 OWU851935:OWV851950 OMY851935:OMZ851950 ODC851935:ODD851950 NTG851935:NTH851950 NJK851935:NJL851950 MZO851935:MZP851950 MPS851935:MPT851950 MFW851935:MFX851950 LWA851935:LWB851950 LME851935:LMF851950 LCI851935:LCJ851950 KSM851935:KSN851950 KIQ851935:KIR851950 JYU851935:JYV851950 JOY851935:JOZ851950 JFC851935:JFD851950 IVG851935:IVH851950 ILK851935:ILL851950 IBO851935:IBP851950 HRS851935:HRT851950 HHW851935:HHX851950 GYA851935:GYB851950 GOE851935:GOF851950 GEI851935:GEJ851950 FUM851935:FUN851950 FKQ851935:FKR851950 FAU851935:FAV851950 EQY851935:EQZ851950 EHC851935:EHD851950 DXG851935:DXH851950 DNK851935:DNL851950 DDO851935:DDP851950 CTS851935:CTT851950 CJW851935:CJX851950 CAA851935:CAB851950 BQE851935:BQF851950 BGI851935:BGJ851950 AWM851935:AWN851950 AMQ851935:AMR851950 ACU851935:ACV851950 SY851935:SZ851950 JC851935:JD851950 F851936:F851951 WVO786399:WVP786414 WLS786399:WLT786414 WBW786399:WBX786414 VSA786399:VSB786414 VIE786399:VIF786414 UYI786399:UYJ786414 UOM786399:UON786414 UEQ786399:UER786414 TUU786399:TUV786414 TKY786399:TKZ786414 TBC786399:TBD786414 SRG786399:SRH786414 SHK786399:SHL786414 RXO786399:RXP786414 RNS786399:RNT786414 RDW786399:RDX786414 QUA786399:QUB786414 QKE786399:QKF786414 QAI786399:QAJ786414 PQM786399:PQN786414 PGQ786399:PGR786414 OWU786399:OWV786414 OMY786399:OMZ786414 ODC786399:ODD786414 NTG786399:NTH786414 NJK786399:NJL786414 MZO786399:MZP786414 MPS786399:MPT786414 MFW786399:MFX786414 LWA786399:LWB786414 LME786399:LMF786414 LCI786399:LCJ786414 KSM786399:KSN786414 KIQ786399:KIR786414 JYU786399:JYV786414 JOY786399:JOZ786414 JFC786399:JFD786414 IVG786399:IVH786414 ILK786399:ILL786414 IBO786399:IBP786414 HRS786399:HRT786414 HHW786399:HHX786414 GYA786399:GYB786414 GOE786399:GOF786414 GEI786399:GEJ786414 FUM786399:FUN786414 FKQ786399:FKR786414 FAU786399:FAV786414 EQY786399:EQZ786414 EHC786399:EHD786414 DXG786399:DXH786414 DNK786399:DNL786414 DDO786399:DDP786414 CTS786399:CTT786414 CJW786399:CJX786414 CAA786399:CAB786414 BQE786399:BQF786414 BGI786399:BGJ786414 AWM786399:AWN786414 AMQ786399:AMR786414 ACU786399:ACV786414 SY786399:SZ786414 JC786399:JD786414 F786400:F786415 WVO720863:WVP720878 WLS720863:WLT720878 WBW720863:WBX720878 VSA720863:VSB720878 VIE720863:VIF720878 UYI720863:UYJ720878 UOM720863:UON720878 UEQ720863:UER720878 TUU720863:TUV720878 TKY720863:TKZ720878 TBC720863:TBD720878 SRG720863:SRH720878 SHK720863:SHL720878 RXO720863:RXP720878 RNS720863:RNT720878 RDW720863:RDX720878 QUA720863:QUB720878 QKE720863:QKF720878 QAI720863:QAJ720878 PQM720863:PQN720878 PGQ720863:PGR720878 OWU720863:OWV720878 OMY720863:OMZ720878 ODC720863:ODD720878 NTG720863:NTH720878 NJK720863:NJL720878 MZO720863:MZP720878 MPS720863:MPT720878 MFW720863:MFX720878 LWA720863:LWB720878 LME720863:LMF720878 LCI720863:LCJ720878 KSM720863:KSN720878 KIQ720863:KIR720878 JYU720863:JYV720878 JOY720863:JOZ720878 JFC720863:JFD720878 IVG720863:IVH720878 ILK720863:ILL720878 IBO720863:IBP720878 HRS720863:HRT720878 HHW720863:HHX720878 GYA720863:GYB720878 GOE720863:GOF720878 GEI720863:GEJ720878 FUM720863:FUN720878 FKQ720863:FKR720878 FAU720863:FAV720878 EQY720863:EQZ720878 EHC720863:EHD720878 DXG720863:DXH720878 DNK720863:DNL720878 DDO720863:DDP720878 CTS720863:CTT720878 CJW720863:CJX720878 CAA720863:CAB720878 BQE720863:BQF720878 BGI720863:BGJ720878 AWM720863:AWN720878 AMQ720863:AMR720878 ACU720863:ACV720878 SY720863:SZ720878 JC720863:JD720878 F720864:F720879 WVO655327:WVP655342 WLS655327:WLT655342 WBW655327:WBX655342 VSA655327:VSB655342 VIE655327:VIF655342 UYI655327:UYJ655342 UOM655327:UON655342 UEQ655327:UER655342 TUU655327:TUV655342 TKY655327:TKZ655342 TBC655327:TBD655342 SRG655327:SRH655342 SHK655327:SHL655342 RXO655327:RXP655342 RNS655327:RNT655342 RDW655327:RDX655342 QUA655327:QUB655342 QKE655327:QKF655342 QAI655327:QAJ655342 PQM655327:PQN655342 PGQ655327:PGR655342 OWU655327:OWV655342 OMY655327:OMZ655342 ODC655327:ODD655342 NTG655327:NTH655342 NJK655327:NJL655342 MZO655327:MZP655342 MPS655327:MPT655342 MFW655327:MFX655342 LWA655327:LWB655342 LME655327:LMF655342 LCI655327:LCJ655342 KSM655327:KSN655342 KIQ655327:KIR655342 JYU655327:JYV655342 JOY655327:JOZ655342 JFC655327:JFD655342 IVG655327:IVH655342 ILK655327:ILL655342 IBO655327:IBP655342 HRS655327:HRT655342 HHW655327:HHX655342 GYA655327:GYB655342 GOE655327:GOF655342 GEI655327:GEJ655342 FUM655327:FUN655342 FKQ655327:FKR655342 FAU655327:FAV655342 EQY655327:EQZ655342 EHC655327:EHD655342 DXG655327:DXH655342 DNK655327:DNL655342 DDO655327:DDP655342 CTS655327:CTT655342 CJW655327:CJX655342 CAA655327:CAB655342 BQE655327:BQF655342 BGI655327:BGJ655342 AWM655327:AWN655342 AMQ655327:AMR655342 ACU655327:ACV655342 SY655327:SZ655342 JC655327:JD655342 F655328:F655343 WVO589791:WVP589806 WLS589791:WLT589806 WBW589791:WBX589806 VSA589791:VSB589806 VIE589791:VIF589806 UYI589791:UYJ589806 UOM589791:UON589806 UEQ589791:UER589806 TUU589791:TUV589806 TKY589791:TKZ589806 TBC589791:TBD589806 SRG589791:SRH589806 SHK589791:SHL589806 RXO589791:RXP589806 RNS589791:RNT589806 RDW589791:RDX589806 QUA589791:QUB589806 QKE589791:QKF589806 QAI589791:QAJ589806 PQM589791:PQN589806 PGQ589791:PGR589806 OWU589791:OWV589806 OMY589791:OMZ589806 ODC589791:ODD589806 NTG589791:NTH589806 NJK589791:NJL589806 MZO589791:MZP589806 MPS589791:MPT589806 MFW589791:MFX589806 LWA589791:LWB589806 LME589791:LMF589806 LCI589791:LCJ589806 KSM589791:KSN589806 KIQ589791:KIR589806 JYU589791:JYV589806 JOY589791:JOZ589806 JFC589791:JFD589806 IVG589791:IVH589806 ILK589791:ILL589806 IBO589791:IBP589806 HRS589791:HRT589806 HHW589791:HHX589806 GYA589791:GYB589806 GOE589791:GOF589806 GEI589791:GEJ589806 FUM589791:FUN589806 FKQ589791:FKR589806 FAU589791:FAV589806 EQY589791:EQZ589806 EHC589791:EHD589806 DXG589791:DXH589806 DNK589791:DNL589806 DDO589791:DDP589806 CTS589791:CTT589806 CJW589791:CJX589806 CAA589791:CAB589806 BQE589791:BQF589806 BGI589791:BGJ589806 AWM589791:AWN589806 AMQ589791:AMR589806 ACU589791:ACV589806 SY589791:SZ589806 JC589791:JD589806 F589792:F589807 WVO524255:WVP524270 WLS524255:WLT524270 WBW524255:WBX524270 VSA524255:VSB524270 VIE524255:VIF524270 UYI524255:UYJ524270 UOM524255:UON524270 UEQ524255:UER524270 TUU524255:TUV524270 TKY524255:TKZ524270 TBC524255:TBD524270 SRG524255:SRH524270 SHK524255:SHL524270 RXO524255:RXP524270 RNS524255:RNT524270 RDW524255:RDX524270 QUA524255:QUB524270 QKE524255:QKF524270 QAI524255:QAJ524270 PQM524255:PQN524270 PGQ524255:PGR524270 OWU524255:OWV524270 OMY524255:OMZ524270 ODC524255:ODD524270 NTG524255:NTH524270 NJK524255:NJL524270 MZO524255:MZP524270 MPS524255:MPT524270 MFW524255:MFX524270 LWA524255:LWB524270 LME524255:LMF524270 LCI524255:LCJ524270 KSM524255:KSN524270 KIQ524255:KIR524270 JYU524255:JYV524270 JOY524255:JOZ524270 JFC524255:JFD524270 IVG524255:IVH524270 ILK524255:ILL524270 IBO524255:IBP524270 HRS524255:HRT524270 HHW524255:HHX524270 GYA524255:GYB524270 GOE524255:GOF524270 GEI524255:GEJ524270 FUM524255:FUN524270 FKQ524255:FKR524270 FAU524255:FAV524270 EQY524255:EQZ524270 EHC524255:EHD524270 DXG524255:DXH524270 DNK524255:DNL524270 DDO524255:DDP524270 CTS524255:CTT524270 CJW524255:CJX524270 CAA524255:CAB524270 BQE524255:BQF524270 BGI524255:BGJ524270 AWM524255:AWN524270 AMQ524255:AMR524270 ACU524255:ACV524270 SY524255:SZ524270 JC524255:JD524270 F524256:F524271 WVO458719:WVP458734 WLS458719:WLT458734 WBW458719:WBX458734 VSA458719:VSB458734 VIE458719:VIF458734 UYI458719:UYJ458734 UOM458719:UON458734 UEQ458719:UER458734 TUU458719:TUV458734 TKY458719:TKZ458734 TBC458719:TBD458734 SRG458719:SRH458734 SHK458719:SHL458734 RXO458719:RXP458734 RNS458719:RNT458734 RDW458719:RDX458734 QUA458719:QUB458734 QKE458719:QKF458734 QAI458719:QAJ458734 PQM458719:PQN458734 PGQ458719:PGR458734 OWU458719:OWV458734 OMY458719:OMZ458734 ODC458719:ODD458734 NTG458719:NTH458734 NJK458719:NJL458734 MZO458719:MZP458734 MPS458719:MPT458734 MFW458719:MFX458734 LWA458719:LWB458734 LME458719:LMF458734 LCI458719:LCJ458734 KSM458719:KSN458734 KIQ458719:KIR458734 JYU458719:JYV458734 JOY458719:JOZ458734 JFC458719:JFD458734 IVG458719:IVH458734 ILK458719:ILL458734 IBO458719:IBP458734 HRS458719:HRT458734 HHW458719:HHX458734 GYA458719:GYB458734 GOE458719:GOF458734 GEI458719:GEJ458734 FUM458719:FUN458734 FKQ458719:FKR458734 FAU458719:FAV458734 EQY458719:EQZ458734 EHC458719:EHD458734 DXG458719:DXH458734 DNK458719:DNL458734 DDO458719:DDP458734 CTS458719:CTT458734 CJW458719:CJX458734 CAA458719:CAB458734 BQE458719:BQF458734 BGI458719:BGJ458734 AWM458719:AWN458734 AMQ458719:AMR458734 ACU458719:ACV458734 SY458719:SZ458734 JC458719:JD458734 F458720:F458735 WVO393183:WVP393198 WLS393183:WLT393198 WBW393183:WBX393198 VSA393183:VSB393198 VIE393183:VIF393198 UYI393183:UYJ393198 UOM393183:UON393198 UEQ393183:UER393198 TUU393183:TUV393198 TKY393183:TKZ393198 TBC393183:TBD393198 SRG393183:SRH393198 SHK393183:SHL393198 RXO393183:RXP393198 RNS393183:RNT393198 RDW393183:RDX393198 QUA393183:QUB393198 QKE393183:QKF393198 QAI393183:QAJ393198 PQM393183:PQN393198 PGQ393183:PGR393198 OWU393183:OWV393198 OMY393183:OMZ393198 ODC393183:ODD393198 NTG393183:NTH393198 NJK393183:NJL393198 MZO393183:MZP393198 MPS393183:MPT393198 MFW393183:MFX393198 LWA393183:LWB393198 LME393183:LMF393198 LCI393183:LCJ393198 KSM393183:KSN393198 KIQ393183:KIR393198 JYU393183:JYV393198 JOY393183:JOZ393198 JFC393183:JFD393198 IVG393183:IVH393198 ILK393183:ILL393198 IBO393183:IBP393198 HRS393183:HRT393198 HHW393183:HHX393198 GYA393183:GYB393198 GOE393183:GOF393198 GEI393183:GEJ393198 FUM393183:FUN393198 FKQ393183:FKR393198 FAU393183:FAV393198 EQY393183:EQZ393198 EHC393183:EHD393198 DXG393183:DXH393198 DNK393183:DNL393198 DDO393183:DDP393198 CTS393183:CTT393198 CJW393183:CJX393198 CAA393183:CAB393198 BQE393183:BQF393198 BGI393183:BGJ393198 AWM393183:AWN393198 AMQ393183:AMR393198 ACU393183:ACV393198 SY393183:SZ393198 JC393183:JD393198 F393184:F393199 WVO327647:WVP327662 WLS327647:WLT327662 WBW327647:WBX327662 VSA327647:VSB327662 VIE327647:VIF327662 UYI327647:UYJ327662 UOM327647:UON327662 UEQ327647:UER327662 TUU327647:TUV327662 TKY327647:TKZ327662 TBC327647:TBD327662 SRG327647:SRH327662 SHK327647:SHL327662 RXO327647:RXP327662 RNS327647:RNT327662 RDW327647:RDX327662 QUA327647:QUB327662 QKE327647:QKF327662 QAI327647:QAJ327662 PQM327647:PQN327662 PGQ327647:PGR327662 OWU327647:OWV327662 OMY327647:OMZ327662 ODC327647:ODD327662 NTG327647:NTH327662 NJK327647:NJL327662 MZO327647:MZP327662 MPS327647:MPT327662 MFW327647:MFX327662 LWA327647:LWB327662 LME327647:LMF327662 LCI327647:LCJ327662 KSM327647:KSN327662 KIQ327647:KIR327662 JYU327647:JYV327662 JOY327647:JOZ327662 JFC327647:JFD327662 IVG327647:IVH327662 ILK327647:ILL327662 IBO327647:IBP327662 HRS327647:HRT327662 HHW327647:HHX327662 GYA327647:GYB327662 GOE327647:GOF327662 GEI327647:GEJ327662 FUM327647:FUN327662 FKQ327647:FKR327662 FAU327647:FAV327662 EQY327647:EQZ327662 EHC327647:EHD327662 DXG327647:DXH327662 DNK327647:DNL327662 DDO327647:DDP327662 CTS327647:CTT327662 CJW327647:CJX327662 CAA327647:CAB327662 BQE327647:BQF327662 BGI327647:BGJ327662 AWM327647:AWN327662 AMQ327647:AMR327662 ACU327647:ACV327662 SY327647:SZ327662 JC327647:JD327662 F327648:F327663 WVO262111:WVP262126 WLS262111:WLT262126 WBW262111:WBX262126 VSA262111:VSB262126 VIE262111:VIF262126 UYI262111:UYJ262126 UOM262111:UON262126 UEQ262111:UER262126 TUU262111:TUV262126 TKY262111:TKZ262126 TBC262111:TBD262126 SRG262111:SRH262126 SHK262111:SHL262126 RXO262111:RXP262126 RNS262111:RNT262126 RDW262111:RDX262126 QUA262111:QUB262126 QKE262111:QKF262126 QAI262111:QAJ262126 PQM262111:PQN262126 PGQ262111:PGR262126 OWU262111:OWV262126 OMY262111:OMZ262126 ODC262111:ODD262126 NTG262111:NTH262126 NJK262111:NJL262126 MZO262111:MZP262126 MPS262111:MPT262126 MFW262111:MFX262126 LWA262111:LWB262126 LME262111:LMF262126 LCI262111:LCJ262126 KSM262111:KSN262126 KIQ262111:KIR262126 JYU262111:JYV262126 JOY262111:JOZ262126 JFC262111:JFD262126 IVG262111:IVH262126 ILK262111:ILL262126 IBO262111:IBP262126 HRS262111:HRT262126 HHW262111:HHX262126 GYA262111:GYB262126 GOE262111:GOF262126 GEI262111:GEJ262126 FUM262111:FUN262126 FKQ262111:FKR262126 FAU262111:FAV262126 EQY262111:EQZ262126 EHC262111:EHD262126 DXG262111:DXH262126 DNK262111:DNL262126 DDO262111:DDP262126 CTS262111:CTT262126 CJW262111:CJX262126 CAA262111:CAB262126 BQE262111:BQF262126 BGI262111:BGJ262126 AWM262111:AWN262126 AMQ262111:AMR262126 ACU262111:ACV262126 SY262111:SZ262126 JC262111:JD262126 F262112:F262127 WVO196575:WVP196590 WLS196575:WLT196590 WBW196575:WBX196590 VSA196575:VSB196590 VIE196575:VIF196590 UYI196575:UYJ196590 UOM196575:UON196590 UEQ196575:UER196590 TUU196575:TUV196590 TKY196575:TKZ196590 TBC196575:TBD196590 SRG196575:SRH196590 SHK196575:SHL196590 RXO196575:RXP196590 RNS196575:RNT196590 RDW196575:RDX196590 QUA196575:QUB196590 QKE196575:QKF196590 QAI196575:QAJ196590 PQM196575:PQN196590 PGQ196575:PGR196590 OWU196575:OWV196590 OMY196575:OMZ196590 ODC196575:ODD196590 NTG196575:NTH196590 NJK196575:NJL196590 MZO196575:MZP196590 MPS196575:MPT196590 MFW196575:MFX196590 LWA196575:LWB196590 LME196575:LMF196590 LCI196575:LCJ196590 KSM196575:KSN196590 KIQ196575:KIR196590 JYU196575:JYV196590 JOY196575:JOZ196590 JFC196575:JFD196590 IVG196575:IVH196590 ILK196575:ILL196590 IBO196575:IBP196590 HRS196575:HRT196590 HHW196575:HHX196590 GYA196575:GYB196590 GOE196575:GOF196590 GEI196575:GEJ196590 FUM196575:FUN196590 FKQ196575:FKR196590 FAU196575:FAV196590 EQY196575:EQZ196590 EHC196575:EHD196590 DXG196575:DXH196590 DNK196575:DNL196590 DDO196575:DDP196590 CTS196575:CTT196590 CJW196575:CJX196590 CAA196575:CAB196590 BQE196575:BQF196590 BGI196575:BGJ196590 AWM196575:AWN196590 AMQ196575:AMR196590 ACU196575:ACV196590 SY196575:SZ196590 JC196575:JD196590 F196576:F196591 WVO131039:WVP131054 WLS131039:WLT131054 WBW131039:WBX131054 VSA131039:VSB131054 VIE131039:VIF131054 UYI131039:UYJ131054 UOM131039:UON131054 UEQ131039:UER131054 TUU131039:TUV131054 TKY131039:TKZ131054 TBC131039:TBD131054 SRG131039:SRH131054 SHK131039:SHL131054 RXO131039:RXP131054 RNS131039:RNT131054 RDW131039:RDX131054 QUA131039:QUB131054 QKE131039:QKF131054 QAI131039:QAJ131054 PQM131039:PQN131054 PGQ131039:PGR131054 OWU131039:OWV131054 OMY131039:OMZ131054 ODC131039:ODD131054 NTG131039:NTH131054 NJK131039:NJL131054 MZO131039:MZP131054 MPS131039:MPT131054 MFW131039:MFX131054 LWA131039:LWB131054 LME131039:LMF131054 LCI131039:LCJ131054 KSM131039:KSN131054 KIQ131039:KIR131054 JYU131039:JYV131054 JOY131039:JOZ131054 JFC131039:JFD131054 IVG131039:IVH131054 ILK131039:ILL131054 IBO131039:IBP131054 HRS131039:HRT131054 HHW131039:HHX131054 GYA131039:GYB131054 GOE131039:GOF131054 GEI131039:GEJ131054 FUM131039:FUN131054 FKQ131039:FKR131054 FAU131039:FAV131054 EQY131039:EQZ131054 EHC131039:EHD131054 DXG131039:DXH131054 DNK131039:DNL131054 DDO131039:DDP131054 CTS131039:CTT131054 CJW131039:CJX131054 CAA131039:CAB131054 BQE131039:BQF131054 BGI131039:BGJ131054 AWM131039:AWN131054 AMQ131039:AMR131054 ACU131039:ACV131054 SY131039:SZ131054 JC131039:JD131054 F131040:F131055 WVO65503:WVP65518 WLS65503:WLT65518 WBW65503:WBX65518 VSA65503:VSB65518 VIE65503:VIF65518 UYI65503:UYJ65518 UOM65503:UON65518 UEQ65503:UER65518 TUU65503:TUV65518 TKY65503:TKZ65518 TBC65503:TBD65518 SRG65503:SRH65518 SHK65503:SHL65518 RXO65503:RXP65518 RNS65503:RNT65518 RDW65503:RDX65518 QUA65503:QUB65518 QKE65503:QKF65518 QAI65503:QAJ65518 PQM65503:PQN65518 PGQ65503:PGR65518 OWU65503:OWV65518 OMY65503:OMZ65518 ODC65503:ODD65518 NTG65503:NTH65518 NJK65503:NJL65518 MZO65503:MZP65518 MPS65503:MPT65518 MFW65503:MFX65518 LWA65503:LWB65518 LME65503:LMF65518 LCI65503:LCJ65518 KSM65503:KSN65518 KIQ65503:KIR65518 JYU65503:JYV65518 JOY65503:JOZ65518 JFC65503:JFD65518 IVG65503:IVH65518 ILK65503:ILL65518 IBO65503:IBP65518 HRS65503:HRT65518 HHW65503:HHX65518 GYA65503:GYB65518 GOE65503:GOF65518 GEI65503:GEJ65518 FUM65503:FUN65518 FKQ65503:FKR65518 FAU65503:FAV65518 EQY65503:EQZ65518 EHC65503:EHD65518 DXG65503:DXH65518 DNK65503:DNL65518 DDO65503:DDP65518 CTS65503:CTT65518 CJW65503:CJX65518 CAA65503:CAB65518 BQE65503:BQF65518 BGI65503:BGJ65518 AWM65503:AWN65518 AMQ65503:AMR65518 ACU65503:ACV65518 SY65503:SZ65518 JC65503:JD65518 WLI14:WLJ17 WBM14:WBN17 VRQ14:VRR17 VHU14:VHV17 UXY14:UXZ17 UOC14:UOD17 UEG14:UEH17 TUK14:TUL17 TKO14:TKP17 TAS14:TAT17 SQW14:SQX17 SHA14:SHB17 RXE14:RXF17 RNI14:RNJ17 RDM14:RDN17 QTQ14:QTR17 QJU14:QJV17 PZY14:PZZ17 PQC14:PQD17 PGG14:PGH17 OWK14:OWL17 OMO14:OMP17 OCS14:OCT17 NSW14:NSX17 NJA14:NJB17 MZE14:MZF17 MPI14:MPJ17 MFM14:MFN17 LVQ14:LVR17 LLU14:LLV17 LBY14:LBZ17 KSC14:KSD17 KIG14:KIH17 JYK14:JYL17 JOO14:JOP17 JES14:JET17 IUW14:IUX17 ILA14:ILB17 IBE14:IBF17 HRI14:HRJ17 HHM14:HHN17 GXQ14:GXR17 GNU14:GNV17 GDY14:GDZ17 FUC14:FUD17 FKG14:FKH17 FAK14:FAL17 EQO14:EQP17 EGS14:EGT17 DWW14:DWX17 DNA14:DNB17 DDE14:DDF17 CTI14:CTJ17 CJM14:CJN17 BZQ14:BZR17 BPU14:BPV17 BFY14:BFZ17 AWC14:AWD17 AMG14:AMH17 ACK14:ACL17 SO14:SP17 IS14:IT17 WVE14:WVF17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65505:F65520 WVO983008:WVP983023 WLS983008:WLT983023 WBW983008:WBX983023 VSA983008:VSB983023 VIE983008:VIF983023 UYI983008:UYJ983023 UOM983008:UON983023 UEQ983008:UER983023 TUU983008:TUV983023 TKY983008:TKZ983023 TBC983008:TBD983023 SRG983008:SRH983023 SHK983008:SHL983023 RXO983008:RXP983023 RNS983008:RNT983023 RDW983008:RDX983023 QUA983008:QUB983023 QKE983008:QKF983023 QAI983008:QAJ983023 PQM983008:PQN983023 PGQ983008:PGR983023 OWU983008:OWV983023 OMY983008:OMZ983023 ODC983008:ODD983023 NTG983008:NTH983023 NJK983008:NJL983023 MZO983008:MZP983023 MPS983008:MPT983023 MFW983008:MFX983023 LWA983008:LWB983023 LME983008:LMF983023 LCI983008:LCJ983023 KSM983008:KSN983023 KIQ983008:KIR983023 JYU983008:JYV983023 JOY983008:JOZ983023 JFC983008:JFD983023 IVG983008:IVH983023 ILK983008:ILL983023 IBO983008:IBP983023 HRS983008:HRT983023 HHW983008:HHX983023 GYA983008:GYB983023 GOE983008:GOF983023 GEI983008:GEJ983023 FUM983008:FUN983023 FKQ983008:FKR983023 FAU983008:FAV983023 EQY983008:EQZ983023 EHC983008:EHD983023 DXG983008:DXH983023 DNK983008:DNL983023 DDO983008:DDP983023 CTS983008:CTT983023 CJW983008:CJX983023 CAA983008:CAB983023 BQE983008:BQF983023 BGI983008:BGJ983023 AWM983008:AWN983023 AMQ983008:AMR983023 ACU983008:ACV983023 SY983008:SZ983023 JC983008:JD983023 F983009:F983024 WVO917472:WVP917487 WLS917472:WLT917487 WBW917472:WBX917487 VSA917472:VSB917487 VIE917472:VIF917487 UYI917472:UYJ917487 UOM917472:UON917487 UEQ917472:UER917487 TUU917472:TUV917487 TKY917472:TKZ917487 TBC917472:TBD917487 SRG917472:SRH917487 SHK917472:SHL917487 RXO917472:RXP917487 RNS917472:RNT917487 RDW917472:RDX917487 QUA917472:QUB917487 QKE917472:QKF917487 QAI917472:QAJ917487 PQM917472:PQN917487 PGQ917472:PGR917487 OWU917472:OWV917487 OMY917472:OMZ917487 ODC917472:ODD917487 NTG917472:NTH917487 NJK917472:NJL917487 MZO917472:MZP917487 MPS917472:MPT917487 MFW917472:MFX917487 LWA917472:LWB917487 LME917472:LMF917487 LCI917472:LCJ917487 KSM917472:KSN917487 KIQ917472:KIR917487 JYU917472:JYV917487 JOY917472:JOZ917487 JFC917472:JFD917487 IVG917472:IVH917487 ILK917472:ILL917487 IBO917472:IBP917487 HRS917472:HRT917487 HHW917472:HHX917487 GYA917472:GYB917487 GOE917472:GOF917487 GEI917472:GEJ917487 FUM917472:FUN917487 FKQ917472:FKR917487 FAU917472:FAV917487 EQY917472:EQZ917487 EHC917472:EHD917487 DXG917472:DXH917487 DNK917472:DNL917487 DDO917472:DDP917487 CTS917472:CTT917487 CJW917472:CJX917487 CAA917472:CAB917487 BQE917472:BQF917487 BGI917472:BGJ917487 AWM917472:AWN917487 AMQ917472:AMR917487 ACU917472:ACV917487 SY917472:SZ917487 JC917472:JD917487 F917473:F917488 WVO851936:WVP851951 WLS851936:WLT851951 WBW851936:WBX851951 VSA851936:VSB851951 VIE851936:VIF851951 UYI851936:UYJ851951 UOM851936:UON851951 UEQ851936:UER851951 TUU851936:TUV851951 TKY851936:TKZ851951 TBC851936:TBD851951 SRG851936:SRH851951 SHK851936:SHL851951 RXO851936:RXP851951 RNS851936:RNT851951 RDW851936:RDX851951 QUA851936:QUB851951 QKE851936:QKF851951 QAI851936:QAJ851951 PQM851936:PQN851951 PGQ851936:PGR851951 OWU851936:OWV851951 OMY851936:OMZ851951 ODC851936:ODD851951 NTG851936:NTH851951 NJK851936:NJL851951 MZO851936:MZP851951 MPS851936:MPT851951 MFW851936:MFX851951 LWA851936:LWB851951 LME851936:LMF851951 LCI851936:LCJ851951 KSM851936:KSN851951 KIQ851936:KIR851951 JYU851936:JYV851951 JOY851936:JOZ851951 JFC851936:JFD851951 IVG851936:IVH851951 ILK851936:ILL851951 IBO851936:IBP851951 HRS851936:HRT851951 HHW851936:HHX851951 GYA851936:GYB851951 GOE851936:GOF851951 GEI851936:GEJ851951 FUM851936:FUN851951 FKQ851936:FKR851951 FAU851936:FAV851951 EQY851936:EQZ851951 EHC851936:EHD851951 DXG851936:DXH851951 DNK851936:DNL851951 DDO851936:DDP851951 CTS851936:CTT851951 CJW851936:CJX851951 CAA851936:CAB851951 BQE851936:BQF851951 BGI851936:BGJ851951 AWM851936:AWN851951 AMQ851936:AMR851951 ACU851936:ACV851951 SY851936:SZ851951 JC851936:JD851951 F851937:F851952 WVO786400:WVP786415 WLS786400:WLT786415 WBW786400:WBX786415 VSA786400:VSB786415 VIE786400:VIF786415 UYI786400:UYJ786415 UOM786400:UON786415 UEQ786400:UER786415 TUU786400:TUV786415 TKY786400:TKZ786415 TBC786400:TBD786415 SRG786400:SRH786415 SHK786400:SHL786415 RXO786400:RXP786415 RNS786400:RNT786415 RDW786400:RDX786415 QUA786400:QUB786415 QKE786400:QKF786415 QAI786400:QAJ786415 PQM786400:PQN786415 PGQ786400:PGR786415 OWU786400:OWV786415 OMY786400:OMZ786415 ODC786400:ODD786415 NTG786400:NTH786415 NJK786400:NJL786415 MZO786400:MZP786415 MPS786400:MPT786415 MFW786400:MFX786415 LWA786400:LWB786415 LME786400:LMF786415 LCI786400:LCJ786415 KSM786400:KSN786415 KIQ786400:KIR786415 JYU786400:JYV786415 JOY786400:JOZ786415 JFC786400:JFD786415 IVG786400:IVH786415 ILK786400:ILL786415 IBO786400:IBP786415 HRS786400:HRT786415 HHW786400:HHX786415 GYA786400:GYB786415 GOE786400:GOF786415 GEI786400:GEJ786415 FUM786400:FUN786415 FKQ786400:FKR786415 FAU786400:FAV786415 EQY786400:EQZ786415 EHC786400:EHD786415 DXG786400:DXH786415 DNK786400:DNL786415 DDO786400:DDP786415 CTS786400:CTT786415 CJW786400:CJX786415 CAA786400:CAB786415 BQE786400:BQF786415 BGI786400:BGJ786415 AWM786400:AWN786415 AMQ786400:AMR786415 ACU786400:ACV786415 SY786400:SZ786415 JC786400:JD786415 F786401:F786416 WVO720864:WVP720879 WLS720864:WLT720879 WBW720864:WBX720879 VSA720864:VSB720879 VIE720864:VIF720879 UYI720864:UYJ720879 UOM720864:UON720879 UEQ720864:UER720879 TUU720864:TUV720879 TKY720864:TKZ720879 TBC720864:TBD720879 SRG720864:SRH720879 SHK720864:SHL720879 RXO720864:RXP720879 RNS720864:RNT720879 RDW720864:RDX720879 QUA720864:QUB720879 QKE720864:QKF720879 QAI720864:QAJ720879 PQM720864:PQN720879 PGQ720864:PGR720879 OWU720864:OWV720879 OMY720864:OMZ720879 ODC720864:ODD720879 NTG720864:NTH720879 NJK720864:NJL720879 MZO720864:MZP720879 MPS720864:MPT720879 MFW720864:MFX720879 LWA720864:LWB720879 LME720864:LMF720879 LCI720864:LCJ720879 KSM720864:KSN720879 KIQ720864:KIR720879 JYU720864:JYV720879 JOY720864:JOZ720879 JFC720864:JFD720879 IVG720864:IVH720879 ILK720864:ILL720879 IBO720864:IBP720879 HRS720864:HRT720879 HHW720864:HHX720879 GYA720864:GYB720879 GOE720864:GOF720879 GEI720864:GEJ720879 FUM720864:FUN720879 FKQ720864:FKR720879 FAU720864:FAV720879 EQY720864:EQZ720879 EHC720864:EHD720879 DXG720864:DXH720879 DNK720864:DNL720879 DDO720864:DDP720879 CTS720864:CTT720879 CJW720864:CJX720879 CAA720864:CAB720879 BQE720864:BQF720879 BGI720864:BGJ720879 AWM720864:AWN720879 AMQ720864:AMR720879 ACU720864:ACV720879 SY720864:SZ720879 JC720864:JD720879 F720865:F720880 WVO655328:WVP655343 WLS655328:WLT655343 WBW655328:WBX655343 VSA655328:VSB655343 VIE655328:VIF655343 UYI655328:UYJ655343 UOM655328:UON655343 UEQ655328:UER655343 TUU655328:TUV655343 TKY655328:TKZ655343 TBC655328:TBD655343 SRG655328:SRH655343 SHK655328:SHL655343 RXO655328:RXP655343 RNS655328:RNT655343 RDW655328:RDX655343 QUA655328:QUB655343 QKE655328:QKF655343 QAI655328:QAJ655343 PQM655328:PQN655343 PGQ655328:PGR655343 OWU655328:OWV655343 OMY655328:OMZ655343 ODC655328:ODD655343 NTG655328:NTH655343 NJK655328:NJL655343 MZO655328:MZP655343 MPS655328:MPT655343 MFW655328:MFX655343 LWA655328:LWB655343 LME655328:LMF655343 LCI655328:LCJ655343 KSM655328:KSN655343 KIQ655328:KIR655343 JYU655328:JYV655343 JOY655328:JOZ655343 JFC655328:JFD655343 IVG655328:IVH655343 ILK655328:ILL655343 IBO655328:IBP655343 HRS655328:HRT655343 HHW655328:HHX655343 GYA655328:GYB655343 GOE655328:GOF655343 GEI655328:GEJ655343 FUM655328:FUN655343 FKQ655328:FKR655343 FAU655328:FAV655343 EQY655328:EQZ655343 EHC655328:EHD655343 DXG655328:DXH655343 DNK655328:DNL655343 DDO655328:DDP655343 CTS655328:CTT655343 CJW655328:CJX655343 CAA655328:CAB655343 BQE655328:BQF655343 BGI655328:BGJ655343 AWM655328:AWN655343 AMQ655328:AMR655343 ACU655328:ACV655343 SY655328:SZ655343 JC655328:JD655343 F655329:F655344 WVO589792:WVP589807 WLS589792:WLT589807 WBW589792:WBX589807 VSA589792:VSB589807 VIE589792:VIF589807 UYI589792:UYJ589807 UOM589792:UON589807 UEQ589792:UER589807 TUU589792:TUV589807 TKY589792:TKZ589807 TBC589792:TBD589807 SRG589792:SRH589807 SHK589792:SHL589807 RXO589792:RXP589807 RNS589792:RNT589807 RDW589792:RDX589807 QUA589792:QUB589807 QKE589792:QKF589807 QAI589792:QAJ589807 PQM589792:PQN589807 PGQ589792:PGR589807 OWU589792:OWV589807 OMY589792:OMZ589807 ODC589792:ODD589807 NTG589792:NTH589807 NJK589792:NJL589807 MZO589792:MZP589807 MPS589792:MPT589807 MFW589792:MFX589807 LWA589792:LWB589807 LME589792:LMF589807 LCI589792:LCJ589807 KSM589792:KSN589807 KIQ589792:KIR589807 JYU589792:JYV589807 JOY589792:JOZ589807 JFC589792:JFD589807 IVG589792:IVH589807 ILK589792:ILL589807 IBO589792:IBP589807 HRS589792:HRT589807 HHW589792:HHX589807 GYA589792:GYB589807 GOE589792:GOF589807 GEI589792:GEJ589807 FUM589792:FUN589807 FKQ589792:FKR589807 FAU589792:FAV589807 EQY589792:EQZ589807 EHC589792:EHD589807 DXG589792:DXH589807 DNK589792:DNL589807 DDO589792:DDP589807 CTS589792:CTT589807 CJW589792:CJX589807 CAA589792:CAB589807 BQE589792:BQF589807 BGI589792:BGJ589807 AWM589792:AWN589807 AMQ589792:AMR589807 ACU589792:ACV589807 SY589792:SZ589807 JC589792:JD589807 F589793:F589808 WVO524256:WVP524271 WLS524256:WLT524271 WBW524256:WBX524271 VSA524256:VSB524271 VIE524256:VIF524271 UYI524256:UYJ524271 UOM524256:UON524271 UEQ524256:UER524271 TUU524256:TUV524271 TKY524256:TKZ524271 TBC524256:TBD524271 SRG524256:SRH524271 SHK524256:SHL524271 RXO524256:RXP524271 RNS524256:RNT524271 RDW524256:RDX524271 QUA524256:QUB524271 QKE524256:QKF524271 QAI524256:QAJ524271 PQM524256:PQN524271 PGQ524256:PGR524271 OWU524256:OWV524271 OMY524256:OMZ524271 ODC524256:ODD524271 NTG524256:NTH524271 NJK524256:NJL524271 MZO524256:MZP524271 MPS524256:MPT524271 MFW524256:MFX524271 LWA524256:LWB524271 LME524256:LMF524271 LCI524256:LCJ524271 KSM524256:KSN524271 KIQ524256:KIR524271 JYU524256:JYV524271 JOY524256:JOZ524271 JFC524256:JFD524271 IVG524256:IVH524271 ILK524256:ILL524271 IBO524256:IBP524271 HRS524256:HRT524271 HHW524256:HHX524271 GYA524256:GYB524271 GOE524256:GOF524271 GEI524256:GEJ524271 FUM524256:FUN524271 FKQ524256:FKR524271 FAU524256:FAV524271 EQY524256:EQZ524271 EHC524256:EHD524271 DXG524256:DXH524271 DNK524256:DNL524271 DDO524256:DDP524271 CTS524256:CTT524271 CJW524256:CJX524271 CAA524256:CAB524271 BQE524256:BQF524271 BGI524256:BGJ524271 AWM524256:AWN524271 AMQ524256:AMR524271 ACU524256:ACV524271 SY524256:SZ524271 JC524256:JD524271 F524257:F524272 WVO458720:WVP458735 WLS458720:WLT458735 WBW458720:WBX458735 VSA458720:VSB458735 VIE458720:VIF458735 UYI458720:UYJ458735 UOM458720:UON458735 UEQ458720:UER458735 TUU458720:TUV458735 TKY458720:TKZ458735 TBC458720:TBD458735 SRG458720:SRH458735 SHK458720:SHL458735 RXO458720:RXP458735 RNS458720:RNT458735 RDW458720:RDX458735 QUA458720:QUB458735 QKE458720:QKF458735 QAI458720:QAJ458735 PQM458720:PQN458735 PGQ458720:PGR458735 OWU458720:OWV458735 OMY458720:OMZ458735 ODC458720:ODD458735 NTG458720:NTH458735 NJK458720:NJL458735 MZO458720:MZP458735 MPS458720:MPT458735 MFW458720:MFX458735 LWA458720:LWB458735 LME458720:LMF458735 LCI458720:LCJ458735 KSM458720:KSN458735 KIQ458720:KIR458735 JYU458720:JYV458735 JOY458720:JOZ458735 JFC458720:JFD458735 IVG458720:IVH458735 ILK458720:ILL458735 IBO458720:IBP458735 HRS458720:HRT458735 HHW458720:HHX458735 GYA458720:GYB458735 GOE458720:GOF458735 GEI458720:GEJ458735 FUM458720:FUN458735 FKQ458720:FKR458735 FAU458720:FAV458735 EQY458720:EQZ458735 EHC458720:EHD458735 DXG458720:DXH458735 DNK458720:DNL458735 DDO458720:DDP458735 CTS458720:CTT458735 CJW458720:CJX458735 CAA458720:CAB458735 BQE458720:BQF458735 BGI458720:BGJ458735 AWM458720:AWN458735 AMQ458720:AMR458735 ACU458720:ACV458735 SY458720:SZ458735 JC458720:JD458735 F458721:F458736 WVO393184:WVP393199 WLS393184:WLT393199 WBW393184:WBX393199 VSA393184:VSB393199 VIE393184:VIF393199 UYI393184:UYJ393199 UOM393184:UON393199 UEQ393184:UER393199 TUU393184:TUV393199 TKY393184:TKZ393199 TBC393184:TBD393199 SRG393184:SRH393199 SHK393184:SHL393199 RXO393184:RXP393199 RNS393184:RNT393199 RDW393184:RDX393199 QUA393184:QUB393199 QKE393184:QKF393199 QAI393184:QAJ393199 PQM393184:PQN393199 PGQ393184:PGR393199 OWU393184:OWV393199 OMY393184:OMZ393199 ODC393184:ODD393199 NTG393184:NTH393199 NJK393184:NJL393199 MZO393184:MZP393199 MPS393184:MPT393199 MFW393184:MFX393199 LWA393184:LWB393199 LME393184:LMF393199 LCI393184:LCJ393199 KSM393184:KSN393199 KIQ393184:KIR393199 JYU393184:JYV393199 JOY393184:JOZ393199 JFC393184:JFD393199 IVG393184:IVH393199 ILK393184:ILL393199 IBO393184:IBP393199 HRS393184:HRT393199 HHW393184:HHX393199 GYA393184:GYB393199 GOE393184:GOF393199 GEI393184:GEJ393199 FUM393184:FUN393199 FKQ393184:FKR393199 FAU393184:FAV393199 EQY393184:EQZ393199 EHC393184:EHD393199 DXG393184:DXH393199 DNK393184:DNL393199 DDO393184:DDP393199 CTS393184:CTT393199 CJW393184:CJX393199 CAA393184:CAB393199 BQE393184:BQF393199 BGI393184:BGJ393199 AWM393184:AWN393199 AMQ393184:AMR393199 ACU393184:ACV393199 SY393184:SZ393199 JC393184:JD393199 F393185:F393200 WVO327648:WVP327663 WLS327648:WLT327663 WBW327648:WBX327663 VSA327648:VSB327663 VIE327648:VIF327663 UYI327648:UYJ327663 UOM327648:UON327663 UEQ327648:UER327663 TUU327648:TUV327663 TKY327648:TKZ327663 TBC327648:TBD327663 SRG327648:SRH327663 SHK327648:SHL327663 RXO327648:RXP327663 RNS327648:RNT327663 RDW327648:RDX327663 QUA327648:QUB327663 QKE327648:QKF327663 QAI327648:QAJ327663 PQM327648:PQN327663 PGQ327648:PGR327663 OWU327648:OWV327663 OMY327648:OMZ327663 ODC327648:ODD327663 NTG327648:NTH327663 NJK327648:NJL327663 MZO327648:MZP327663 MPS327648:MPT327663 MFW327648:MFX327663 LWA327648:LWB327663 LME327648:LMF327663 LCI327648:LCJ327663 KSM327648:KSN327663 KIQ327648:KIR327663 JYU327648:JYV327663 JOY327648:JOZ327663 JFC327648:JFD327663 IVG327648:IVH327663 ILK327648:ILL327663 IBO327648:IBP327663 HRS327648:HRT327663 HHW327648:HHX327663 GYA327648:GYB327663 GOE327648:GOF327663 GEI327648:GEJ327663 FUM327648:FUN327663 FKQ327648:FKR327663 FAU327648:FAV327663 EQY327648:EQZ327663 EHC327648:EHD327663 DXG327648:DXH327663 DNK327648:DNL327663 DDO327648:DDP327663 CTS327648:CTT327663 CJW327648:CJX327663 CAA327648:CAB327663 BQE327648:BQF327663 BGI327648:BGJ327663 AWM327648:AWN327663 AMQ327648:AMR327663 ACU327648:ACV327663 SY327648:SZ327663 JC327648:JD327663 F327649:F327664 WVO262112:WVP262127 WLS262112:WLT262127 WBW262112:WBX262127 VSA262112:VSB262127 VIE262112:VIF262127 UYI262112:UYJ262127 UOM262112:UON262127 UEQ262112:UER262127 TUU262112:TUV262127 TKY262112:TKZ262127 TBC262112:TBD262127 SRG262112:SRH262127 SHK262112:SHL262127 RXO262112:RXP262127 RNS262112:RNT262127 RDW262112:RDX262127 QUA262112:QUB262127 QKE262112:QKF262127 QAI262112:QAJ262127 PQM262112:PQN262127 PGQ262112:PGR262127 OWU262112:OWV262127 OMY262112:OMZ262127 ODC262112:ODD262127 NTG262112:NTH262127 NJK262112:NJL262127 MZO262112:MZP262127 MPS262112:MPT262127 MFW262112:MFX262127 LWA262112:LWB262127 LME262112:LMF262127 LCI262112:LCJ262127 KSM262112:KSN262127 KIQ262112:KIR262127 JYU262112:JYV262127 JOY262112:JOZ262127 JFC262112:JFD262127 IVG262112:IVH262127 ILK262112:ILL262127 IBO262112:IBP262127 HRS262112:HRT262127 HHW262112:HHX262127 GYA262112:GYB262127 GOE262112:GOF262127 GEI262112:GEJ262127 FUM262112:FUN262127 FKQ262112:FKR262127 FAU262112:FAV262127 EQY262112:EQZ262127 EHC262112:EHD262127 DXG262112:DXH262127 DNK262112:DNL262127 DDO262112:DDP262127 CTS262112:CTT262127 CJW262112:CJX262127 CAA262112:CAB262127 BQE262112:BQF262127 BGI262112:BGJ262127 AWM262112:AWN262127 AMQ262112:AMR262127 ACU262112:ACV262127 SY262112:SZ262127 JC262112:JD262127 F262113:F262128 WVO196576:WVP196591 WLS196576:WLT196591 WBW196576:WBX196591 VSA196576:VSB196591 VIE196576:VIF196591 UYI196576:UYJ196591 UOM196576:UON196591 UEQ196576:UER196591 TUU196576:TUV196591 TKY196576:TKZ196591 TBC196576:TBD196591 SRG196576:SRH196591 SHK196576:SHL196591 RXO196576:RXP196591 RNS196576:RNT196591 RDW196576:RDX196591 QUA196576:QUB196591 QKE196576:QKF196591 QAI196576:QAJ196591 PQM196576:PQN196591 PGQ196576:PGR196591 OWU196576:OWV196591 OMY196576:OMZ196591 ODC196576:ODD196591 NTG196576:NTH196591 NJK196576:NJL196591 MZO196576:MZP196591 MPS196576:MPT196591 MFW196576:MFX196591 LWA196576:LWB196591 LME196576:LMF196591 LCI196576:LCJ196591 KSM196576:KSN196591 KIQ196576:KIR196591 JYU196576:JYV196591 JOY196576:JOZ196591 JFC196576:JFD196591 IVG196576:IVH196591 ILK196576:ILL196591 IBO196576:IBP196591 HRS196576:HRT196591 HHW196576:HHX196591 GYA196576:GYB196591 GOE196576:GOF196591 GEI196576:GEJ196591 FUM196576:FUN196591 FKQ196576:FKR196591 FAU196576:FAV196591 EQY196576:EQZ196591 EHC196576:EHD196591 DXG196576:DXH196591 DNK196576:DNL196591 DDO196576:DDP196591 CTS196576:CTT196591 CJW196576:CJX196591 CAA196576:CAB196591 BQE196576:BQF196591 BGI196576:BGJ196591 AWM196576:AWN196591 AMQ196576:AMR196591 ACU196576:ACV196591 SY196576:SZ196591 JC196576:JD196591 F196577:F196592 WVO131040:WVP131055 WLS131040:WLT131055 WBW131040:WBX131055 VSA131040:VSB131055 VIE131040:VIF131055 UYI131040:UYJ131055 UOM131040:UON131055 UEQ131040:UER131055 TUU131040:TUV131055 TKY131040:TKZ131055 TBC131040:TBD131055 SRG131040:SRH131055 SHK131040:SHL131055 RXO131040:RXP131055 RNS131040:RNT131055 RDW131040:RDX131055 QUA131040:QUB131055 QKE131040:QKF131055 QAI131040:QAJ131055 PQM131040:PQN131055 PGQ131040:PGR131055 OWU131040:OWV131055 OMY131040:OMZ131055 ODC131040:ODD131055 NTG131040:NTH131055 NJK131040:NJL131055 MZO131040:MZP131055 MPS131040:MPT131055 MFW131040:MFX131055 LWA131040:LWB131055 LME131040:LMF131055 LCI131040:LCJ131055 KSM131040:KSN131055 KIQ131040:KIR131055 JYU131040:JYV131055 JOY131040:JOZ131055 JFC131040:JFD131055 IVG131040:IVH131055 ILK131040:ILL131055 IBO131040:IBP131055 HRS131040:HRT131055 HHW131040:HHX131055 GYA131040:GYB131055 GOE131040:GOF131055 GEI131040:GEJ131055 FUM131040:FUN131055 FKQ131040:FKR131055 FAU131040:FAV131055 EQY131040:EQZ131055 EHC131040:EHD131055 DXG131040:DXH131055 DNK131040:DNL131055 DDO131040:DDP131055 CTS131040:CTT131055 CJW131040:CJX131055 CAA131040:CAB131055 BQE131040:BQF131055 BGI131040:BGJ131055 AWM131040:AWN131055 AMQ131040:AMR131055 ACU131040:ACV131055 SY131040:SZ131055 JC131040:JD131055 F131041:F131056 WVO65504:WVP65519 WLS65504:WLT65519 WBW65504:WBX65519 VSA65504:VSB65519 VIE65504:VIF65519 UYI65504:UYJ65519 UOM65504:UON65519 UEQ65504:UER65519 TUU65504:TUV65519 TKY65504:TKZ65519 TBC65504:TBD65519 SRG65504:SRH65519 SHK65504:SHL65519 RXO65504:RXP65519 RNS65504:RNT65519 RDW65504:RDX65519 QUA65504:QUB65519 QKE65504:QKF65519 QAI65504:QAJ65519 PQM65504:PQN65519 PGQ65504:PGR65519 OWU65504:OWV65519 OMY65504:OMZ65519 ODC65504:ODD65519 NTG65504:NTH65519 NJK65504:NJL65519 MZO65504:MZP65519 MPS65504:MPT65519 MFW65504:MFX65519 LWA65504:LWB65519 LME65504:LMF65519 LCI65504:LCJ65519 KSM65504:KSN65519 KIQ65504:KIR65519 JYU65504:JYV65519 JOY65504:JOZ65519 JFC65504:JFD65519 IVG65504:IVH65519 ILK65504:ILL65519 IBO65504:IBP65519 HRS65504:HRT65519 HHW65504:HHX65519 GYA65504:GYB65519 GOE65504:GOF65519 GEI65504:GEJ65519 FUM65504:FUN65519 FKQ65504:FKR65519 FAU65504:FAV65519 EQY65504:EQZ65519 EHC65504:EHD65519 DXG65504:DXH65519 DNK65504:DNL65519 DDO65504:DDP65519 CTS65504:CTT65519 CJW65504:CJX65519 CAA65504:CAB65519 BQE65504:BQF65519 BGI65504:BGJ65519 AWM65504:AWN65519 AMQ65504:AMR65519 ACU65504:ACV65519 SY65504:SZ65519 JC65504:JD65519 WLI14:WLJ17 WBM14:WBN17 VRQ14:VRR17 VHU14:VHV17 UXY14:UXZ17 UOC14:UOD17 UEG14:UEH17 TUK14:TUL17 TKO14:TKP17 TAS14:TAT17 SQW14:SQX17 SHA14:SHB17 RXE14:RXF17 RNI14:RNJ17 RDM14:RDN17 QTQ14:QTR17 QJU14:QJV17 PZY14:PZZ17 PQC14:PQD17 PGG14:PGH17 OWK14:OWL17 OMO14:OMP17 OCS14:OCT17 NSW14:NSX17 NJA14:NJB17 MZE14:MZF17 MPI14:MPJ17 MFM14:MFN17 LVQ14:LVR17 LLU14:LLV17 LBY14:LBZ17 KSC14:KSD17 KIG14:KIH17 JYK14:JYL17 JOO14:JOP17 JES14:JET17 IUW14:IUX17 ILA14:ILB17 IBE14:IBF17 HRI14:HRJ17 HHM14:HHN17 GXQ14:GXR17 GNU14:GNV17 GDY14:GDZ17 FUC14:FUD17 FKG14:FKH17 FAK14:FAL17 EQO14:EQP17 EGS14:EGT17 DWW14:DWX17 DNA14:DNB17 DDE14:DDF17 CTI14:CTJ17 CJM14:CJN17 BZQ14:BZR17 BPU14:BPV17 BFY14:BFZ17 AWC14:AWD17 AMG14:AMH17 ACK14:ACL17 SO14:SP17 IS14:IT17 WVE14:WVF17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65496:C65519 IZ65495:IZ65518 SV65495:SV65518 ACR65495:ACR65518 AMN65495:AMN65518 AWJ65495:AWJ65518 BGF65495:BGF65518 BQB65495:BQB65518 BZX65495:BZX65518 CJT65495:CJT65518 CTP65495:CTP65518 DDL65495:DDL65518 DNH65495:DNH65518 DXD65495:DXD65518 EGZ65495:EGZ65518 EQV65495:EQV65518 FAR65495:FAR65518 FKN65495:FKN65518 FUJ65495:FUJ65518 GEF65495:GEF65518 GOB65495:GOB65518 GXX65495:GXX65518 HHT65495:HHT65518 HRP65495:HRP65518 IBL65495:IBL65518 ILH65495:ILH65518 IVD65495:IVD65518 JEZ65495:JEZ65518 JOV65495:JOV65518 JYR65495:JYR65518 KIN65495:KIN65518 KSJ65495:KSJ65518 LCF65495:LCF65518 LMB65495:LMB65518 LVX65495:LVX65518 MFT65495:MFT65518 MPP65495:MPP65518 MZL65495:MZL65518 NJH65495:NJH65518 NTD65495:NTD65518 OCZ65495:OCZ65518 OMV65495:OMV65518 OWR65495:OWR65518 PGN65495:PGN65518 PQJ65495:PQJ65518 QAF65495:QAF65518 QKB65495:QKB65518 QTX65495:QTX65518 RDT65495:RDT65518 RNP65495:RNP65518 RXL65495:RXL65518 SHH65495:SHH65518 SRD65495:SRD65518 TAZ65495:TAZ65518 TKV65495:TKV65518 TUR65495:TUR65518 UEN65495:UEN65518 UOJ65495:UOJ65518 UYF65495:UYF65518 VIB65495:VIB65518 VRX65495:VRX65518 WBT65495:WBT65518 WLP65495:WLP65518 WVL65495:WVL65518 C131032:C131055 IZ131031:IZ131054 SV131031:SV131054 ACR131031:ACR131054 AMN131031:AMN131054 AWJ131031:AWJ131054 BGF131031:BGF131054 BQB131031:BQB131054 BZX131031:BZX131054 CJT131031:CJT131054 CTP131031:CTP131054 DDL131031:DDL131054 DNH131031:DNH131054 DXD131031:DXD131054 EGZ131031:EGZ131054 EQV131031:EQV131054 FAR131031:FAR131054 FKN131031:FKN131054 FUJ131031:FUJ131054 GEF131031:GEF131054 GOB131031:GOB131054 GXX131031:GXX131054 HHT131031:HHT131054 HRP131031:HRP131054 IBL131031:IBL131054 ILH131031:ILH131054 IVD131031:IVD131054 JEZ131031:JEZ131054 JOV131031:JOV131054 JYR131031:JYR131054 KIN131031:KIN131054 KSJ131031:KSJ131054 LCF131031:LCF131054 LMB131031:LMB131054 LVX131031:LVX131054 MFT131031:MFT131054 MPP131031:MPP131054 MZL131031:MZL131054 NJH131031:NJH131054 NTD131031:NTD131054 OCZ131031:OCZ131054 OMV131031:OMV131054 OWR131031:OWR131054 PGN131031:PGN131054 PQJ131031:PQJ131054 QAF131031:QAF131054 QKB131031:QKB131054 QTX131031:QTX131054 RDT131031:RDT131054 RNP131031:RNP131054 RXL131031:RXL131054 SHH131031:SHH131054 SRD131031:SRD131054 TAZ131031:TAZ131054 TKV131031:TKV131054 TUR131031:TUR131054 UEN131031:UEN131054 UOJ131031:UOJ131054 UYF131031:UYF131054 VIB131031:VIB131054 VRX131031:VRX131054 WBT131031:WBT131054 WLP131031:WLP131054 WVL131031:WVL131054 C196568:C196591 IZ196567:IZ196590 SV196567:SV196590 ACR196567:ACR196590 AMN196567:AMN196590 AWJ196567:AWJ196590 BGF196567:BGF196590 BQB196567:BQB196590 BZX196567:BZX196590 CJT196567:CJT196590 CTP196567:CTP196590 DDL196567:DDL196590 DNH196567:DNH196590 DXD196567:DXD196590 EGZ196567:EGZ196590 EQV196567:EQV196590 FAR196567:FAR196590 FKN196567:FKN196590 FUJ196567:FUJ196590 GEF196567:GEF196590 GOB196567:GOB196590 GXX196567:GXX196590 HHT196567:HHT196590 HRP196567:HRP196590 IBL196567:IBL196590 ILH196567:ILH196590 IVD196567:IVD196590 JEZ196567:JEZ196590 JOV196567:JOV196590 JYR196567:JYR196590 KIN196567:KIN196590 KSJ196567:KSJ196590 LCF196567:LCF196590 LMB196567:LMB196590 LVX196567:LVX196590 MFT196567:MFT196590 MPP196567:MPP196590 MZL196567:MZL196590 NJH196567:NJH196590 NTD196567:NTD196590 OCZ196567:OCZ196590 OMV196567:OMV196590 OWR196567:OWR196590 PGN196567:PGN196590 PQJ196567:PQJ196590 QAF196567:QAF196590 QKB196567:QKB196590 QTX196567:QTX196590 RDT196567:RDT196590 RNP196567:RNP196590 RXL196567:RXL196590 SHH196567:SHH196590 SRD196567:SRD196590 TAZ196567:TAZ196590 TKV196567:TKV196590 TUR196567:TUR196590 UEN196567:UEN196590 UOJ196567:UOJ196590 UYF196567:UYF196590 VIB196567:VIB196590 VRX196567:VRX196590 WBT196567:WBT196590 WLP196567:WLP196590 WVL196567:WVL196590 C262104:C262127 IZ262103:IZ262126 SV262103:SV262126 ACR262103:ACR262126 AMN262103:AMN262126 AWJ262103:AWJ262126 BGF262103:BGF262126 BQB262103:BQB262126 BZX262103:BZX262126 CJT262103:CJT262126 CTP262103:CTP262126 DDL262103:DDL262126 DNH262103:DNH262126 DXD262103:DXD262126 EGZ262103:EGZ262126 EQV262103:EQV262126 FAR262103:FAR262126 FKN262103:FKN262126 FUJ262103:FUJ262126 GEF262103:GEF262126 GOB262103:GOB262126 GXX262103:GXX262126 HHT262103:HHT262126 HRP262103:HRP262126 IBL262103:IBL262126 ILH262103:ILH262126 IVD262103:IVD262126 JEZ262103:JEZ262126 JOV262103:JOV262126 JYR262103:JYR262126 KIN262103:KIN262126 KSJ262103:KSJ262126 LCF262103:LCF262126 LMB262103:LMB262126 LVX262103:LVX262126 MFT262103:MFT262126 MPP262103:MPP262126 MZL262103:MZL262126 NJH262103:NJH262126 NTD262103:NTD262126 OCZ262103:OCZ262126 OMV262103:OMV262126 OWR262103:OWR262126 PGN262103:PGN262126 PQJ262103:PQJ262126 QAF262103:QAF262126 QKB262103:QKB262126 QTX262103:QTX262126 RDT262103:RDT262126 RNP262103:RNP262126 RXL262103:RXL262126 SHH262103:SHH262126 SRD262103:SRD262126 TAZ262103:TAZ262126 TKV262103:TKV262126 TUR262103:TUR262126 UEN262103:UEN262126 UOJ262103:UOJ262126 UYF262103:UYF262126 VIB262103:VIB262126 VRX262103:VRX262126 WBT262103:WBT262126 WLP262103:WLP262126 WVL262103:WVL262126 C327640:C327663 IZ327639:IZ327662 SV327639:SV327662 ACR327639:ACR327662 AMN327639:AMN327662 AWJ327639:AWJ327662 BGF327639:BGF327662 BQB327639:BQB327662 BZX327639:BZX327662 CJT327639:CJT327662 CTP327639:CTP327662 DDL327639:DDL327662 DNH327639:DNH327662 DXD327639:DXD327662 EGZ327639:EGZ327662 EQV327639:EQV327662 FAR327639:FAR327662 FKN327639:FKN327662 FUJ327639:FUJ327662 GEF327639:GEF327662 GOB327639:GOB327662 GXX327639:GXX327662 HHT327639:HHT327662 HRP327639:HRP327662 IBL327639:IBL327662 ILH327639:ILH327662 IVD327639:IVD327662 JEZ327639:JEZ327662 JOV327639:JOV327662 JYR327639:JYR327662 KIN327639:KIN327662 KSJ327639:KSJ327662 LCF327639:LCF327662 LMB327639:LMB327662 LVX327639:LVX327662 MFT327639:MFT327662 MPP327639:MPP327662 MZL327639:MZL327662 NJH327639:NJH327662 NTD327639:NTD327662 OCZ327639:OCZ327662 OMV327639:OMV327662 OWR327639:OWR327662 PGN327639:PGN327662 PQJ327639:PQJ327662 QAF327639:QAF327662 QKB327639:QKB327662 QTX327639:QTX327662 RDT327639:RDT327662 RNP327639:RNP327662 RXL327639:RXL327662 SHH327639:SHH327662 SRD327639:SRD327662 TAZ327639:TAZ327662 TKV327639:TKV327662 TUR327639:TUR327662 UEN327639:UEN327662 UOJ327639:UOJ327662 UYF327639:UYF327662 VIB327639:VIB327662 VRX327639:VRX327662 WBT327639:WBT327662 WLP327639:WLP327662 WVL327639:WVL327662 C393176:C393199 IZ393175:IZ393198 SV393175:SV393198 ACR393175:ACR393198 AMN393175:AMN393198 AWJ393175:AWJ393198 BGF393175:BGF393198 BQB393175:BQB393198 BZX393175:BZX393198 CJT393175:CJT393198 CTP393175:CTP393198 DDL393175:DDL393198 DNH393175:DNH393198 DXD393175:DXD393198 EGZ393175:EGZ393198 EQV393175:EQV393198 FAR393175:FAR393198 FKN393175:FKN393198 FUJ393175:FUJ393198 GEF393175:GEF393198 GOB393175:GOB393198 GXX393175:GXX393198 HHT393175:HHT393198 HRP393175:HRP393198 IBL393175:IBL393198 ILH393175:ILH393198 IVD393175:IVD393198 JEZ393175:JEZ393198 JOV393175:JOV393198 JYR393175:JYR393198 KIN393175:KIN393198 KSJ393175:KSJ393198 LCF393175:LCF393198 LMB393175:LMB393198 LVX393175:LVX393198 MFT393175:MFT393198 MPP393175:MPP393198 MZL393175:MZL393198 NJH393175:NJH393198 NTD393175:NTD393198 OCZ393175:OCZ393198 OMV393175:OMV393198 OWR393175:OWR393198 PGN393175:PGN393198 PQJ393175:PQJ393198 QAF393175:QAF393198 QKB393175:QKB393198 QTX393175:QTX393198 RDT393175:RDT393198 RNP393175:RNP393198 RXL393175:RXL393198 SHH393175:SHH393198 SRD393175:SRD393198 TAZ393175:TAZ393198 TKV393175:TKV393198 TUR393175:TUR393198 UEN393175:UEN393198 UOJ393175:UOJ393198 UYF393175:UYF393198 VIB393175:VIB393198 VRX393175:VRX393198 WBT393175:WBT393198 WLP393175:WLP393198 WVL393175:WVL393198 C458712:C458735 IZ458711:IZ458734 SV458711:SV458734 ACR458711:ACR458734 AMN458711:AMN458734 AWJ458711:AWJ458734 BGF458711:BGF458734 BQB458711:BQB458734 BZX458711:BZX458734 CJT458711:CJT458734 CTP458711:CTP458734 DDL458711:DDL458734 DNH458711:DNH458734 DXD458711:DXD458734 EGZ458711:EGZ458734 EQV458711:EQV458734 FAR458711:FAR458734 FKN458711:FKN458734 FUJ458711:FUJ458734 GEF458711:GEF458734 GOB458711:GOB458734 GXX458711:GXX458734 HHT458711:HHT458734 HRP458711:HRP458734 IBL458711:IBL458734 ILH458711:ILH458734 IVD458711:IVD458734 JEZ458711:JEZ458734 JOV458711:JOV458734 JYR458711:JYR458734 KIN458711:KIN458734 KSJ458711:KSJ458734 LCF458711:LCF458734 LMB458711:LMB458734 LVX458711:LVX458734 MFT458711:MFT458734 MPP458711:MPP458734 MZL458711:MZL458734 NJH458711:NJH458734 NTD458711:NTD458734 OCZ458711:OCZ458734 OMV458711:OMV458734 OWR458711:OWR458734 PGN458711:PGN458734 PQJ458711:PQJ458734 QAF458711:QAF458734 QKB458711:QKB458734 QTX458711:QTX458734 RDT458711:RDT458734 RNP458711:RNP458734 RXL458711:RXL458734 SHH458711:SHH458734 SRD458711:SRD458734 TAZ458711:TAZ458734 TKV458711:TKV458734 TUR458711:TUR458734 UEN458711:UEN458734 UOJ458711:UOJ458734 UYF458711:UYF458734 VIB458711:VIB458734 VRX458711:VRX458734 WBT458711:WBT458734 WLP458711:WLP458734 WVL458711:WVL458734 C524248:C524271 IZ524247:IZ524270 SV524247:SV524270 ACR524247:ACR524270 AMN524247:AMN524270 AWJ524247:AWJ524270 BGF524247:BGF524270 BQB524247:BQB524270 BZX524247:BZX524270 CJT524247:CJT524270 CTP524247:CTP524270 DDL524247:DDL524270 DNH524247:DNH524270 DXD524247:DXD524270 EGZ524247:EGZ524270 EQV524247:EQV524270 FAR524247:FAR524270 FKN524247:FKN524270 FUJ524247:FUJ524270 GEF524247:GEF524270 GOB524247:GOB524270 GXX524247:GXX524270 HHT524247:HHT524270 HRP524247:HRP524270 IBL524247:IBL524270 ILH524247:ILH524270 IVD524247:IVD524270 JEZ524247:JEZ524270 JOV524247:JOV524270 JYR524247:JYR524270 KIN524247:KIN524270 KSJ524247:KSJ524270 LCF524247:LCF524270 LMB524247:LMB524270 LVX524247:LVX524270 MFT524247:MFT524270 MPP524247:MPP524270 MZL524247:MZL524270 NJH524247:NJH524270 NTD524247:NTD524270 OCZ524247:OCZ524270 OMV524247:OMV524270 OWR524247:OWR524270 PGN524247:PGN524270 PQJ524247:PQJ524270 QAF524247:QAF524270 QKB524247:QKB524270 QTX524247:QTX524270 RDT524247:RDT524270 RNP524247:RNP524270 RXL524247:RXL524270 SHH524247:SHH524270 SRD524247:SRD524270 TAZ524247:TAZ524270 TKV524247:TKV524270 TUR524247:TUR524270 UEN524247:UEN524270 UOJ524247:UOJ524270 UYF524247:UYF524270 VIB524247:VIB524270 VRX524247:VRX524270 WBT524247:WBT524270 WLP524247:WLP524270 WVL524247:WVL524270 C589784:C589807 IZ589783:IZ589806 SV589783:SV589806 ACR589783:ACR589806 AMN589783:AMN589806 AWJ589783:AWJ589806 BGF589783:BGF589806 BQB589783:BQB589806 BZX589783:BZX589806 CJT589783:CJT589806 CTP589783:CTP589806 DDL589783:DDL589806 DNH589783:DNH589806 DXD589783:DXD589806 EGZ589783:EGZ589806 EQV589783:EQV589806 FAR589783:FAR589806 FKN589783:FKN589806 FUJ589783:FUJ589806 GEF589783:GEF589806 GOB589783:GOB589806 GXX589783:GXX589806 HHT589783:HHT589806 HRP589783:HRP589806 IBL589783:IBL589806 ILH589783:ILH589806 IVD589783:IVD589806 JEZ589783:JEZ589806 JOV589783:JOV589806 JYR589783:JYR589806 KIN589783:KIN589806 KSJ589783:KSJ589806 LCF589783:LCF589806 LMB589783:LMB589806 LVX589783:LVX589806 MFT589783:MFT589806 MPP589783:MPP589806 MZL589783:MZL589806 NJH589783:NJH589806 NTD589783:NTD589806 OCZ589783:OCZ589806 OMV589783:OMV589806 OWR589783:OWR589806 PGN589783:PGN589806 PQJ589783:PQJ589806 QAF589783:QAF589806 QKB589783:QKB589806 QTX589783:QTX589806 RDT589783:RDT589806 RNP589783:RNP589806 RXL589783:RXL589806 SHH589783:SHH589806 SRD589783:SRD589806 TAZ589783:TAZ589806 TKV589783:TKV589806 TUR589783:TUR589806 UEN589783:UEN589806 UOJ589783:UOJ589806 UYF589783:UYF589806 VIB589783:VIB589806 VRX589783:VRX589806 WBT589783:WBT589806 WLP589783:WLP589806 WVL589783:WVL589806 C655320:C655343 IZ655319:IZ655342 SV655319:SV655342 ACR655319:ACR655342 AMN655319:AMN655342 AWJ655319:AWJ655342 BGF655319:BGF655342 BQB655319:BQB655342 BZX655319:BZX655342 CJT655319:CJT655342 CTP655319:CTP655342 DDL655319:DDL655342 DNH655319:DNH655342 DXD655319:DXD655342 EGZ655319:EGZ655342 EQV655319:EQV655342 FAR655319:FAR655342 FKN655319:FKN655342 FUJ655319:FUJ655342 GEF655319:GEF655342 GOB655319:GOB655342 GXX655319:GXX655342 HHT655319:HHT655342 HRP655319:HRP655342 IBL655319:IBL655342 ILH655319:ILH655342 IVD655319:IVD655342 JEZ655319:JEZ655342 JOV655319:JOV655342 JYR655319:JYR655342 KIN655319:KIN655342 KSJ655319:KSJ655342 LCF655319:LCF655342 LMB655319:LMB655342 LVX655319:LVX655342 MFT655319:MFT655342 MPP655319:MPP655342 MZL655319:MZL655342 NJH655319:NJH655342 NTD655319:NTD655342 OCZ655319:OCZ655342 OMV655319:OMV655342 OWR655319:OWR655342 PGN655319:PGN655342 PQJ655319:PQJ655342 QAF655319:QAF655342 QKB655319:QKB655342 QTX655319:QTX655342 RDT655319:RDT655342 RNP655319:RNP655342 RXL655319:RXL655342 SHH655319:SHH655342 SRD655319:SRD655342 TAZ655319:TAZ655342 TKV655319:TKV655342 TUR655319:TUR655342 UEN655319:UEN655342 UOJ655319:UOJ655342 UYF655319:UYF655342 VIB655319:VIB655342 VRX655319:VRX655342 WBT655319:WBT655342 WLP655319:WLP655342 WVL655319:WVL655342 C720856:C720879 IZ720855:IZ720878 SV720855:SV720878 ACR720855:ACR720878 AMN720855:AMN720878 AWJ720855:AWJ720878 BGF720855:BGF720878 BQB720855:BQB720878 BZX720855:BZX720878 CJT720855:CJT720878 CTP720855:CTP720878 DDL720855:DDL720878 DNH720855:DNH720878 DXD720855:DXD720878 EGZ720855:EGZ720878 EQV720855:EQV720878 FAR720855:FAR720878 FKN720855:FKN720878 FUJ720855:FUJ720878 GEF720855:GEF720878 GOB720855:GOB720878 GXX720855:GXX720878 HHT720855:HHT720878 HRP720855:HRP720878 IBL720855:IBL720878 ILH720855:ILH720878 IVD720855:IVD720878 JEZ720855:JEZ720878 JOV720855:JOV720878 JYR720855:JYR720878 KIN720855:KIN720878 KSJ720855:KSJ720878 LCF720855:LCF720878 LMB720855:LMB720878 LVX720855:LVX720878 MFT720855:MFT720878 MPP720855:MPP720878 MZL720855:MZL720878 NJH720855:NJH720878 NTD720855:NTD720878 OCZ720855:OCZ720878 OMV720855:OMV720878 OWR720855:OWR720878 PGN720855:PGN720878 PQJ720855:PQJ720878 QAF720855:QAF720878 QKB720855:QKB720878 QTX720855:QTX720878 RDT720855:RDT720878 RNP720855:RNP720878 RXL720855:RXL720878 SHH720855:SHH720878 SRD720855:SRD720878 TAZ720855:TAZ720878 TKV720855:TKV720878 TUR720855:TUR720878 UEN720855:UEN720878 UOJ720855:UOJ720878 UYF720855:UYF720878 VIB720855:VIB720878 VRX720855:VRX720878 WBT720855:WBT720878 WLP720855:WLP720878 WVL720855:WVL720878 C786392:C786415 IZ786391:IZ786414 SV786391:SV786414 ACR786391:ACR786414 AMN786391:AMN786414 AWJ786391:AWJ786414 BGF786391:BGF786414 BQB786391:BQB786414 BZX786391:BZX786414 CJT786391:CJT786414 CTP786391:CTP786414 DDL786391:DDL786414 DNH786391:DNH786414 DXD786391:DXD786414 EGZ786391:EGZ786414 EQV786391:EQV786414 FAR786391:FAR786414 FKN786391:FKN786414 FUJ786391:FUJ786414 GEF786391:GEF786414 GOB786391:GOB786414 GXX786391:GXX786414 HHT786391:HHT786414 HRP786391:HRP786414 IBL786391:IBL786414 ILH786391:ILH786414 IVD786391:IVD786414 JEZ786391:JEZ786414 JOV786391:JOV786414 JYR786391:JYR786414 KIN786391:KIN786414 KSJ786391:KSJ786414 LCF786391:LCF786414 LMB786391:LMB786414 LVX786391:LVX786414 MFT786391:MFT786414 MPP786391:MPP786414 MZL786391:MZL786414 NJH786391:NJH786414 NTD786391:NTD786414 OCZ786391:OCZ786414 OMV786391:OMV786414 OWR786391:OWR786414 PGN786391:PGN786414 PQJ786391:PQJ786414 QAF786391:QAF786414 QKB786391:QKB786414 QTX786391:QTX786414 RDT786391:RDT786414 RNP786391:RNP786414 RXL786391:RXL786414 SHH786391:SHH786414 SRD786391:SRD786414 TAZ786391:TAZ786414 TKV786391:TKV786414 TUR786391:TUR786414 UEN786391:UEN786414 UOJ786391:UOJ786414 UYF786391:UYF786414 VIB786391:VIB786414 VRX786391:VRX786414 WBT786391:WBT786414 WLP786391:WLP786414 WVL786391:WVL786414 C851928:C851951 IZ851927:IZ851950 SV851927:SV851950 ACR851927:ACR851950 AMN851927:AMN851950 AWJ851927:AWJ851950 BGF851927:BGF851950 BQB851927:BQB851950 BZX851927:BZX851950 CJT851927:CJT851950 CTP851927:CTP851950 DDL851927:DDL851950 DNH851927:DNH851950 DXD851927:DXD851950 EGZ851927:EGZ851950 EQV851927:EQV851950 FAR851927:FAR851950 FKN851927:FKN851950 FUJ851927:FUJ851950 GEF851927:GEF851950 GOB851927:GOB851950 GXX851927:GXX851950 HHT851927:HHT851950 HRP851927:HRP851950 IBL851927:IBL851950 ILH851927:ILH851950 IVD851927:IVD851950 JEZ851927:JEZ851950 JOV851927:JOV851950 JYR851927:JYR851950 KIN851927:KIN851950 KSJ851927:KSJ851950 LCF851927:LCF851950 LMB851927:LMB851950 LVX851927:LVX851950 MFT851927:MFT851950 MPP851927:MPP851950 MZL851927:MZL851950 NJH851927:NJH851950 NTD851927:NTD851950 OCZ851927:OCZ851950 OMV851927:OMV851950 OWR851927:OWR851950 PGN851927:PGN851950 PQJ851927:PQJ851950 QAF851927:QAF851950 QKB851927:QKB851950 QTX851927:QTX851950 RDT851927:RDT851950 RNP851927:RNP851950 RXL851927:RXL851950 SHH851927:SHH851950 SRD851927:SRD851950 TAZ851927:TAZ851950 TKV851927:TKV851950 TUR851927:TUR851950 UEN851927:UEN851950 UOJ851927:UOJ851950 UYF851927:UYF851950 VIB851927:VIB851950 VRX851927:VRX851950 WBT851927:WBT851950 WLP851927:WLP851950 WVL851927:WVL851950 C917464:C917487 IZ917463:IZ917486 SV917463:SV917486 ACR917463:ACR917486 AMN917463:AMN917486 AWJ917463:AWJ917486 BGF917463:BGF917486 BQB917463:BQB917486 BZX917463:BZX917486 CJT917463:CJT917486 CTP917463:CTP917486 DDL917463:DDL917486 DNH917463:DNH917486 DXD917463:DXD917486 EGZ917463:EGZ917486 EQV917463:EQV917486 FAR917463:FAR917486 FKN917463:FKN917486 FUJ917463:FUJ917486 GEF917463:GEF917486 GOB917463:GOB917486 GXX917463:GXX917486 HHT917463:HHT917486 HRP917463:HRP917486 IBL917463:IBL917486 ILH917463:ILH917486 IVD917463:IVD917486 JEZ917463:JEZ917486 JOV917463:JOV917486 JYR917463:JYR917486 KIN917463:KIN917486 KSJ917463:KSJ917486 LCF917463:LCF917486 LMB917463:LMB917486 LVX917463:LVX917486 MFT917463:MFT917486 MPP917463:MPP917486 MZL917463:MZL917486 NJH917463:NJH917486 NTD917463:NTD917486 OCZ917463:OCZ917486 OMV917463:OMV917486 OWR917463:OWR917486 PGN917463:PGN917486 PQJ917463:PQJ917486 QAF917463:QAF917486 QKB917463:QKB917486 QTX917463:QTX917486 RDT917463:RDT917486 RNP917463:RNP917486 RXL917463:RXL917486 SHH917463:SHH917486 SRD917463:SRD917486 TAZ917463:TAZ917486 TKV917463:TKV917486 TUR917463:TUR917486 UEN917463:UEN917486 UOJ917463:UOJ917486 UYF917463:UYF917486 VIB917463:VIB917486 VRX917463:VRX917486 WBT917463:WBT917486 WLP917463:WLP917486 WVL917463:WVL917486 C983000:C983023 IZ982999:IZ983022 SV982999:SV983022 ACR982999:ACR983022 AMN982999:AMN983022 AWJ982999:AWJ983022 BGF982999:BGF983022 BQB982999:BQB983022 BZX982999:BZX983022 CJT982999:CJT983022 CTP982999:CTP983022 DDL982999:DDL983022 DNH982999:DNH983022 DXD982999:DXD983022 EGZ982999:EGZ983022 EQV982999:EQV983022 FAR982999:FAR983022 FKN982999:FKN983022 FUJ982999:FUJ983022 GEF982999:GEF983022 GOB982999:GOB983022 GXX982999:GXX983022 HHT982999:HHT983022 HRP982999:HRP983022 IBL982999:IBL983022 ILH982999:ILH983022 IVD982999:IVD983022 JEZ982999:JEZ983022 JOV982999:JOV983022 JYR982999:JYR983022 KIN982999:KIN983022 KSJ982999:KSJ983022 LCF982999:LCF983022 LMB982999:LMB983022 LVX982999:LVX983022 MFT982999:MFT983022 MPP982999:MPP983022 MZL982999:MZL983022 NJH982999:NJH983022 NTD982999:NTD983022 OCZ982999:OCZ983022 OMV982999:OMV983022 OWR982999:OWR983022 PGN982999:PGN983022 PQJ982999:PQJ983022 QAF982999:QAF983022 QKB982999:QKB983022 QTX982999:QTX983022 RDT982999:RDT983022 RNP982999:RNP983022 RXL982999:RXL983022 SHH982999:SHH983022 SRD982999:SRD983022 TAZ982999:TAZ983022 TKV982999:TKV983022 TUR982999:TUR983022 UEN982999:UEN983022 UOJ982999:UOJ983022 UYF982999:UYF983022 VIB982999:VIB983022 VRX982999:VRX983022 WBT982999:WBT983022 WLP982999:WLP983022 WVL982999:WVL983022 D48:D51 SL25:SL29 WLF14:WLF23 WBJ14:WBJ23 VRN14:VRN23 VHR14:VHR23 UXV14:UXV23 UNZ14:UNZ23 UED14:UED23 TUH14:TUH23 TKL14:TKL23 TAP14:TAP23 SQT14:SQT23 SGX14:SGX23 RXB14:RXB23 RNF14:RNF23 RDJ14:RDJ23 QTN14:QTN23 QJR14:QJR23 PZV14:PZV23 PPZ14:PPZ23 PGD14:PGD23 OWH14:OWH23 OML14:OML23 OCP14:OCP23 NST14:NST23 NIX14:NIX23 MZB14:MZB23 MPF14:MPF23 MFJ14:MFJ23 LVN14:LVN23 LLR14:LLR23 LBV14:LBV23 KRZ14:KRZ23 KID14:KID23 JYH14:JYH23 JOL14:JOL23 JEP14:JEP23 IUT14:IUT23 IKX14:IKX23 IBB14:IBB23 HRF14:HRF23 HHJ14:HHJ23 GXN14:GXN23 GNR14:GNR23 GDV14:GDV23 FTZ14:FTZ23 FKD14:FKD23 FAH14:FAH23 EQL14:EQL23 EGP14:EGP23 DWT14:DWT23 DMX14:DMX23 DDB14:DDB23 CTF14:CTF23 CJJ14:CJJ23 BZN14:BZN23 BPR14:BPR23 BFV14:BFV23 AVZ14:AVZ23 AMD14:AMD23 ACH14:ACH23 SL14:SL23 IP14:IP23 WVB14:WVB23 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D28:D29 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D134:D135 D100:D103 D6:D9 D55:D56 D64:D65 D73:D74 D82:D83 D126 D119:D120 D42:D43 D35:D36 D91:D92 D129 D22:D23 D108:D114 D13:D17" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="C65497:C65520 IZ65496:IZ65519 SV65496:SV65519 ACR65496:ACR65519 AMN65496:AMN65519 AWJ65496:AWJ65519 BGF65496:BGF65519 BQB65496:BQB65519 BZX65496:BZX65519 CJT65496:CJT65519 CTP65496:CTP65519 DDL65496:DDL65519 DNH65496:DNH65519 DXD65496:DXD65519 EGZ65496:EGZ65519 EQV65496:EQV65519 FAR65496:FAR65519 FKN65496:FKN65519 FUJ65496:FUJ65519 GEF65496:GEF65519 GOB65496:GOB65519 GXX65496:GXX65519 HHT65496:HHT65519 HRP65496:HRP65519 IBL65496:IBL65519 ILH65496:ILH65519 IVD65496:IVD65519 JEZ65496:JEZ65519 JOV65496:JOV65519 JYR65496:JYR65519 KIN65496:KIN65519 KSJ65496:KSJ65519 LCF65496:LCF65519 LMB65496:LMB65519 LVX65496:LVX65519 MFT65496:MFT65519 MPP65496:MPP65519 MZL65496:MZL65519 NJH65496:NJH65519 NTD65496:NTD65519 OCZ65496:OCZ65519 OMV65496:OMV65519 OWR65496:OWR65519 PGN65496:PGN65519 PQJ65496:PQJ65519 QAF65496:QAF65519 QKB65496:QKB65519 QTX65496:QTX65519 RDT65496:RDT65519 RNP65496:RNP65519 RXL65496:RXL65519 SHH65496:SHH65519 SRD65496:SRD65519 TAZ65496:TAZ65519 TKV65496:TKV65519 TUR65496:TUR65519 UEN65496:UEN65519 UOJ65496:UOJ65519 UYF65496:UYF65519 VIB65496:VIB65519 VRX65496:VRX65519 WBT65496:WBT65519 WLP65496:WLP65519 WVL65496:WVL65519 C131033:C131056 IZ131032:IZ131055 SV131032:SV131055 ACR131032:ACR131055 AMN131032:AMN131055 AWJ131032:AWJ131055 BGF131032:BGF131055 BQB131032:BQB131055 BZX131032:BZX131055 CJT131032:CJT131055 CTP131032:CTP131055 DDL131032:DDL131055 DNH131032:DNH131055 DXD131032:DXD131055 EGZ131032:EGZ131055 EQV131032:EQV131055 FAR131032:FAR131055 FKN131032:FKN131055 FUJ131032:FUJ131055 GEF131032:GEF131055 GOB131032:GOB131055 GXX131032:GXX131055 HHT131032:HHT131055 HRP131032:HRP131055 IBL131032:IBL131055 ILH131032:ILH131055 IVD131032:IVD131055 JEZ131032:JEZ131055 JOV131032:JOV131055 JYR131032:JYR131055 KIN131032:KIN131055 KSJ131032:KSJ131055 LCF131032:LCF131055 LMB131032:LMB131055 LVX131032:LVX131055 MFT131032:MFT131055 MPP131032:MPP131055 MZL131032:MZL131055 NJH131032:NJH131055 NTD131032:NTD131055 OCZ131032:OCZ131055 OMV131032:OMV131055 OWR131032:OWR131055 PGN131032:PGN131055 PQJ131032:PQJ131055 QAF131032:QAF131055 QKB131032:QKB131055 QTX131032:QTX131055 RDT131032:RDT131055 RNP131032:RNP131055 RXL131032:RXL131055 SHH131032:SHH131055 SRD131032:SRD131055 TAZ131032:TAZ131055 TKV131032:TKV131055 TUR131032:TUR131055 UEN131032:UEN131055 UOJ131032:UOJ131055 UYF131032:UYF131055 VIB131032:VIB131055 VRX131032:VRX131055 WBT131032:WBT131055 WLP131032:WLP131055 WVL131032:WVL131055 C196569:C196592 IZ196568:IZ196591 SV196568:SV196591 ACR196568:ACR196591 AMN196568:AMN196591 AWJ196568:AWJ196591 BGF196568:BGF196591 BQB196568:BQB196591 BZX196568:BZX196591 CJT196568:CJT196591 CTP196568:CTP196591 DDL196568:DDL196591 DNH196568:DNH196591 DXD196568:DXD196591 EGZ196568:EGZ196591 EQV196568:EQV196591 FAR196568:FAR196591 FKN196568:FKN196591 FUJ196568:FUJ196591 GEF196568:GEF196591 GOB196568:GOB196591 GXX196568:GXX196591 HHT196568:HHT196591 HRP196568:HRP196591 IBL196568:IBL196591 ILH196568:ILH196591 IVD196568:IVD196591 JEZ196568:JEZ196591 JOV196568:JOV196591 JYR196568:JYR196591 KIN196568:KIN196591 KSJ196568:KSJ196591 LCF196568:LCF196591 LMB196568:LMB196591 LVX196568:LVX196591 MFT196568:MFT196591 MPP196568:MPP196591 MZL196568:MZL196591 NJH196568:NJH196591 NTD196568:NTD196591 OCZ196568:OCZ196591 OMV196568:OMV196591 OWR196568:OWR196591 PGN196568:PGN196591 PQJ196568:PQJ196591 QAF196568:QAF196591 QKB196568:QKB196591 QTX196568:QTX196591 RDT196568:RDT196591 RNP196568:RNP196591 RXL196568:RXL196591 SHH196568:SHH196591 SRD196568:SRD196591 TAZ196568:TAZ196591 TKV196568:TKV196591 TUR196568:TUR196591 UEN196568:UEN196591 UOJ196568:UOJ196591 UYF196568:UYF196591 VIB196568:VIB196591 VRX196568:VRX196591 WBT196568:WBT196591 WLP196568:WLP196591 WVL196568:WVL196591 C262105:C262128 IZ262104:IZ262127 SV262104:SV262127 ACR262104:ACR262127 AMN262104:AMN262127 AWJ262104:AWJ262127 BGF262104:BGF262127 BQB262104:BQB262127 BZX262104:BZX262127 CJT262104:CJT262127 CTP262104:CTP262127 DDL262104:DDL262127 DNH262104:DNH262127 DXD262104:DXD262127 EGZ262104:EGZ262127 EQV262104:EQV262127 FAR262104:FAR262127 FKN262104:FKN262127 FUJ262104:FUJ262127 GEF262104:GEF262127 GOB262104:GOB262127 GXX262104:GXX262127 HHT262104:HHT262127 HRP262104:HRP262127 IBL262104:IBL262127 ILH262104:ILH262127 IVD262104:IVD262127 JEZ262104:JEZ262127 JOV262104:JOV262127 JYR262104:JYR262127 KIN262104:KIN262127 KSJ262104:KSJ262127 LCF262104:LCF262127 LMB262104:LMB262127 LVX262104:LVX262127 MFT262104:MFT262127 MPP262104:MPP262127 MZL262104:MZL262127 NJH262104:NJH262127 NTD262104:NTD262127 OCZ262104:OCZ262127 OMV262104:OMV262127 OWR262104:OWR262127 PGN262104:PGN262127 PQJ262104:PQJ262127 QAF262104:QAF262127 QKB262104:QKB262127 QTX262104:QTX262127 RDT262104:RDT262127 RNP262104:RNP262127 RXL262104:RXL262127 SHH262104:SHH262127 SRD262104:SRD262127 TAZ262104:TAZ262127 TKV262104:TKV262127 TUR262104:TUR262127 UEN262104:UEN262127 UOJ262104:UOJ262127 UYF262104:UYF262127 VIB262104:VIB262127 VRX262104:VRX262127 WBT262104:WBT262127 WLP262104:WLP262127 WVL262104:WVL262127 C327641:C327664 IZ327640:IZ327663 SV327640:SV327663 ACR327640:ACR327663 AMN327640:AMN327663 AWJ327640:AWJ327663 BGF327640:BGF327663 BQB327640:BQB327663 BZX327640:BZX327663 CJT327640:CJT327663 CTP327640:CTP327663 DDL327640:DDL327663 DNH327640:DNH327663 DXD327640:DXD327663 EGZ327640:EGZ327663 EQV327640:EQV327663 FAR327640:FAR327663 FKN327640:FKN327663 FUJ327640:FUJ327663 GEF327640:GEF327663 GOB327640:GOB327663 GXX327640:GXX327663 HHT327640:HHT327663 HRP327640:HRP327663 IBL327640:IBL327663 ILH327640:ILH327663 IVD327640:IVD327663 JEZ327640:JEZ327663 JOV327640:JOV327663 JYR327640:JYR327663 KIN327640:KIN327663 KSJ327640:KSJ327663 LCF327640:LCF327663 LMB327640:LMB327663 LVX327640:LVX327663 MFT327640:MFT327663 MPP327640:MPP327663 MZL327640:MZL327663 NJH327640:NJH327663 NTD327640:NTD327663 OCZ327640:OCZ327663 OMV327640:OMV327663 OWR327640:OWR327663 PGN327640:PGN327663 PQJ327640:PQJ327663 QAF327640:QAF327663 QKB327640:QKB327663 QTX327640:QTX327663 RDT327640:RDT327663 RNP327640:RNP327663 RXL327640:RXL327663 SHH327640:SHH327663 SRD327640:SRD327663 TAZ327640:TAZ327663 TKV327640:TKV327663 TUR327640:TUR327663 UEN327640:UEN327663 UOJ327640:UOJ327663 UYF327640:UYF327663 VIB327640:VIB327663 VRX327640:VRX327663 WBT327640:WBT327663 WLP327640:WLP327663 WVL327640:WVL327663 C393177:C393200 IZ393176:IZ393199 SV393176:SV393199 ACR393176:ACR393199 AMN393176:AMN393199 AWJ393176:AWJ393199 BGF393176:BGF393199 BQB393176:BQB393199 BZX393176:BZX393199 CJT393176:CJT393199 CTP393176:CTP393199 DDL393176:DDL393199 DNH393176:DNH393199 DXD393176:DXD393199 EGZ393176:EGZ393199 EQV393176:EQV393199 FAR393176:FAR393199 FKN393176:FKN393199 FUJ393176:FUJ393199 GEF393176:GEF393199 GOB393176:GOB393199 GXX393176:GXX393199 HHT393176:HHT393199 HRP393176:HRP393199 IBL393176:IBL393199 ILH393176:ILH393199 IVD393176:IVD393199 JEZ393176:JEZ393199 JOV393176:JOV393199 JYR393176:JYR393199 KIN393176:KIN393199 KSJ393176:KSJ393199 LCF393176:LCF393199 LMB393176:LMB393199 LVX393176:LVX393199 MFT393176:MFT393199 MPP393176:MPP393199 MZL393176:MZL393199 NJH393176:NJH393199 NTD393176:NTD393199 OCZ393176:OCZ393199 OMV393176:OMV393199 OWR393176:OWR393199 PGN393176:PGN393199 PQJ393176:PQJ393199 QAF393176:QAF393199 QKB393176:QKB393199 QTX393176:QTX393199 RDT393176:RDT393199 RNP393176:RNP393199 RXL393176:RXL393199 SHH393176:SHH393199 SRD393176:SRD393199 TAZ393176:TAZ393199 TKV393176:TKV393199 TUR393176:TUR393199 UEN393176:UEN393199 UOJ393176:UOJ393199 UYF393176:UYF393199 VIB393176:VIB393199 VRX393176:VRX393199 WBT393176:WBT393199 WLP393176:WLP393199 WVL393176:WVL393199 C458713:C458736 IZ458712:IZ458735 SV458712:SV458735 ACR458712:ACR458735 AMN458712:AMN458735 AWJ458712:AWJ458735 BGF458712:BGF458735 BQB458712:BQB458735 BZX458712:BZX458735 CJT458712:CJT458735 CTP458712:CTP458735 DDL458712:DDL458735 DNH458712:DNH458735 DXD458712:DXD458735 EGZ458712:EGZ458735 EQV458712:EQV458735 FAR458712:FAR458735 FKN458712:FKN458735 FUJ458712:FUJ458735 GEF458712:GEF458735 GOB458712:GOB458735 GXX458712:GXX458735 HHT458712:HHT458735 HRP458712:HRP458735 IBL458712:IBL458735 ILH458712:ILH458735 IVD458712:IVD458735 JEZ458712:JEZ458735 JOV458712:JOV458735 JYR458712:JYR458735 KIN458712:KIN458735 KSJ458712:KSJ458735 LCF458712:LCF458735 LMB458712:LMB458735 LVX458712:LVX458735 MFT458712:MFT458735 MPP458712:MPP458735 MZL458712:MZL458735 NJH458712:NJH458735 NTD458712:NTD458735 OCZ458712:OCZ458735 OMV458712:OMV458735 OWR458712:OWR458735 PGN458712:PGN458735 PQJ458712:PQJ458735 QAF458712:QAF458735 QKB458712:QKB458735 QTX458712:QTX458735 RDT458712:RDT458735 RNP458712:RNP458735 RXL458712:RXL458735 SHH458712:SHH458735 SRD458712:SRD458735 TAZ458712:TAZ458735 TKV458712:TKV458735 TUR458712:TUR458735 UEN458712:UEN458735 UOJ458712:UOJ458735 UYF458712:UYF458735 VIB458712:VIB458735 VRX458712:VRX458735 WBT458712:WBT458735 WLP458712:WLP458735 WVL458712:WVL458735 C524249:C524272 IZ524248:IZ524271 SV524248:SV524271 ACR524248:ACR524271 AMN524248:AMN524271 AWJ524248:AWJ524271 BGF524248:BGF524271 BQB524248:BQB524271 BZX524248:BZX524271 CJT524248:CJT524271 CTP524248:CTP524271 DDL524248:DDL524271 DNH524248:DNH524271 DXD524248:DXD524271 EGZ524248:EGZ524271 EQV524248:EQV524271 FAR524248:FAR524271 FKN524248:FKN524271 FUJ524248:FUJ524271 GEF524248:GEF524271 GOB524248:GOB524271 GXX524248:GXX524271 HHT524248:HHT524271 HRP524248:HRP524271 IBL524248:IBL524271 ILH524248:ILH524271 IVD524248:IVD524271 JEZ524248:JEZ524271 JOV524248:JOV524271 JYR524248:JYR524271 KIN524248:KIN524271 KSJ524248:KSJ524271 LCF524248:LCF524271 LMB524248:LMB524271 LVX524248:LVX524271 MFT524248:MFT524271 MPP524248:MPP524271 MZL524248:MZL524271 NJH524248:NJH524271 NTD524248:NTD524271 OCZ524248:OCZ524271 OMV524248:OMV524271 OWR524248:OWR524271 PGN524248:PGN524271 PQJ524248:PQJ524271 QAF524248:QAF524271 QKB524248:QKB524271 QTX524248:QTX524271 RDT524248:RDT524271 RNP524248:RNP524271 RXL524248:RXL524271 SHH524248:SHH524271 SRD524248:SRD524271 TAZ524248:TAZ524271 TKV524248:TKV524271 TUR524248:TUR524271 UEN524248:UEN524271 UOJ524248:UOJ524271 UYF524248:UYF524271 VIB524248:VIB524271 VRX524248:VRX524271 WBT524248:WBT524271 WLP524248:WLP524271 WVL524248:WVL524271 C589785:C589808 IZ589784:IZ589807 SV589784:SV589807 ACR589784:ACR589807 AMN589784:AMN589807 AWJ589784:AWJ589807 BGF589784:BGF589807 BQB589784:BQB589807 BZX589784:BZX589807 CJT589784:CJT589807 CTP589784:CTP589807 DDL589784:DDL589807 DNH589784:DNH589807 DXD589784:DXD589807 EGZ589784:EGZ589807 EQV589784:EQV589807 FAR589784:FAR589807 FKN589784:FKN589807 FUJ589784:FUJ589807 GEF589784:GEF589807 GOB589784:GOB589807 GXX589784:GXX589807 HHT589784:HHT589807 HRP589784:HRP589807 IBL589784:IBL589807 ILH589784:ILH589807 IVD589784:IVD589807 JEZ589784:JEZ589807 JOV589784:JOV589807 JYR589784:JYR589807 KIN589784:KIN589807 KSJ589784:KSJ589807 LCF589784:LCF589807 LMB589784:LMB589807 LVX589784:LVX589807 MFT589784:MFT589807 MPP589784:MPP589807 MZL589784:MZL589807 NJH589784:NJH589807 NTD589784:NTD589807 OCZ589784:OCZ589807 OMV589784:OMV589807 OWR589784:OWR589807 PGN589784:PGN589807 PQJ589784:PQJ589807 QAF589784:QAF589807 QKB589784:QKB589807 QTX589784:QTX589807 RDT589784:RDT589807 RNP589784:RNP589807 RXL589784:RXL589807 SHH589784:SHH589807 SRD589784:SRD589807 TAZ589784:TAZ589807 TKV589784:TKV589807 TUR589784:TUR589807 UEN589784:UEN589807 UOJ589784:UOJ589807 UYF589784:UYF589807 VIB589784:VIB589807 VRX589784:VRX589807 WBT589784:WBT589807 WLP589784:WLP589807 WVL589784:WVL589807 C655321:C655344 IZ655320:IZ655343 SV655320:SV655343 ACR655320:ACR655343 AMN655320:AMN655343 AWJ655320:AWJ655343 BGF655320:BGF655343 BQB655320:BQB655343 BZX655320:BZX655343 CJT655320:CJT655343 CTP655320:CTP655343 DDL655320:DDL655343 DNH655320:DNH655343 DXD655320:DXD655343 EGZ655320:EGZ655343 EQV655320:EQV655343 FAR655320:FAR655343 FKN655320:FKN655343 FUJ655320:FUJ655343 GEF655320:GEF655343 GOB655320:GOB655343 GXX655320:GXX655343 HHT655320:HHT655343 HRP655320:HRP655343 IBL655320:IBL655343 ILH655320:ILH655343 IVD655320:IVD655343 JEZ655320:JEZ655343 JOV655320:JOV655343 JYR655320:JYR655343 KIN655320:KIN655343 KSJ655320:KSJ655343 LCF655320:LCF655343 LMB655320:LMB655343 LVX655320:LVX655343 MFT655320:MFT655343 MPP655320:MPP655343 MZL655320:MZL655343 NJH655320:NJH655343 NTD655320:NTD655343 OCZ655320:OCZ655343 OMV655320:OMV655343 OWR655320:OWR655343 PGN655320:PGN655343 PQJ655320:PQJ655343 QAF655320:QAF655343 QKB655320:QKB655343 QTX655320:QTX655343 RDT655320:RDT655343 RNP655320:RNP655343 RXL655320:RXL655343 SHH655320:SHH655343 SRD655320:SRD655343 TAZ655320:TAZ655343 TKV655320:TKV655343 TUR655320:TUR655343 UEN655320:UEN655343 UOJ655320:UOJ655343 UYF655320:UYF655343 VIB655320:VIB655343 VRX655320:VRX655343 WBT655320:WBT655343 WLP655320:WLP655343 WVL655320:WVL655343 C720857:C720880 IZ720856:IZ720879 SV720856:SV720879 ACR720856:ACR720879 AMN720856:AMN720879 AWJ720856:AWJ720879 BGF720856:BGF720879 BQB720856:BQB720879 BZX720856:BZX720879 CJT720856:CJT720879 CTP720856:CTP720879 DDL720856:DDL720879 DNH720856:DNH720879 DXD720856:DXD720879 EGZ720856:EGZ720879 EQV720856:EQV720879 FAR720856:FAR720879 FKN720856:FKN720879 FUJ720856:FUJ720879 GEF720856:GEF720879 GOB720856:GOB720879 GXX720856:GXX720879 HHT720856:HHT720879 HRP720856:HRP720879 IBL720856:IBL720879 ILH720856:ILH720879 IVD720856:IVD720879 JEZ720856:JEZ720879 JOV720856:JOV720879 JYR720856:JYR720879 KIN720856:KIN720879 KSJ720856:KSJ720879 LCF720856:LCF720879 LMB720856:LMB720879 LVX720856:LVX720879 MFT720856:MFT720879 MPP720856:MPP720879 MZL720856:MZL720879 NJH720856:NJH720879 NTD720856:NTD720879 OCZ720856:OCZ720879 OMV720856:OMV720879 OWR720856:OWR720879 PGN720856:PGN720879 PQJ720856:PQJ720879 QAF720856:QAF720879 QKB720856:QKB720879 QTX720856:QTX720879 RDT720856:RDT720879 RNP720856:RNP720879 RXL720856:RXL720879 SHH720856:SHH720879 SRD720856:SRD720879 TAZ720856:TAZ720879 TKV720856:TKV720879 TUR720856:TUR720879 UEN720856:UEN720879 UOJ720856:UOJ720879 UYF720856:UYF720879 VIB720856:VIB720879 VRX720856:VRX720879 WBT720856:WBT720879 WLP720856:WLP720879 WVL720856:WVL720879 C786393:C786416 IZ786392:IZ786415 SV786392:SV786415 ACR786392:ACR786415 AMN786392:AMN786415 AWJ786392:AWJ786415 BGF786392:BGF786415 BQB786392:BQB786415 BZX786392:BZX786415 CJT786392:CJT786415 CTP786392:CTP786415 DDL786392:DDL786415 DNH786392:DNH786415 DXD786392:DXD786415 EGZ786392:EGZ786415 EQV786392:EQV786415 FAR786392:FAR786415 FKN786392:FKN786415 FUJ786392:FUJ786415 GEF786392:GEF786415 GOB786392:GOB786415 GXX786392:GXX786415 HHT786392:HHT786415 HRP786392:HRP786415 IBL786392:IBL786415 ILH786392:ILH786415 IVD786392:IVD786415 JEZ786392:JEZ786415 JOV786392:JOV786415 JYR786392:JYR786415 KIN786392:KIN786415 KSJ786392:KSJ786415 LCF786392:LCF786415 LMB786392:LMB786415 LVX786392:LVX786415 MFT786392:MFT786415 MPP786392:MPP786415 MZL786392:MZL786415 NJH786392:NJH786415 NTD786392:NTD786415 OCZ786392:OCZ786415 OMV786392:OMV786415 OWR786392:OWR786415 PGN786392:PGN786415 PQJ786392:PQJ786415 QAF786392:QAF786415 QKB786392:QKB786415 QTX786392:QTX786415 RDT786392:RDT786415 RNP786392:RNP786415 RXL786392:RXL786415 SHH786392:SHH786415 SRD786392:SRD786415 TAZ786392:TAZ786415 TKV786392:TKV786415 TUR786392:TUR786415 UEN786392:UEN786415 UOJ786392:UOJ786415 UYF786392:UYF786415 VIB786392:VIB786415 VRX786392:VRX786415 WBT786392:WBT786415 WLP786392:WLP786415 WVL786392:WVL786415 C851929:C851952 IZ851928:IZ851951 SV851928:SV851951 ACR851928:ACR851951 AMN851928:AMN851951 AWJ851928:AWJ851951 BGF851928:BGF851951 BQB851928:BQB851951 BZX851928:BZX851951 CJT851928:CJT851951 CTP851928:CTP851951 DDL851928:DDL851951 DNH851928:DNH851951 DXD851928:DXD851951 EGZ851928:EGZ851951 EQV851928:EQV851951 FAR851928:FAR851951 FKN851928:FKN851951 FUJ851928:FUJ851951 GEF851928:GEF851951 GOB851928:GOB851951 GXX851928:GXX851951 HHT851928:HHT851951 HRP851928:HRP851951 IBL851928:IBL851951 ILH851928:ILH851951 IVD851928:IVD851951 JEZ851928:JEZ851951 JOV851928:JOV851951 JYR851928:JYR851951 KIN851928:KIN851951 KSJ851928:KSJ851951 LCF851928:LCF851951 LMB851928:LMB851951 LVX851928:LVX851951 MFT851928:MFT851951 MPP851928:MPP851951 MZL851928:MZL851951 NJH851928:NJH851951 NTD851928:NTD851951 OCZ851928:OCZ851951 OMV851928:OMV851951 OWR851928:OWR851951 PGN851928:PGN851951 PQJ851928:PQJ851951 QAF851928:QAF851951 QKB851928:QKB851951 QTX851928:QTX851951 RDT851928:RDT851951 RNP851928:RNP851951 RXL851928:RXL851951 SHH851928:SHH851951 SRD851928:SRD851951 TAZ851928:TAZ851951 TKV851928:TKV851951 TUR851928:TUR851951 UEN851928:UEN851951 UOJ851928:UOJ851951 UYF851928:UYF851951 VIB851928:VIB851951 VRX851928:VRX851951 WBT851928:WBT851951 WLP851928:WLP851951 WVL851928:WVL851951 C917465:C917488 IZ917464:IZ917487 SV917464:SV917487 ACR917464:ACR917487 AMN917464:AMN917487 AWJ917464:AWJ917487 BGF917464:BGF917487 BQB917464:BQB917487 BZX917464:BZX917487 CJT917464:CJT917487 CTP917464:CTP917487 DDL917464:DDL917487 DNH917464:DNH917487 DXD917464:DXD917487 EGZ917464:EGZ917487 EQV917464:EQV917487 FAR917464:FAR917487 FKN917464:FKN917487 FUJ917464:FUJ917487 GEF917464:GEF917487 GOB917464:GOB917487 GXX917464:GXX917487 HHT917464:HHT917487 HRP917464:HRP917487 IBL917464:IBL917487 ILH917464:ILH917487 IVD917464:IVD917487 JEZ917464:JEZ917487 JOV917464:JOV917487 JYR917464:JYR917487 KIN917464:KIN917487 KSJ917464:KSJ917487 LCF917464:LCF917487 LMB917464:LMB917487 LVX917464:LVX917487 MFT917464:MFT917487 MPP917464:MPP917487 MZL917464:MZL917487 NJH917464:NJH917487 NTD917464:NTD917487 OCZ917464:OCZ917487 OMV917464:OMV917487 OWR917464:OWR917487 PGN917464:PGN917487 PQJ917464:PQJ917487 QAF917464:QAF917487 QKB917464:QKB917487 QTX917464:QTX917487 RDT917464:RDT917487 RNP917464:RNP917487 RXL917464:RXL917487 SHH917464:SHH917487 SRD917464:SRD917487 TAZ917464:TAZ917487 TKV917464:TKV917487 TUR917464:TUR917487 UEN917464:UEN917487 UOJ917464:UOJ917487 UYF917464:UYF917487 VIB917464:VIB917487 VRX917464:VRX917487 WBT917464:WBT917487 WLP917464:WLP917487 WVL917464:WVL917487 C983001:C983024 IZ983000:IZ983023 SV983000:SV983023 ACR983000:ACR983023 AMN983000:AMN983023 AWJ983000:AWJ983023 BGF983000:BGF983023 BQB983000:BQB983023 BZX983000:BZX983023 CJT983000:CJT983023 CTP983000:CTP983023 DDL983000:DDL983023 DNH983000:DNH983023 DXD983000:DXD983023 EGZ983000:EGZ983023 EQV983000:EQV983023 FAR983000:FAR983023 FKN983000:FKN983023 FUJ983000:FUJ983023 GEF983000:GEF983023 GOB983000:GOB983023 GXX983000:GXX983023 HHT983000:HHT983023 HRP983000:HRP983023 IBL983000:IBL983023 ILH983000:ILH983023 IVD983000:IVD983023 JEZ983000:JEZ983023 JOV983000:JOV983023 JYR983000:JYR983023 KIN983000:KIN983023 KSJ983000:KSJ983023 LCF983000:LCF983023 LMB983000:LMB983023 LVX983000:LVX983023 MFT983000:MFT983023 MPP983000:MPP983023 MZL983000:MZL983023 NJH983000:NJH983023 NTD983000:NTD983023 OCZ983000:OCZ983023 OMV983000:OMV983023 OWR983000:OWR983023 PGN983000:PGN983023 PQJ983000:PQJ983023 QAF983000:QAF983023 QKB983000:QKB983023 QTX983000:QTX983023 RDT983000:RDT983023 RNP983000:RNP983023 RXL983000:RXL983023 SHH983000:SHH983023 SRD983000:SRD983023 TAZ983000:TAZ983023 TKV983000:TKV983023 TUR983000:TUR983023 UEN983000:UEN983023 UOJ983000:UOJ983023 UYF983000:UYF983023 VIB983000:VIB983023 VRX983000:VRX983023 WBT983000:WBT983023 WLP983000:WLP983023 WVL983000:WVL983023 D48:D51 SL25:SL29 WLF14:WLF23 WBJ14:WBJ23 VRN14:VRN23 VHR14:VHR23 UXV14:UXV23 UNZ14:UNZ23 UED14:UED23 TUH14:TUH23 TKL14:TKL23 TAP14:TAP23 SQT14:SQT23 SGX14:SGX23 RXB14:RXB23 RNF14:RNF23 RDJ14:RDJ23 QTN14:QTN23 QJR14:QJR23 PZV14:PZV23 PPZ14:PPZ23 PGD14:PGD23 OWH14:OWH23 OML14:OML23 OCP14:OCP23 NST14:NST23 NIX14:NIX23 MZB14:MZB23 MPF14:MPF23 MFJ14:MFJ23 LVN14:LVN23 LLR14:LLR23 LBV14:LBV23 KRZ14:KRZ23 KID14:KID23 JYH14:JYH23 JOL14:JOL23 JEP14:JEP23 IUT14:IUT23 IKX14:IKX23 IBB14:IBB23 HRF14:HRF23 HHJ14:HHJ23 GXN14:GXN23 GNR14:GNR23 GDV14:GDV23 FTZ14:FTZ23 FKD14:FKD23 FAH14:FAH23 EQL14:EQL23 EGP14:EGP23 DWT14:DWT23 DMX14:DMX23 DDB14:DDB23 CTF14:CTF23 CJJ14:CJJ23 BZN14:BZN23 BPR14:BPR23 BFV14:BFV23 AVZ14:AVZ23 AMD14:AMD23 ACH14:ACH23 SL14:SL23 IP14:IP23 WVB14:WVB23 WLG9:WLG13 WLQ6:WLQ8 WBK9:WBK13 WBU6:WBU8 VRO9:VRO13 VRY6:VRY8 VHS9:VHS13 VIC6:VIC8 UXW9:UXW13 UYG6:UYG8 UOA9:UOA13 UOK6:UOK8 UEE9:UEE13 UEO6:UEO8 TUI9:TUI13 TUS6:TUS8 TKM9:TKM13 TKW6:TKW8 TAQ9:TAQ13 TBA6:TBA8 SQU9:SQU13 SRE6:SRE8 SGY9:SGY13 SHI6:SHI8 RXC9:RXC13 RXM6:RXM8 RNG9:RNG13 RNQ6:RNQ8 RDK9:RDK13 RDU6:RDU8 QTO9:QTO13 QTY6:QTY8 QJS9:QJS13 QKC6:QKC8 PZW9:PZW13 QAG6:QAG8 PQA9:PQA13 PQK6:PQK8 PGE9:PGE13 PGO6:PGO8 OWI9:OWI13 OWS6:OWS8 OMM9:OMM13 OMW6:OMW8 OCQ9:OCQ13 ODA6:ODA8 NSU9:NSU13 NTE6:NTE8 NIY9:NIY13 NJI6:NJI8 MZC9:MZC13 MZM6:MZM8 MPG9:MPG13 MPQ6:MPQ8 MFK9:MFK13 MFU6:MFU8 LVO9:LVO13 LVY6:LVY8 LLS9:LLS13 LMC6:LMC8 LBW9:LBW13 LCG6:LCG8 KSA9:KSA13 KSK6:KSK8 KIE9:KIE13 KIO6:KIO8 JYI9:JYI13 JYS6:JYS8 JOM9:JOM13 JOW6:JOW8 JEQ9:JEQ13 JFA6:JFA8 IUU9:IUU13 IVE6:IVE8 IKY9:IKY13 ILI6:ILI8 IBC9:IBC13 IBM6:IBM8 HRG9:HRG13 HRQ6:HRQ8 HHK9:HHK13 HHU6:HHU8 GXO9:GXO13 GXY6:GXY8 GNS9:GNS13 GOC6:GOC8 GDW9:GDW13 GEG6:GEG8 FUA9:FUA13 FUK6:FUK8 FKE9:FKE13 FKO6:FKO8 FAI9:FAI13 FAS6:FAS8 EQM9:EQM13 EQW6:EQW8 EGQ9:EGQ13 EHA6:EHA8 DWU9:DWU13 DXE6:DXE8 DMY9:DMY13 DNI6:DNI8 DDC9:DDC13 DDM6:DDM8 CTG9:CTG13 CTQ6:CTQ8 CJK9:CJK13 CJU6:CJU8 BZO9:BZO13 BZY6:BZY8 BPS9:BPS13 BQC6:BQC8 BFW9:BFW13 BGG6:BGG8 AWA9:AWA13 AWK6:AWK8 AME9:AME13 AMO6:AMO8 ACI9:ACI13 ACS6:ACS8 SM9:SM13 SW6:SW8 IQ9:IQ13 JA6:JA8 WVC9:WVC13 WVM6:WVM8 D28:D29 SL33 IP33 WVB33 WLF33 WBJ33 VRN33 VHR33 UXV33 UNZ33 UED33 TUH33 TKL33 TAP33 SQT33 SGX33 RXB33 RNF33 RDJ33 QTN33 QJR33 PZV33 PPZ33 PGD33 OWH33 OML33 OCP33 NST33 NIX33 MZB33 MPF33 MFJ33 LVN33 LLR33 LBV33 KRZ33 KID33 JYH33 JOL33 JEP33 IUT33 IKX33 IBB33 HRF33 HHJ33 GXN33 GNR33 GDV33 FTZ33 FKD33 FAH33 EQL33 EGP33 DWT33 DMX33 DDB33 CTF33 CJJ33 BZN33 BPR33 BFV33 AVZ33 AMD33 ACH33 ABX30:ABX32 ACH25:ACH29 ALT30:ALT32 AMD25:AMD29 AVP30:AVP32 AVZ25:AVZ29 BFL30:BFL32 BFV25:BFV29 BPH30:BPH32 BPR25:BPR29 BZD30:BZD32 BZN25:BZN29 CIZ30:CIZ32 CJJ25:CJJ29 CSV30:CSV32 CTF25:CTF29 DCR30:DCR32 DDB25:DDB29 DMN30:DMN32 DMX25:DMX29 DWJ30:DWJ32 DWT25:DWT29 EGF30:EGF32 EGP25:EGP29 EQB30:EQB32 EQL25:EQL29 EZX30:EZX32 FAH25:FAH29 FJT30:FJT32 FKD25:FKD29 FTP30:FTP32 FTZ25:FTZ29 GDL30:GDL32 GDV25:GDV29 GNH30:GNH32 GNR25:GNR29 GXD30:GXD32 GXN25:GXN29 HGZ30:HGZ32 HHJ25:HHJ29 HQV30:HQV32 HRF25:HRF29 IAR30:IAR32 IBB25:IBB29 IKN30:IKN32 IKX25:IKX29 IUJ30:IUJ32 IUT25:IUT29 JEF30:JEF32 JEP25:JEP29 JOB30:JOB32 JOL25:JOL29 JXX30:JXX32 JYH25:JYH29 KHT30:KHT32 KID25:KID29 KRP30:KRP32 KRZ25:KRZ29 LBL30:LBL32 LBV25:LBV29 LLH30:LLH32 LLR25:LLR29 LVD30:LVD32 LVN25:LVN29 MEZ30:MEZ32 MFJ25:MFJ29 MOV30:MOV32 MPF25:MPF29 MYR30:MYR32 MZB25:MZB29 NIN30:NIN32 NIX25:NIX29 NSJ30:NSJ32 NST25:NST29 OCF30:OCF32 OCP25:OCP29 OMB30:OMB32 OML25:OML29 OVX30:OVX32 OWH25:OWH29 PFT30:PFT32 PGD25:PGD29 PPP30:PPP32 PPZ25:PPZ29 PZL30:PZL32 PZV25:PZV29 QJH30:QJH32 QJR25:QJR29 QTD30:QTD32 QTN25:QTN29 RCZ30:RCZ32 RDJ25:RDJ29 RMV30:RMV32 RNF25:RNF29 RWR30:RWR32 RXB25:RXB29 SGN30:SGN32 SGX25:SGX29 SQJ30:SQJ32 SQT25:SQT29 TAF30:TAF32 TAP25:TAP29 TKB30:TKB32 TKL25:TKL29 TTX30:TTX32 TUH25:TUH29 UDT30:UDT32 UED25:UED29 UNP30:UNP32 UNZ25:UNZ29 UXL30:UXL32 UXV25:UXV29 VHH30:VHH32 VHR25:VHR29 VRD30:VRD32 VRN25:VRN29 WAZ30:WAZ32 WBJ25:WBJ29 WKV30:WKV32 WLF25:WLF29 WUR30:WUR32 WVB25:WVB29 IF30:IF32 IP25:IP29 SB30:SB32 D135:D136 D100:D103 D6:D9 D55:D56 D64:D65 D73:D74 D82:D83 D126 D119:D120 D42:D43 D35:D36 D91:D92 D129:D130 D22:D23 D108:D114 D13:D17" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C19EFFB3EAC23140A73490829C1CC8B8" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac5988d82ddac3ab003e9d7bf87723ba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1" xmlns:ns4="b15f7a1a-21a1-43a3-94c9-0b0dcb7d30b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4de3b7b99fa765833f05630728655cc0" ns3:_="" ns4:_="">
     <xsd:import namespace="3fb1b16c-9f7f-48ef-b0cb-65d9c2406ef1"/>
@@ -4527,24 +4574,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54982A7-883B-4FD0-8F4E-87121E512EF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4561,4 +4606,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Group_1_DD_DD.xlsx
+++ b/Group_1_DD_DD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tard-\OneDrive\Desktop\School Assignments\CMSC 2201-23 DBII\Doomsday\DatabaseIIGroupOne-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCTCC\Semester 3\Database Modeling 2\Doomsday\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FBB03B-DD32-4099-A48F-5E097CE2F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F97BEB0-A2B9-4BD8-8C80-C9988BC8077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12705" windowHeight="9975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6600" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -1027,6 +1027,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1035,9 +1038,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J130" sqref="J130"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N107" sqref="N107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">NOW()</f>
-        <v>44549.879600231485</v>
+        <v>44549.951101736115</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
@@ -1869,17 +1869,17 @@
       <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:10" s="10" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
@@ -2291,17 +2291,17 @@
       <c r="A26" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
     </row>
     <row r="27" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="49" t="s">
@@ -3837,7 +3837,7 @@
       <c r="E108" s="12"/>
       <c r="F108" s="13"/>
       <c r="G108" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -4267,7 +4267,7 @@
         <v>182</v>
       </c>
       <c r="E130" s="90"/>
-      <c r="F130" s="95"/>
+      <c r="F130" s="92"/>
       <c r="G130" s="17" t="s">
         <v>183</v>
       </c>
@@ -4575,18 +4575,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4609,18 +4609,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C752205-2C46-4583-B75F-39719ECA802A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F5E1AF-B032-471F-8F72-CABBF98469E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>